--- a/Übungen/Online_Shop.Projekt.xlsx
+++ b/Übungen/Online_Shop.Projekt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PSP" sheetId="1" state="visible" r:id="rId2"/>
@@ -1719,7 +1719,7 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -2266,8 +2266,8 @@
   </sheetPr>
   <dimension ref="A1:BQ33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AP21" activeCellId="0" sqref="AP21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF2" activeCellId="0" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>

--- a/Übungen/Online_Shop.Projekt.xlsx
+++ b/Übungen/Online_Shop.Projekt.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PSP" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Netzplan" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Gantt" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="75">
   <si>
     <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
@@ -319,7 +320,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,8 +357,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDBDBD"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -435,6 +442,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -461,7 +489,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -672,6 +700,34 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="75" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="75" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -683,7 +739,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -693,6 +749,73 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF996600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFFFEB3B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB3B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFF44336"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF44336"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -701,16 +824,16 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFEB3B"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFBDBDBD"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -741,7 +864,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFF44336"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -779,7 +902,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8242920" y="325080"/>
+          <a:off x="8251560" y="325080"/>
           <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -820,8 +943,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5473080" y="479520"/>
-          <a:ext cx="5544720" cy="0"/>
+          <a:off x="5478120" y="479520"/>
+          <a:ext cx="5552280" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -861,7 +984,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5493600" y="488520"/>
+          <a:off x="5498640" y="488520"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -902,7 +1025,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5508720" y="488520"/>
+          <a:off x="5515200" y="488520"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -943,7 +1066,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8272800" y="488520"/>
+          <a:off x="8282880" y="488520"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -984,7 +1107,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11036520" y="488520"/>
+          <a:off x="11050560" y="488520"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1025,7 +1148,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5508720" y="1122120"/>
+          <a:off x="5515200" y="1122120"/>
           <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1066,7 +1189,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5508720" y="1609920"/>
+          <a:off x="5515200" y="1609920"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1107,7 +1230,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5508720" y="2098080"/>
+          <a:off x="5515200" y="2098080"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1148,7 +1271,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5508720" y="2584800"/>
+          <a:off x="5515200" y="2584800"/>
           <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1189,7 +1312,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8272800" y="1122120"/>
+          <a:off x="8282880" y="1122120"/>
           <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1230,7 +1353,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8272800" y="1609920"/>
+          <a:off x="8282880" y="1609920"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1271,7 +1394,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8272800" y="2098080"/>
+          <a:off x="8282880" y="2098080"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1312,7 +1435,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8272800" y="2584800"/>
+          <a:off x="8282880" y="2584800"/>
           <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1353,7 +1476,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8272800" y="3072600"/>
+          <a:off x="8282880" y="3072600"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1394,7 +1517,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8272800" y="3560760"/>
+          <a:off x="8282880" y="3560760"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1435,7 +1558,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8272800" y="4047480"/>
+          <a:off x="8282880" y="4047480"/>
           <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1476,7 +1599,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8272800" y="4535280"/>
+          <a:off x="8282880" y="4535280"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1517,7 +1640,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8272800" y="5023440"/>
+          <a:off x="8282880" y="5023440"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1558,7 +1681,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11036880" y="2097720"/>
+          <a:off x="11050920" y="2097720"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1599,7 +1722,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11036880" y="1609920"/>
+          <a:off x="11050920" y="1609920"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1640,7 +1763,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11036880" y="1121760"/>
+          <a:off x="11050920" y="1121760"/>
           <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1686,7 +1809,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3428280" y="6074280"/>
+          <a:off x="3430800" y="6074280"/>
           <a:ext cx="3614400" cy="19080"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1723,7 +1846,7 @@
       <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.77"/>
   </cols>
@@ -2266,11 +2389,11 @@
   </sheetPr>
   <dimension ref="A1:BQ33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AF2" activeCellId="0" sqref="AF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="16.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.52"/>
@@ -3744,4 +3867,1730 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:BF39"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="1" max="2" min="2" style="0" width="11.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="3" min="3" style="0" width="7.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="4" min="4" style="0" width="8.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="5" min="5" style="3" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="7" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="9" min="9" style="20" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="11" min="11" style="3" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="108" min="12" style="0" width="3.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="42.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="21"/>
+      <c r="L1" s="53" t="n">
+        <v>44816</v>
+      </c>
+      <c r="M1" s="53" t="n">
+        <v>44817</v>
+      </c>
+      <c r="N1" s="53" t="n">
+        <v>44818</v>
+      </c>
+      <c r="O1" s="53" t="n">
+        <v>44819</v>
+      </c>
+      <c r="P1" s="53" t="n">
+        <v>44820</v>
+      </c>
+      <c r="Q1" s="53" t="n">
+        <v>44821</v>
+      </c>
+      <c r="R1" s="53" t="n">
+        <v>44822</v>
+      </c>
+      <c r="S1" s="53" t="n">
+        <v>44823</v>
+      </c>
+      <c r="T1" s="53" t="n">
+        <v>44824</v>
+      </c>
+      <c r="U1" s="53" t="n">
+        <v>44825</v>
+      </c>
+      <c r="V1" s="53" t="n">
+        <v>44826</v>
+      </c>
+      <c r="W1" s="53" t="n">
+        <v>44827</v>
+      </c>
+      <c r="X1" s="53" t="n">
+        <v>44828</v>
+      </c>
+      <c r="Y1" s="53" t="n">
+        <v>44829</v>
+      </c>
+      <c r="Z1" s="53" t="n">
+        <v>44830</v>
+      </c>
+      <c r="AA1" s="53" t="n">
+        <v>44831</v>
+      </c>
+      <c r="AB1" s="53" t="n">
+        <v>44832</v>
+      </c>
+      <c r="AC1" s="53" t="n">
+        <v>44833</v>
+      </c>
+      <c r="AD1" s="53" t="n">
+        <v>44834</v>
+      </c>
+      <c r="AE1" s="53" t="n">
+        <v>44835</v>
+      </c>
+      <c r="AF1" s="53" t="n">
+        <v>44836</v>
+      </c>
+      <c r="AG1" s="54" t="n">
+        <v>44837</v>
+      </c>
+      <c r="AH1" s="53" t="n">
+        <v>44838</v>
+      </c>
+      <c r="AI1" s="53" t="n">
+        <v>44839</v>
+      </c>
+      <c r="AJ1" s="53" t="n">
+        <v>44840</v>
+      </c>
+      <c r="AK1" s="53" t="n">
+        <v>44841</v>
+      </c>
+      <c r="AL1" s="53" t="n">
+        <v>44842</v>
+      </c>
+      <c r="AM1" s="53" t="n">
+        <v>44843</v>
+      </c>
+      <c r="AN1" s="53" t="n">
+        <v>44844</v>
+      </c>
+      <c r="AO1" s="53" t="n">
+        <v>44845</v>
+      </c>
+      <c r="AP1" s="53" t="n">
+        <v>44846</v>
+      </c>
+      <c r="AQ1" s="53" t="n">
+        <v>44847</v>
+      </c>
+      <c r="AR1" s="53" t="n">
+        <v>44848</v>
+      </c>
+      <c r="AS1" s="53" t="n">
+        <v>44849</v>
+      </c>
+      <c r="AT1" s="53" t="n">
+        <v>44850</v>
+      </c>
+      <c r="AU1" s="53" t="n">
+        <v>44851</v>
+      </c>
+      <c r="AV1" s="53" t="n">
+        <v>44852</v>
+      </c>
+      <c r="AW1" s="53" t="n">
+        <v>44853</v>
+      </c>
+      <c r="AX1" s="53" t="n">
+        <v>44854</v>
+      </c>
+      <c r="AY1" s="53" t="n">
+        <v>44855</v>
+      </c>
+      <c r="AZ1" s="53" t="n">
+        <v>44856</v>
+      </c>
+      <c r="BA1" s="53" t="n">
+        <v>44857</v>
+      </c>
+      <c r="BB1" s="53" t="n">
+        <v>44858</v>
+      </c>
+      <c r="BC1" s="53" t="n">
+        <v>44859</v>
+      </c>
+      <c r="BD1" s="53" t="n">
+        <v>44860</v>
+      </c>
+      <c r="BE1" s="53" t="n">
+        <v>44861</v>
+      </c>
+      <c r="BF1" s="53" t="n">
+        <v>44862</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="26" t="n">
+        <f aca="false">ROUND(G2/(H2*I2),0)</f>
+        <v>5</v>
+      </c>
+      <c r="K2" s="55" t="n">
+        <f aca="false">SUM($L2:BF2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="56"/>
+      <c r="BE2" s="56"/>
+      <c r="BF2" s="56"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="31" t="n">
+        <f aca="false">ROUND(G3/(H3*I3),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="55" t="n">
+        <f aca="false">SUM($L3:BF3)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
+      <c r="BB3" s="56"/>
+      <c r="BC3" s="56"/>
+      <c r="BD3" s="56"/>
+      <c r="BE3" s="56"/>
+      <c r="BF3" s="56"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="31" t="n">
+        <f aca="false">ROUND(G4/(H4*I4),0)</f>
+        <v>4</v>
+      </c>
+      <c r="K4" s="55" t="n">
+        <f aca="false">SUM($L4:BF4)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="56"/>
+      <c r="AR4" s="56"/>
+      <c r="AS4" s="56"/>
+      <c r="AT4" s="56"/>
+      <c r="AU4" s="56"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="56"/>
+      <c r="BC4" s="56"/>
+      <c r="BD4" s="56"/>
+      <c r="BE4" s="56"/>
+      <c r="BF4" s="56"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="31" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="31" t="n">
+        <f aca="false">ROUND(G5/(H5*I5),0)</f>
+        <v>3</v>
+      </c>
+      <c r="K5" s="55" t="n">
+        <f aca="false">SUM($L5:BF5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="56"/>
+      <c r="AR5" s="56"/>
+      <c r="AS5" s="56"/>
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="56"/>
+      <c r="AW5" s="56"/>
+      <c r="AX5" s="56"/>
+      <c r="AY5" s="56"/>
+      <c r="AZ5" s="56"/>
+      <c r="BA5" s="56"/>
+      <c r="BB5" s="56"/>
+      <c r="BC5" s="56"/>
+      <c r="BD5" s="56"/>
+      <c r="BE5" s="56"/>
+      <c r="BF5" s="56"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="39" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="28" t="n">
+        <f aca="false">(100%+(100%-$I$12))/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="J6" s="31" t="n">
+        <f aca="false">ROUND(G6/(H6*I6),0)</f>
+        <v>5</v>
+      </c>
+      <c r="K6" s="55" t="n">
+        <f aca="false">SUM($L6:BF6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="57"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="56"/>
+      <c r="AK6" s="56"/>
+      <c r="AL6" s="56"/>
+      <c r="AM6" s="56"/>
+      <c r="AN6" s="56"/>
+      <c r="AO6" s="56"/>
+      <c r="AP6" s="56"/>
+      <c r="AQ6" s="56"/>
+      <c r="AR6" s="56"/>
+      <c r="AS6" s="56"/>
+      <c r="AT6" s="56"/>
+      <c r="AU6" s="56"/>
+      <c r="AV6" s="56"/>
+      <c r="AW6" s="56"/>
+      <c r="AX6" s="56"/>
+      <c r="AY6" s="56"/>
+      <c r="AZ6" s="56"/>
+      <c r="BA6" s="56"/>
+      <c r="BB6" s="56"/>
+      <c r="BC6" s="56"/>
+      <c r="BD6" s="56"/>
+      <c r="BE6" s="56"/>
+      <c r="BF6" s="56"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="31" t="n">
+        <f aca="false">ROUND(G7/(H7*I7),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="55" t="n">
+        <f aca="false">SUM($L7:BF7)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56"/>
+      <c r="AN7" s="56"/>
+      <c r="AO7" s="56"/>
+      <c r="AP7" s="56"/>
+      <c r="AQ7" s="56"/>
+      <c r="AR7" s="56"/>
+      <c r="AS7" s="56"/>
+      <c r="AT7" s="56"/>
+      <c r="AU7" s="56"/>
+      <c r="AV7" s="56"/>
+      <c r="AW7" s="56"/>
+      <c r="AX7" s="56"/>
+      <c r="AY7" s="56"/>
+      <c r="AZ7" s="56"/>
+      <c r="BA7" s="56"/>
+      <c r="BB7" s="56"/>
+      <c r="BC7" s="56"/>
+      <c r="BD7" s="56"/>
+      <c r="BE7" s="56"/>
+      <c r="BF7" s="56"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="31" t="n">
+        <f aca="false">ROUND(G8/(H8*I8),0)</f>
+        <v>3</v>
+      </c>
+      <c r="K8" s="55" t="n">
+        <f aca="false">SUM($L8:BF8)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
+      <c r="AN8" s="56"/>
+      <c r="AO8" s="56"/>
+      <c r="AP8" s="56"/>
+      <c r="AQ8" s="56"/>
+      <c r="AR8" s="56"/>
+      <c r="AS8" s="56"/>
+      <c r="AT8" s="56"/>
+      <c r="AU8" s="56"/>
+      <c r="AV8" s="56"/>
+      <c r="AW8" s="56"/>
+      <c r="AX8" s="56"/>
+      <c r="AY8" s="56"/>
+      <c r="AZ8" s="56"/>
+      <c r="BA8" s="56"/>
+      <c r="BB8" s="56"/>
+      <c r="BC8" s="56"/>
+      <c r="BD8" s="56"/>
+      <c r="BE8" s="56"/>
+      <c r="BF8" s="56"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="28" t="n">
+        <f aca="false">(100%+(100%-$I$12))/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="J9" s="31" t="n">
+        <f aca="false">ROUND(G9/(H9*I9),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="55" t="n">
+        <f aca="false">SUM($L9:BF9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="56"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="56"/>
+      <c r="AN9" s="56"/>
+      <c r="AO9" s="56"/>
+      <c r="AP9" s="56"/>
+      <c r="AQ9" s="56"/>
+      <c r="AR9" s="56"/>
+      <c r="AS9" s="56"/>
+      <c r="AT9" s="56"/>
+      <c r="AU9" s="56"/>
+      <c r="AV9" s="56"/>
+      <c r="AW9" s="56"/>
+      <c r="AX9" s="56"/>
+      <c r="AY9" s="56"/>
+      <c r="AZ9" s="56"/>
+      <c r="BA9" s="56"/>
+      <c r="BB9" s="56"/>
+      <c r="BC9" s="56"/>
+      <c r="BD9" s="56"/>
+      <c r="BE9" s="56"/>
+      <c r="BF9" s="56"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="28" t="n">
+        <f aca="false">(100%+(100%-$I$12))/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="J10" s="31" t="n">
+        <f aca="false">ROUND(G10/(H10*I10),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="55" t="n">
+        <f aca="false">SUM($L10:BF10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="56"/>
+      <c r="AP10" s="56"/>
+      <c r="AQ10" s="56"/>
+      <c r="AR10" s="56"/>
+      <c r="AS10" s="56"/>
+      <c r="AT10" s="56"/>
+      <c r="AU10" s="56"/>
+      <c r="AV10" s="56"/>
+      <c r="AW10" s="56"/>
+      <c r="AX10" s="56"/>
+      <c r="AY10" s="56"/>
+      <c r="AZ10" s="56"/>
+      <c r="BA10" s="56"/>
+      <c r="BB10" s="56"/>
+      <c r="BC10" s="56"/>
+      <c r="BD10" s="56"/>
+      <c r="BE10" s="56"/>
+      <c r="BF10" s="56"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="28" t="n">
+        <f aca="false">(100%+(100%-$I$12))/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="J11" s="31" t="n">
+        <f aca="false">ROUND(G11/(H11*I11),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="55" t="n">
+        <f aca="false">SUM($L11:BF11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="56"/>
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="56"/>
+      <c r="AM11" s="56"/>
+      <c r="AN11" s="56"/>
+      <c r="AO11" s="56"/>
+      <c r="AP11" s="56"/>
+      <c r="AQ11" s="56"/>
+      <c r="AR11" s="56"/>
+      <c r="AS11" s="56"/>
+      <c r="AT11" s="56"/>
+      <c r="AU11" s="56"/>
+      <c r="AV11" s="56"/>
+      <c r="AW11" s="56"/>
+      <c r="AX11" s="56"/>
+      <c r="AY11" s="56"/>
+      <c r="AZ11" s="56"/>
+      <c r="BA11" s="56"/>
+      <c r="BB11" s="56"/>
+      <c r="BC11" s="56"/>
+      <c r="BD11" s="56"/>
+      <c r="BE11" s="56"/>
+      <c r="BF11" s="56"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="31" t="n">
+        <f aca="false">ROUND(G12/(H12*I12),0)</f>
+        <v>20</v>
+      </c>
+      <c r="K12" s="55" t="n">
+        <f aca="false">SUM($L12:BF12)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="56"/>
+      <c r="AP12" s="56"/>
+      <c r="AQ12" s="56"/>
+      <c r="AR12" s="56"/>
+      <c r="AS12" s="56"/>
+      <c r="AT12" s="56"/>
+      <c r="AU12" s="56"/>
+      <c r="AV12" s="56"/>
+      <c r="AW12" s="56"/>
+      <c r="AX12" s="56"/>
+      <c r="AY12" s="56"/>
+      <c r="AZ12" s="56"/>
+      <c r="BA12" s="56"/>
+      <c r="BB12" s="56"/>
+      <c r="BC12" s="56"/>
+      <c r="BD12" s="56"/>
+      <c r="BE12" s="56"/>
+      <c r="BF12" s="56"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="28" t="n">
+        <f aca="false">(100%+(100%-$I$12))/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="J13" s="31" t="n">
+        <f aca="false">ROUND(G13/(H13*I13),0)</f>
+        <v>2</v>
+      </c>
+      <c r="K13" s="55" t="n">
+        <f aca="false">SUM($L13:BF13)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="57"/>
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="56"/>
+      <c r="AK13" s="56"/>
+      <c r="AL13" s="56"/>
+      <c r="AM13" s="56"/>
+      <c r="AN13" s="56"/>
+      <c r="AO13" s="56"/>
+      <c r="AP13" s="56"/>
+      <c r="AQ13" s="56"/>
+      <c r="AR13" s="56"/>
+      <c r="AS13" s="56"/>
+      <c r="AT13" s="56"/>
+      <c r="AU13" s="56"/>
+      <c r="AV13" s="56"/>
+      <c r="AW13" s="56"/>
+      <c r="AX13" s="56"/>
+      <c r="AY13" s="56"/>
+      <c r="AZ13" s="56"/>
+      <c r="BA13" s="56"/>
+      <c r="BB13" s="56"/>
+      <c r="BC13" s="56"/>
+      <c r="BD13" s="56"/>
+      <c r="BE13" s="56"/>
+      <c r="BF13" s="56"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="28" t="n">
+        <f aca="false">(100%+(100%-$I$12))/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="J14" s="31" t="n">
+        <f aca="false">ROUND(G14/(H14*I14),0)</f>
+        <v>2</v>
+      </c>
+      <c r="K14" s="55" t="n">
+        <f aca="false">SUM($L14:BF14)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="57"/>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="56"/>
+      <c r="AK14" s="56"/>
+      <c r="AL14" s="56"/>
+      <c r="AM14" s="56"/>
+      <c r="AN14" s="56"/>
+      <c r="AO14" s="56"/>
+      <c r="AP14" s="56"/>
+      <c r="AQ14" s="56"/>
+      <c r="AR14" s="56"/>
+      <c r="AS14" s="56"/>
+      <c r="AT14" s="56"/>
+      <c r="AU14" s="56"/>
+      <c r="AV14" s="56"/>
+      <c r="AW14" s="56"/>
+      <c r="AX14" s="56"/>
+      <c r="AY14" s="56"/>
+      <c r="AZ14" s="56"/>
+      <c r="BA14" s="56"/>
+      <c r="BB14" s="56"/>
+      <c r="BC14" s="56"/>
+      <c r="BD14" s="56"/>
+      <c r="BE14" s="56"/>
+      <c r="BF14" s="56"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="28" t="n">
+        <f aca="false">(100%+(100%-$I$12))/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="J15" s="31" t="n">
+        <f aca="false">ROUND(G15/(H15*I15),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="55" t="n">
+        <f aca="false">SUM($L15:BF15)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="57"/>
+      <c r="AH15" s="56"/>
+      <c r="AI15" s="56"/>
+      <c r="AJ15" s="56"/>
+      <c r="AK15" s="56"/>
+      <c r="AL15" s="56"/>
+      <c r="AM15" s="56"/>
+      <c r="AN15" s="56"/>
+      <c r="AO15" s="56"/>
+      <c r="AP15" s="56"/>
+      <c r="AQ15" s="56"/>
+      <c r="AR15" s="56"/>
+      <c r="AS15" s="56"/>
+      <c r="AT15" s="56"/>
+      <c r="AU15" s="56"/>
+      <c r="AV15" s="56"/>
+      <c r="AW15" s="56"/>
+      <c r="AX15" s="56"/>
+      <c r="AY15" s="56"/>
+      <c r="AZ15" s="56"/>
+      <c r="BA15" s="56"/>
+      <c r="BB15" s="56"/>
+      <c r="BC15" s="56"/>
+      <c r="BD15" s="56"/>
+      <c r="BE15" s="56"/>
+      <c r="BF15" s="56"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="28" t="n">
+        <f aca="false">(100%+(100%-$I$12))/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="J16" s="31" t="n">
+        <f aca="false">ROUND(G16/(H16*I16),0)</f>
+        <v>3</v>
+      </c>
+      <c r="K16" s="55" t="n">
+        <f aca="false">SUM($L16:BF16)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="57"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="56"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="56"/>
+      <c r="AQ16" s="56"/>
+      <c r="AR16" s="56"/>
+      <c r="AS16" s="56"/>
+      <c r="AT16" s="56"/>
+      <c r="AU16" s="56"/>
+      <c r="AV16" s="56"/>
+      <c r="AW16" s="56"/>
+      <c r="AX16" s="56"/>
+      <c r="AY16" s="56"/>
+      <c r="AZ16" s="56"/>
+      <c r="BA16" s="56"/>
+      <c r="BB16" s="56"/>
+      <c r="BC16" s="56"/>
+      <c r="BD16" s="56"/>
+      <c r="BE16" s="56"/>
+      <c r="BF16" s="56"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="42" t="n">
+        <f aca="false">ROUND(G17/(H17*I17),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="55" t="n">
+        <f aca="false">SUM($L17:BF17)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="59"/>
+      <c r="AH17" s="58"/>
+      <c r="AI17" s="58"/>
+      <c r="AJ17" s="58"/>
+      <c r="AK17" s="58"/>
+      <c r="AL17" s="58"/>
+      <c r="AM17" s="58"/>
+      <c r="AN17" s="58"/>
+      <c r="AO17" s="58"/>
+      <c r="AP17" s="58"/>
+      <c r="AQ17" s="58"/>
+      <c r="AR17" s="58"/>
+      <c r="AS17" s="58"/>
+      <c r="AT17" s="58"/>
+      <c r="AU17" s="58"/>
+      <c r="AV17" s="58"/>
+      <c r="AW17" s="58"/>
+      <c r="AX17" s="58"/>
+      <c r="AY17" s="58"/>
+      <c r="AZ17" s="58"/>
+      <c r="BA17" s="58"/>
+      <c r="BB17" s="58"/>
+      <c r="BC17" s="58"/>
+      <c r="BD17" s="58"/>
+      <c r="BE17" s="58"/>
+      <c r="BF17" s="58"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
+      <c r="H23" s="0"/>
+      <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
+      <c r="K36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+      <c r="H39" s="0"/>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0"/>
+      <c r="K39" s="0"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="G18:I18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L1:BF17">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>IF(OR(WEEKDAY(L$1,1)=7,WEEKDAY(L$1,1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K17">
+    <cfRule type="cellIs" priority="3" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>$J2</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>$J2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:BF17">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Übungen/Online_Shop.Projekt.xlsx
+++ b/Übungen/Online_Shop.Projekt.xlsx
@@ -3877,21 +3877,20 @@
   <dimension ref="A1:BF39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="AF9" activeCellId="0" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="1" max="2" min="2" style="0" width="11.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="3" min="3" style="0" width="7.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="4" min="4" style="0" width="8.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="5" min="5" style="3" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="7" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="9" min="9" style="20" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="1" max="2" min="2" style="0" width="11.77"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="3" min="3" style="0" width="7.44"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="4" min="4" style="0" width="8.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="6" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="20" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="3.59"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="11" min="11" style="3" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="11" min="11" style="3" width="3.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="108" min="12" style="0" width="3.83"/>
   </cols>
   <sheetData>
@@ -4093,13 +4092,23 @@
       </c>
       <c r="K2" s="55" t="n">
         <f aca="false">SUM($L2:BF2)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
+        <v>5</v>
+      </c>
+      <c r="L2" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="Q2" s="56"/>
       <c r="R2" s="56"/>
       <c r="S2" s="56"/>
@@ -4173,7 +4182,7 @@
       </c>
       <c r="K3" s="55" t="n">
         <f aca="false">SUM($L3:BF3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="56"/>
       <c r="M3" s="56"/>
@@ -4182,7 +4191,9 @@
       <c r="P3" s="56"/>
       <c r="Q3" s="56"/>
       <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
+      <c r="S3" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="T3" s="56"/>
       <c r="U3" s="56"/>
       <c r="V3" s="56"/>
@@ -4253,7 +4264,7 @@
       </c>
       <c r="K4" s="55" t="n">
         <f aca="false">SUM($L4:BF4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4" s="56"/>
       <c r="M4" s="56"/>
@@ -4263,10 +4274,18 @@
       <c r="Q4" s="56"/>
       <c r="R4" s="56"/>
       <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
+      <c r="T4" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="X4" s="56"/>
       <c r="Y4" s="56"/>
       <c r="Z4" s="56"/>
@@ -4333,7 +4352,7 @@
       </c>
       <c r="K5" s="55" t="n">
         <f aca="false">SUM($L5:BF5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" s="56"/>
       <c r="M5" s="56"/>
@@ -4343,9 +4362,15 @@
       <c r="Q5" s="56"/>
       <c r="R5" s="56"/>
       <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
+      <c r="T5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="W5" s="56"/>
       <c r="X5" s="56"/>
       <c r="Y5" s="56"/>
@@ -4414,7 +4439,7 @@
       </c>
       <c r="K6" s="55" t="n">
         <f aca="false">SUM($L6:BF6)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L6" s="56"/>
       <c r="M6" s="56"/>
@@ -4427,13 +4452,23 @@
       <c r="T6" s="56"/>
       <c r="U6" s="56"/>
       <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
+      <c r="W6" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="X6" s="56"/>
       <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="56"/>
+      <c r="Z6" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AD6" s="56"/>
       <c r="AE6" s="56"/>
       <c r="AF6" s="56"/>
@@ -4494,7 +4529,7 @@
       </c>
       <c r="K7" s="55" t="n">
         <f aca="false">SUM($L7:BF7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="56"/>
       <c r="M7" s="56"/>
@@ -4503,7 +4538,9 @@
       <c r="P7" s="56"/>
       <c r="Q7" s="56"/>
       <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
+      <c r="S7" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="T7" s="56"/>
       <c r="U7" s="56"/>
       <c r="V7" s="56"/>

--- a/Übungen/Online_Shop.Projekt.xlsx
+++ b/Übungen/Online_Shop.Projekt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PSP" sheetId="1" state="visible" r:id="rId2"/>
@@ -902,7 +902,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8251560" y="325080"/>
+          <a:off x="8260560" y="325080"/>
           <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -943,8 +943,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5478120" y="479520"/>
-          <a:ext cx="5552280" cy="0"/>
+          <a:off x="5483160" y="479520"/>
+          <a:ext cx="5560200" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -984,7 +984,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5498640" y="488520"/>
+          <a:off x="5503680" y="488520"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1025,7 +1025,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5515200" y="488520"/>
+          <a:off x="5521320" y="488520"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1066,7 +1066,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8282880" y="488520"/>
+          <a:off x="8293320" y="488520"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1107,7 +1107,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11050560" y="488520"/>
+          <a:off x="11064600" y="488520"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1148,7 +1148,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5515200" y="1122120"/>
+          <a:off x="5521320" y="1122120"/>
           <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1189,7 +1189,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5515200" y="1609920"/>
+          <a:off x="5521320" y="1609920"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1230,7 +1230,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5515200" y="2098080"/>
+          <a:off x="5521320" y="2098080"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1271,7 +1271,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5515200" y="2584800"/>
+          <a:off x="5521320" y="2584800"/>
           <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1312,7 +1312,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8282880" y="1122120"/>
+          <a:off x="8293320" y="1122120"/>
           <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1353,7 +1353,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8282880" y="1609920"/>
+          <a:off x="8293320" y="1609920"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1394,7 +1394,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8282880" y="2098080"/>
+          <a:off x="8293320" y="2098080"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1435,7 +1435,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8282880" y="2584800"/>
+          <a:off x="8293320" y="2584800"/>
           <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1476,7 +1476,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8282880" y="3072600"/>
+          <a:off x="8293320" y="3072600"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1517,7 +1517,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8282880" y="3560760"/>
+          <a:off x="8293320" y="3560760"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1558,7 +1558,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8282880" y="4047480"/>
+          <a:off x="8293320" y="4047480"/>
           <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1599,7 +1599,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8282880" y="4535280"/>
+          <a:off x="8293320" y="4535280"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1640,7 +1640,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8282880" y="5023440"/>
+          <a:off x="8293320" y="5023440"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1681,7 +1681,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11050920" y="2097720"/>
+          <a:off x="11064960" y="2097720"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1722,7 +1722,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11050920" y="1609920"/>
+          <a:off x="11064960" y="1609920"/>
           <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1763,7 +1763,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11050920" y="1121760"/>
+          <a:off x="11064960" y="1121760"/>
           <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1809,7 +1809,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3430800" y="6074280"/>
+          <a:off x="3435840" y="6074280"/>
           <a:ext cx="3614400" cy="19080"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1846,7 +1846,7 @@
       <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.77"/>
   </cols>
@@ -2389,11 +2389,11 @@
   </sheetPr>
   <dimension ref="A1:BQ33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AF2" activeCellId="0" sqref="AF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="16.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.52"/>
@@ -3876,8 +3876,8 @@
   </sheetPr>
   <dimension ref="A1:BF39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF9" activeCellId="0" sqref="AF9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -3886,8 +3886,9 @@
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="1" max="2" min="2" style="0" width="11.77"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="3" min="3" style="0" width="7.44"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="4" min="4" style="0" width="8.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="6" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="5" min="5" style="3" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="7" style="3" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="20" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="3.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="11" min="11" style="3" width="3.83"/>
@@ -4611,7 +4612,7 @@
       </c>
       <c r="K8" s="55" t="n">
         <f aca="false">SUM($L8:BF8)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" s="56"/>
       <c r="M8" s="56"/>
@@ -4621,9 +4622,15 @@
       <c r="Q8" s="56"/>
       <c r="R8" s="56"/>
       <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
+      <c r="T8" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="W8" s="56"/>
       <c r="X8" s="56"/>
       <c r="Y8" s="56"/>
@@ -4692,7 +4699,7 @@
       </c>
       <c r="K9" s="55" t="n">
         <f aca="false">SUM($L9:BF9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="56"/>
       <c r="M9" s="56"/>
@@ -4712,7 +4719,9 @@
       <c r="AA9" s="56"/>
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
+      <c r="AD9" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AE9" s="56"/>
       <c r="AF9" s="56"/>
       <c r="AG9" s="57"/>
@@ -4773,7 +4782,7 @@
       </c>
       <c r="K10" s="55" t="n">
         <f aca="false">SUM($L10:BF10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="56"/>
       <c r="M10" s="56"/>
@@ -4797,7 +4806,9 @@
       <c r="AE10" s="56"/>
       <c r="AF10" s="56"/>
       <c r="AG10" s="57"/>
-      <c r="AH10" s="56"/>
+      <c r="AH10" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AI10" s="56"/>
       <c r="AJ10" s="56"/>
       <c r="AK10" s="56"/>
@@ -4854,7 +4865,7 @@
       </c>
       <c r="K11" s="55" t="n">
         <f aca="false">SUM($L11:BF11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="56"/>
       <c r="M11" s="56"/>
@@ -4879,7 +4890,9 @@
       <c r="AF11" s="56"/>
       <c r="AG11" s="57"/>
       <c r="AH11" s="56"/>
-      <c r="AI11" s="56"/>
+      <c r="AI11" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ11" s="56"/>
       <c r="AK11" s="56"/>
       <c r="AL11" s="56"/>
@@ -4934,7 +4947,7 @@
       </c>
       <c r="K12" s="55" t="n">
         <f aca="false">SUM($L12:BF12)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L12" s="56"/>
       <c r="M12" s="56"/>
@@ -4947,35 +4960,75 @@
       <c r="T12" s="56"/>
       <c r="U12" s="56"/>
       <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
+      <c r="W12" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="X12" s="56"/>
       <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
+      <c r="Z12" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AE12" s="56"/>
       <c r="AF12" s="56"/>
       <c r="AG12" s="57"/>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="56"/>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="56"/>
+      <c r="AH12" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AL12" s="56"/>
       <c r="AM12" s="56"/>
-      <c r="AN12" s="56"/>
-      <c r="AO12" s="56"/>
-      <c r="AP12" s="56"/>
-      <c r="AQ12" s="56"/>
-      <c r="AR12" s="56"/>
+      <c r="AN12" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AS12" s="56"/>
       <c r="AT12" s="56"/>
-      <c r="AU12" s="56"/>
-      <c r="AV12" s="56"/>
-      <c r="AW12" s="56"/>
-      <c r="AX12" s="56"/>
-      <c r="AY12" s="56"/>
+      <c r="AU12" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AZ12" s="56"/>
       <c r="BA12" s="56"/>
       <c r="BB12" s="56"/>
@@ -5015,7 +5068,7 @@
       </c>
       <c r="K13" s="55" t="n">
         <f aca="false">SUM($L13:BF13)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13" s="56"/>
       <c r="M13" s="56"/>
@@ -5041,8 +5094,12 @@
       <c r="AG13" s="57"/>
       <c r="AH13" s="56"/>
       <c r="AI13" s="56"/>
-      <c r="AJ13" s="56"/>
-      <c r="AK13" s="56"/>
+      <c r="AJ13" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AL13" s="56"/>
       <c r="AM13" s="56"/>
       <c r="AN13" s="56"/>
@@ -5096,7 +5153,7 @@
       </c>
       <c r="K14" s="55" t="n">
         <f aca="false">SUM($L14:BF14)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" s="56"/>
       <c r="M14" s="56"/>
@@ -5126,8 +5183,12 @@
       <c r="AK14" s="56"/>
       <c r="AL14" s="56"/>
       <c r="AM14" s="56"/>
-      <c r="AN14" s="56"/>
-      <c r="AO14" s="56"/>
+      <c r="AN14" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AP14" s="56"/>
       <c r="AQ14" s="56"/>
       <c r="AR14" s="56"/>
@@ -5177,7 +5238,7 @@
       </c>
       <c r="K15" s="55" t="n">
         <f aca="false">SUM($L15:BF15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="56"/>
       <c r="M15" s="56"/>
@@ -5209,7 +5270,9 @@
       <c r="AM15" s="56"/>
       <c r="AN15" s="56"/>
       <c r="AO15" s="56"/>
-      <c r="AP15" s="56"/>
+      <c r="AP15" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ15" s="56"/>
       <c r="AR15" s="56"/>
       <c r="AS15" s="56"/>
@@ -5258,7 +5321,7 @@
       </c>
       <c r="K16" s="55" t="n">
         <f aca="false">SUM($L16:BF16)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" s="56"/>
       <c r="M16" s="56"/>
@@ -5291,11 +5354,17 @@
       <c r="AN16" s="56"/>
       <c r="AO16" s="56"/>
       <c r="AP16" s="56"/>
-      <c r="AQ16" s="56"/>
-      <c r="AR16" s="56"/>
+      <c r="AQ16" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AS16" s="56"/>
       <c r="AT16" s="56"/>
-      <c r="AU16" s="56"/>
+      <c r="AU16" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AV16" s="56"/>
       <c r="AW16" s="56"/>
       <c r="AX16" s="56"/>
@@ -5336,7 +5405,7 @@
       </c>
       <c r="K17" s="55" t="n">
         <f aca="false">SUM($L17:BF17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="58"/>
       <c r="M17" s="58"/>
@@ -5380,7 +5449,9 @@
       <c r="AY17" s="58"/>
       <c r="AZ17" s="58"/>
       <c r="BA17" s="58"/>
-      <c r="BB17" s="58"/>
+      <c r="BB17" s="58" t="n">
+        <v>1</v>
+      </c>
       <c r="BC17" s="58"/>
       <c r="BD17" s="58"/>
       <c r="BE17" s="58"/>

--- a/Übungen/Online_Shop.Projekt.xlsx
+++ b/Übungen/Online_Shop.Projekt.xlsx
@@ -9,9 +9,10 @@
   </bookViews>
   <sheets>
     <sheet name="PSP" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Netzplan" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Gantt" sheetId="3" state="hidden" r:id="rId5"/>
-    <sheet name="FeiertageMV" sheetId="4" state="hidden" r:id="rId6"/>
+    <sheet name="PSP_2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Netzplan" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Gantt" sheetId="4" state="hidden" r:id="rId6"/>
+    <sheet name="FeiertageMV" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="118">
   <si>
     <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
@@ -162,6 +163,183 @@
   </si>
   <si>
     <t xml:space="preserve">Onlinestellung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beispiel: Objektorientierter Projektstrukturplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produkte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenbank/Backend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online-Stellung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handbücher erstellen Datenbanke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handbücher erstellen Frontend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests Produktfotos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests Datenbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests Frontend</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Korrekturen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Produktfotos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Korrekturen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Datenbank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Korrekturen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Frontend</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">eventuelle Korrekturen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Produktfotos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">eventuelle Korrekturen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Datenbank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">eventuelle Korrekturen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Frontend</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Onlinestellung Backend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onlinestellung Frontend</t>
   </si>
   <si>
     <t xml:space="preserve">Vorgänger</t>
@@ -313,7 +491,7 @@
     <numFmt numFmtId="170" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="171" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -363,6 +541,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -687,183 +870,179 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="96">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -872,14 +1051,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -888,14 +1059,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -916,24 +1079,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="13" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -952,7 +1107,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="14" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -968,15 +1123,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="14" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="9" fillId="14" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="15" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="10" fillId="15" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="10" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -988,11 +1143,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="16" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="9" fillId="16" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="17" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="9" fillId="17" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1024,14 +1179,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1060,7 +1207,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="15" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1080,12 +1227,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1102,10 +1245,6 @@
     </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1402,16 +1541,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>758520</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>34560</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>233640</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>21960</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104040</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1420,8 +1559,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4060440" y="3322440"/>
-          <a:ext cx="2243880" cy="423720"/>
+          <a:off x="7192440" y="17212320"/>
+          <a:ext cx="2243520" cy="423360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1487,9 +1626,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>176040</xdr:colOff>
+      <xdr:colOff>175680</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:rowOff>40320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1499,7 +1638,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8412840" y="1680480"/>
-          <a:ext cx="114840" cy="166680"/>
+          <a:ext cx="114480" cy="166320"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1540,9 +1679,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>176040</xdr:colOff>
+      <xdr:colOff>175680</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1552,7 +1691,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11430360" y="2819520"/>
-          <a:ext cx="114840" cy="167760"/>
+          <a:ext cx="114480" cy="167400"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1593,9 +1732,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>203400</xdr:colOff>
+      <xdr:colOff>203040</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1605,7 +1744,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13972320" y="3292920"/>
-          <a:ext cx="114840" cy="168120"/>
+          <a:ext cx="114480" cy="167760"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1819,7 +1958,7 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2391,1249 +2530,1973 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:M49"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="3"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="9"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="I8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="L8" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="I11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="L11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="I14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="L14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="23"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="I17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="22"/>
+      <c r="L17" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="23"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="I20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="22"/>
+      <c r="L20" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="23"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="I23" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="22"/>
+      <c r="L23" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="23"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="I25" s="20"/>
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="I26" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="22"/>
+      <c r="L26" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="23"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="I27" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="I28" s="20"/>
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="I29" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="22"/>
+      <c r="L29" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" s="23"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="I30" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="L32" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" s="23"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="L33" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="L35" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="M35" s="23"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="L36" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="M36" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:BQ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="43" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="43" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="7" style="43" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="9" min="9" style="44" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="43" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="11" style="45" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="7" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="43" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="11" style="44" width="3.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="48" t="s">
-        <v>51</v>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="54" t="n">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="49" t="n">
         <v>5</v>
       </c>
-      <c r="H2" s="55" t="n">
+      <c r="H2" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="I2" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="54" t="n">
+      <c r="I2" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="49" t="n">
         <f aca="false">ROUND(G2/(H2*I2),0)</f>
         <v>2</v>
       </c>
-      <c r="L2" s="57" t="n">
+      <c r="L2" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="59" t="n">
+      <c r="M2" s="53"/>
+      <c r="N2" s="54" t="n">
         <f aca="false">L2+L4</f>
         <v>2</v>
       </c>
-      <c r="Q2" s="57" t="n">
+      <c r="Q2" s="52" t="n">
         <f aca="false">N2</f>
         <v>2</v>
       </c>
-      <c r="R2" s="58"/>
-      <c r="S2" s="59" t="n">
+      <c r="R2" s="53"/>
+      <c r="S2" s="54" t="n">
         <f aca="false">Q2+Q4</f>
         <v>3</v>
       </c>
-      <c r="V2" s="57" t="n">
+      <c r="V2" s="52" t="n">
         <f aca="false">S2</f>
         <v>3</v>
       </c>
-      <c r="W2" s="58"/>
-      <c r="X2" s="59" t="n">
+      <c r="W2" s="53"/>
+      <c r="X2" s="54" t="n">
         <f aca="false">V2+V4</f>
         <v>7</v>
       </c>
-      <c r="AF2" s="57" t="n">
+      <c r="AF2" s="52" t="n">
         <f aca="false">MAX(X2,AC8,X14)</f>
         <v>11</v>
       </c>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="59" t="n">
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="54" t="n">
         <f aca="false">AF2+AF4</f>
         <v>12</v>
       </c>
-      <c r="AK2" s="57" t="n">
+      <c r="AK2" s="52" t="n">
         <f aca="false">AH2</f>
         <v>12</v>
       </c>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="59" t="n">
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="54" t="n">
         <f aca="false">AK2+AK4</f>
         <v>13</v>
       </c>
-      <c r="AP2" s="57" t="n">
+      <c r="AP2" s="52" t="n">
         <f aca="false">AM2</f>
         <v>13</v>
       </c>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="59" t="n">
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="54" t="n">
         <f aca="false">AP2+AP4</f>
         <v>14</v>
       </c>
-      <c r="AU2" s="57" t="n">
+      <c r="AU2" s="52" t="n">
         <f aca="false">AR2</f>
         <v>14</v>
       </c>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="59" t="n">
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="54" t="n">
         <f aca="false">AU2+AU4</f>
         <v>16</v>
       </c>
-      <c r="AZ2" s="57" t="n">
+      <c r="AZ2" s="52" t="n">
         <f aca="false">AW2</f>
         <v>16</v>
       </c>
-      <c r="BA2" s="58"/>
-      <c r="BB2" s="59" t="n">
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="54" t="n">
         <f aca="false">AZ2+AZ4</f>
         <v>18</v>
       </c>
-      <c r="BE2" s="57" t="n">
+      <c r="BE2" s="52" t="n">
         <f aca="false">BB2</f>
         <v>18</v>
       </c>
-      <c r="BF2" s="58"/>
-      <c r="BG2" s="59" t="n">
+      <c r="BF2" s="53"/>
+      <c r="BG2" s="54" t="n">
         <f aca="false">BE2+BE4</f>
         <v>19</v>
       </c>
-      <c r="BJ2" s="57" t="n">
+      <c r="BJ2" s="52" t="n">
         <f aca="false">BG2</f>
         <v>19</v>
       </c>
-      <c r="BK2" s="58"/>
-      <c r="BL2" s="59" t="n">
+      <c r="BK2" s="53"/>
+      <c r="BL2" s="54" t="n">
         <f aca="false">BJ2+BJ4</f>
         <v>22</v>
       </c>
-      <c r="BO2" s="57" t="n">
+      <c r="BO2" s="52" t="n">
         <f aca="false">MAX(BL2,AC14)</f>
         <v>27</v>
       </c>
-      <c r="BP2" s="58"/>
-      <c r="BQ2" s="59" t="n">
+      <c r="BP2" s="53"/>
+      <c r="BQ2" s="54" t="n">
         <f aca="false">BO2+BO4</f>
         <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="64" t="n">
+      <c r="F3" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="I3" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="63" t="n">
+      <c r="I3" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="56" t="n">
         <f aca="false">ROUND(G3/(H3*I3),0)</f>
         <v>1</v>
       </c>
-      <c r="L3" s="66" t="s">
+      <c r="L3" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="66" t="s">
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="66" t="s">
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="66" t="s">
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="66" t="s">
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="67"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="66" t="s">
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="67"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="66" t="s">
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="60"/>
+      <c r="AT3" s="61"/>
+      <c r="AU3" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="66" t="s">
+      <c r="AV3" s="59"/>
+      <c r="AW3" s="59"/>
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="61"/>
+      <c r="AZ3" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="BA3" s="66"/>
-      <c r="BB3" s="66"/>
-      <c r="BC3" s="67"/>
-      <c r="BD3" s="68"/>
-      <c r="BE3" s="66" t="s">
+      <c r="BA3" s="59"/>
+      <c r="BB3" s="59"/>
+      <c r="BC3" s="60"/>
+      <c r="BD3" s="61"/>
+      <c r="BE3" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="BF3" s="66"/>
-      <c r="BG3" s="66"/>
-      <c r="BH3" s="67"/>
-      <c r="BI3" s="68"/>
-      <c r="BJ3" s="66" t="s">
+      <c r="BF3" s="59"/>
+      <c r="BG3" s="59"/>
+      <c r="BH3" s="60"/>
+      <c r="BI3" s="61"/>
+      <c r="BJ3" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="BK3" s="66"/>
-      <c r="BL3" s="66"/>
-      <c r="BM3" s="67"/>
-      <c r="BN3" s="68"/>
-      <c r="BO3" s="66" t="s">
+      <c r="BK3" s="59"/>
+      <c r="BL3" s="59"/>
+      <c r="BM3" s="60"/>
+      <c r="BN3" s="61"/>
+      <c r="BO3" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="BP3" s="66"/>
-      <c r="BQ3" s="66"/>
+      <c r="BP3" s="59"/>
+      <c r="BQ3" s="59"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="63" t="n">
+      <c r="G4" s="56" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="63" t="n">
+      <c r="H4" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="56" t="n">
         <f aca="false">ROUND(G4/(H4*I4),0)</f>
         <v>4</v>
       </c>
-      <c r="L4" s="70" t="n">
+      <c r="L4" s="63" t="n">
         <f aca="false">J2</f>
         <v>2</v>
       </c>
-      <c r="M4" s="71" t="n">
+      <c r="M4" s="64" t="n">
         <f aca="false">N5-N2</f>
         <v>0</v>
       </c>
-      <c r="N4" s="72" t="n">
+      <c r="N4" s="65" t="n">
         <f aca="false">MIN(Q2,Q14)-N2</f>
         <v>0</v>
       </c>
-      <c r="O4" s="73"/>
-      <c r="Q4" s="70" t="n">
+      <c r="O4" s="66"/>
+      <c r="Q4" s="63" t="n">
         <f aca="false">J3</f>
         <v>1</v>
       </c>
-      <c r="R4" s="71" t="n">
+      <c r="R4" s="64" t="n">
         <f aca="false">S5-S2</f>
         <v>5</v>
       </c>
-      <c r="S4" s="72" t="n">
+      <c r="S4" s="65" t="n">
         <f aca="false">MIN(V2,V8)-S2</f>
         <v>0</v>
       </c>
-      <c r="T4" s="73"/>
-      <c r="V4" s="70" t="n">
+      <c r="T4" s="66"/>
+      <c r="V4" s="63" t="n">
         <f aca="false">J4</f>
         <v>4</v>
       </c>
-      <c r="W4" s="71" t="n">
+      <c r="W4" s="64" t="n">
         <f aca="false">X5-X2</f>
         <v>9</v>
       </c>
-      <c r="X4" s="72" t="n">
+      <c r="X4" s="65" t="n">
         <f aca="false">AF2-X2</f>
         <v>4</v>
       </c>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="70" t="n">
+      <c r="AE4" s="67"/>
+      <c r="AF4" s="63" t="n">
         <f aca="false">J9</f>
         <v>1</v>
       </c>
-      <c r="AG4" s="71" t="n">
+      <c r="AG4" s="64" t="n">
         <f aca="false">AH5-AH2</f>
         <v>5</v>
       </c>
-      <c r="AH4" s="72" t="n">
+      <c r="AH4" s="65" t="n">
         <f aca="false">AK2-AH2</f>
         <v>0</v>
       </c>
-      <c r="AK4" s="70" t="n">
+      <c r="AK4" s="63" t="n">
         <f aca="false">J10</f>
         <v>1</v>
       </c>
-      <c r="AL4" s="71" t="n">
+      <c r="AL4" s="64" t="n">
         <f aca="false">AM5-AM2</f>
         <v>5</v>
       </c>
-      <c r="AM4" s="72" t="n">
+      <c r="AM4" s="65" t="n">
         <f aca="false">AP2-AM2</f>
         <v>0</v>
       </c>
-      <c r="AP4" s="70" t="n">
+      <c r="AP4" s="63" t="n">
         <f aca="false">J11</f>
         <v>1</v>
       </c>
-      <c r="AQ4" s="71" t="n">
+      <c r="AQ4" s="64" t="n">
         <f aca="false">AR5-AR2</f>
         <v>5</v>
       </c>
-      <c r="AR4" s="72" t="n">
+      <c r="AR4" s="65" t="n">
         <f aca="false">AU2-AR2</f>
         <v>0</v>
       </c>
-      <c r="AU4" s="70" t="n">
+      <c r="AU4" s="63" t="n">
         <f aca="false">J13</f>
         <v>2</v>
       </c>
-      <c r="AV4" s="71" t="n">
+      <c r="AV4" s="64" t="n">
         <f aca="false">AW5-AW2</f>
         <v>5</v>
       </c>
-      <c r="AW4" s="72" t="n">
+      <c r="AW4" s="65" t="n">
         <f aca="false">AZ2-AW2</f>
         <v>0</v>
       </c>
-      <c r="AZ4" s="70" t="n">
+      <c r="AZ4" s="63" t="n">
         <f aca="false">J14</f>
         <v>2</v>
       </c>
-      <c r="BA4" s="71" t="n">
+      <c r="BA4" s="64" t="n">
         <f aca="false">BB5-BB2</f>
         <v>5</v>
       </c>
-      <c r="BB4" s="72" t="n">
+      <c r="BB4" s="65" t="n">
         <f aca="false">BE2-BB2</f>
         <v>0</v>
       </c>
-      <c r="BE4" s="70" t="n">
+      <c r="BE4" s="63" t="n">
         <f aca="false">J15</f>
         <v>1</v>
       </c>
-      <c r="BF4" s="71" t="n">
+      <c r="BF4" s="64" t="n">
         <f aca="false">BG5-BG2</f>
         <v>5</v>
       </c>
-      <c r="BG4" s="72" t="n">
+      <c r="BG4" s="65" t="n">
         <f aca="false">BJ2-BG2</f>
         <v>0</v>
       </c>
-      <c r="BJ4" s="70" t="n">
+      <c r="BJ4" s="63" t="n">
         <f aca="false">J16</f>
         <v>3</v>
       </c>
-      <c r="BK4" s="71" t="n">
+      <c r="BK4" s="64" t="n">
         <f aca="false">BL5-BL2</f>
         <v>5</v>
       </c>
-      <c r="BL4" s="72" t="n">
+      <c r="BL4" s="65" t="n">
         <f aca="false">BO2-BL2</f>
         <v>5</v>
       </c>
-      <c r="BN4" s="68"/>
-      <c r="BO4" s="70" t="n">
+      <c r="BN4" s="61"/>
+      <c r="BO4" s="63" t="n">
         <f aca="false">J17</f>
         <v>1</v>
       </c>
-      <c r="BP4" s="71" t="n">
+      <c r="BP4" s="64" t="n">
         <f aca="false">BQ5-BQ2</f>
         <v>0</v>
       </c>
-      <c r="BQ4" s="72"/>
+      <c r="BQ4" s="65"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="63" t="n">
+      <c r="G5" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="64" t="n">
+      <c r="H5" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="I5" s="65" t="n">
+      <c r="I5" s="58" t="n">
         <f aca="false">120%/2</f>
         <v>0.6</v>
       </c>
-      <c r="J5" s="63" t="n">
+      <c r="J5" s="56" t="n">
         <f aca="false">ROUND(G5/(H5*I5),0)</f>
         <v>3</v>
       </c>
-      <c r="L5" s="75" t="n">
+      <c r="L5" s="68" t="n">
         <f aca="false">N5-L4</f>
         <v>0</v>
       </c>
-      <c r="M5" s="58"/>
-      <c r="N5" s="76" t="n">
+      <c r="M5" s="53"/>
+      <c r="N5" s="69" t="n">
         <f aca="false">MIN(Q5,Q17)</f>
         <v>2</v>
       </c>
-      <c r="O5" s="77"/>
-      <c r="Q5" s="75" t="n">
+      <c r="O5" s="70"/>
+      <c r="Q5" s="68" t="n">
         <f aca="false">S5-Q4</f>
         <v>7</v>
       </c>
-      <c r="R5" s="58"/>
-      <c r="S5" s="76" t="n">
+      <c r="R5" s="53"/>
+      <c r="S5" s="69" t="n">
         <f aca="false">MIN(V5,V11)</f>
         <v>8</v>
       </c>
-      <c r="T5" s="77"/>
-      <c r="V5" s="75" t="n">
+      <c r="T5" s="70"/>
+      <c r="V5" s="68" t="n">
         <f aca="false">X5-V4</f>
         <v>12</v>
       </c>
-      <c r="W5" s="58"/>
-      <c r="X5" s="76" t="n">
+      <c r="W5" s="53"/>
+      <c r="X5" s="69" t="n">
         <f aca="false">AF5</f>
         <v>16</v>
       </c>
-      <c r="AD5" s="77"/>
-      <c r="AF5" s="75" t="n">
+      <c r="AD5" s="70"/>
+      <c r="AF5" s="68" t="n">
         <f aca="false">AH5-AF4</f>
         <v>16</v>
       </c>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="76" t="n">
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="69" t="n">
         <f aca="false">AK5</f>
         <v>17</v>
       </c>
-      <c r="AK5" s="75" t="n">
+      <c r="AK5" s="68" t="n">
         <f aca="false">AM5-AK4</f>
         <v>17</v>
       </c>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="76" t="n">
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="69" t="n">
         <f aca="false">AP5</f>
         <v>18</v>
       </c>
-      <c r="AP5" s="75" t="n">
+      <c r="AP5" s="68" t="n">
         <f aca="false">AR5-AP4</f>
         <v>18</v>
       </c>
-      <c r="AQ5" s="58"/>
-      <c r="AR5" s="76" t="n">
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="69" t="n">
         <f aca="false">AU5</f>
         <v>19</v>
       </c>
-      <c r="AU5" s="75" t="n">
+      <c r="AU5" s="68" t="n">
         <f aca="false">AW5-AU4</f>
         <v>19</v>
       </c>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="76" t="n">
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="69" t="n">
         <f aca="false">AZ5</f>
         <v>21</v>
       </c>
-      <c r="AZ5" s="75" t="n">
+      <c r="AZ5" s="68" t="n">
         <f aca="false">BB5-AZ4</f>
         <v>21</v>
       </c>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="76" t="n">
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="69" t="n">
         <f aca="false">BE5</f>
         <v>23</v>
       </c>
-      <c r="BE5" s="75" t="n">
+      <c r="BE5" s="68" t="n">
         <f aca="false">BG5-BE4</f>
         <v>23</v>
       </c>
-      <c r="BF5" s="58"/>
-      <c r="BG5" s="76" t="n">
+      <c r="BF5" s="53"/>
+      <c r="BG5" s="69" t="n">
         <f aca="false">BJ5</f>
         <v>24</v>
       </c>
-      <c r="BJ5" s="75" t="n">
+      <c r="BJ5" s="68" t="n">
         <f aca="false">BL5-BJ4</f>
         <v>24</v>
       </c>
-      <c r="BK5" s="58"/>
-      <c r="BL5" s="76" t="n">
+      <c r="BK5" s="53"/>
+      <c r="BL5" s="69" t="n">
         <f aca="false">BO5</f>
         <v>27</v>
       </c>
-      <c r="BM5" s="77"/>
-      <c r="BO5" s="75" t="n">
+      <c r="BM5" s="70"/>
+      <c r="BO5" s="68" t="n">
         <f aca="false">BQ5-BO4</f>
         <v>27</v>
       </c>
-      <c r="BP5" s="58"/>
-      <c r="BQ5" s="76" t="n">
+      <c r="BP5" s="53"/>
+      <c r="BQ5" s="69" t="n">
         <f aca="false">BQ2</f>
         <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="78" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="79" t="n">
+      <c r="G6" s="72" t="n">
         <v>7</v>
       </c>
-      <c r="H6" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="65" t="n">
+      <c r="H6" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="58" t="n">
         <f aca="false">100%+(100%-$I$12)</f>
         <v>1.5</v>
       </c>
-      <c r="J6" s="63" t="n">
+      <c r="J6" s="56" t="n">
         <f aca="false">ROUND(G6/(H6*I6),0)</f>
         <v>5</v>
       </c>
-      <c r="O6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77"/>
-      <c r="BM6" s="77"/>
+      <c r="O6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="AD6" s="70"/>
+      <c r="AE6" s="70"/>
+      <c r="BM6" s="70"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="63" t="n">
+      <c r="G7" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="56" t="n">
         <f aca="false">ROUND(G7/(H7*I7),0)</f>
         <v>1</v>
       </c>
-      <c r="O7" s="77"/>
-      <c r="T7" s="77"/>
-      <c r="AD7" s="77"/>
-      <c r="AE7" s="77"/>
-      <c r="BM7" s="77"/>
+      <c r="O7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="70"/>
+      <c r="BM7" s="70"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="78" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="79" t="n">
+      <c r="F8" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="72" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="65" t="n">
+      <c r="H8" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="58" t="n">
         <v>0.8</v>
       </c>
-      <c r="J8" s="63" t="n">
+      <c r="J8" s="56" t="n">
         <f aca="false">ROUND(G8/(H8*I8),0)</f>
         <v>4</v>
       </c>
-      <c r="O8" s="77"/>
-      <c r="T8" s="77"/>
-      <c r="V8" s="57" t="n">
+      <c r="O8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="V8" s="52" t="n">
         <f aca="false">S2</f>
         <v>3</v>
       </c>
-      <c r="W8" s="58"/>
-      <c r="X8" s="59" t="n">
+      <c r="W8" s="53"/>
+      <c r="X8" s="54" t="n">
         <f aca="false">V8+V10</f>
         <v>6</v>
       </c>
-      <c r="AA8" s="57" t="n">
+      <c r="AA8" s="52" t="n">
         <f aca="false">X8</f>
         <v>6</v>
       </c>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="59" t="n">
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="54" t="n">
         <f aca="false">AA8+AA10</f>
         <v>11</v>
       </c>
-      <c r="AD8" s="77"/>
-      <c r="AE8" s="77"/>
-      <c r="BM8" s="77"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="70"/>
+      <c r="BM8" s="70"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="78" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="79" t="n">
+      <c r="G9" s="72" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="65" t="n">
+      <c r="H9" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="58" t="n">
         <f aca="false">100%+(100%-$I$12)</f>
         <v>1.5</v>
       </c>
-      <c r="J9" s="63" t="n">
+      <c r="J9" s="56" t="n">
         <f aca="false">ROUND(G9/(H9*I9),0)</f>
         <v>1</v>
       </c>
-      <c r="O9" s="77"/>
-      <c r="T9" s="77"/>
-      <c r="V9" s="66" t="s">
+      <c r="O9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="V9" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="66" t="s">
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="80"/>
-      <c r="AE9" s="77"/>
-      <c r="BM9" s="77"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="70"/>
+      <c r="BM9" s="70"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="78" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="78" t="s">
+      <c r="F10" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="79" t="n">
+      <c r="G10" s="72" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="65" t="n">
+      <c r="H10" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="58" t="n">
         <f aca="false">100%+(100%-$I$12)</f>
         <v>1.5</v>
       </c>
-      <c r="J10" s="63" t="n">
+      <c r="J10" s="56" t="n">
         <f aca="false">ROUND(G10/(H10*I10),0)</f>
         <v>1</v>
       </c>
-      <c r="O10" s="77"/>
-      <c r="U10" s="81"/>
-      <c r="V10" s="70" t="n">
+      <c r="O10" s="70"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="63" t="n">
         <f aca="false">J5</f>
         <v>3</v>
       </c>
-      <c r="W10" s="71" t="n">
+      <c r="W10" s="64" t="n">
         <f aca="false">X11-X8</f>
         <v>5</v>
       </c>
-      <c r="X10" s="72" t="n">
+      <c r="X10" s="65" t="n">
         <f aca="false">AA8-X8</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="70" t="n">
+      <c r="AA10" s="63" t="n">
         <f aca="false">J6</f>
         <v>5</v>
       </c>
-      <c r="AB10" s="71" t="n">
+      <c r="AB10" s="64" t="n">
         <f aca="false">AC11-AC8</f>
         <v>5</v>
       </c>
-      <c r="AC10" s="72" t="n">
+      <c r="AC10" s="65" t="n">
         <f aca="false">AF2-AC8</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="77"/>
-      <c r="BM10" s="77"/>
+      <c r="AE10" s="70"/>
+      <c r="BM10" s="70"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="78" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="78" t="s">
+      <c r="F11" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="79" t="n">
+      <c r="G11" s="72" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="65" t="n">
+      <c r="H11" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="58" t="n">
         <f aca="false">100%+(100%-$I$12)</f>
         <v>1.5</v>
       </c>
-      <c r="J11" s="63" t="n">
+      <c r="J11" s="56" t="n">
         <f aca="false">ROUND(G11/(H11*I11),0)</f>
         <v>1</v>
       </c>
-      <c r="O11" s="77"/>
-      <c r="V11" s="75" t="n">
+      <c r="O11" s="70"/>
+      <c r="V11" s="68" t="n">
         <f aca="false">X11-V10</f>
         <v>8</v>
       </c>
-      <c r="W11" s="58"/>
-      <c r="X11" s="76" t="n">
+      <c r="W11" s="53"/>
+      <c r="X11" s="69" t="n">
         <f aca="false">AA11</f>
         <v>11</v>
       </c>
-      <c r="AA11" s="75" t="n">
+      <c r="AA11" s="68" t="n">
         <f aca="false">AC11-AA10</f>
         <v>11</v>
       </c>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="76" t="n">
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="69" t="n">
         <f aca="false">AF5</f>
         <v>16</v>
       </c>
-      <c r="AE11" s="77"/>
-      <c r="BM11" s="77"/>
+      <c r="AE11" s="70"/>
+      <c r="BM11" s="70"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="78" t="s">
+      <c r="B12" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="78" t="s">
+      <c r="F12" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="79" t="n">
+      <c r="G12" s="72" t="n">
         <v>10</v>
       </c>
-      <c r="H12" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="65" t="n">
+      <c r="H12" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="58" t="n">
         <v>0.5</v>
       </c>
-      <c r="J12" s="63" t="n">
+      <c r="J12" s="56" t="n">
         <f aca="false">ROUND(G12/(H12*I12),0)</f>
         <v>20</v>
       </c>
-      <c r="O12" s="77"/>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="69"/>
-      <c r="AB12" s="69"/>
-      <c r="AC12" s="69"/>
-      <c r="AD12" s="69"/>
-      <c r="AE12" s="82"/>
-      <c r="BM12" s="77"/>
+      <c r="O12" s="70"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="62"/>
+      <c r="AD12" s="62"/>
+      <c r="AE12" s="75"/>
+      <c r="BM12" s="70"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="78" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="78" t="s">
+      <c r="F13" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="79" t="n">
+      <c r="G13" s="72" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="65" t="n">
+      <c r="H13" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="58" t="n">
         <f aca="false">100%+(100%-$I$12)</f>
         <v>1.5</v>
       </c>
-      <c r="J13" s="63" t="n">
+      <c r="J13" s="56" t="n">
         <f aca="false">ROUND(G13/(H13*I13),0)</f>
         <v>2</v>
       </c>
-      <c r="O13" s="77"/>
-      <c r="Y13" s="77"/>
-      <c r="BM13" s="77"/>
+      <c r="O13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="BM13" s="70"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="78" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="78" t="s">
+      <c r="F14" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="79" t="n">
+      <c r="G14" s="72" t="n">
         <v>3</v>
       </c>
-      <c r="H14" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="65" t="n">
+      <c r="H14" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="58" t="n">
         <f aca="false">100%+(100%-$I$12)</f>
         <v>1.5</v>
       </c>
-      <c r="J14" s="63" t="n">
+      <c r="J14" s="56" t="n">
         <f aca="false">ROUND(G14/(H14*I14),0)</f>
         <v>2</v>
       </c>
-      <c r="O14" s="77"/>
-      <c r="Q14" s="57" t="n">
+      <c r="O14" s="70"/>
+      <c r="Q14" s="52" t="n">
         <f aca="false">N2</f>
         <v>2</v>
       </c>
-      <c r="R14" s="58"/>
-      <c r="S14" s="59" t="n">
+      <c r="R14" s="53"/>
+      <c r="S14" s="54" t="n">
         <f aca="false">Q14+Q16</f>
         <v>3</v>
       </c>
-      <c r="V14" s="57" t="n">
+      <c r="V14" s="52" t="n">
         <f aca="false">S14</f>
         <v>3</v>
       </c>
-      <c r="W14" s="58"/>
-      <c r="X14" s="59" t="n">
+      <c r="W14" s="53"/>
+      <c r="X14" s="54" t="n">
         <f aca="false">V14+V16</f>
         <v>7</v>
       </c>
-      <c r="Y14" s="80"/>
-      <c r="AA14" s="57" t="n">
+      <c r="Y14" s="73"/>
+      <c r="AA14" s="52" t="n">
         <f aca="false">X14</f>
         <v>7</v>
       </c>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="59" t="n">
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="54" t="n">
         <f aca="false">AA14+AA16</f>
         <v>27</v>
       </c>
-      <c r="BM14" s="77"/>
+      <c r="BM14" s="70"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="78" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="78" t="s">
+      <c r="F15" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="65" t="n">
+      <c r="G15" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="58" t="n">
         <f aca="false">100%+(100%-$I$12)</f>
         <v>1.5</v>
       </c>
-      <c r="J15" s="63" t="n">
+      <c r="J15" s="56" t="n">
         <f aca="false">ROUND(G15/(H15*I15),0)</f>
         <v>1</v>
       </c>
-      <c r="O15" s="77"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="66" t="s">
+      <c r="O15" s="70"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="66" t="s">
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="66" t="s">
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="67"/>
-      <c r="AE15" s="69"/>
-      <c r="AF15" s="69"/>
-      <c r="AG15" s="69"/>
-      <c r="AH15" s="69"/>
-      <c r="AI15" s="69"/>
-      <c r="AJ15" s="69"/>
-      <c r="AK15" s="69"/>
-      <c r="AL15" s="69"/>
-      <c r="AM15" s="69"/>
-      <c r="AN15" s="69"/>
-      <c r="AO15" s="69"/>
-      <c r="AP15" s="69"/>
-      <c r="AQ15" s="69"/>
-      <c r="AR15" s="69"/>
-      <c r="AS15" s="69"/>
-      <c r="AT15" s="69"/>
-      <c r="AU15" s="69"/>
-      <c r="AV15" s="69"/>
-      <c r="AW15" s="69"/>
-      <c r="AX15" s="69"/>
-      <c r="AY15" s="69"/>
-      <c r="AZ15" s="69"/>
-      <c r="BA15" s="69"/>
-      <c r="BB15" s="69"/>
-      <c r="BC15" s="69"/>
-      <c r="BD15" s="69"/>
-      <c r="BE15" s="69"/>
-      <c r="BF15" s="69"/>
-      <c r="BG15" s="69"/>
-      <c r="BH15" s="69"/>
-      <c r="BI15" s="69"/>
-      <c r="BJ15" s="69"/>
-      <c r="BK15" s="69"/>
-      <c r="BL15" s="69"/>
-      <c r="BM15" s="82"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="60"/>
+      <c r="AE15" s="62"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="62"/>
+      <c r="AJ15" s="62"/>
+      <c r="AK15" s="62"/>
+      <c r="AL15" s="62"/>
+      <c r="AM15" s="62"/>
+      <c r="AN15" s="62"/>
+      <c r="AO15" s="62"/>
+      <c r="AP15" s="62"/>
+      <c r="AQ15" s="62"/>
+      <c r="AR15" s="62"/>
+      <c r="AS15" s="62"/>
+      <c r="AT15" s="62"/>
+      <c r="AU15" s="62"/>
+      <c r="AV15" s="62"/>
+      <c r="AW15" s="62"/>
+      <c r="AX15" s="62"/>
+      <c r="AY15" s="62"/>
+      <c r="AZ15" s="62"/>
+      <c r="BA15" s="62"/>
+      <c r="BB15" s="62"/>
+      <c r="BC15" s="62"/>
+      <c r="BD15" s="62"/>
+      <c r="BE15" s="62"/>
+      <c r="BF15" s="62"/>
+      <c r="BG15" s="62"/>
+      <c r="BH15" s="62"/>
+      <c r="BI15" s="62"/>
+      <c r="BJ15" s="62"/>
+      <c r="BK15" s="62"/>
+      <c r="BL15" s="62"/>
+      <c r="BM15" s="75"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="78" t="s">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="78" t="s">
+      <c r="F16" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="79" t="n">
+      <c r="G16" s="72" t="n">
         <v>5</v>
       </c>
-      <c r="H16" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="65" t="n">
+      <c r="H16" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="58" t="n">
         <f aca="false">100%+(100%-$I$12)</f>
         <v>1.5</v>
       </c>
-      <c r="J16" s="63" t="n">
+      <c r="J16" s="56" t="n">
         <f aca="false">ROUND(G16/(H16*I16),0)</f>
         <v>3</v>
       </c>
-      <c r="Q16" s="70" t="n">
+      <c r="Q16" s="63" t="n">
         <f aca="false">J7</f>
         <v>1</v>
       </c>
-      <c r="R16" s="71" t="n">
+      <c r="R16" s="64" t="n">
         <f aca="false">S17-S14</f>
         <v>0</v>
       </c>
-      <c r="S16" s="72" t="n">
+      <c r="S16" s="65" t="n">
         <f aca="false">V14-S14</f>
         <v>0</v>
       </c>
-      <c r="V16" s="70" t="n">
+      <c r="V16" s="63" t="n">
         <f aca="false">J8</f>
         <v>4</v>
       </c>
-      <c r="W16" s="71" t="n">
+      <c r="W16" s="64" t="n">
         <f aca="false">X17-X14</f>
         <v>0</v>
       </c>
-      <c r="X16" s="72" t="n">
+      <c r="X16" s="65" t="n">
         <f aca="false">MIN(AA14,AF2)-X14</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="70" t="n">
+      <c r="AA16" s="63" t="n">
         <f aca="false">J12</f>
         <v>20</v>
       </c>
-      <c r="AB16" s="71" t="n">
+      <c r="AB16" s="64" t="n">
         <f aca="false">AC17-AC14</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="72" t="n">
+      <c r="AC16" s="65" t="n">
         <f aca="false">BO2-AC14</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="87"/>
-      <c r="G17" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="89" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="88" t="n">
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="78"/>
+      <c r="G17" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="79" t="n">
         <f aca="false">ROUND(G17/(H17*I17),0)</f>
         <v>1</v>
       </c>
-      <c r="Q17" s="75" t="n">
+      <c r="Q17" s="68" t="n">
         <f aca="false">S17-Q16</f>
         <v>2</v>
       </c>
-      <c r="R17" s="58"/>
-      <c r="S17" s="76" t="n">
+      <c r="R17" s="53"/>
+      <c r="S17" s="69" t="n">
         <f aca="false">V17</f>
         <v>3</v>
       </c>
-      <c r="V17" s="75" t="n">
+      <c r="V17" s="68" t="n">
         <f aca="false">X17-V16</f>
         <v>3</v>
       </c>
-      <c r="W17" s="58"/>
-      <c r="X17" s="76" t="n">
+      <c r="W17" s="53"/>
+      <c r="X17" s="69" t="n">
         <f aca="false">MIN(AA17,AF5)</f>
         <v>7</v>
       </c>
-      <c r="AA17" s="75" t="n">
+      <c r="AA17" s="68" t="n">
         <f aca="false">AC17-AA16</f>
         <v>7</v>
       </c>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="76" t="n">
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="69" t="n">
         <f aca="false">BO5</f>
         <v>27</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="91" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="92" t="s">
-        <v>60</v>
+      <c r="A19" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="83" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="92" t="s">
-        <v>63</v>
+      <c r="A20" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="83" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
+      <c r="A21" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="92" t="s">
-        <v>68</v>
+      <c r="A22" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="83" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="92" t="s">
-        <v>71</v>
+      <c r="A23" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="53"/>
+      <c r="C23" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="83" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3770,14 +4633,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BN20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="11" ySplit="0" topLeftCell="Z1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="AI19" activeCellId="0" sqref="AI19"/>
@@ -3785,1948 +4648,1948 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="5" min="5" style="45" width="16.14"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="1" max="6" min="6" style="45" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="2" max="9" min="7" style="45" width="11.57"/>
-    <col collapsed="true" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="45" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="11" min="11" style="45" width="3.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="12" style="45" width="3.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="45" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="5" min="5" style="44" width="16.14"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="1" max="6" min="6" style="44" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="2" max="9" min="7" style="44" width="11.57"/>
+    <col collapsed="true" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="44" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="11" min="11" style="44" width="3.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="12" style="44" width="3.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="44" width="18.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="94" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="94"/>
-      <c r="L1" s="96" t="n">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="85"/>
+      <c r="L1" s="87" t="n">
         <v>45208</v>
       </c>
-      <c r="M1" s="96" t="n">
+      <c r="M1" s="87" t="n">
         <v>45209</v>
       </c>
-      <c r="N1" s="96" t="n">
+      <c r="N1" s="87" t="n">
         <v>45210</v>
       </c>
-      <c r="O1" s="96" t="n">
+      <c r="O1" s="87" t="n">
         <v>45211</v>
       </c>
-      <c r="P1" s="96" t="n">
+      <c r="P1" s="87" t="n">
         <v>45212</v>
       </c>
-      <c r="Q1" s="96" t="n">
+      <c r="Q1" s="87" t="n">
         <v>45213</v>
       </c>
-      <c r="R1" s="96" t="n">
+      <c r="R1" s="87" t="n">
         <v>45214</v>
       </c>
-      <c r="S1" s="96" t="n">
+      <c r="S1" s="87" t="n">
         <v>45215</v>
       </c>
-      <c r="T1" s="96" t="n">
+      <c r="T1" s="87" t="n">
         <v>45216</v>
       </c>
-      <c r="U1" s="96" t="n">
+      <c r="U1" s="87" t="n">
         <v>45217</v>
       </c>
-      <c r="V1" s="96" t="n">
+      <c r="V1" s="87" t="n">
         <v>45218</v>
       </c>
-      <c r="W1" s="96" t="n">
+      <c r="W1" s="87" t="n">
         <v>45219</v>
       </c>
-      <c r="X1" s="96" t="n">
+      <c r="X1" s="87" t="n">
         <v>45220</v>
       </c>
-      <c r="Y1" s="96" t="n">
+      <c r="Y1" s="87" t="n">
         <v>45221</v>
       </c>
-      <c r="Z1" s="96" t="n">
+      <c r="Z1" s="87" t="n">
         <v>45222</v>
       </c>
-      <c r="AA1" s="96" t="n">
+      <c r="AA1" s="87" t="n">
         <v>45223</v>
       </c>
-      <c r="AB1" s="96" t="n">
+      <c r="AB1" s="87" t="n">
         <v>45224</v>
       </c>
-      <c r="AC1" s="96" t="n">
+      <c r="AC1" s="87" t="n">
         <v>45225</v>
       </c>
-      <c r="AD1" s="96" t="n">
+      <c r="AD1" s="87" t="n">
         <v>45226</v>
       </c>
-      <c r="AE1" s="96" t="n">
+      <c r="AE1" s="87" t="n">
         <v>45227</v>
       </c>
-      <c r="AF1" s="96" t="n">
+      <c r="AF1" s="87" t="n">
         <v>45228</v>
       </c>
-      <c r="AG1" s="96" t="n">
+      <c r="AG1" s="87" t="n">
         <v>45229</v>
       </c>
-      <c r="AH1" s="96" t="n">
+      <c r="AH1" s="87" t="n">
         <v>45230</v>
       </c>
-      <c r="AI1" s="96" t="n">
+      <c r="AI1" s="87" t="n">
         <v>45231</v>
       </c>
-      <c r="AJ1" s="96" t="n">
+      <c r="AJ1" s="87" t="n">
         <v>45232</v>
       </c>
-      <c r="AK1" s="96" t="n">
+      <c r="AK1" s="87" t="n">
         <v>45233</v>
       </c>
-      <c r="AL1" s="96" t="n">
+      <c r="AL1" s="87" t="n">
         <v>45234</v>
       </c>
-      <c r="AM1" s="96" t="n">
+      <c r="AM1" s="87" t="n">
         <v>45235</v>
       </c>
-      <c r="AN1" s="96" t="n">
+      <c r="AN1" s="87" t="n">
         <v>45236</v>
       </c>
-      <c r="AO1" s="96" t="n">
+      <c r="AO1" s="87" t="n">
         <v>45237</v>
       </c>
-      <c r="AP1" s="96" t="n">
+      <c r="AP1" s="87" t="n">
         <v>45238</v>
       </c>
-      <c r="AQ1" s="96" t="n">
+      <c r="AQ1" s="87" t="n">
         <v>45239</v>
       </c>
-      <c r="AR1" s="96" t="n">
+      <c r="AR1" s="87" t="n">
         <v>45240</v>
       </c>
-      <c r="AS1" s="96" t="n">
+      <c r="AS1" s="87" t="n">
         <v>45241</v>
       </c>
-      <c r="AT1" s="96" t="n">
+      <c r="AT1" s="87" t="n">
         <v>45242</v>
       </c>
-      <c r="AU1" s="96" t="n">
+      <c r="AU1" s="87" t="n">
         <v>45243</v>
       </c>
-      <c r="AV1" s="96" t="n">
+      <c r="AV1" s="87" t="n">
         <v>45244</v>
       </c>
-      <c r="AW1" s="96" t="n">
+      <c r="AW1" s="87" t="n">
         <v>45245</v>
       </c>
-      <c r="AX1" s="96" t="n">
+      <c r="AX1" s="87" t="n">
         <v>45246</v>
       </c>
-      <c r="AY1" s="96" t="n">
+      <c r="AY1" s="87" t="n">
         <v>45247</v>
       </c>
-      <c r="AZ1" s="96" t="n">
+      <c r="AZ1" s="87" t="n">
         <v>45248</v>
       </c>
-      <c r="BA1" s="96" t="n">
+      <c r="BA1" s="87" t="n">
         <v>45249</v>
       </c>
-      <c r="BB1" s="96" t="n">
+      <c r="BB1" s="87" t="n">
         <v>45250</v>
       </c>
-      <c r="BC1" s="96" t="n">
+      <c r="BC1" s="87" t="n">
         <v>45251</v>
       </c>
-      <c r="BD1" s="96" t="n">
+      <c r="BD1" s="87" t="n">
         <v>45252</v>
       </c>
-      <c r="BE1" s="96" t="n">
+      <c r="BE1" s="87" t="n">
         <v>45253</v>
       </c>
-      <c r="BF1" s="96" t="n">
+      <c r="BF1" s="87" t="n">
         <v>45254</v>
       </c>
-      <c r="BG1" s="96" t="n">
+      <c r="BG1" s="87" t="n">
         <v>45255</v>
       </c>
-      <c r="BH1" s="96" t="n">
+      <c r="BH1" s="87" t="n">
         <v>45256</v>
       </c>
-      <c r="BI1" s="96" t="n">
+      <c r="BI1" s="87" t="n">
         <v>45257</v>
       </c>
-      <c r="BJ1" s="96" t="n">
+      <c r="BJ1" s="87" t="n">
         <v>45258</v>
       </c>
-      <c r="BK1" s="96" t="n">
+      <c r="BK1" s="87" t="n">
         <v>45259</v>
       </c>
-      <c r="BL1" s="96" t="n">
+      <c r="BL1" s="87" t="n">
         <v>45260</v>
       </c>
-      <c r="BM1" s="96" t="n">
+      <c r="BM1" s="87" t="n">
         <v>45261</v>
       </c>
-      <c r="BN1" s="92" t="s">
-        <v>72</v>
+      <c r="BN1" s="83" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="63" t="n">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="56" t="n">
         <f aca="false">Netzplan!G2</f>
         <v>5</v>
       </c>
-      <c r="H2" s="63" t="n">
+      <c r="H2" s="57" t="n">
         <f aca="false">Netzplan!H2</f>
         <v>3</v>
       </c>
-      <c r="I2" s="65" t="n">
+      <c r="I2" s="58" t="n">
         <f aca="false">Netzplan!I2</f>
         <v>1</v>
       </c>
-      <c r="J2" s="97" t="n">
+      <c r="J2" s="88" t="n">
         <f aca="false">Netzplan!J2</f>
         <v>2</v>
       </c>
-      <c r="K2" s="98" t="n">
+      <c r="K2" s="89" t="n">
         <f aca="false">SUM(L2:BM2)</f>
         <v>2</v>
       </c>
-      <c r="L2" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="99"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="99"/>
-      <c r="AG2" s="99"/>
-      <c r="AH2" s="99"/>
-      <c r="AI2" s="99"/>
-      <c r="AJ2" s="99"/>
-      <c r="AK2" s="99"/>
-      <c r="AL2" s="99"/>
-      <c r="AM2" s="99"/>
-      <c r="AN2" s="99"/>
-      <c r="AO2" s="99"/>
-      <c r="AP2" s="99"/>
-      <c r="AQ2" s="99"/>
-      <c r="AR2" s="99"/>
-      <c r="AS2" s="99"/>
-      <c r="AT2" s="99"/>
-      <c r="AU2" s="99"/>
-      <c r="AV2" s="99"/>
-      <c r="AW2" s="99"/>
-      <c r="AX2" s="99"/>
-      <c r="AY2" s="100"/>
-      <c r="AZ2" s="99"/>
-      <c r="BA2" s="99"/>
-      <c r="BB2" s="99"/>
-      <c r="BC2" s="99"/>
-      <c r="BD2" s="99"/>
-      <c r="BE2" s="99"/>
-      <c r="BF2" s="100"/>
-      <c r="BG2" s="99"/>
-      <c r="BH2" s="99"/>
-      <c r="BI2" s="99"/>
-      <c r="BJ2" s="99"/>
-      <c r="BK2" s="99"/>
-      <c r="BL2" s="100"/>
-      <c r="BM2" s="99"/>
+      <c r="L2" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="90"/>
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="38"/>
+      <c r="BD2" s="38"/>
+      <c r="BE2" s="38"/>
+      <c r="BF2" s="90"/>
+      <c r="BG2" s="38"/>
+      <c r="BH2" s="38"/>
+      <c r="BI2" s="38"/>
+      <c r="BJ2" s="38"/>
+      <c r="BK2" s="38"/>
+      <c r="BL2" s="90"/>
+      <c r="BM2" s="38"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="63" t="n">
+      <c r="F3" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="56" t="n">
         <f aca="false">Netzplan!G3</f>
         <v>1</v>
       </c>
-      <c r="H3" s="63" t="n">
+      <c r="H3" s="57" t="n">
         <f aca="false">Netzplan!H3</f>
         <v>2</v>
       </c>
-      <c r="I3" s="65" t="n">
+      <c r="I3" s="58" t="n">
         <f aca="false">Netzplan!I3</f>
         <v>1</v>
       </c>
-      <c r="J3" s="97" t="n">
+      <c r="J3" s="88" t="n">
         <f aca="false">Netzplan!J3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="98" t="n">
+      <c r="K3" s="89" t="n">
         <f aca="false">SUM(L3:BM3)</f>
         <v>1</v>
       </c>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="99"/>
-      <c r="AA3" s="99"/>
-      <c r="AB3" s="99"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="99"/>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="99"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="99"/>
-      <c r="AI3" s="99"/>
-      <c r="AJ3" s="99"/>
-      <c r="AK3" s="99"/>
-      <c r="AL3" s="99"/>
-      <c r="AM3" s="99"/>
-      <c r="AN3" s="99"/>
-      <c r="AO3" s="99"/>
-      <c r="AP3" s="99"/>
-      <c r="AQ3" s="99"/>
-      <c r="AR3" s="99"/>
-      <c r="AS3" s="99"/>
-      <c r="AT3" s="99"/>
-      <c r="AU3" s="99"/>
-      <c r="AV3" s="99"/>
-      <c r="AW3" s="99"/>
-      <c r="AX3" s="99"/>
-      <c r="AY3" s="100"/>
-      <c r="AZ3" s="99"/>
-      <c r="BA3" s="99"/>
-      <c r="BB3" s="99"/>
-      <c r="BC3" s="99"/>
-      <c r="BD3" s="99"/>
-      <c r="BE3" s="99"/>
-      <c r="BF3" s="100"/>
-      <c r="BG3" s="99"/>
-      <c r="BH3" s="99"/>
-      <c r="BI3" s="99"/>
-      <c r="BJ3" s="99"/>
-      <c r="BK3" s="99"/>
-      <c r="BL3" s="100"/>
-      <c r="BM3" s="99"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="38"/>
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="38"/>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="38"/>
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="38"/>
+      <c r="AY3" s="90"/>
+      <c r="AZ3" s="38"/>
+      <c r="BA3" s="38"/>
+      <c r="BB3" s="38"/>
+      <c r="BC3" s="38"/>
+      <c r="BD3" s="38"/>
+      <c r="BE3" s="38"/>
+      <c r="BF3" s="90"/>
+      <c r="BG3" s="38"/>
+      <c r="BH3" s="38"/>
+      <c r="BI3" s="38"/>
+      <c r="BJ3" s="38"/>
+      <c r="BK3" s="38"/>
+      <c r="BL3" s="90"/>
+      <c r="BM3" s="38"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="63" t="n">
+      <c r="G4" s="56" t="n">
         <f aca="false">Netzplan!G4</f>
         <v>4</v>
       </c>
-      <c r="H4" s="63" t="str">
+      <c r="H4" s="56" t="str">
         <f aca="false">Netzplan!H4</f>
         <v>1</v>
       </c>
-      <c r="I4" s="65" t="n">
+      <c r="I4" s="58" t="n">
         <f aca="false">Netzplan!I4</f>
         <v>1</v>
       </c>
-      <c r="J4" s="97" t="n">
+      <c r="J4" s="88" t="n">
         <f aca="false">Netzplan!J4</f>
         <v>4</v>
       </c>
-      <c r="K4" s="98" t="n">
+      <c r="K4" s="89" t="n">
         <f aca="false">SUM(L4:BM4)</f>
         <v>4</v>
       </c>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="99"/>
-      <c r="AD4" s="99"/>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="99"/>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="99"/>
-      <c r="AK4" s="99"/>
-      <c r="AL4" s="99"/>
-      <c r="AM4" s="99"/>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="99"/>
-      <c r="AP4" s="99"/>
-      <c r="AQ4" s="99"/>
-      <c r="AR4" s="99"/>
-      <c r="AS4" s="99"/>
-      <c r="AT4" s="99"/>
-      <c r="AU4" s="99"/>
-      <c r="AV4" s="99"/>
-      <c r="AW4" s="99"/>
-      <c r="AX4" s="99"/>
-      <c r="AY4" s="100"/>
-      <c r="AZ4" s="99"/>
-      <c r="BA4" s="99"/>
-      <c r="BB4" s="99"/>
-      <c r="BC4" s="99"/>
-      <c r="BD4" s="99"/>
-      <c r="BE4" s="99"/>
-      <c r="BF4" s="100"/>
-      <c r="BG4" s="99"/>
-      <c r="BH4" s="99"/>
-      <c r="BI4" s="99"/>
-      <c r="BJ4" s="99"/>
-      <c r="BK4" s="99"/>
-      <c r="BL4" s="100"/>
-      <c r="BM4" s="99"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="90"/>
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="90"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
+      <c r="BJ4" s="38"/>
+      <c r="BK4" s="38"/>
+      <c r="BL4" s="90"/>
+      <c r="BM4" s="38"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="63" t="n">
+      <c r="G5" s="56" t="n">
         <f aca="false">Netzplan!G5</f>
         <v>3</v>
       </c>
-      <c r="H5" s="63" t="n">
+      <c r="H5" s="57" t="n">
         <f aca="false">Netzplan!H5</f>
         <v>2</v>
       </c>
-      <c r="I5" s="65" t="n">
+      <c r="I5" s="58" t="n">
         <f aca="false">Netzplan!I5</f>
         <v>0.6</v>
       </c>
-      <c r="J5" s="97" t="n">
+      <c r="J5" s="88" t="n">
         <f aca="false">Netzplan!J5</f>
         <v>3</v>
       </c>
-      <c r="K5" s="98" t="n">
+      <c r="K5" s="89" t="n">
         <f aca="false">SUM(L5:BM5)</f>
         <v>3</v>
       </c>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
-      <c r="W5" s="99"/>
-      <c r="X5" s="99"/>
-      <c r="Y5" s="99"/>
-      <c r="Z5" s="99"/>
-      <c r="AA5" s="99"/>
-      <c r="AB5" s="99"/>
-      <c r="AC5" s="99"/>
-      <c r="AD5" s="99"/>
-      <c r="AE5" s="99"/>
-      <c r="AF5" s="99"/>
-      <c r="AG5" s="99"/>
-      <c r="AH5" s="99"/>
-      <c r="AI5" s="99"/>
-      <c r="AJ5" s="99"/>
-      <c r="AK5" s="99"/>
-      <c r="AL5" s="99"/>
-      <c r="AM5" s="99"/>
-      <c r="AN5" s="99"/>
-      <c r="AO5" s="99"/>
-      <c r="AP5" s="99"/>
-      <c r="AQ5" s="99"/>
-      <c r="AR5" s="99"/>
-      <c r="AS5" s="99"/>
-      <c r="AT5" s="99"/>
-      <c r="AU5" s="99"/>
-      <c r="AV5" s="99"/>
-      <c r="AW5" s="99"/>
-      <c r="AX5" s="99"/>
-      <c r="AY5" s="100"/>
-      <c r="AZ5" s="99"/>
-      <c r="BA5" s="99"/>
-      <c r="BB5" s="99"/>
-      <c r="BC5" s="99"/>
-      <c r="BD5" s="99"/>
-      <c r="BE5" s="99"/>
-      <c r="BF5" s="100"/>
-      <c r="BG5" s="99"/>
-      <c r="BH5" s="99"/>
-      <c r="BI5" s="99"/>
-      <c r="BJ5" s="99"/>
-      <c r="BK5" s="99"/>
-      <c r="BL5" s="100"/>
-      <c r="BM5" s="99"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="38"/>
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="38"/>
+      <c r="AN5" s="38"/>
+      <c r="AO5" s="38"/>
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="38"/>
+      <c r="AU5" s="38"/>
+      <c r="AV5" s="38"/>
+      <c r="AW5" s="38"/>
+      <c r="AX5" s="38"/>
+      <c r="AY5" s="90"/>
+      <c r="AZ5" s="38"/>
+      <c r="BA5" s="38"/>
+      <c r="BB5" s="38"/>
+      <c r="BC5" s="38"/>
+      <c r="BD5" s="38"/>
+      <c r="BE5" s="38"/>
+      <c r="BF5" s="90"/>
+      <c r="BG5" s="38"/>
+      <c r="BH5" s="38"/>
+      <c r="BI5" s="38"/>
+      <c r="BJ5" s="38"/>
+      <c r="BK5" s="38"/>
+      <c r="BL5" s="90"/>
+      <c r="BM5" s="38"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="78" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="63" t="n">
+      <c r="G6" s="56" t="n">
         <f aca="false">Netzplan!G6</f>
         <v>7</v>
       </c>
-      <c r="H6" s="63" t="n">
+      <c r="H6" s="57" t="n">
         <f aca="false">Netzplan!H6</f>
         <v>1</v>
       </c>
-      <c r="I6" s="65" t="n">
+      <c r="I6" s="58" t="n">
         <f aca="false">Netzplan!I6</f>
         <v>1.5</v>
       </c>
-      <c r="J6" s="97" t="n">
+      <c r="J6" s="88" t="n">
         <f aca="false">Netzplan!J6</f>
         <v>5</v>
       </c>
-      <c r="K6" s="98" t="n">
+      <c r="K6" s="89" t="n">
         <f aca="false">SUM(L6:BM6)</f>
         <v>5</v>
       </c>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" s="63"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="63"/>
-      <c r="AB6" s="63"/>
-      <c r="AC6" s="63"/>
-      <c r="AD6" s="99"/>
-      <c r="AE6" s="99"/>
-      <c r="AF6" s="99"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="99"/>
-      <c r="AI6" s="99"/>
-      <c r="AJ6" s="99"/>
-      <c r="AK6" s="99"/>
-      <c r="AL6" s="99"/>
-      <c r="AM6" s="99"/>
-      <c r="AN6" s="99"/>
-      <c r="AO6" s="99"/>
-      <c r="AP6" s="99"/>
-      <c r="AQ6" s="99"/>
-      <c r="AR6" s="99"/>
-      <c r="AS6" s="99"/>
-      <c r="AT6" s="99"/>
-      <c r="AU6" s="99"/>
-      <c r="AV6" s="99"/>
-      <c r="AW6" s="99"/>
-      <c r="AX6" s="99"/>
-      <c r="AY6" s="100"/>
-      <c r="AZ6" s="99"/>
-      <c r="BA6" s="99"/>
-      <c r="BB6" s="99"/>
-      <c r="BC6" s="99"/>
-      <c r="BD6" s="99"/>
-      <c r="BE6" s="99"/>
-      <c r="BF6" s="100"/>
-      <c r="BG6" s="99"/>
-      <c r="BH6" s="99"/>
-      <c r="BI6" s="99"/>
-      <c r="BJ6" s="99"/>
-      <c r="BK6" s="99"/>
-      <c r="BL6" s="100"/>
-      <c r="BM6" s="99"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="56"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="38"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="38"/>
+      <c r="AX6" s="38"/>
+      <c r="AY6" s="90"/>
+      <c r="AZ6" s="38"/>
+      <c r="BA6" s="38"/>
+      <c r="BB6" s="38"/>
+      <c r="BC6" s="38"/>
+      <c r="BD6" s="38"/>
+      <c r="BE6" s="38"/>
+      <c r="BF6" s="90"/>
+      <c r="BG6" s="38"/>
+      <c r="BH6" s="38"/>
+      <c r="BI6" s="38"/>
+      <c r="BJ6" s="38"/>
+      <c r="BK6" s="38"/>
+      <c r="BL6" s="90"/>
+      <c r="BM6" s="38"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="63" t="n">
+      <c r="G7" s="56" t="n">
         <f aca="false">Netzplan!G7</f>
         <v>1</v>
       </c>
-      <c r="H7" s="63" t="str">
+      <c r="H7" s="56" t="str">
         <f aca="false">Netzplan!H7</f>
         <v>1</v>
       </c>
-      <c r="I7" s="65" t="n">
+      <c r="I7" s="58" t="n">
         <f aca="false">Netzplan!I7</f>
         <v>1</v>
       </c>
-      <c r="J7" s="97" t="n">
+      <c r="J7" s="88" t="n">
         <f aca="false">Netzplan!J7</f>
         <v>1</v>
       </c>
-      <c r="K7" s="98" t="n">
+      <c r="K7" s="89" t="n">
         <f aca="false">SUM(L7:BM7)</f>
         <v>1</v>
       </c>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="99"/>
-      <c r="U7" s="99"/>
-      <c r="V7" s="99"/>
-      <c r="W7" s="99"/>
-      <c r="X7" s="99"/>
-      <c r="Y7" s="99"/>
-      <c r="Z7" s="99"/>
-      <c r="AA7" s="99"/>
-      <c r="AB7" s="99"/>
-      <c r="AC7" s="99"/>
-      <c r="AD7" s="99"/>
-      <c r="AE7" s="99"/>
-      <c r="AF7" s="99"/>
-      <c r="AG7" s="99"/>
-      <c r="AH7" s="99"/>
-      <c r="AI7" s="99"/>
-      <c r="AJ7" s="99"/>
-      <c r="AK7" s="99"/>
-      <c r="AL7" s="99"/>
-      <c r="AM7" s="99"/>
-      <c r="AN7" s="99"/>
-      <c r="AO7" s="99"/>
-      <c r="AP7" s="99"/>
-      <c r="AQ7" s="99"/>
-      <c r="AR7" s="99"/>
-      <c r="AS7" s="99"/>
-      <c r="AT7" s="99"/>
-      <c r="AU7" s="99"/>
-      <c r="AV7" s="99"/>
-      <c r="AW7" s="99"/>
-      <c r="AX7" s="99"/>
-      <c r="AY7" s="100"/>
-      <c r="AZ7" s="99"/>
-      <c r="BA7" s="99"/>
-      <c r="BB7" s="99"/>
-      <c r="BC7" s="99"/>
-      <c r="BD7" s="99"/>
-      <c r="BE7" s="99"/>
-      <c r="BF7" s="100"/>
-      <c r="BG7" s="99"/>
-      <c r="BH7" s="99"/>
-      <c r="BI7" s="99"/>
-      <c r="BJ7" s="99"/>
-      <c r="BK7" s="99"/>
-      <c r="BL7" s="100"/>
-      <c r="BM7" s="99"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="38"/>
+      <c r="AK7" s="38"/>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="38"/>
+      <c r="AQ7" s="38"/>
+      <c r="AR7" s="38"/>
+      <c r="AS7" s="38"/>
+      <c r="AT7" s="38"/>
+      <c r="AU7" s="38"/>
+      <c r="AV7" s="38"/>
+      <c r="AW7" s="38"/>
+      <c r="AX7" s="38"/>
+      <c r="AY7" s="90"/>
+      <c r="AZ7" s="38"/>
+      <c r="BA7" s="38"/>
+      <c r="BB7" s="38"/>
+      <c r="BC7" s="38"/>
+      <c r="BD7" s="38"/>
+      <c r="BE7" s="38"/>
+      <c r="BF7" s="90"/>
+      <c r="BG7" s="38"/>
+      <c r="BH7" s="38"/>
+      <c r="BI7" s="38"/>
+      <c r="BJ7" s="38"/>
+      <c r="BK7" s="38"/>
+      <c r="BL7" s="90"/>
+      <c r="BM7" s="38"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="78" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="63" t="n">
+      <c r="F8" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="56" t="n">
         <f aca="false">Netzplan!G8</f>
         <v>3</v>
       </c>
-      <c r="H8" s="63" t="str">
+      <c r="H8" s="56" t="str">
         <f aca="false">Netzplan!H8</f>
         <v>1</v>
       </c>
-      <c r="I8" s="65" t="n">
+      <c r="I8" s="58" t="n">
         <f aca="false">Netzplan!I8</f>
         <v>0.8</v>
       </c>
-      <c r="J8" s="97" t="n">
+      <c r="J8" s="88" t="n">
         <f aca="false">Netzplan!J8</f>
         <v>4</v>
       </c>
-      <c r="K8" s="98" t="n">
+      <c r="K8" s="89" t="n">
         <f aca="false">SUM(L8:BM8)</f>
         <v>4</v>
       </c>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="99"/>
-      <c r="X8" s="99"/>
-      <c r="Y8" s="99"/>
-      <c r="Z8" s="99"/>
-      <c r="AA8" s="99"/>
-      <c r="AB8" s="99"/>
-      <c r="AC8" s="99"/>
-      <c r="AD8" s="99"/>
-      <c r="AE8" s="99"/>
-      <c r="AF8" s="99"/>
-      <c r="AG8" s="99"/>
-      <c r="AH8" s="99"/>
-      <c r="AI8" s="99"/>
-      <c r="AJ8" s="99"/>
-      <c r="AK8" s="99"/>
-      <c r="AL8" s="99"/>
-      <c r="AM8" s="99"/>
-      <c r="AN8" s="99"/>
-      <c r="AO8" s="99"/>
-      <c r="AP8" s="99"/>
-      <c r="AQ8" s="99"/>
-      <c r="AR8" s="99"/>
-      <c r="AS8" s="99"/>
-      <c r="AT8" s="99"/>
-      <c r="AU8" s="99"/>
-      <c r="AV8" s="99"/>
-      <c r="AW8" s="99"/>
-      <c r="AX8" s="99"/>
-      <c r="AY8" s="100"/>
-      <c r="AZ8" s="99"/>
-      <c r="BA8" s="99"/>
-      <c r="BB8" s="99"/>
-      <c r="BC8" s="99"/>
-      <c r="BD8" s="99"/>
-      <c r="BE8" s="99"/>
-      <c r="BF8" s="100"/>
-      <c r="BG8" s="99"/>
-      <c r="BH8" s="99"/>
-      <c r="BI8" s="99"/>
-      <c r="BJ8" s="99"/>
-      <c r="BK8" s="99"/>
-      <c r="BL8" s="100"/>
-      <c r="BM8" s="99"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="38"/>
+      <c r="AK8" s="38"/>
+      <c r="AL8" s="38"/>
+      <c r="AM8" s="38"/>
+      <c r="AN8" s="38"/>
+      <c r="AO8" s="38"/>
+      <c r="AP8" s="38"/>
+      <c r="AQ8" s="38"/>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="38"/>
+      <c r="AT8" s="38"/>
+      <c r="AU8" s="38"/>
+      <c r="AV8" s="38"/>
+      <c r="AW8" s="38"/>
+      <c r="AX8" s="38"/>
+      <c r="AY8" s="90"/>
+      <c r="AZ8" s="38"/>
+      <c r="BA8" s="38"/>
+      <c r="BB8" s="38"/>
+      <c r="BC8" s="38"/>
+      <c r="BD8" s="38"/>
+      <c r="BE8" s="38"/>
+      <c r="BF8" s="90"/>
+      <c r="BG8" s="38"/>
+      <c r="BH8" s="38"/>
+      <c r="BI8" s="38"/>
+      <c r="BJ8" s="38"/>
+      <c r="BK8" s="38"/>
+      <c r="BL8" s="90"/>
+      <c r="BM8" s="38"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="60"/>
-      <c r="B9" s="101" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="99"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="99"/>
-      <c r="X9" s="99"/>
-      <c r="Y9" s="99"/>
-      <c r="Z9" s="99"/>
-      <c r="AA9" s="99"/>
-      <c r="AB9" s="99"/>
-      <c r="AC9" s="99"/>
-      <c r="AD9" s="99"/>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="99"/>
-      <c r="AG9" s="99"/>
-      <c r="AH9" s="99"/>
-      <c r="AI9" s="99"/>
-      <c r="AJ9" s="99"/>
-      <c r="AK9" s="99"/>
-      <c r="AL9" s="99"/>
-      <c r="AM9" s="99"/>
-      <c r="AN9" s="99"/>
-      <c r="AO9" s="99"/>
-      <c r="AP9" s="99"/>
-      <c r="AQ9" s="99"/>
-      <c r="AR9" s="99"/>
-      <c r="AS9" s="99"/>
-      <c r="AT9" s="99"/>
-      <c r="AU9" s="99"/>
-      <c r="AV9" s="99"/>
-      <c r="AW9" s="99"/>
-      <c r="AX9" s="99"/>
-      <c r="AY9" s="100"/>
-      <c r="AZ9" s="99"/>
-      <c r="BA9" s="99"/>
-      <c r="BB9" s="99"/>
-      <c r="BC9" s="99"/>
-      <c r="BD9" s="99"/>
-      <c r="BE9" s="99"/>
-      <c r="BF9" s="100"/>
-      <c r="BG9" s="99"/>
-      <c r="BH9" s="99"/>
-      <c r="BI9" s="99"/>
-      <c r="BJ9" s="99"/>
-      <c r="BK9" s="99"/>
-      <c r="BL9" s="100"/>
-      <c r="BM9" s="99"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38"/>
+      <c r="AI9" s="38"/>
+      <c r="AJ9" s="38"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="38"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="38"/>
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38"/>
+      <c r="AT9" s="38"/>
+      <c r="AU9" s="38"/>
+      <c r="AV9" s="38"/>
+      <c r="AW9" s="38"/>
+      <c r="AX9" s="38"/>
+      <c r="AY9" s="90"/>
+      <c r="AZ9" s="38"/>
+      <c r="BA9" s="38"/>
+      <c r="BB9" s="38"/>
+      <c r="BC9" s="38"/>
+      <c r="BD9" s="38"/>
+      <c r="BE9" s="38"/>
+      <c r="BF9" s="90"/>
+      <c r="BG9" s="38"/>
+      <c r="BH9" s="38"/>
+      <c r="BI9" s="38"/>
+      <c r="BJ9" s="38"/>
+      <c r="BK9" s="38"/>
+      <c r="BL9" s="90"/>
+      <c r="BM9" s="38"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="78" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="63" t="n">
+      <c r="G10" s="56" t="n">
         <f aca="false">Netzplan!G9</f>
         <v>2</v>
       </c>
-      <c r="H10" s="63" t="str">
+      <c r="H10" s="56" t="str">
         <f aca="false">Netzplan!H9</f>
         <v>1</v>
       </c>
-      <c r="I10" s="65" t="n">
+      <c r="I10" s="58" t="n">
         <f aca="false">Netzplan!I9</f>
         <v>1.5</v>
       </c>
-      <c r="J10" s="97" t="n">
+      <c r="J10" s="88" t="n">
         <f aca="false">Netzplan!J9</f>
         <v>1</v>
       </c>
-      <c r="K10" s="98" t="n">
+      <c r="K10" s="89" t="n">
         <f aca="false">SUM(L10:BM10)</f>
         <v>1</v>
       </c>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="99"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="99"/>
-      <c r="X10" s="99"/>
-      <c r="Y10" s="99"/>
-      <c r="Z10" s="99"/>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="99"/>
-      <c r="AC10" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="63"/>
-      <c r="AE10" s="99"/>
-      <c r="AF10" s="99"/>
-      <c r="AG10" s="63"/>
-      <c r="AH10" s="99"/>
-      <c r="AI10" s="99"/>
-      <c r="AJ10" s="99"/>
-      <c r="AK10" s="99"/>
-      <c r="AL10" s="99"/>
-      <c r="AM10" s="99"/>
-      <c r="AN10" s="99"/>
-      <c r="AO10" s="99"/>
-      <c r="AP10" s="99"/>
-      <c r="AQ10" s="99"/>
-      <c r="AR10" s="99"/>
-      <c r="AS10" s="99"/>
-      <c r="AT10" s="99"/>
-      <c r="AU10" s="99"/>
-      <c r="AV10" s="99"/>
-      <c r="AW10" s="99"/>
-      <c r="AX10" s="99"/>
-      <c r="AY10" s="100"/>
-      <c r="AZ10" s="99"/>
-      <c r="BA10" s="99"/>
-      <c r="BB10" s="99"/>
-      <c r="BC10" s="99"/>
-      <c r="BD10" s="99"/>
-      <c r="BE10" s="99"/>
-      <c r="BF10" s="100"/>
-      <c r="BG10" s="99"/>
-      <c r="BH10" s="99"/>
-      <c r="BI10" s="99"/>
-      <c r="BJ10" s="99"/>
-      <c r="BK10" s="99"/>
-      <c r="BL10" s="100"/>
-      <c r="BM10" s="99"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="38"/>
+      <c r="AI10" s="38"/>
+      <c r="AJ10" s="38"/>
+      <c r="AK10" s="38"/>
+      <c r="AL10" s="38"/>
+      <c r="AM10" s="38"/>
+      <c r="AN10" s="38"/>
+      <c r="AO10" s="38"/>
+      <c r="AP10" s="38"/>
+      <c r="AQ10" s="38"/>
+      <c r="AR10" s="38"/>
+      <c r="AS10" s="38"/>
+      <c r="AT10" s="38"/>
+      <c r="AU10" s="38"/>
+      <c r="AV10" s="38"/>
+      <c r="AW10" s="38"/>
+      <c r="AX10" s="38"/>
+      <c r="AY10" s="90"/>
+      <c r="AZ10" s="38"/>
+      <c r="BA10" s="38"/>
+      <c r="BB10" s="38"/>
+      <c r="BC10" s="38"/>
+      <c r="BD10" s="38"/>
+      <c r="BE10" s="38"/>
+      <c r="BF10" s="90"/>
+      <c r="BG10" s="38"/>
+      <c r="BH10" s="38"/>
+      <c r="BI10" s="38"/>
+      <c r="BJ10" s="38"/>
+      <c r="BK10" s="38"/>
+      <c r="BL10" s="90"/>
+      <c r="BM10" s="38"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="78" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="78" t="s">
+      <c r="F11" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="63" t="n">
+      <c r="G11" s="56" t="n">
         <f aca="false">Netzplan!G10</f>
         <v>2</v>
       </c>
-      <c r="H11" s="63" t="str">
+      <c r="H11" s="56" t="str">
         <f aca="false">Netzplan!H10</f>
         <v>1</v>
       </c>
-      <c r="I11" s="65" t="n">
+      <c r="I11" s="58" t="n">
         <f aca="false">Netzplan!I10</f>
         <v>1.5</v>
       </c>
-      <c r="J11" s="97" t="n">
+      <c r="J11" s="88" t="n">
         <f aca="false">Netzplan!J10</f>
         <v>1</v>
       </c>
-      <c r="K11" s="98" t="n">
+      <c r="K11" s="89" t="n">
         <f aca="false">SUM(L11:BM11)</f>
         <v>1</v>
       </c>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="99"/>
-      <c r="AC11" s="99"/>
-      <c r="AD11" s="99"/>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="99"/>
-      <c r="AH11" s="63"/>
-      <c r="AI11" s="63"/>
-      <c r="AJ11" s="99"/>
-      <c r="AK11" s="99"/>
-      <c r="AL11" s="99"/>
-      <c r="AM11" s="99"/>
-      <c r="AN11" s="99"/>
-      <c r="AO11" s="99"/>
-      <c r="AP11" s="99"/>
-      <c r="AQ11" s="99"/>
-      <c r="AR11" s="99"/>
-      <c r="AS11" s="99"/>
-      <c r="AT11" s="99"/>
-      <c r="AU11" s="99"/>
-      <c r="AV11" s="99"/>
-      <c r="AW11" s="99"/>
-      <c r="AX11" s="99"/>
-      <c r="AY11" s="100"/>
-      <c r="AZ11" s="99"/>
-      <c r="BA11" s="99"/>
-      <c r="BB11" s="99"/>
-      <c r="BC11" s="99"/>
-      <c r="BD11" s="99"/>
-      <c r="BE11" s="99"/>
-      <c r="BF11" s="100"/>
-      <c r="BG11" s="99"/>
-      <c r="BH11" s="99"/>
-      <c r="BI11" s="99"/>
-      <c r="BJ11" s="99"/>
-      <c r="BK11" s="99"/>
-      <c r="BL11" s="100"/>
-      <c r="BM11" s="99"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="38"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="38"/>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="38"/>
+      <c r="AO11" s="38"/>
+      <c r="AP11" s="38"/>
+      <c r="AQ11" s="38"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="38"/>
+      <c r="AT11" s="38"/>
+      <c r="AU11" s="38"/>
+      <c r="AV11" s="38"/>
+      <c r="AW11" s="38"/>
+      <c r="AX11" s="38"/>
+      <c r="AY11" s="90"/>
+      <c r="AZ11" s="38"/>
+      <c r="BA11" s="38"/>
+      <c r="BB11" s="38"/>
+      <c r="BC11" s="38"/>
+      <c r="BD11" s="38"/>
+      <c r="BE11" s="38"/>
+      <c r="BF11" s="90"/>
+      <c r="BG11" s="38"/>
+      <c r="BH11" s="38"/>
+      <c r="BI11" s="38"/>
+      <c r="BJ11" s="38"/>
+      <c r="BK11" s="38"/>
+      <c r="BL11" s="90"/>
+      <c r="BM11" s="38"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="78" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="78" t="s">
+      <c r="F12" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="63" t="n">
+      <c r="G12" s="56" t="n">
         <f aca="false">Netzplan!G11</f>
         <v>2</v>
       </c>
-      <c r="H12" s="63" t="str">
+      <c r="H12" s="56" t="str">
         <f aca="false">Netzplan!H11</f>
         <v>1</v>
       </c>
-      <c r="I12" s="65" t="n">
+      <c r="I12" s="58" t="n">
         <f aca="false">Netzplan!I11</f>
         <v>1.5</v>
       </c>
-      <c r="J12" s="97" t="n">
+      <c r="J12" s="88" t="n">
         <f aca="false">Netzplan!J11</f>
         <v>1</v>
       </c>
-      <c r="K12" s="98" t="n">
+      <c r="K12" s="89" t="n">
         <f aca="false">SUM(L12:BM12)</f>
         <v>1</v>
       </c>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="99"/>
-      <c r="Z12" s="99"/>
-      <c r="AA12" s="99"/>
-      <c r="AB12" s="99"/>
-      <c r="AC12" s="99"/>
-      <c r="AD12" s="99"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="99"/>
-      <c r="AG12" s="99"/>
-      <c r="AH12" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="63"/>
-      <c r="AK12" s="63"/>
-      <c r="AL12" s="99"/>
-      <c r="AM12" s="99"/>
-      <c r="AN12" s="99"/>
-      <c r="AO12" s="99"/>
-      <c r="AP12" s="99"/>
-      <c r="AQ12" s="99"/>
-      <c r="AR12" s="99"/>
-      <c r="AS12" s="99"/>
-      <c r="AT12" s="99"/>
-      <c r="AU12" s="99"/>
-      <c r="AV12" s="99"/>
-      <c r="AW12" s="99"/>
-      <c r="AX12" s="99"/>
-      <c r="AY12" s="100"/>
-      <c r="AZ12" s="99"/>
-      <c r="BA12" s="99"/>
-      <c r="BB12" s="99"/>
-      <c r="BC12" s="99"/>
-      <c r="BD12" s="99"/>
-      <c r="BE12" s="99"/>
-      <c r="BF12" s="100"/>
-      <c r="BG12" s="99"/>
-      <c r="BH12" s="99"/>
-      <c r="BI12" s="99"/>
-      <c r="BJ12" s="99"/>
-      <c r="BK12" s="99"/>
-      <c r="BL12" s="100"/>
-      <c r="BM12" s="99"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="38"/>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="38"/>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="38"/>
+      <c r="AR12" s="38"/>
+      <c r="AS12" s="38"/>
+      <c r="AT12" s="38"/>
+      <c r="AU12" s="38"/>
+      <c r="AV12" s="38"/>
+      <c r="AW12" s="38"/>
+      <c r="AX12" s="38"/>
+      <c r="AY12" s="90"/>
+      <c r="AZ12" s="38"/>
+      <c r="BA12" s="38"/>
+      <c r="BB12" s="38"/>
+      <c r="BC12" s="38"/>
+      <c r="BD12" s="38"/>
+      <c r="BE12" s="38"/>
+      <c r="BF12" s="90"/>
+      <c r="BG12" s="38"/>
+      <c r="BH12" s="38"/>
+      <c r="BI12" s="38"/>
+      <c r="BJ12" s="38"/>
+      <c r="BK12" s="38"/>
+      <c r="BL12" s="90"/>
+      <c r="BM12" s="38"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="78" t="s">
+      <c r="B13" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="78" t="s">
+      <c r="F13" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="63" t="n">
+      <c r="G13" s="56" t="n">
         <f aca="false">Netzplan!G12</f>
         <v>10</v>
       </c>
-      <c r="H13" s="63" t="n">
+      <c r="H13" s="57" t="n">
         <f aca="false">Netzplan!H12</f>
         <v>1</v>
       </c>
-      <c r="I13" s="65" t="n">
+      <c r="I13" s="58" t="n">
         <f aca="false">Netzplan!I12</f>
         <v>0.5</v>
       </c>
-      <c r="J13" s="97" t="n">
+      <c r="J13" s="88" t="n">
         <f aca="false">Netzplan!J12</f>
         <v>20</v>
       </c>
-      <c r="K13" s="98" t="n">
+      <c r="K13" s="89" t="n">
         <f aca="false">SUM(L13:BM13)</f>
         <v>20</v>
       </c>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="V13" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="W13" s="63"/>
-      <c r="X13" s="99"/>
-      <c r="Y13" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="63"/>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="63"/>
-      <c r="AH13" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ13" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK13" s="63"/>
-      <c r="AL13" s="99"/>
-      <c r="AM13" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR13" s="63"/>
-      <c r="AS13" s="99"/>
-      <c r="AT13" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW13" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="63"/>
-      <c r="AY13" s="100"/>
-      <c r="AZ13" s="99"/>
-      <c r="BA13" s="99"/>
-      <c r="BB13" s="99"/>
-      <c r="BC13" s="99"/>
-      <c r="BD13" s="99"/>
-      <c r="BE13" s="99"/>
-      <c r="BF13" s="100"/>
-      <c r="BG13" s="99"/>
-      <c r="BH13" s="99"/>
-      <c r="BJ13" s="99"/>
-      <c r="BK13" s="99"/>
-      <c r="BL13" s="100"/>
-      <c r="BM13" s="99"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" s="56"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="56"/>
+      <c r="AL13" s="38"/>
+      <c r="AM13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="56"/>
+      <c r="AS13" s="38"/>
+      <c r="AT13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="56"/>
+      <c r="AY13" s="90"/>
+      <c r="AZ13" s="38"/>
+      <c r="BA13" s="38"/>
+      <c r="BB13" s="38"/>
+      <c r="BC13" s="38"/>
+      <c r="BD13" s="38"/>
+      <c r="BE13" s="38"/>
+      <c r="BF13" s="90"/>
+      <c r="BG13" s="38"/>
+      <c r="BH13" s="38"/>
+      <c r="BJ13" s="38"/>
+      <c r="BK13" s="38"/>
+      <c r="BL13" s="90"/>
+      <c r="BM13" s="38"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="78" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="78" t="s">
+      <c r="F14" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="63" t="n">
+      <c r="G14" s="56" t="n">
         <f aca="false">Netzplan!G13</f>
         <v>3</v>
       </c>
-      <c r="H14" s="63" t="str">
+      <c r="H14" s="56" t="str">
         <f aca="false">Netzplan!H13</f>
         <v>1</v>
       </c>
-      <c r="I14" s="65" t="n">
+      <c r="I14" s="58" t="n">
         <f aca="false">Netzplan!I13</f>
         <v>1.5</v>
       </c>
-      <c r="J14" s="97" t="n">
+      <c r="J14" s="88" t="n">
         <f aca="false">Netzplan!J13</f>
         <v>2</v>
       </c>
-      <c r="K14" s="98" t="n">
+      <c r="K14" s="89" t="n">
         <f aca="false">SUM(L14:BM14)</f>
         <v>2</v>
       </c>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="99"/>
-      <c r="X14" s="99"/>
-      <c r="Y14" s="99"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="99"/>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="99"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="99"/>
-      <c r="AG14" s="99"/>
-      <c r="AH14" s="99"/>
-      <c r="AI14" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="99"/>
-      <c r="AM14" s="99"/>
-      <c r="AN14" s="63"/>
-      <c r="AO14" s="63"/>
-      <c r="AP14" s="63"/>
-      <c r="AQ14" s="99"/>
-      <c r="AR14" s="99"/>
-      <c r="AS14" s="99"/>
-      <c r="AT14" s="99"/>
-      <c r="AU14" s="99"/>
-      <c r="AV14" s="99"/>
-      <c r="AW14" s="99"/>
-      <c r="AX14" s="99"/>
-      <c r="AY14" s="100"/>
-      <c r="AZ14" s="99"/>
-      <c r="BA14" s="99"/>
-      <c r="BB14" s="99"/>
-      <c r="BC14" s="99"/>
-      <c r="BD14" s="99"/>
-      <c r="BE14" s="99"/>
-      <c r="BF14" s="100"/>
-      <c r="BG14" s="99"/>
-      <c r="BH14" s="99"/>
-      <c r="BI14" s="99"/>
-      <c r="BJ14" s="99"/>
-      <c r="BK14" s="99"/>
-      <c r="BL14" s="100"/>
-      <c r="BM14" s="99"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="38"/>
+      <c r="AI14" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="38"/>
+      <c r="AM14" s="38"/>
+      <c r="AN14" s="56"/>
+      <c r="AO14" s="56"/>
+      <c r="AP14" s="56"/>
+      <c r="AQ14" s="38"/>
+      <c r="AR14" s="38"/>
+      <c r="AS14" s="38"/>
+      <c r="AT14" s="38"/>
+      <c r="AU14" s="38"/>
+      <c r="AV14" s="38"/>
+      <c r="AW14" s="38"/>
+      <c r="AX14" s="38"/>
+      <c r="AY14" s="90"/>
+      <c r="AZ14" s="38"/>
+      <c r="BA14" s="38"/>
+      <c r="BB14" s="38"/>
+      <c r="BC14" s="38"/>
+      <c r="BD14" s="38"/>
+      <c r="BE14" s="38"/>
+      <c r="BF14" s="90"/>
+      <c r="BG14" s="38"/>
+      <c r="BH14" s="38"/>
+      <c r="BI14" s="38"/>
+      <c r="BJ14" s="38"/>
+      <c r="BK14" s="38"/>
+      <c r="BL14" s="90"/>
+      <c r="BM14" s="38"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="78" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="78" t="s">
+      <c r="F15" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="63" t="n">
+      <c r="G15" s="56" t="n">
         <f aca="false">Netzplan!G14</f>
         <v>3</v>
       </c>
-      <c r="H15" s="63" t="str">
+      <c r="H15" s="56" t="str">
         <f aca="false">Netzplan!H14</f>
         <v>1</v>
       </c>
-      <c r="I15" s="65" t="n">
+      <c r="I15" s="58" t="n">
         <f aca="false">Netzplan!I14</f>
         <v>1.5</v>
       </c>
-      <c r="J15" s="97" t="n">
+      <c r="J15" s="88" t="n">
         <f aca="false">Netzplan!J14</f>
         <v>2</v>
       </c>
-      <c r="K15" s="98" t="n">
+      <c r="K15" s="89" t="n">
         <f aca="false">SUM(L15:BM15)</f>
         <v>2</v>
       </c>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="99"/>
-      <c r="T15" s="99"/>
-      <c r="U15" s="99"/>
-      <c r="V15" s="99"/>
-      <c r="W15" s="99"/>
-      <c r="X15" s="99"/>
-      <c r="Y15" s="99"/>
-      <c r="Z15" s="99"/>
-      <c r="AA15" s="99"/>
-      <c r="AB15" s="99"/>
-      <c r="AC15" s="99"/>
-      <c r="AD15" s="99"/>
-      <c r="AE15" s="99"/>
-      <c r="AF15" s="99"/>
-      <c r="AG15" s="99"/>
-      <c r="AH15" s="99"/>
-      <c r="AI15" s="99"/>
-      <c r="AJ15" s="99"/>
-      <c r="AK15" s="99"/>
-      <c r="AL15" s="99"/>
-      <c r="AM15" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN15" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO15" s="99"/>
-      <c r="AQ15" s="63"/>
-      <c r="AR15" s="63"/>
-      <c r="AS15" s="99"/>
-      <c r="AT15" s="99"/>
-      <c r="AU15" s="63"/>
-      <c r="AV15" s="99"/>
-      <c r="AW15" s="99"/>
-      <c r="AX15" s="99"/>
-      <c r="AY15" s="100"/>
-      <c r="AZ15" s="99"/>
-      <c r="BA15" s="99"/>
-      <c r="BB15" s="99"/>
-      <c r="BC15" s="99"/>
-      <c r="BD15" s="99"/>
-      <c r="BE15" s="99"/>
-      <c r="BF15" s="100"/>
-      <c r="BG15" s="99"/>
-      <c r="BH15" s="99"/>
-      <c r="BI15" s="99"/>
-      <c r="BJ15" s="99"/>
-      <c r="BK15" s="99"/>
-      <c r="BL15" s="100"/>
-      <c r="BM15" s="99"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="38"/>
+      <c r="AJ15" s="38"/>
+      <c r="AK15" s="38"/>
+      <c r="AL15" s="38"/>
+      <c r="AM15" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="38"/>
+      <c r="AQ15" s="56"/>
+      <c r="AR15" s="56"/>
+      <c r="AS15" s="38"/>
+      <c r="AT15" s="38"/>
+      <c r="AU15" s="56"/>
+      <c r="AV15" s="38"/>
+      <c r="AW15" s="38"/>
+      <c r="AX15" s="38"/>
+      <c r="AY15" s="90"/>
+      <c r="AZ15" s="38"/>
+      <c r="BA15" s="38"/>
+      <c r="BB15" s="38"/>
+      <c r="BC15" s="38"/>
+      <c r="BD15" s="38"/>
+      <c r="BE15" s="38"/>
+      <c r="BF15" s="90"/>
+      <c r="BG15" s="38"/>
+      <c r="BH15" s="38"/>
+      <c r="BI15" s="38"/>
+      <c r="BJ15" s="38"/>
+      <c r="BK15" s="38"/>
+      <c r="BL15" s="90"/>
+      <c r="BM15" s="38"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="60"/>
-      <c r="B16" s="101" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="99"/>
-      <c r="U16" s="99"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="99"/>
-      <c r="X16" s="99"/>
-      <c r="Y16" s="99"/>
-      <c r="Z16" s="99"/>
-      <c r="AA16" s="99"/>
-      <c r="AB16" s="99"/>
-      <c r="AC16" s="99"/>
-      <c r="AD16" s="99"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="99"/>
-      <c r="AG16" s="99"/>
-      <c r="AH16" s="99"/>
-      <c r="AI16" s="99"/>
-      <c r="AJ16" s="99"/>
-      <c r="AK16" s="99"/>
-      <c r="AL16" s="99"/>
-      <c r="AM16" s="99"/>
-      <c r="AN16" s="99"/>
-      <c r="AO16" s="99"/>
-      <c r="AQ16" s="63"/>
-      <c r="AR16" s="63"/>
-      <c r="AS16" s="99"/>
-      <c r="AT16" s="99"/>
-      <c r="AU16" s="63"/>
-      <c r="AV16" s="99"/>
-      <c r="AW16" s="99"/>
-      <c r="AX16" s="99"/>
-      <c r="AY16" s="100"/>
-      <c r="AZ16" s="99"/>
-      <c r="BA16" s="99"/>
-      <c r="BB16" s="99"/>
-      <c r="BC16" s="99"/>
-      <c r="BD16" s="99"/>
-      <c r="BE16" s="99"/>
-      <c r="BF16" s="100"/>
-      <c r="BG16" s="99"/>
-      <c r="BH16" s="99"/>
-      <c r="BI16" s="99"/>
-      <c r="BJ16" s="99"/>
-      <c r="BK16" s="99"/>
-      <c r="BL16" s="100"/>
-      <c r="BM16" s="99"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="38"/>
+      <c r="AJ16" s="38"/>
+      <c r="AK16" s="38"/>
+      <c r="AL16" s="38"/>
+      <c r="AM16" s="38"/>
+      <c r="AN16" s="38"/>
+      <c r="AO16" s="38"/>
+      <c r="AQ16" s="56"/>
+      <c r="AR16" s="56"/>
+      <c r="AS16" s="38"/>
+      <c r="AT16" s="38"/>
+      <c r="AU16" s="56"/>
+      <c r="AV16" s="38"/>
+      <c r="AW16" s="38"/>
+      <c r="AX16" s="38"/>
+      <c r="AY16" s="90"/>
+      <c r="AZ16" s="38"/>
+      <c r="BA16" s="38"/>
+      <c r="BB16" s="38"/>
+      <c r="BC16" s="38"/>
+      <c r="BD16" s="38"/>
+      <c r="BE16" s="38"/>
+      <c r="BF16" s="90"/>
+      <c r="BG16" s="38"/>
+      <c r="BH16" s="38"/>
+      <c r="BI16" s="38"/>
+      <c r="BJ16" s="38"/>
+      <c r="BK16" s="38"/>
+      <c r="BL16" s="90"/>
+      <c r="BM16" s="38"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="78" t="s">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="78" t="s">
+      <c r="F17" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="63" t="n">
+      <c r="G17" s="56" t="n">
         <f aca="false">Netzplan!G15</f>
         <v>1</v>
       </c>
-      <c r="H17" s="63" t="str">
+      <c r="H17" s="56" t="str">
         <f aca="false">Netzplan!H15</f>
         <v>1</v>
       </c>
-      <c r="I17" s="65" t="n">
+      <c r="I17" s="58" t="n">
         <f aca="false">Netzplan!I15</f>
         <v>1.5</v>
       </c>
-      <c r="J17" s="97" t="n">
+      <c r="J17" s="88" t="n">
         <f aca="false">Netzplan!J15</f>
         <v>1</v>
       </c>
-      <c r="K17" s="98" t="n">
+      <c r="K17" s="89" t="n">
         <f aca="false">SUM(L17:BM17)</f>
         <v>1</v>
       </c>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="99"/>
-      <c r="T17" s="99"/>
-      <c r="U17" s="99"/>
-      <c r="V17" s="99"/>
-      <c r="W17" s="99"/>
-      <c r="X17" s="99"/>
-      <c r="Y17" s="99"/>
-      <c r="Z17" s="99"/>
-      <c r="AA17" s="99"/>
-      <c r="AB17" s="99"/>
-      <c r="AC17" s="99"/>
-      <c r="AD17" s="99"/>
-      <c r="AE17" s="99"/>
-      <c r="AF17" s="99"/>
-      <c r="AG17" s="99"/>
-      <c r="AH17" s="99"/>
-      <c r="AI17" s="99"/>
-      <c r="AJ17" s="99"/>
-      <c r="AK17" s="99"/>
-      <c r="AL17" s="99"/>
-      <c r="AM17" s="99"/>
-      <c r="AN17" s="99"/>
-      <c r="AO17" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP17" s="99"/>
-      <c r="AQ17" s="99"/>
-      <c r="AR17" s="99"/>
-      <c r="AS17" s="99"/>
-      <c r="AT17" s="99"/>
-      <c r="AU17" s="99"/>
-      <c r="AV17" s="63"/>
-      <c r="AW17" s="99"/>
-      <c r="AX17" s="99"/>
-      <c r="AY17" s="100"/>
-      <c r="AZ17" s="99"/>
-      <c r="BA17" s="99"/>
-      <c r="BB17" s="99"/>
-      <c r="BC17" s="99"/>
-      <c r="BD17" s="99"/>
-      <c r="BE17" s="99"/>
-      <c r="BF17" s="100"/>
-      <c r="BG17" s="99"/>
-      <c r="BH17" s="99"/>
-      <c r="BI17" s="99"/>
-      <c r="BJ17" s="99"/>
-      <c r="BK17" s="99"/>
-      <c r="BL17" s="100"/>
-      <c r="BM17" s="99"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="38"/>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="38"/>
+      <c r="AO17" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="38"/>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="38"/>
+      <c r="AS17" s="38"/>
+      <c r="AT17" s="38"/>
+      <c r="AU17" s="38"/>
+      <c r="AV17" s="56"/>
+      <c r="AW17" s="38"/>
+      <c r="AX17" s="38"/>
+      <c r="AY17" s="90"/>
+      <c r="AZ17" s="38"/>
+      <c r="BA17" s="38"/>
+      <c r="BB17" s="38"/>
+      <c r="BC17" s="38"/>
+      <c r="BD17" s="38"/>
+      <c r="BE17" s="38"/>
+      <c r="BF17" s="90"/>
+      <c r="BG17" s="38"/>
+      <c r="BH17" s="38"/>
+      <c r="BI17" s="38"/>
+      <c r="BJ17" s="38"/>
+      <c r="BK17" s="38"/>
+      <c r="BL17" s="90"/>
+      <c r="BM17" s="38"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="78" t="s">
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="78" t="s">
+      <c r="F18" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="63" t="n">
+      <c r="G18" s="56" t="n">
         <f aca="false">Netzplan!G16</f>
         <v>5</v>
       </c>
-      <c r="H18" s="63" t="str">
+      <c r="H18" s="56" t="str">
         <f aca="false">Netzplan!H16</f>
         <v>1</v>
       </c>
-      <c r="I18" s="65" t="n">
+      <c r="I18" s="58" t="n">
         <f aca="false">Netzplan!I16</f>
         <v>1.5</v>
       </c>
-      <c r="J18" s="97" t="n">
+      <c r="J18" s="88" t="n">
         <f aca="false">Netzplan!J16</f>
         <v>3</v>
       </c>
-      <c r="K18" s="98" t="n">
+      <c r="K18" s="89" t="n">
         <f aca="false">SUM(L18:BM18)</f>
         <v>3</v>
       </c>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="99"/>
-      <c r="U18" s="99"/>
-      <c r="V18" s="99"/>
-      <c r="W18" s="99"/>
-      <c r="X18" s="99"/>
-      <c r="Y18" s="99"/>
-      <c r="Z18" s="99"/>
-      <c r="AA18" s="99"/>
-      <c r="AB18" s="99"/>
-      <c r="AC18" s="99"/>
-      <c r="AD18" s="99"/>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="99"/>
-      <c r="AG18" s="99"/>
-      <c r="AH18" s="99"/>
-      <c r="AI18" s="99"/>
-      <c r="AJ18" s="99"/>
-      <c r="AK18" s="99"/>
-      <c r="AL18" s="99"/>
-      <c r="AM18" s="99"/>
-      <c r="AN18" s="99"/>
-      <c r="AO18" s="99"/>
-      <c r="AP18" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ18" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR18" s="99"/>
-      <c r="AS18" s="99"/>
-      <c r="AT18" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU18" s="99"/>
-      <c r="AV18" s="99"/>
-      <c r="AW18" s="63"/>
-      <c r="AX18" s="63"/>
-      <c r="AY18" s="100"/>
-      <c r="AZ18" s="99"/>
-      <c r="BA18" s="99"/>
-      <c r="BB18" s="63"/>
-      <c r="BC18" s="99"/>
-      <c r="BD18" s="99"/>
-      <c r="BE18" s="99"/>
-      <c r="BF18" s="100"/>
-      <c r="BG18" s="99"/>
-      <c r="BH18" s="99"/>
-      <c r="BI18" s="99"/>
-      <c r="BK18" s="99"/>
-      <c r="BL18" s="100"/>
-      <c r="BM18" s="99"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="38"/>
+      <c r="AO18" s="38"/>
+      <c r="AP18" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="38"/>
+      <c r="AS18" s="38"/>
+      <c r="AT18" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="38"/>
+      <c r="AV18" s="38"/>
+      <c r="AW18" s="56"/>
+      <c r="AX18" s="56"/>
+      <c r="AY18" s="90"/>
+      <c r="AZ18" s="38"/>
+      <c r="BA18" s="38"/>
+      <c r="BB18" s="56"/>
+      <c r="BC18" s="38"/>
+      <c r="BD18" s="38"/>
+      <c r="BE18" s="38"/>
+      <c r="BF18" s="90"/>
+      <c r="BG18" s="38"/>
+      <c r="BH18" s="38"/>
+      <c r="BI18" s="38"/>
+      <c r="BK18" s="38"/>
+      <c r="BL18" s="90"/>
+      <c r="BM18" s="38"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="60"/>
-      <c r="B19" s="101" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="99"/>
-      <c r="U19" s="99"/>
-      <c r="V19" s="99"/>
-      <c r="W19" s="99"/>
-      <c r="X19" s="99"/>
-      <c r="Y19" s="99"/>
-      <c r="Z19" s="99"/>
-      <c r="AA19" s="99"/>
-      <c r="AB19" s="99"/>
-      <c r="AC19" s="99"/>
-      <c r="AD19" s="99"/>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="99"/>
-      <c r="AG19" s="99"/>
-      <c r="AH19" s="99"/>
-      <c r="AI19" s="99"/>
-      <c r="AJ19" s="99"/>
-      <c r="AK19" s="99"/>
-      <c r="AL19" s="99"/>
-      <c r="AM19" s="99"/>
-      <c r="AN19" s="99"/>
-      <c r="AO19" s="99"/>
-      <c r="AP19" s="99"/>
-      <c r="AQ19" s="99"/>
-      <c r="AR19" s="99"/>
-      <c r="AS19" s="99"/>
-      <c r="AT19" s="99"/>
-      <c r="AU19" s="99"/>
-      <c r="AV19" s="99"/>
-      <c r="AW19" s="63"/>
-      <c r="AX19" s="63"/>
-      <c r="AY19" s="100"/>
-      <c r="AZ19" s="99"/>
-      <c r="BA19" s="99"/>
-      <c r="BB19" s="63"/>
-      <c r="BC19" s="99"/>
-      <c r="BD19" s="99"/>
-      <c r="BE19" s="99"/>
-      <c r="BF19" s="100"/>
-      <c r="BG19" s="99"/>
-      <c r="BH19" s="99"/>
-      <c r="BI19" s="99"/>
-      <c r="BK19" s="99"/>
-      <c r="BL19" s="100"/>
-      <c r="BM19" s="99"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
+      <c r="AJ19" s="38"/>
+      <c r="AK19" s="38"/>
+      <c r="AL19" s="38"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="38"/>
+      <c r="AO19" s="38"/>
+      <c r="AP19" s="38"/>
+      <c r="AQ19" s="38"/>
+      <c r="AR19" s="38"/>
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38"/>
+      <c r="AU19" s="38"/>
+      <c r="AV19" s="38"/>
+      <c r="AW19" s="56"/>
+      <c r="AX19" s="56"/>
+      <c r="AY19" s="90"/>
+      <c r="AZ19" s="38"/>
+      <c r="BA19" s="38"/>
+      <c r="BB19" s="56"/>
+      <c r="BC19" s="38"/>
+      <c r="BD19" s="38"/>
+      <c r="BE19" s="38"/>
+      <c r="BF19" s="90"/>
+      <c r="BG19" s="38"/>
+      <c r="BH19" s="38"/>
+      <c r="BI19" s="38"/>
+      <c r="BK19" s="38"/>
+      <c r="BL19" s="90"/>
+      <c r="BM19" s="38"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="87"/>
-      <c r="G20" s="88" t="n">
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79" t="n">
         <f aca="false">Netzplan!G17</f>
         <v>1</v>
       </c>
-      <c r="H20" s="88" t="str">
+      <c r="H20" s="79" t="str">
         <f aca="false">Netzplan!H17</f>
         <v>1</v>
       </c>
-      <c r="I20" s="102" t="n">
+      <c r="I20" s="92" t="n">
         <f aca="false">Netzplan!I17</f>
         <v>1</v>
       </c>
-      <c r="J20" s="103" t="n">
+      <c r="J20" s="93" t="n">
         <f aca="false">Netzplan!J17</f>
         <v>1</v>
       </c>
-      <c r="K20" s="98" t="n">
+      <c r="K20" s="89" t="n">
         <f aca="false">SUM(L20:BM20)</f>
         <v>1</v>
       </c>
-      <c r="L20" s="104"/>
-      <c r="M20" s="104"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="104"/>
-      <c r="P20" s="104"/>
-      <c r="Q20" s="104"/>
-      <c r="R20" s="104"/>
-      <c r="S20" s="104"/>
-      <c r="T20" s="104"/>
-      <c r="U20" s="104"/>
-      <c r="V20" s="104"/>
-      <c r="W20" s="104"/>
-      <c r="X20" s="104"/>
-      <c r="Y20" s="104"/>
-      <c r="Z20" s="104"/>
-      <c r="AA20" s="104"/>
-      <c r="AB20" s="104"/>
-      <c r="AC20" s="104"/>
-      <c r="AD20" s="104"/>
-      <c r="AE20" s="104"/>
-      <c r="AF20" s="104"/>
-      <c r="AG20" s="104"/>
-      <c r="AH20" s="104"/>
-      <c r="AI20" s="104"/>
-      <c r="AJ20" s="104"/>
-      <c r="AK20" s="104"/>
-      <c r="AL20" s="104"/>
-      <c r="AM20" s="104"/>
-      <c r="AN20" s="104"/>
-      <c r="AO20" s="104"/>
-      <c r="AP20" s="104"/>
-      <c r="AQ20" s="104"/>
-      <c r="AR20" s="104"/>
-      <c r="AS20" s="104"/>
-      <c r="AT20" s="104"/>
-      <c r="AU20" s="104"/>
-      <c r="AV20" s="104"/>
-      <c r="AW20" s="104"/>
-      <c r="AX20" s="104"/>
-      <c r="AY20" s="105"/>
-      <c r="AZ20" s="104"/>
-      <c r="BA20" s="104" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB20" s="104"/>
-      <c r="BC20" s="63"/>
-      <c r="BD20" s="104"/>
-      <c r="BE20" s="104"/>
-      <c r="BF20" s="105"/>
-      <c r="BG20" s="104"/>
-      <c r="BH20" s="104"/>
-      <c r="BI20" s="104"/>
-      <c r="BJ20" s="104"/>
-      <c r="BK20" s="104"/>
-      <c r="BL20" s="105"/>
-      <c r="BM20" s="104"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="42"/>
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="42"/>
+      <c r="AK20" s="42"/>
+      <c r="AL20" s="42"/>
+      <c r="AM20" s="42"/>
+      <c r="AN20" s="42"/>
+      <c r="AO20" s="42"/>
+      <c r="AP20" s="42"/>
+      <c r="AQ20" s="42"/>
+      <c r="AR20" s="42"/>
+      <c r="AS20" s="42"/>
+      <c r="AT20" s="42"/>
+      <c r="AU20" s="42"/>
+      <c r="AV20" s="42"/>
+      <c r="AW20" s="42"/>
+      <c r="AX20" s="42"/>
+      <c r="AY20" s="94"/>
+      <c r="AZ20" s="42"/>
+      <c r="BA20" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB20" s="42"/>
+      <c r="BC20" s="56"/>
+      <c r="BD20" s="42"/>
+      <c r="BE20" s="42"/>
+      <c r="BF20" s="94"/>
+      <c r="BG20" s="42"/>
+      <c r="BH20" s="42"/>
+      <c r="BI20" s="42"/>
+      <c r="BJ20" s="42"/>
+      <c r="BK20" s="42"/>
+      <c r="BL20" s="94"/>
+      <c r="BM20" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -5778,7 +6641,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{C5B72AAA-C580-48AE-B63B-B6DF6C4319A0}">
+          <x14:cfRule type="expression" priority="3" id="{30E6D248-FEAB-4AF6-B765-C612E8508856}">
             <xm:f>ISNUMBER(_xlfn.xmatch(M$1,FeiertageMV!$A$1:$A$30,0))</xm:f>
             <x14:dxf>
               <font>
@@ -5802,132 +6665,132 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q25" activeCellId="0" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="106" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="95" width="25.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="106" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="92" t="s">
-        <v>77</v>
+      <c r="A1" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="106" t="n">
+      <c r="A2" s="95" t="n">
         <v>44927</v>
       </c>
-      <c r="B2" s="92" t="s">
-        <v>78</v>
+      <c r="B2" s="83" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="106" t="n">
+      <c r="A3" s="95" t="n">
         <v>45022</v>
       </c>
-      <c r="B3" s="92" t="s">
-        <v>79</v>
+      <c r="B3" s="83" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="106" t="n">
+      <c r="A4" s="95" t="n">
         <v>45023</v>
       </c>
-      <c r="B4" s="92" t="s">
-        <v>80</v>
+      <c r="B4" s="83" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="106" t="n">
+      <c r="A5" s="95" t="n">
         <v>45025</v>
       </c>
-      <c r="B5" s="92" t="s">
-        <v>81</v>
+      <c r="B5" s="83" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="106" t="n">
+      <c r="A6" s="95" t="n">
         <v>45026</v>
       </c>
-      <c r="B6" s="92" t="s">
-        <v>82</v>
+      <c r="B6" s="83" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="106" t="n">
+      <c r="A7" s="95" t="n">
         <v>45047</v>
       </c>
-      <c r="B7" s="92" t="s">
-        <v>83</v>
+      <c r="B7" s="83" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="106" t="n">
+      <c r="A8" s="95" t="n">
         <v>45071</v>
       </c>
-      <c r="B8" s="92" t="s">
-        <v>84</v>
+      <c r="B8" s="83" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="106" t="n">
+      <c r="A9" s="95" t="n">
         <v>45081</v>
       </c>
-      <c r="B9" s="92" t="s">
-        <v>85</v>
+      <c r="B9" s="83" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="106" t="n">
+      <c r="A10" s="95" t="n">
         <v>45082</v>
       </c>
-      <c r="B10" s="92" t="s">
-        <v>86</v>
+      <c r="B10" s="83" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="106" t="n">
+      <c r="A11" s="95" t="n">
         <v>45202</v>
       </c>
-      <c r="B11" s="92" t="s">
-        <v>87</v>
+      <c r="B11" s="83" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="106" t="n">
+      <c r="A12" s="95" t="n">
         <v>45230</v>
       </c>
-      <c r="B12" s="92" t="s">
-        <v>88</v>
+      <c r="B12" s="83" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="106" t="n">
+      <c r="A13" s="95" t="n">
         <v>45285</v>
       </c>
-      <c r="B13" s="92" t="s">
-        <v>89</v>
+      <c r="B13" s="83" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="106" t="n">
+      <c r="A14" s="95" t="n">
         <v>45286</v>
       </c>
-      <c r="B14" s="92" t="s">
-        <v>90</v>
+      <c r="B14" s="83" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Übungen/Online_Shop.Projekt.xlsx
+++ b/Übungen/Online_Shop.Projekt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PSP" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="PSP_2" sheetId="2" state="hidden" r:id="rId4"/>
-    <sheet name="Netzplan" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="PSP_2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Netzplan" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="Gantt" sheetId="4" state="hidden" r:id="rId6"/>
     <sheet name="FeiertageMV" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
@@ -24,9 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="116">
-  <si>
-    <t xml:space="preserve">Beispiel: ??? Projektstrukturplan</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="127">
+  <si>
+    <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
   <si>
     <t xml:space="preserve">Online-Shop</t>
@@ -35,7 +35,14 @@
     <t xml:space="preserve">Fr. Claire</t>
   </si>
   <si>
-    <t xml:space="preserve">Teilprojekt</t>
+    <t xml:space="preserve">Produkt-Katalogisierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entwicklung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumentation, Tests,
+Kundenbetreuung</t>
   </si>
   <si>
     <t xml:space="preserve">1.1</t>
@@ -44,57 +51,117 @@
     <t xml:space="preserve">Hr. Karl</t>
   </si>
   <si>
+    <t xml:space="preserve">1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr. Groß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hr. Nguyen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produkte kategorisieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenbank erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handbücher erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produkte erfassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template auswählen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produktfotos erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seitenstruktur einrichten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auftraggeber-Präsentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produktfotos bearbeiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenbank einbinden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zahlungsdienste einbinden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bewertungssystem anpassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.6</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSP-ID</t>
   </si>
   <si>
     <t xml:space="preserve">Arbeitspaket</t>
   </si>
   <si>
-    <t xml:space="preserve">Datenbank erstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produkte kategorisieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produkte erfassen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produktfotos erstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produktfotos bearbeiten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template auswählen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seitenstruktur einrichten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datenbank einbinden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zahlungsdienste einbinden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bewertungssystem anpassen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handbücher erstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tests</t>
-  </si>
-  <si>
     <t xml:space="preserve">Korrekturen</t>
   </si>
   <si>
-    <t xml:space="preserve">Auftraggeber-Präsentation</t>
+    <t xml:space="preserve">1.2.7</t>
   </si>
   <si>
     <t xml:space="preserve">eventuelle Korrekturen</t>
   </si>
   <si>
+    <t xml:space="preserve">1.2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.9</t>
+  </si>
+  <si>
     <t xml:space="preserve">Onlinestellung</t>
   </si>
   <si>
@@ -110,84 +177,27 @@
     <t xml:space="preserve">Frontend</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr. Groß</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hr. Nguyen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.3.4</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.5</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.3.5</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.6</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.6</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.3.6</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.7</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.3.7</t>
   </si>
   <si>
     <t xml:space="preserve">Online-Stellung</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.8</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.3.8</t>
   </si>
   <si>
@@ -233,9 +243,6 @@
     <t xml:space="preserve">Onlinestellung Backend</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Onlinestellung Frontend</t>
   </si>
   <si>
@@ -315,6 +322,51 @@
   </si>
   <si>
     <t xml:space="preserve">Spätester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dauer (D) = Aus Tabelle übernommen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorwärtsrechnen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frühester-Anfangs-Zeitpunkt (FAZ) = größten FEZ der Vorgänger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frühester-End-Zeitpunkt (FEZ) = FAZ + D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rückwärtsrechnen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF443205"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Spätester-End-Zeitpunkt (SEZ) = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF443205"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> kleinster SAZ der Nachfolger</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Spätester-Anfangs-Zeitpunkt (SAZ) = SEZ – D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamt-Puffer (GP) = SAZ – FAZ = SEZ – FEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freier Puffer = kleinster FAZ der Nachfolger – FEZ</t>
   </si>
   <si>
     <t xml:space="preserve">Ressourcen</t>
@@ -388,7 +440,7 @@
     <numFmt numFmtId="170" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="171" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -455,6 +507,61 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF729FCF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF8000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF443205"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF443205"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A6099"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00A933"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFBBE33D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Cambria Math"/>
@@ -468,7 +575,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,13 +603,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor rgb="FFFF8080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAADCF7"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFF8000"/>
       </patternFill>
     </fill>
     <fill>
@@ -532,7 +633,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.3999"/>
-        <bgColor rgb="FFAADCF7"/>
+        <bgColor rgb="FFBBE33D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAADCF7"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -544,7 +651,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor rgb="FF666666"/>
+        <bgColor rgb="FF2A6099"/>
       </patternFill>
     </fill>
     <fill>
@@ -569,6 +676,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.5"/>
         <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFBBE33D"/>
       </patternFill>
     </fill>
   </fills>
@@ -605,6 +718,20 @@
       <left/>
       <right style="medium"/>
       <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="hair"/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
@@ -647,20 +774,6 @@
       <left style="hair"/>
       <right style="hair"/>
       <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="hair"/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
@@ -762,7 +875,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="106">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -803,10 +916,22 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -815,19 +940,87 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -839,120 +1032,68 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -971,34 +1112,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="8" fillId="14" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1023,7 +1136,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="8" fillId="10" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1047,11 +1160,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1063,6 +1176,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="18" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1071,19 +1188,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1103,43 +1216,83 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1384,17 +1537,17 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFA9D18E"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFE8E8E8"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF2A6099"/>
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1410,16 +1563,16 @@
       <rgbColor rgb="FFF4B183"/>
       <rgbColor rgb="FF4472C4"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFBBE33D"/>
       <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFFBF00"/>
+      <rgbColor rgb="FFFF8000"/>
       <rgbColor rgb="FFED7D31"/>
       <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF70AD47"/>
       <rgbColor rgb="FF203864"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF443205"/>
       <rgbColor rgb="FF843C0B"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
@@ -1435,13 +1588,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>34560</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>48240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>103680</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:colOff>103320</xdr:colOff>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1451,8 +1604,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7192440" y="17212320"/>
-          <a:ext cx="2243160" cy="423000"/>
+          <a:off x="7192440" y="17374320"/>
+          <a:ext cx="2242800" cy="422640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1518,9 +1671,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>175320</xdr:colOff>
+      <xdr:colOff>174960</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>39960</xdr:rowOff>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1530,7 +1683,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8412840" y="1680480"/>
-          <a:ext cx="114120" cy="165960"/>
+          <a:ext cx="113760" cy="165600"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1571,9 +1724,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>175320</xdr:colOff>
+      <xdr:colOff>174960</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1583,7 +1736,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11430360" y="2819520"/>
-          <a:ext cx="114120" cy="167040"/>
+          <a:ext cx="113760" cy="166680"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1624,9 +1777,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>202680</xdr:colOff>
+      <xdr:colOff>202320</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1636,7 +1789,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13972320" y="3292920"/>
-          <a:ext cx="114120" cy="167400"/>
+          <a:ext cx="113760" cy="167040"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1850,8 +2003,8 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1905,206 +2058,498 @@
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F4" s="9"/>
       <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>5</v>
+      <c r="F6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="I8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="L8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="I11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="L11" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="I14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="L14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="23"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="20"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="I17" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I20" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="A25" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="I25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="I26" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20" t="s">
+      <c r="A27" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="I27" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
+      <c r="A28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="I28" s="20"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
+      <c r="A29" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="I29" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
+      <c r="A30" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="I30" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="A31" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="I31" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20" t="s">
+      <c r="A32" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="I32" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" s="22"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="I33" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
+      <c r="A37" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
+      <c r="A38" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
+      <c r="A39" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
+      <c r="A40" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="23"/>
-      <c r="B41" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
+      <c r="A41" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="38">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I23:J23"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I29:J29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
@@ -2132,8 +2577,8 @@
   </sheetPr>
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I34" activeCellId="0" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2143,7 +2588,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2188,599 +2633,599 @@
       <c r="F4" s="9"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="26"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="26"/>
+      <c r="L4" s="10"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="I8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="L8" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="I11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="L11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="27" t="s">
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="I14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="L14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="23"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="I17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="22"/>
+      <c r="L17" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="23"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="I20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="22"/>
+      <c r="L20" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="23"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="I23" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="22"/>
+      <c r="L23" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="23"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="I25" s="20"/>
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="I26" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="22"/>
+      <c r="L26" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="23"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="I27" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="I28" s="20"/>
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="I29" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="22"/>
+      <c r="L29" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" s="23"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="I30" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="L32" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="28"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="29" t="s">
+      <c r="M32" s="23"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="B33" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="L33" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="L7" s="33"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="I8" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="35"/>
-      <c r="L8" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="36"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="37" t="s">
+      <c r="B34" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="L35" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="M35" s="23"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="L36" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="M36" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="39" t="s">
+      <c r="B38" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="L10" s="33"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="34"/>
-      <c r="I11" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="35"/>
-      <c r="L11" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="36"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="37" t="s">
+      <c r="B39" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="41" t="s">
+      <c r="B42" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="M12" s="42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="L13" s="33"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="I14" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="35"/>
-      <c r="L14" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="36"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" s="42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="L16" s="33"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="34"/>
-      <c r="I17" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="35"/>
-      <c r="L17" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="36"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="41" t="s">
+      <c r="B46" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="L19" s="33"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="34"/>
-      <c r="I20" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="35"/>
-      <c r="L20" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="36"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="37" t="s">
+      <c r="B48" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="M21" s="42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="L22" s="33"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="34"/>
-      <c r="I23" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="35"/>
-      <c r="L23" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="36"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="M24" s="42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="I25" s="33"/>
-      <c r="L25" s="33"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="I26" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="35"/>
-      <c r="L26" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="36"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="I27" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="L27" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="I28" s="33"/>
-      <c r="L28" s="33"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="I29" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" s="35"/>
-      <c r="L29" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="M29" s="36"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="I30" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="J30" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="L30" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="M30" s="42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="L31" s="33"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="L32" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32" s="36"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="L33" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="M33" s="42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="L34" s="33"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="L35" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="M35" s="36"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="L36" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="M36" s="42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
+      <c r="B49" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -2854,62 +3299,63 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BQ23"/>
+  <dimension ref="A1:BQ33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="7" style="3" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="43" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="11" style="44" width="3.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="1" max="4" min="2" style="43" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="5" min="5" style="3" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="6" min="6" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="8" min="7" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="9" min="9" style="44" width="11.57"/>
+    <col collapsed="true" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="11" style="43" width="3.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="A1" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="45" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I1" s="46" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J1" s="45" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="A2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="47"/>
       <c r="F2" s="48" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G2" s="49" t="n">
         <v>5</v>
@@ -2948,101 +3394,101 @@
       <c r="W2" s="53"/>
       <c r="X2" s="54" t="n">
         <f aca="false">V2+V4</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AF2" s="52" t="n">
         <f aca="false">MAX(X2,AC8,X14)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG2" s="53"/>
       <c r="AH2" s="54" t="n">
         <f aca="false">AF2+AF4</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK2" s="52" t="n">
         <f aca="false">AH2</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL2" s="53"/>
       <c r="AM2" s="54" t="n">
         <f aca="false">AK2+AK4</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP2" s="52" t="n">
         <f aca="false">AM2</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ2" s="53"/>
       <c r="AR2" s="54" t="n">
         <f aca="false">AP2+AP4</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU2" s="52" t="n">
         <f aca="false">AR2</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV2" s="53"/>
       <c r="AW2" s="54" t="n">
         <f aca="false">AU2+AU4</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ2" s="52" t="n">
         <f aca="false">AW2</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA2" s="53"/>
       <c r="BB2" s="54" t="n">
         <f aca="false">AZ2+AZ4</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BE2" s="52" t="n">
         <f aca="false">BB2</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BF2" s="53"/>
       <c r="BG2" s="54" t="n">
         <f aca="false">BE2+BE4</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BJ2" s="52" t="n">
         <f aca="false">BG2</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BK2" s="53"/>
       <c r="BL2" s="54" t="n">
         <f aca="false">BJ2+BJ4</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BO2" s="52" t="n">
         <f aca="false">MAX(BL2,AC14)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BP2" s="53"/>
       <c r="BQ2" s="54" t="n">
         <f aca="false">BO2+BO4</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="A3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="55" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G3" s="56" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="58" t="n">
         <v>1</v>
@@ -3052,21 +3498,21 @@
         <v>1</v>
       </c>
       <c r="L3" s="59" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="M3" s="59"/>
       <c r="N3" s="59"/>
       <c r="O3" s="60"/>
       <c r="P3" s="61"/>
       <c r="Q3" s="59" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="R3" s="59"/>
       <c r="S3" s="59"/>
       <c r="T3" s="60"/>
       <c r="U3" s="61"/>
       <c r="V3" s="59" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="W3" s="59"/>
       <c r="X3" s="59"/>
@@ -3078,87 +3524,87 @@
       <c r="AD3" s="62"/>
       <c r="AE3" s="61"/>
       <c r="AF3" s="59" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="AG3" s="59"/>
       <c r="AH3" s="59"/>
       <c r="AI3" s="60"/>
       <c r="AJ3" s="61"/>
       <c r="AK3" s="59" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AL3" s="59"/>
       <c r="AM3" s="59"/>
       <c r="AN3" s="60"/>
       <c r="AO3" s="61"/>
       <c r="AP3" s="59" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AQ3" s="59"/>
       <c r="AR3" s="59"/>
       <c r="AS3" s="60"/>
       <c r="AT3" s="61"/>
       <c r="AU3" s="59" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="AV3" s="59"/>
       <c r="AW3" s="59"/>
       <c r="AX3" s="60"/>
       <c r="AY3" s="61"/>
       <c r="AZ3" s="59" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="BA3" s="59"/>
       <c r="BB3" s="59"/>
       <c r="BC3" s="60"/>
       <c r="BD3" s="61"/>
       <c r="BE3" s="59" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="BF3" s="59"/>
       <c r="BG3" s="59"/>
       <c r="BH3" s="60"/>
       <c r="BI3" s="61"/>
       <c r="BJ3" s="59" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="BK3" s="59"/>
       <c r="BL3" s="59"/>
       <c r="BM3" s="60"/>
       <c r="BN3" s="61"/>
       <c r="BO3" s="59" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="BP3" s="59"/>
       <c r="BQ3" s="59"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="A4" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="55" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G4" s="56" t="n">
         <v>4</v>
       </c>
       <c r="H4" s="57" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I4" s="58" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="J4" s="56" t="n">
         <f aca="false">ROUND(G4/(H4*I4),0)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L4" s="63" t="n">
         <f aca="false">J2</f>
@@ -3179,7 +3625,7 @@
       </c>
       <c r="R4" s="64" t="n">
         <f aca="false">S5-S2</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S4" s="65" t="n">
         <f aca="false">MIN(V2,V8)-S2</f>
@@ -3188,15 +3634,15 @@
       <c r="T4" s="66"/>
       <c r="V4" s="63" t="n">
         <f aca="false">J4</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W4" s="64" t="n">
         <f aca="false">X5-X2</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X4" s="65" t="n">
         <f aca="false">AF2-X2</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="67"/>
       <c r="AF4" s="63" t="n">
@@ -3205,7 +3651,7 @@
       </c>
       <c r="AG4" s="64" t="n">
         <f aca="false">AH5-AH2</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH4" s="65" t="n">
         <f aca="false">AK2-AH2</f>
@@ -3217,7 +3663,7 @@
       </c>
       <c r="AL4" s="64" t="n">
         <f aca="false">AM5-AM2</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM4" s="65" t="n">
         <f aca="false">AP2-AM2</f>
@@ -3229,7 +3675,7 @@
       </c>
       <c r="AQ4" s="64" t="n">
         <f aca="false">AR5-AR2</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR4" s="65" t="n">
         <f aca="false">AU2-AR2</f>
@@ -3241,7 +3687,7 @@
       </c>
       <c r="AV4" s="64" t="n">
         <f aca="false">AW5-AW2</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW4" s="65" t="n">
         <f aca="false">AZ2-AW2</f>
@@ -3253,7 +3699,7 @@
       </c>
       <c r="BA4" s="64" t="n">
         <f aca="false">BB5-BB2</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB4" s="65" t="n">
         <f aca="false">BE2-BB2</f>
@@ -3265,7 +3711,7 @@
       </c>
       <c r="BF4" s="64" t="n">
         <f aca="false">BG5-BG2</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG4" s="65" t="n">
         <f aca="false">BJ2-BG2</f>
@@ -3277,11 +3723,11 @@
       </c>
       <c r="BK4" s="64" t="n">
         <f aca="false">BL5-BL2</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BL4" s="65" t="n">
         <f aca="false">BO2-BL2</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BN4" s="61"/>
       <c r="BO4" s="63" t="n">
@@ -3295,33 +3741,32 @@
       <c r="BQ4" s="65"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="A5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="55" t="s">
         <v>32</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>41</v>
       </c>
       <c r="G5" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" s="58" t="n">
-        <f aca="false">120%/2</f>
+      <c r="H5" s="50" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" s="51" t="n">
         <v>0.6</v>
       </c>
       <c r="J5" s="56" t="n">
         <f aca="false">ROUND(G5/(H5*I5),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" s="68" t="n">
         <f aca="false">N5-L4</f>
@@ -3335,122 +3780,121 @@
       <c r="O5" s="70"/>
       <c r="Q5" s="68" t="n">
         <f aca="false">S5-Q4</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R5" s="53"/>
       <c r="S5" s="69" t="n">
         <f aca="false">MIN(V5,V11)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T5" s="70"/>
       <c r="V5" s="68" t="n">
         <f aca="false">X5-V4</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W5" s="53"/>
       <c r="X5" s="69" t="n">
         <f aca="false">AF5</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD5" s="70"/>
       <c r="AF5" s="68" t="n">
         <f aca="false">AH5-AF4</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG5" s="53"/>
       <c r="AH5" s="69" t="n">
         <f aca="false">AK5</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK5" s="68" t="n">
         <f aca="false">AM5-AK4</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL5" s="53"/>
       <c r="AM5" s="69" t="n">
         <f aca="false">AP5</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP5" s="68" t="n">
         <f aca="false">AR5-AP4</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ5" s="53"/>
       <c r="AR5" s="69" t="n">
         <f aca="false">AU5</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU5" s="68" t="n">
         <f aca="false">AW5-AU4</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV5" s="53"/>
       <c r="AW5" s="69" t="n">
         <f aca="false">AZ5</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ5" s="68" t="n">
         <f aca="false">BB5-AZ4</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA5" s="53"/>
       <c r="BB5" s="69" t="n">
         <f aca="false">BE5</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BE5" s="68" t="n">
         <f aca="false">BG5-BE4</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BF5" s="53"/>
       <c r="BG5" s="69" t="n">
         <f aca="false">BJ5</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BJ5" s="68" t="n">
         <f aca="false">BL5-BJ4</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BK5" s="53"/>
       <c r="BL5" s="69" t="n">
         <f aca="false">BO5</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BM5" s="70"/>
       <c r="BO5" s="68" t="n">
         <f aca="false">BQ5-BO4</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BP5" s="53"/>
       <c r="BQ5" s="69" t="n">
         <f aca="false">BQ2</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="A6" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="71" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G6" s="72" t="n">
         <v>7</v>
       </c>
       <c r="H6" s="57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="58" t="n">
-        <f aca="false">100%+(100%-$I$12)</f>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="J6" s="56" t="n">
         <f aca="false">ROUND(G6/(H6*I6),0)</f>
@@ -3463,25 +3907,25 @@
       <c r="BM6" s="70"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="A7" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="55" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G7" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="57" t="s">
-        <v>79</v>
+      <c r="H7" s="57" t="n">
+        <v>2</v>
       </c>
       <c r="I7" s="58" t="n">
         <v>1</v>
@@ -3497,32 +3941,32 @@
       <c r="BM7" s="70"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="A8" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="71" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G8" s="72" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="58" t="n">
-        <v>0.8</v>
+      <c r="H8" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="51" t="n">
+        <v>0.6</v>
       </c>
       <c r="J8" s="56" t="n">
         <f aca="false">ROUND(G8/(H8*I8),0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O8" s="70"/>
       <c r="T8" s="70"/>
@@ -3533,45 +3977,44 @@
       <c r="W8" s="53"/>
       <c r="X8" s="54" t="n">
         <f aca="false">V8+V10</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA8" s="52" t="n">
         <f aca="false">X8</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB8" s="53"/>
       <c r="AC8" s="54" t="n">
         <f aca="false">AA8+AA10</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD8" s="70"/>
       <c r="AE8" s="70"/>
       <c r="BM8" s="70"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="A9" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="71" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F9" s="71" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G9" s="72" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="57" t="s">
-        <v>79</v>
+      <c r="H9" s="57" t="n">
+        <v>2</v>
       </c>
       <c r="I9" s="58" t="n">
-        <f aca="false">100%+(100%-$I$12)</f>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="J9" s="56" t="n">
         <f aca="false">ROUND(G9/(H9*I9),0)</f>
@@ -3580,14 +4023,14 @@
       <c r="O9" s="70"/>
       <c r="T9" s="70"/>
       <c r="V9" s="59" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="W9" s="59"/>
       <c r="X9" s="59"/>
       <c r="Y9" s="60"/>
       <c r="Z9" s="61"/>
       <c r="AA9" s="59" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AB9" s="59"/>
       <c r="AC9" s="59"/>
@@ -3596,29 +4039,28 @@
       <c r="BM9" s="70"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="A10" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="71" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F10" s="71" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G10" s="72" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="57" t="s">
-        <v>79</v>
+      <c r="H10" s="57" t="n">
+        <v>2</v>
       </c>
       <c r="I10" s="58" t="n">
-        <f aca="false">100%+(100%-$I$12)</f>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="J10" s="56" t="n">
         <f aca="false">ROUND(G10/(H10*I10),0)</f>
@@ -3628,11 +4070,11 @@
       <c r="U10" s="74"/>
       <c r="V10" s="63" t="n">
         <f aca="false">J5</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W10" s="64" t="n">
         <f aca="false">X11-X8</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X10" s="65" t="n">
         <f aca="false">AA8-X8</f>
@@ -3644,7 +4086,7 @@
       </c>
       <c r="AB10" s="64" t="n">
         <f aca="false">AC11-AC8</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC10" s="65" t="n">
         <f aca="false">AF2-AC8</f>
@@ -3654,29 +4096,28 @@
       <c r="BM10" s="70"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="A11" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="71" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G11" s="72" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="58" t="n">
-        <f aca="false">100%+(100%-$I$12)</f>
-        <v>1.5</v>
+      <c r="H11" s="50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="51" t="n">
+        <v>0.75</v>
       </c>
       <c r="J11" s="56" t="n">
         <f aca="false">ROUND(G11/(H11*I11),0)</f>
@@ -3685,39 +4126,39 @@
       <c r="O11" s="70"/>
       <c r="V11" s="68" t="n">
         <f aca="false">X11-V10</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W11" s="53"/>
       <c r="X11" s="69" t="n">
         <f aca="false">AA11</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA11" s="68" t="n">
         <f aca="false">AC11-AA10</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB11" s="53"/>
       <c r="AC11" s="69" t="n">
         <f aca="false">AF5</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE11" s="70"/>
       <c r="BM11" s="70"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="A12" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="71" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G12" s="72" t="n">
         <v>10</v>
@@ -3725,7 +4166,7 @@
       <c r="H12" s="57" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="58" t="n">
+      <c r="I12" s="75" t="n">
         <v>0.5</v>
       </c>
       <c r="J12" s="56" t="n">
@@ -3738,33 +4179,32 @@
       <c r="AB12" s="62"/>
       <c r="AC12" s="62"/>
       <c r="AD12" s="62"/>
-      <c r="AE12" s="75"/>
+      <c r="AE12" s="76"/>
       <c r="BM12" s="70"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="71" t="s">
-        <v>48</v>
-      </c>
       <c r="F13" s="71" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G13" s="72" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="57" t="s">
-        <v>79</v>
+      <c r="H13" s="57" t="n">
+        <v>2</v>
       </c>
       <c r="I13" s="58" t="n">
-        <f aca="false">100%+(100%-$I$12)</f>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="J13" s="56" t="n">
         <f aca="false">ROUND(G13/(H13*I13),0)</f>
@@ -3775,29 +4215,28 @@
       <c r="BM13" s="70"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="A14" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="71" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G14" s="72" t="n">
         <v>3</v>
       </c>
-      <c r="H14" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="58" t="n">
-        <f aca="false">100%+(100%-$I$12)</f>
-        <v>1.5</v>
+      <c r="H14" s="50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="51" t="n">
+        <v>0.75</v>
       </c>
       <c r="J14" s="56" t="n">
         <f aca="false">ROUND(G14/(H14*I14),0)</f>
@@ -3820,67 +4259,66 @@
       <c r="W14" s="53"/>
       <c r="X14" s="54" t="n">
         <f aca="false">V14+V16</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y14" s="73"/>
       <c r="AA14" s="52" t="n">
         <f aca="false">X14</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB14" s="53"/>
       <c r="AC14" s="54" t="n">
         <f aca="false">AA14+AA16</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BM14" s="70"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="A15" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="71" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G15" s="72" t="n">
         <v>1</v>
       </c>
-      <c r="H15" s="57" t="s">
-        <v>79</v>
+      <c r="H15" s="57" t="n">
+        <v>2</v>
       </c>
       <c r="I15" s="58" t="n">
-        <f aca="false">100%+(100%-$I$12)</f>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="J15" s="56" t="n">
         <f aca="false">ROUND(G15/(H15*I15),0)</f>
         <v>1</v>
       </c>
       <c r="O15" s="70"/>
-      <c r="P15" s="76"/>
+      <c r="P15" s="77"/>
       <c r="Q15" s="59" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="R15" s="59"/>
       <c r="S15" s="59"/>
       <c r="T15" s="60"/>
       <c r="U15" s="61"/>
       <c r="V15" s="59" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="W15" s="59"/>
       <c r="X15" s="59"/>
       <c r="Y15" s="60"/>
       <c r="Z15" s="61"/>
       <c r="AA15" s="59" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AB15" s="59"/>
       <c r="AC15" s="59"/>
@@ -3919,32 +4357,31 @@
       <c r="BJ15" s="62"/>
       <c r="BK15" s="62"/>
       <c r="BL15" s="62"/>
-      <c r="BM15" s="75"/>
+      <c r="BM15" s="76"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="A16" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="71" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F16" s="71" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G16" s="72" t="n">
         <v>5</v>
       </c>
-      <c r="H16" s="57" t="s">
-        <v>79</v>
+      <c r="H16" s="57" t="n">
+        <v>2</v>
       </c>
       <c r="I16" s="58" t="n">
-        <f aca="false">100%+(100%-$I$12)</f>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="J16" s="56" t="n">
         <f aca="false">ROUND(G16/(H16*I16),0)</f>
@@ -3964,7 +4401,7 @@
       </c>
       <c r="V16" s="63" t="n">
         <f aca="false">J8</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W16" s="64" t="n">
         <f aca="false">X17-X14</f>
@@ -3988,28 +4425,28 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="78"/>
-      <c r="G17" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="79" t="n">
+      <c r="A17" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="79"/>
+      <c r="G17" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="80" t="n">
         <f aca="false">ROUND(G17/(H17*I17),0)</f>
         <v>1</v>
       </c>
@@ -4029,16 +4466,16 @@
       <c r="W17" s="53"/>
       <c r="X17" s="69" t="n">
         <f aca="false">MIN(AA17,AF5)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA17" s="68" t="n">
         <f aca="false">AC17-AA16</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB17" s="53"/>
       <c r="AC17" s="69" t="n">
         <f aca="false">BO5</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4048,59 +4485,119 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="82" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="52" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B20" s="53"/>
       <c r="C20" s="54" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D20" s="83" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="59" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="63" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B22" s="84" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D22" s="83" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="68" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B23" s="53"/>
       <c r="C23" s="69" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D23" s="83" t="s">
-        <v>96</v>
-      </c>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="85" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="87" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="88" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="90" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="91" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="37">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -4136,6 +4633,8 @@
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A29:E29"/>
   </mergeCells>
   <conditionalFormatting sqref="BP4">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -4248,221 +4747,221 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="5" min="5" style="44" width="16.14"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="1" max="6" min="6" style="44" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="2" max="9" min="7" style="44" width="11.57"/>
-    <col collapsed="true" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="44" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="11" min="11" style="44" width="3.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="12" style="44" width="3.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="44" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="5" min="5" style="43" width="16.14"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="1" max="6" min="6" style="43" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="2" max="9" min="7" style="43" width="11.57"/>
+    <col collapsed="true" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="43" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="11" min="11" style="43" width="3.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="12" style="43" width="3.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="43" width="18.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="A1" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="45" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="85" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="G1" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="H1" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="85"/>
-      <c r="L1" s="87" t="n">
+      <c r="I1" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="94" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="94"/>
+      <c r="L1" s="96" t="n">
         <v>45208</v>
       </c>
-      <c r="M1" s="87" t="n">
+      <c r="M1" s="96" t="n">
         <v>45209</v>
       </c>
-      <c r="N1" s="87" t="n">
+      <c r="N1" s="96" t="n">
         <v>45210</v>
       </c>
-      <c r="O1" s="87" t="n">
+      <c r="O1" s="96" t="n">
         <v>45211</v>
       </c>
-      <c r="P1" s="87" t="n">
+      <c r="P1" s="96" t="n">
         <v>45212</v>
       </c>
-      <c r="Q1" s="87" t="n">
+      <c r="Q1" s="96" t="n">
         <v>45213</v>
       </c>
-      <c r="R1" s="87" t="n">
+      <c r="R1" s="96" t="n">
         <v>45214</v>
       </c>
-      <c r="S1" s="87" t="n">
+      <c r="S1" s="96" t="n">
         <v>45215</v>
       </c>
-      <c r="T1" s="87" t="n">
+      <c r="T1" s="96" t="n">
         <v>45216</v>
       </c>
-      <c r="U1" s="87" t="n">
+      <c r="U1" s="96" t="n">
         <v>45217</v>
       </c>
-      <c r="V1" s="87" t="n">
+      <c r="V1" s="96" t="n">
         <v>45218</v>
       </c>
-      <c r="W1" s="87" t="n">
+      <c r="W1" s="96" t="n">
         <v>45219</v>
       </c>
-      <c r="X1" s="87" t="n">
+      <c r="X1" s="96" t="n">
         <v>45220</v>
       </c>
-      <c r="Y1" s="87" t="n">
+      <c r="Y1" s="96" t="n">
         <v>45221</v>
       </c>
-      <c r="Z1" s="87" t="n">
+      <c r="Z1" s="96" t="n">
         <v>45222</v>
       </c>
-      <c r="AA1" s="87" t="n">
+      <c r="AA1" s="96" t="n">
         <v>45223</v>
       </c>
-      <c r="AB1" s="87" t="n">
+      <c r="AB1" s="96" t="n">
         <v>45224</v>
       </c>
-      <c r="AC1" s="87" t="n">
+      <c r="AC1" s="96" t="n">
         <v>45225</v>
       </c>
-      <c r="AD1" s="87" t="n">
+      <c r="AD1" s="96" t="n">
         <v>45226</v>
       </c>
-      <c r="AE1" s="87" t="n">
+      <c r="AE1" s="96" t="n">
         <v>45227</v>
       </c>
-      <c r="AF1" s="87" t="n">
+      <c r="AF1" s="96" t="n">
         <v>45228</v>
       </c>
-      <c r="AG1" s="87" t="n">
+      <c r="AG1" s="96" t="n">
         <v>45229</v>
       </c>
-      <c r="AH1" s="87" t="n">
+      <c r="AH1" s="96" t="n">
         <v>45230</v>
       </c>
-      <c r="AI1" s="87" t="n">
+      <c r="AI1" s="96" t="n">
         <v>45231</v>
       </c>
-      <c r="AJ1" s="87" t="n">
+      <c r="AJ1" s="96" t="n">
         <v>45232</v>
       </c>
-      <c r="AK1" s="87" t="n">
+      <c r="AK1" s="96" t="n">
         <v>45233</v>
       </c>
-      <c r="AL1" s="87" t="n">
+      <c r="AL1" s="96" t="n">
         <v>45234</v>
       </c>
-      <c r="AM1" s="87" t="n">
+      <c r="AM1" s="96" t="n">
         <v>45235</v>
       </c>
-      <c r="AN1" s="87" t="n">
+      <c r="AN1" s="96" t="n">
         <v>45236</v>
       </c>
-      <c r="AO1" s="87" t="n">
+      <c r="AO1" s="96" t="n">
         <v>45237</v>
       </c>
-      <c r="AP1" s="87" t="n">
+      <c r="AP1" s="96" t="n">
         <v>45238</v>
       </c>
-      <c r="AQ1" s="87" t="n">
+      <c r="AQ1" s="96" t="n">
         <v>45239</v>
       </c>
-      <c r="AR1" s="87" t="n">
+      <c r="AR1" s="96" t="n">
         <v>45240</v>
       </c>
-      <c r="AS1" s="87" t="n">
+      <c r="AS1" s="96" t="n">
         <v>45241</v>
       </c>
-      <c r="AT1" s="87" t="n">
+      <c r="AT1" s="96" t="n">
         <v>45242</v>
       </c>
-      <c r="AU1" s="87" t="n">
+      <c r="AU1" s="96" t="n">
         <v>45243</v>
       </c>
-      <c r="AV1" s="87" t="n">
+      <c r="AV1" s="96" t="n">
         <v>45244</v>
       </c>
-      <c r="AW1" s="87" t="n">
+      <c r="AW1" s="96" t="n">
         <v>45245</v>
       </c>
-      <c r="AX1" s="87" t="n">
+      <c r="AX1" s="96" t="n">
         <v>45246</v>
       </c>
-      <c r="AY1" s="87" t="n">
+      <c r="AY1" s="96" t="n">
         <v>45247</v>
       </c>
-      <c r="AZ1" s="87" t="n">
+      <c r="AZ1" s="96" t="n">
         <v>45248</v>
       </c>
-      <c r="BA1" s="87" t="n">
+      <c r="BA1" s="96" t="n">
         <v>45249</v>
       </c>
-      <c r="BB1" s="87" t="n">
+      <c r="BB1" s="96" t="n">
         <v>45250</v>
       </c>
-      <c r="BC1" s="87" t="n">
+      <c r="BC1" s="96" t="n">
         <v>45251</v>
       </c>
-      <c r="BD1" s="87" t="n">
+      <c r="BD1" s="96" t="n">
         <v>45252</v>
       </c>
-      <c r="BE1" s="87" t="n">
+      <c r="BE1" s="96" t="n">
         <v>45253</v>
       </c>
-      <c r="BF1" s="87" t="n">
+      <c r="BF1" s="96" t="n">
         <v>45254</v>
       </c>
-      <c r="BG1" s="87" t="n">
+      <c r="BG1" s="96" t="n">
         <v>45255</v>
       </c>
-      <c r="BH1" s="87" t="n">
+      <c r="BH1" s="96" t="n">
         <v>45256</v>
       </c>
-      <c r="BI1" s="87" t="n">
+      <c r="BI1" s="96" t="n">
         <v>45257</v>
       </c>
-      <c r="BJ1" s="87" t="n">
+      <c r="BJ1" s="96" t="n">
         <v>45258</v>
       </c>
-      <c r="BK1" s="87" t="n">
+      <c r="BK1" s="96" t="n">
         <v>45259</v>
       </c>
-      <c r="BL1" s="87" t="n">
+      <c r="BL1" s="96" t="n">
         <v>45260</v>
       </c>
-      <c r="BM1" s="87" t="n">
+      <c r="BM1" s="96" t="n">
         <v>45261</v>
       </c>
       <c r="BN1" s="83" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="A2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="47"/>
       <c r="F2" s="48" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G2" s="56" t="n">
         <f aca="false">Netzplan!G2</f>
@@ -4476,11 +4975,11 @@
         <f aca="false">Netzplan!I2</f>
         <v>1</v>
       </c>
-      <c r="J2" s="88" t="n">
+      <c r="J2" s="97" t="n">
         <f aca="false">Netzplan!J2</f>
         <v>2</v>
       </c>
-      <c r="K2" s="89" t="n">
+      <c r="K2" s="98" t="n">
         <f aca="false">SUM(L2:BM2)</f>
         <v>2</v>
       </c>
@@ -4493,70 +4992,70 @@
       <c r="N2" s="56"/>
       <c r="O2" s="56"/>
       <c r="P2" s="56"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="21"/>
-      <c r="AY2" s="90"/>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21"/>
-      <c r="BE2" s="21"/>
-      <c r="BF2" s="90"/>
-      <c r="BG2" s="21"/>
-      <c r="BH2" s="21"/>
-      <c r="BI2" s="21"/>
-      <c r="BJ2" s="21"/>
-      <c r="BK2" s="21"/>
-      <c r="BL2" s="90"/>
-      <c r="BM2" s="21"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="99"/>
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="38"/>
+      <c r="BD2" s="38"/>
+      <c r="BE2" s="38"/>
+      <c r="BF2" s="99"/>
+      <c r="BG2" s="38"/>
+      <c r="BH2" s="38"/>
+      <c r="BI2" s="38"/>
+      <c r="BJ2" s="38"/>
+      <c r="BK2" s="38"/>
+      <c r="BL2" s="99"/>
+      <c r="BM2" s="38"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="A3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="55" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G3" s="56" t="n">
         <f aca="false">Netzplan!G3</f>
@@ -4564,91 +5063,91 @@
       </c>
       <c r="H3" s="57" t="n">
         <f aca="false">Netzplan!H3</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="58" t="n">
         <f aca="false">Netzplan!I3</f>
         <v>1</v>
       </c>
-      <c r="J3" s="88" t="n">
+      <c r="J3" s="97" t="n">
         <f aca="false">Netzplan!J3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="89" t="n">
+      <c r="K3" s="98" t="n">
         <f aca="false">SUM(L3:BM3)</f>
         <v>1</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
       <c r="S3" s="56"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
-      <c r="AM3" s="21"/>
-      <c r="AN3" s="21"/>
-      <c r="AO3" s="21"/>
-      <c r="AP3" s="21"/>
-      <c r="AQ3" s="21"/>
-      <c r="AR3" s="21"/>
-      <c r="AS3" s="21"/>
-      <c r="AT3" s="21"/>
-      <c r="AU3" s="21"/>
-      <c r="AV3" s="21"/>
-      <c r="AW3" s="21"/>
-      <c r="AX3" s="21"/>
-      <c r="AY3" s="90"/>
-      <c r="AZ3" s="21"/>
-      <c r="BA3" s="21"/>
-      <c r="BB3" s="21"/>
-      <c r="BC3" s="21"/>
-      <c r="BD3" s="21"/>
-      <c r="BE3" s="21"/>
-      <c r="BF3" s="90"/>
-      <c r="BG3" s="21"/>
-      <c r="BH3" s="21"/>
-      <c r="BI3" s="21"/>
-      <c r="BJ3" s="21"/>
-      <c r="BK3" s="21"/>
-      <c r="BL3" s="90"/>
-      <c r="BM3" s="21"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="38"/>
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="38"/>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="38"/>
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="38"/>
+      <c r="AY3" s="99"/>
+      <c r="AZ3" s="38"/>
+      <c r="BA3" s="38"/>
+      <c r="BB3" s="38"/>
+      <c r="BC3" s="38"/>
+      <c r="BD3" s="38"/>
+      <c r="BE3" s="38"/>
+      <c r="BF3" s="99"/>
+      <c r="BG3" s="38"/>
+      <c r="BH3" s="38"/>
+      <c r="BI3" s="38"/>
+      <c r="BJ3" s="38"/>
+      <c r="BK3" s="38"/>
+      <c r="BL3" s="99"/>
+      <c r="BM3" s="38"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="A4" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="55" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G4" s="56" t="n">
         <f aca="false">Netzplan!G4</f>
@@ -4660,28 +5159,28 @@
       </c>
       <c r="I4" s="58" t="n">
         <f aca="false">Netzplan!I4</f>
-        <v>1</v>
-      </c>
-      <c r="J4" s="88" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J4" s="97" t="n">
         <f aca="false">Netzplan!J4</f>
-        <v>4</v>
-      </c>
-      <c r="K4" s="89" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" s="98" t="n">
         <f aca="false">SUM(L4:BM4)</f>
         <v>4</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="21" t="n">
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="38" t="n">
         <v>1</v>
       </c>
       <c r="T4" s="56" t="n">
@@ -4690,63 +5189,63 @@
       <c r="U4" s="56"/>
       <c r="V4" s="56"/>
       <c r="W4" s="56"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="21"/>
-      <c r="AI4" s="21"/>
-      <c r="AJ4" s="21"/>
-      <c r="AK4" s="21"/>
-      <c r="AL4" s="21"/>
-      <c r="AM4" s="21"/>
-      <c r="AN4" s="21"/>
-      <c r="AO4" s="21"/>
-      <c r="AP4" s="21"/>
-      <c r="AQ4" s="21"/>
-      <c r="AR4" s="21"/>
-      <c r="AS4" s="21"/>
-      <c r="AT4" s="21"/>
-      <c r="AU4" s="21"/>
-      <c r="AV4" s="21"/>
-      <c r="AW4" s="21"/>
-      <c r="AX4" s="21"/>
-      <c r="AY4" s="90"/>
-      <c r="AZ4" s="21"/>
-      <c r="BA4" s="21"/>
-      <c r="BB4" s="21"/>
-      <c r="BC4" s="21"/>
-      <c r="BD4" s="21"/>
-      <c r="BE4" s="21"/>
-      <c r="BF4" s="90"/>
-      <c r="BG4" s="21"/>
-      <c r="BH4" s="21"/>
-      <c r="BI4" s="21"/>
-      <c r="BJ4" s="21"/>
-      <c r="BK4" s="21"/>
-      <c r="BL4" s="90"/>
-      <c r="BM4" s="21"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="99"/>
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="99"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
+      <c r="BJ4" s="38"/>
+      <c r="BK4" s="38"/>
+      <c r="BL4" s="99"/>
+      <c r="BM4" s="38"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="A5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="55" t="s">
         <v>32</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>41</v>
       </c>
       <c r="G5" s="56" t="n">
         <f aca="false">Netzplan!G5</f>
@@ -4754,95 +5253,95 @@
       </c>
       <c r="H5" s="57" t="n">
         <f aca="false">Netzplan!H5</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" s="58" t="n">
         <f aca="false">Netzplan!I5</f>
         <v>0.6</v>
       </c>
-      <c r="J5" s="88" t="n">
+      <c r="J5" s="97" t="n">
         <f aca="false">Netzplan!J5</f>
-        <v>3</v>
-      </c>
-      <c r="K5" s="89" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="98" t="n">
         <f aca="false">SUM(L5:BM5)</f>
         <v>3</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="21" t="n">
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="38" t="n">
         <v>1</v>
       </c>
       <c r="T5" s="56"/>
       <c r="U5" s="56"/>
       <c r="V5" s="56"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="21"/>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="21"/>
-      <c r="AM5" s="21"/>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="21"/>
-      <c r="AP5" s="21"/>
-      <c r="AQ5" s="21"/>
-      <c r="AR5" s="21"/>
-      <c r="AS5" s="21"/>
-      <c r="AT5" s="21"/>
-      <c r="AU5" s="21"/>
-      <c r="AV5" s="21"/>
-      <c r="AW5" s="21"/>
-      <c r="AX5" s="21"/>
-      <c r="AY5" s="90"/>
-      <c r="AZ5" s="21"/>
-      <c r="BA5" s="21"/>
-      <c r="BB5" s="21"/>
-      <c r="BC5" s="21"/>
-      <c r="BD5" s="21"/>
-      <c r="BE5" s="21"/>
-      <c r="BF5" s="90"/>
-      <c r="BG5" s="21"/>
-      <c r="BH5" s="21"/>
-      <c r="BI5" s="21"/>
-      <c r="BJ5" s="21"/>
-      <c r="BK5" s="21"/>
-      <c r="BL5" s="90"/>
-      <c r="BM5" s="21"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="38"/>
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="38"/>
+      <c r="AN5" s="38"/>
+      <c r="AO5" s="38"/>
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="38"/>
+      <c r="AU5" s="38"/>
+      <c r="AV5" s="38"/>
+      <c r="AW5" s="38"/>
+      <c r="AX5" s="38"/>
+      <c r="AY5" s="99"/>
+      <c r="AZ5" s="38"/>
+      <c r="BA5" s="38"/>
+      <c r="BB5" s="38"/>
+      <c r="BC5" s="38"/>
+      <c r="BD5" s="38"/>
+      <c r="BE5" s="38"/>
+      <c r="BF5" s="99"/>
+      <c r="BG5" s="38"/>
+      <c r="BH5" s="38"/>
+      <c r="BI5" s="38"/>
+      <c r="BJ5" s="38"/>
+      <c r="BK5" s="38"/>
+      <c r="BL5" s="99"/>
+      <c r="BM5" s="38"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="A6" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="71" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G6" s="56" t="n">
         <f aca="false">Netzplan!G6</f>
@@ -4850,40 +5349,40 @@
       </c>
       <c r="H6" s="57" t="n">
         <f aca="false">Netzplan!H6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="58" t="n">
         <f aca="false">Netzplan!I6</f>
-        <v>1.5</v>
-      </c>
-      <c r="J6" s="88" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J6" s="97" t="n">
         <f aca="false">Netzplan!J6</f>
         <v>5</v>
       </c>
-      <c r="K6" s="89" t="n">
+      <c r="K6" s="98" t="n">
         <f aca="false">SUM(L6:BM6)</f>
         <v>5</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="21" t="n">
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="38" t="n">
         <v>1</v>
       </c>
       <c r="W6" s="56"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21" t="n">
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38" t="n">
         <v>1</v>
       </c>
       <c r="Z6" s="56" t="n">
@@ -4892,182 +5391,182 @@
       <c r="AA6" s="56"/>
       <c r="AB6" s="56"/>
       <c r="AC6" s="56"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="21"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="21"/>
-      <c r="AR6" s="21"/>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="21"/>
-      <c r="AW6" s="21"/>
-      <c r="AX6" s="21"/>
-      <c r="AY6" s="90"/>
-      <c r="AZ6" s="21"/>
-      <c r="BA6" s="21"/>
-      <c r="BB6" s="21"/>
-      <c r="BC6" s="21"/>
-      <c r="BD6" s="21"/>
-      <c r="BE6" s="21"/>
-      <c r="BF6" s="90"/>
-      <c r="BG6" s="21"/>
-      <c r="BH6" s="21"/>
-      <c r="BI6" s="21"/>
-      <c r="BJ6" s="21"/>
-      <c r="BK6" s="21"/>
-      <c r="BL6" s="90"/>
-      <c r="BM6" s="21"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="38"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="38"/>
+      <c r="AX6" s="38"/>
+      <c r="AY6" s="99"/>
+      <c r="AZ6" s="38"/>
+      <c r="BA6" s="38"/>
+      <c r="BB6" s="38"/>
+      <c r="BC6" s="38"/>
+      <c r="BD6" s="38"/>
+      <c r="BE6" s="38"/>
+      <c r="BF6" s="99"/>
+      <c r="BG6" s="38"/>
+      <c r="BH6" s="38"/>
+      <c r="BI6" s="38"/>
+      <c r="BJ6" s="38"/>
+      <c r="BK6" s="38"/>
+      <c r="BL6" s="99"/>
+      <c r="BM6" s="38"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="A7" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="55" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G7" s="56" t="n">
         <f aca="false">Netzplan!G7</f>
         <v>1</v>
       </c>
-      <c r="H7" s="56" t="str">
+      <c r="H7" s="57" t="n">
         <f aca="false">Netzplan!H7</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="58" t="n">
         <f aca="false">Netzplan!I7</f>
         <v>1</v>
       </c>
-      <c r="J7" s="88" t="n">
+      <c r="J7" s="97" t="n">
         <f aca="false">Netzplan!J7</f>
         <v>1</v>
       </c>
-      <c r="K7" s="89" t="n">
+      <c r="K7" s="98" t="n">
         <f aca="false">SUM(L7:BM7)</f>
         <v>1</v>
       </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
       <c r="S7" s="56"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="21"/>
-      <c r="AK7" s="21"/>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="21"/>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="21"/>
-      <c r="AP7" s="21"/>
-      <c r="AQ7" s="21"/>
-      <c r="AR7" s="21"/>
-      <c r="AS7" s="21"/>
-      <c r="AT7" s="21"/>
-      <c r="AU7" s="21"/>
-      <c r="AV7" s="21"/>
-      <c r="AW7" s="21"/>
-      <c r="AX7" s="21"/>
-      <c r="AY7" s="90"/>
-      <c r="AZ7" s="21"/>
-      <c r="BA7" s="21"/>
-      <c r="BB7" s="21"/>
-      <c r="BC7" s="21"/>
-      <c r="BD7" s="21"/>
-      <c r="BE7" s="21"/>
-      <c r="BF7" s="90"/>
-      <c r="BG7" s="21"/>
-      <c r="BH7" s="21"/>
-      <c r="BI7" s="21"/>
-      <c r="BJ7" s="21"/>
-      <c r="BK7" s="21"/>
-      <c r="BL7" s="90"/>
-      <c r="BM7" s="21"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="38"/>
+      <c r="AK7" s="38"/>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="38"/>
+      <c r="AQ7" s="38"/>
+      <c r="AR7" s="38"/>
+      <c r="AS7" s="38"/>
+      <c r="AT7" s="38"/>
+      <c r="AU7" s="38"/>
+      <c r="AV7" s="38"/>
+      <c r="AW7" s="38"/>
+      <c r="AX7" s="38"/>
+      <c r="AY7" s="99"/>
+      <c r="AZ7" s="38"/>
+      <c r="BA7" s="38"/>
+      <c r="BB7" s="38"/>
+      <c r="BC7" s="38"/>
+      <c r="BD7" s="38"/>
+      <c r="BE7" s="38"/>
+      <c r="BF7" s="99"/>
+      <c r="BG7" s="38"/>
+      <c r="BH7" s="38"/>
+      <c r="BI7" s="38"/>
+      <c r="BJ7" s="38"/>
+      <c r="BK7" s="38"/>
+      <c r="BL7" s="99"/>
+      <c r="BM7" s="38"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="A8" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="71" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G8" s="56" t="n">
         <f aca="false">Netzplan!G8</f>
         <v>3</v>
       </c>
-      <c r="H8" s="56" t="str">
+      <c r="H8" s="57" t="n">
         <f aca="false">Netzplan!H8</f>
         <v>1</v>
       </c>
       <c r="I8" s="58" t="n">
         <f aca="false">Netzplan!I8</f>
-        <v>0.8</v>
-      </c>
-      <c r="J8" s="88" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J8" s="97" t="n">
         <f aca="false">Netzplan!J8</f>
-        <v>4</v>
-      </c>
-      <c r="K8" s="89" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" s="98" t="n">
         <f aca="false">SUM(L8:BM8)</f>
         <v>4</v>
       </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" s="21" t="n">
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="38" t="n">
         <v>1</v>
       </c>
       <c r="T8" s="56" t="n">
@@ -5075,408 +5574,408 @@
       </c>
       <c r="U8" s="56"/>
       <c r="V8" s="56"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="21"/>
-      <c r="AN8" s="21"/>
-      <c r="AO8" s="21"/>
-      <c r="AP8" s="21"/>
-      <c r="AQ8" s="21"/>
-      <c r="AR8" s="21"/>
-      <c r="AS8" s="21"/>
-      <c r="AT8" s="21"/>
-      <c r="AU8" s="21"/>
-      <c r="AV8" s="21"/>
-      <c r="AW8" s="21"/>
-      <c r="AX8" s="21"/>
-      <c r="AY8" s="90"/>
-      <c r="AZ8" s="21"/>
-      <c r="BA8" s="21"/>
-      <c r="BB8" s="21"/>
-      <c r="BC8" s="21"/>
-      <c r="BD8" s="21"/>
-      <c r="BE8" s="21"/>
-      <c r="BF8" s="90"/>
-      <c r="BG8" s="21"/>
-      <c r="BH8" s="21"/>
-      <c r="BI8" s="21"/>
-      <c r="BJ8" s="21"/>
-      <c r="BK8" s="21"/>
-      <c r="BL8" s="90"/>
-      <c r="BM8" s="21"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="38"/>
+      <c r="AK8" s="38"/>
+      <c r="AL8" s="38"/>
+      <c r="AM8" s="38"/>
+      <c r="AN8" s="38"/>
+      <c r="AO8" s="38"/>
+      <c r="AP8" s="38"/>
+      <c r="AQ8" s="38"/>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="38"/>
+      <c r="AT8" s="38"/>
+      <c r="AU8" s="38"/>
+      <c r="AV8" s="38"/>
+      <c r="AW8" s="38"/>
+      <c r="AX8" s="38"/>
+      <c r="AY8" s="99"/>
+      <c r="AZ8" s="38"/>
+      <c r="BA8" s="38"/>
+      <c r="BB8" s="38"/>
+      <c r="BC8" s="38"/>
+      <c r="BD8" s="38"/>
+      <c r="BE8" s="38"/>
+      <c r="BF8" s="99"/>
+      <c r="BG8" s="38"/>
+      <c r="BH8" s="38"/>
+      <c r="BI8" s="38"/>
+      <c r="BJ8" s="38"/>
+      <c r="BK8" s="38"/>
+      <c r="BL8" s="99"/>
+      <c r="BM8" s="38"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19"/>
-      <c r="B9" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
       <c r="E9" s="71"/>
       <c r="F9" s="71"/>
       <c r="G9" s="56"/>
       <c r="H9" s="56"/>
       <c r="I9" s="58"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
       <c r="T9" s="56"/>
       <c r="U9" s="56"/>
       <c r="V9" s="56"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21"/>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="21"/>
-      <c r="AP9" s="21"/>
-      <c r="AQ9" s="21"/>
-      <c r="AR9" s="21"/>
-      <c r="AS9" s="21"/>
-      <c r="AT9" s="21"/>
-      <c r="AU9" s="21"/>
-      <c r="AV9" s="21"/>
-      <c r="AW9" s="21"/>
-      <c r="AX9" s="21"/>
-      <c r="AY9" s="90"/>
-      <c r="AZ9" s="21"/>
-      <c r="BA9" s="21"/>
-      <c r="BB9" s="21"/>
-      <c r="BC9" s="21"/>
-      <c r="BD9" s="21"/>
-      <c r="BE9" s="21"/>
-      <c r="BF9" s="90"/>
-      <c r="BG9" s="21"/>
-      <c r="BH9" s="21"/>
-      <c r="BI9" s="21"/>
-      <c r="BJ9" s="21"/>
-      <c r="BK9" s="21"/>
-      <c r="BL9" s="90"/>
-      <c r="BM9" s="21"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38"/>
+      <c r="AI9" s="38"/>
+      <c r="AJ9" s="38"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="38"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="38"/>
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38"/>
+      <c r="AT9" s="38"/>
+      <c r="AU9" s="38"/>
+      <c r="AV9" s="38"/>
+      <c r="AW9" s="38"/>
+      <c r="AX9" s="38"/>
+      <c r="AY9" s="99"/>
+      <c r="AZ9" s="38"/>
+      <c r="BA9" s="38"/>
+      <c r="BB9" s="38"/>
+      <c r="BC9" s="38"/>
+      <c r="BD9" s="38"/>
+      <c r="BE9" s="38"/>
+      <c r="BF9" s="99"/>
+      <c r="BG9" s="38"/>
+      <c r="BH9" s="38"/>
+      <c r="BI9" s="38"/>
+      <c r="BJ9" s="38"/>
+      <c r="BK9" s="38"/>
+      <c r="BL9" s="99"/>
+      <c r="BM9" s="38"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="A10" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="71" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F10" s="71" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G10" s="56" t="n">
         <f aca="false">Netzplan!G9</f>
         <v>2</v>
       </c>
-      <c r="H10" s="56" t="str">
+      <c r="H10" s="57" t="n">
         <f aca="false">Netzplan!H9</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="58" t="n">
         <f aca="false">Netzplan!I9</f>
-        <v>1.5</v>
-      </c>
-      <c r="J10" s="88" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J10" s="97" t="n">
         <f aca="false">Netzplan!J9</f>
         <v>1</v>
       </c>
-      <c r="K10" s="89" t="n">
+      <c r="K10" s="98" t="n">
         <f aca="false">SUM(L10:BM10)</f>
         <v>1</v>
       </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21" t="n">
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AD10" s="56"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
       <c r="AG10" s="56"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="21"/>
-      <c r="AL10" s="21"/>
-      <c r="AM10" s="21"/>
-      <c r="AN10" s="21"/>
-      <c r="AO10" s="21"/>
-      <c r="AP10" s="21"/>
-      <c r="AQ10" s="21"/>
-      <c r="AR10" s="21"/>
-      <c r="AS10" s="21"/>
-      <c r="AT10" s="21"/>
-      <c r="AU10" s="21"/>
-      <c r="AV10" s="21"/>
-      <c r="AW10" s="21"/>
-      <c r="AX10" s="21"/>
-      <c r="AY10" s="90"/>
-      <c r="AZ10" s="21"/>
-      <c r="BA10" s="21"/>
-      <c r="BB10" s="21"/>
-      <c r="BC10" s="21"/>
-      <c r="BD10" s="21"/>
-      <c r="BE10" s="21"/>
-      <c r="BF10" s="90"/>
-      <c r="BG10" s="21"/>
-      <c r="BH10" s="21"/>
-      <c r="BI10" s="21"/>
-      <c r="BJ10" s="21"/>
-      <c r="BK10" s="21"/>
-      <c r="BL10" s="90"/>
-      <c r="BM10" s="21"/>
+      <c r="AH10" s="38"/>
+      <c r="AI10" s="38"/>
+      <c r="AJ10" s="38"/>
+      <c r="AK10" s="38"/>
+      <c r="AL10" s="38"/>
+      <c r="AM10" s="38"/>
+      <c r="AN10" s="38"/>
+      <c r="AO10" s="38"/>
+      <c r="AP10" s="38"/>
+      <c r="AQ10" s="38"/>
+      <c r="AR10" s="38"/>
+      <c r="AS10" s="38"/>
+      <c r="AT10" s="38"/>
+      <c r="AU10" s="38"/>
+      <c r="AV10" s="38"/>
+      <c r="AW10" s="38"/>
+      <c r="AX10" s="38"/>
+      <c r="AY10" s="99"/>
+      <c r="AZ10" s="38"/>
+      <c r="BA10" s="38"/>
+      <c r="BB10" s="38"/>
+      <c r="BC10" s="38"/>
+      <c r="BD10" s="38"/>
+      <c r="BE10" s="38"/>
+      <c r="BF10" s="99"/>
+      <c r="BG10" s="38"/>
+      <c r="BH10" s="38"/>
+      <c r="BI10" s="38"/>
+      <c r="BJ10" s="38"/>
+      <c r="BK10" s="38"/>
+      <c r="BL10" s="99"/>
+      <c r="BM10" s="38"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="A11" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="71" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G11" s="56" t="n">
         <f aca="false">Netzplan!G10</f>
         <v>2</v>
       </c>
-      <c r="H11" s="56" t="str">
+      <c r="H11" s="57" t="n">
         <f aca="false">Netzplan!H10</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="58" t="n">
         <f aca="false">Netzplan!I10</f>
-        <v>1.5</v>
-      </c>
-      <c r="J11" s="88" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J11" s="97" t="n">
         <f aca="false">Netzplan!J10</f>
         <v>1</v>
       </c>
-      <c r="K11" s="89" t="n">
+      <c r="K11" s="98" t="n">
         <f aca="false">SUM(L11:BM11)</f>
         <v>1</v>
       </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="21"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="38"/>
       <c r="AH11" s="56"/>
       <c r="AI11" s="56"/>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="21"/>
-      <c r="AN11" s="21"/>
-      <c r="AO11" s="21"/>
-      <c r="AP11" s="21"/>
-      <c r="AQ11" s="21"/>
-      <c r="AR11" s="21"/>
-      <c r="AS11" s="21"/>
-      <c r="AT11" s="21"/>
-      <c r="AU11" s="21"/>
-      <c r="AV11" s="21"/>
-      <c r="AW11" s="21"/>
-      <c r="AX11" s="21"/>
-      <c r="AY11" s="90"/>
-      <c r="AZ11" s="21"/>
-      <c r="BA11" s="21"/>
-      <c r="BB11" s="21"/>
-      <c r="BC11" s="21"/>
-      <c r="BD11" s="21"/>
-      <c r="BE11" s="21"/>
-      <c r="BF11" s="90"/>
-      <c r="BG11" s="21"/>
-      <c r="BH11" s="21"/>
-      <c r="BI11" s="21"/>
-      <c r="BJ11" s="21"/>
-      <c r="BK11" s="21"/>
-      <c r="BL11" s="90"/>
-      <c r="BM11" s="21"/>
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="38"/>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="38"/>
+      <c r="AO11" s="38"/>
+      <c r="AP11" s="38"/>
+      <c r="AQ11" s="38"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="38"/>
+      <c r="AT11" s="38"/>
+      <c r="AU11" s="38"/>
+      <c r="AV11" s="38"/>
+      <c r="AW11" s="38"/>
+      <c r="AX11" s="38"/>
+      <c r="AY11" s="99"/>
+      <c r="AZ11" s="38"/>
+      <c r="BA11" s="38"/>
+      <c r="BB11" s="38"/>
+      <c r="BC11" s="38"/>
+      <c r="BD11" s="38"/>
+      <c r="BE11" s="38"/>
+      <c r="BF11" s="99"/>
+      <c r="BG11" s="38"/>
+      <c r="BH11" s="38"/>
+      <c r="BI11" s="38"/>
+      <c r="BJ11" s="38"/>
+      <c r="BK11" s="38"/>
+      <c r="BL11" s="99"/>
+      <c r="BM11" s="38"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="A12" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="71" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G12" s="56" t="n">
         <f aca="false">Netzplan!G11</f>
         <v>2</v>
       </c>
-      <c r="H12" s="56" t="str">
+      <c r="H12" s="57" t="n">
         <f aca="false">Netzplan!H11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="58" t="n">
         <f aca="false">Netzplan!I11</f>
-        <v>1.5</v>
-      </c>
-      <c r="J12" s="88" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J12" s="97" t="n">
         <f aca="false">Netzplan!J11</f>
         <v>1</v>
       </c>
-      <c r="K12" s="89" t="n">
+      <c r="K12" s="98" t="n">
         <f aca="false">SUM(L12:BM12)</f>
         <v>1</v>
       </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21" t="n">
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AJ12" s="56"/>
       <c r="AK12" s="56"/>
-      <c r="AL12" s="21"/>
-      <c r="AM12" s="21"/>
-      <c r="AN12" s="21"/>
-      <c r="AO12" s="21"/>
-      <c r="AP12" s="21"/>
-      <c r="AQ12" s="21"/>
-      <c r="AR12" s="21"/>
-      <c r="AS12" s="21"/>
-      <c r="AT12" s="21"/>
-      <c r="AU12" s="21"/>
-      <c r="AV12" s="21"/>
-      <c r="AW12" s="21"/>
-      <c r="AX12" s="21"/>
-      <c r="AY12" s="90"/>
-      <c r="AZ12" s="21"/>
-      <c r="BA12" s="21"/>
-      <c r="BB12" s="21"/>
-      <c r="BC12" s="21"/>
-      <c r="BD12" s="21"/>
-      <c r="BE12" s="21"/>
-      <c r="BF12" s="90"/>
-      <c r="BG12" s="21"/>
-      <c r="BH12" s="21"/>
-      <c r="BI12" s="21"/>
-      <c r="BJ12" s="21"/>
-      <c r="BK12" s="21"/>
-      <c r="BL12" s="90"/>
-      <c r="BM12" s="21"/>
+      <c r="AL12" s="38"/>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="38"/>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="38"/>
+      <c r="AR12" s="38"/>
+      <c r="AS12" s="38"/>
+      <c r="AT12" s="38"/>
+      <c r="AU12" s="38"/>
+      <c r="AV12" s="38"/>
+      <c r="AW12" s="38"/>
+      <c r="AX12" s="38"/>
+      <c r="AY12" s="99"/>
+      <c r="AZ12" s="38"/>
+      <c r="BA12" s="38"/>
+      <c r="BB12" s="38"/>
+      <c r="BC12" s="38"/>
+      <c r="BD12" s="38"/>
+      <c r="BE12" s="38"/>
+      <c r="BF12" s="99"/>
+      <c r="BG12" s="38"/>
+      <c r="BH12" s="38"/>
+      <c r="BI12" s="38"/>
+      <c r="BJ12" s="38"/>
+      <c r="BK12" s="38"/>
+      <c r="BL12" s="99"/>
+      <c r="BM12" s="38"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="A13" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="71" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F13" s="71" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G13" s="56" t="n">
         <f aca="false">Netzplan!G12</f>
@@ -5490,49 +5989,49 @@
         <f aca="false">Netzplan!I12</f>
         <v>0.5</v>
       </c>
-      <c r="J13" s="88" t="n">
+      <c r="J13" s="97" t="n">
         <f aca="false">Netzplan!J12</f>
         <v>20</v>
       </c>
-      <c r="K13" s="89" t="n">
+      <c r="K13" s="98" t="n">
         <f aca="false">SUM(L13:BM13)</f>
         <v>20</v>
       </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="V13" s="21" t="n">
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="38" t="n">
         <v>1</v>
       </c>
       <c r="W13" s="56"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="21" t="n">
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AD13" s="56"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="21" t="n">
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AG13" s="56"/>
@@ -5546,650 +6045,650 @@
         <v>1</v>
       </c>
       <c r="AK13" s="56"/>
-      <c r="AL13" s="21"/>
-      <c r="AM13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="21" t="n">
+      <c r="AL13" s="38"/>
+      <c r="AM13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AR13" s="56"/>
-      <c r="AS13" s="21"/>
-      <c r="AT13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW13" s="21" t="n">
+      <c r="AS13" s="38"/>
+      <c r="AT13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AX13" s="56"/>
-      <c r="AY13" s="90"/>
-      <c r="AZ13" s="21"/>
-      <c r="BA13" s="21"/>
-      <c r="BB13" s="21"/>
-      <c r="BC13" s="21"/>
-      <c r="BD13" s="21"/>
-      <c r="BE13" s="21"/>
-      <c r="BF13" s="90"/>
-      <c r="BG13" s="21"/>
-      <c r="BH13" s="21"/>
-      <c r="BJ13" s="21"/>
-      <c r="BK13" s="21"/>
-      <c r="BL13" s="90"/>
-      <c r="BM13" s="21"/>
+      <c r="AY13" s="99"/>
+      <c r="AZ13" s="38"/>
+      <c r="BA13" s="38"/>
+      <c r="BB13" s="38"/>
+      <c r="BC13" s="38"/>
+      <c r="BD13" s="38"/>
+      <c r="BE13" s="38"/>
+      <c r="BF13" s="99"/>
+      <c r="BG13" s="38"/>
+      <c r="BH13" s="38"/>
+      <c r="BJ13" s="38"/>
+      <c r="BK13" s="38"/>
+      <c r="BL13" s="99"/>
+      <c r="BM13" s="38"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="71" t="s">
-        <v>48</v>
-      </c>
       <c r="F14" s="71" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G14" s="56" t="n">
         <f aca="false">Netzplan!G13</f>
         <v>3</v>
       </c>
-      <c r="H14" s="56" t="str">
+      <c r="H14" s="57" t="n">
         <f aca="false">Netzplan!H13</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="58" t="n">
         <f aca="false">Netzplan!I13</f>
-        <v>1.5</v>
-      </c>
-      <c r="J14" s="88" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J14" s="97" t="n">
         <f aca="false">Netzplan!J13</f>
         <v>2</v>
       </c>
-      <c r="K14" s="89" t="n">
+      <c r="K14" s="98" t="n">
         <f aca="false">SUM(L14:BM14)</f>
         <v>2</v>
       </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="21"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="21"/>
-      <c r="AM14" s="21"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="38"/>
+      <c r="AI14" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="38"/>
+      <c r="AM14" s="38"/>
       <c r="AN14" s="56"/>
       <c r="AO14" s="56"/>
       <c r="AP14" s="56"/>
-      <c r="AQ14" s="21"/>
-      <c r="AR14" s="21"/>
-      <c r="AS14" s="21"/>
-      <c r="AT14" s="21"/>
-      <c r="AU14" s="21"/>
-      <c r="AV14" s="21"/>
-      <c r="AW14" s="21"/>
-      <c r="AX14" s="21"/>
-      <c r="AY14" s="90"/>
-      <c r="AZ14" s="21"/>
-      <c r="BA14" s="21"/>
-      <c r="BB14" s="21"/>
-      <c r="BC14" s="21"/>
-      <c r="BD14" s="21"/>
-      <c r="BE14" s="21"/>
-      <c r="BF14" s="90"/>
-      <c r="BG14" s="21"/>
-      <c r="BH14" s="21"/>
-      <c r="BI14" s="21"/>
-      <c r="BJ14" s="21"/>
-      <c r="BK14" s="21"/>
-      <c r="BL14" s="90"/>
-      <c r="BM14" s="21"/>
+      <c r="AQ14" s="38"/>
+      <c r="AR14" s="38"/>
+      <c r="AS14" s="38"/>
+      <c r="AT14" s="38"/>
+      <c r="AU14" s="38"/>
+      <c r="AV14" s="38"/>
+      <c r="AW14" s="38"/>
+      <c r="AX14" s="38"/>
+      <c r="AY14" s="99"/>
+      <c r="AZ14" s="38"/>
+      <c r="BA14" s="38"/>
+      <c r="BB14" s="38"/>
+      <c r="BC14" s="38"/>
+      <c r="BD14" s="38"/>
+      <c r="BE14" s="38"/>
+      <c r="BF14" s="99"/>
+      <c r="BG14" s="38"/>
+      <c r="BH14" s="38"/>
+      <c r="BI14" s="38"/>
+      <c r="BJ14" s="38"/>
+      <c r="BK14" s="38"/>
+      <c r="BL14" s="99"/>
+      <c r="BM14" s="38"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="A15" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="71" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G15" s="56" t="n">
         <f aca="false">Netzplan!G14</f>
         <v>3</v>
       </c>
-      <c r="H15" s="56" t="str">
+      <c r="H15" s="57" t="n">
         <f aca="false">Netzplan!H14</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="58" t="n">
         <f aca="false">Netzplan!I14</f>
-        <v>1.5</v>
-      </c>
-      <c r="J15" s="88" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J15" s="97" t="n">
         <f aca="false">Netzplan!J14</f>
         <v>2</v>
       </c>
-      <c r="K15" s="89" t="n">
+      <c r="K15" s="98" t="n">
         <f aca="false">SUM(L15:BM15)</f>
         <v>2</v>
       </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="21"/>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="21"/>
-      <c r="AH15" s="21"/>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="21"/>
-      <c r="AK15" s="21"/>
-      <c r="AL15" s="21"/>
-      <c r="AM15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO15" s="21"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="38"/>
+      <c r="AJ15" s="38"/>
+      <c r="AK15" s="38"/>
+      <c r="AL15" s="38"/>
+      <c r="AM15" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="38"/>
       <c r="AQ15" s="56"/>
       <c r="AR15" s="56"/>
-      <c r="AS15" s="21"/>
-      <c r="AT15" s="21"/>
+      <c r="AS15" s="38"/>
+      <c r="AT15" s="38"/>
       <c r="AU15" s="56"/>
-      <c r="AV15" s="21"/>
-      <c r="AW15" s="21"/>
-      <c r="AX15" s="21"/>
-      <c r="AY15" s="90"/>
-      <c r="AZ15" s="21"/>
-      <c r="BA15" s="21"/>
-      <c r="BB15" s="21"/>
-      <c r="BC15" s="21"/>
-      <c r="BD15" s="21"/>
-      <c r="BE15" s="21"/>
-      <c r="BF15" s="90"/>
-      <c r="BG15" s="21"/>
-      <c r="BH15" s="21"/>
-      <c r="BI15" s="21"/>
-      <c r="BJ15" s="21"/>
-      <c r="BK15" s="21"/>
-      <c r="BL15" s="90"/>
-      <c r="BM15" s="21"/>
+      <c r="AV15" s="38"/>
+      <c r="AW15" s="38"/>
+      <c r="AX15" s="38"/>
+      <c r="AY15" s="99"/>
+      <c r="AZ15" s="38"/>
+      <c r="BA15" s="38"/>
+      <c r="BB15" s="38"/>
+      <c r="BC15" s="38"/>
+      <c r="BD15" s="38"/>
+      <c r="BE15" s="38"/>
+      <c r="BF15" s="99"/>
+      <c r="BG15" s="38"/>
+      <c r="BH15" s="38"/>
+      <c r="BI15" s="38"/>
+      <c r="BJ15" s="38"/>
+      <c r="BK15" s="38"/>
+      <c r="BL15" s="99"/>
+      <c r="BM15" s="38"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19"/>
-      <c r="B16" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
       <c r="G16" s="56"/>
       <c r="H16" s="56"/>
       <c r="I16" s="58"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="21"/>
-      <c r="AM16" s="21"/>
-      <c r="AN16" s="21"/>
-      <c r="AO16" s="21"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="38"/>
+      <c r="AJ16" s="38"/>
+      <c r="AK16" s="38"/>
+      <c r="AL16" s="38"/>
+      <c r="AM16" s="38"/>
+      <c r="AN16" s="38"/>
+      <c r="AO16" s="38"/>
       <c r="AQ16" s="56"/>
       <c r="AR16" s="56"/>
-      <c r="AS16" s="21"/>
-      <c r="AT16" s="21"/>
+      <c r="AS16" s="38"/>
+      <c r="AT16" s="38"/>
       <c r="AU16" s="56"/>
-      <c r="AV16" s="21"/>
-      <c r="AW16" s="21"/>
-      <c r="AX16" s="21"/>
-      <c r="AY16" s="90"/>
-      <c r="AZ16" s="21"/>
-      <c r="BA16" s="21"/>
-      <c r="BB16" s="21"/>
-      <c r="BC16" s="21"/>
-      <c r="BD16" s="21"/>
-      <c r="BE16" s="21"/>
-      <c r="BF16" s="90"/>
-      <c r="BG16" s="21"/>
-      <c r="BH16" s="21"/>
-      <c r="BI16" s="21"/>
-      <c r="BJ16" s="21"/>
-      <c r="BK16" s="21"/>
-      <c r="BL16" s="90"/>
-      <c r="BM16" s="21"/>
+      <c r="AV16" s="38"/>
+      <c r="AW16" s="38"/>
+      <c r="AX16" s="38"/>
+      <c r="AY16" s="99"/>
+      <c r="AZ16" s="38"/>
+      <c r="BA16" s="38"/>
+      <c r="BB16" s="38"/>
+      <c r="BC16" s="38"/>
+      <c r="BD16" s="38"/>
+      <c r="BE16" s="38"/>
+      <c r="BF16" s="99"/>
+      <c r="BG16" s="38"/>
+      <c r="BH16" s="38"/>
+      <c r="BI16" s="38"/>
+      <c r="BJ16" s="38"/>
+      <c r="BK16" s="38"/>
+      <c r="BL16" s="99"/>
+      <c r="BM16" s="38"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="A17" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="71" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F17" s="71" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G17" s="56" t="n">
         <f aca="false">Netzplan!G15</f>
         <v>1</v>
       </c>
-      <c r="H17" s="56" t="str">
+      <c r="H17" s="57" t="n">
         <f aca="false">Netzplan!H15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="58" t="n">
         <f aca="false">Netzplan!I15</f>
-        <v>1.5</v>
-      </c>
-      <c r="J17" s="88" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J17" s="97" t="n">
         <f aca="false">Netzplan!J15</f>
         <v>1</v>
       </c>
-      <c r="K17" s="89" t="n">
+      <c r="K17" s="98" t="n">
         <f aca="false">SUM(L17:BM17)</f>
         <v>1</v>
       </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="21"/>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="21"/>
-      <c r="AM17" s="21"/>
-      <c r="AN17" s="21"/>
-      <c r="AO17" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP17" s="21"/>
-      <c r="AQ17" s="21"/>
-      <c r="AR17" s="21"/>
-      <c r="AS17" s="21"/>
-      <c r="AT17" s="21"/>
-      <c r="AU17" s="21"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="38"/>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="38"/>
+      <c r="AO17" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="38"/>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="38"/>
+      <c r="AS17" s="38"/>
+      <c r="AT17" s="38"/>
+      <c r="AU17" s="38"/>
       <c r="AV17" s="56"/>
-      <c r="AW17" s="21"/>
-      <c r="AX17" s="21"/>
-      <c r="AY17" s="90"/>
-      <c r="AZ17" s="21"/>
-      <c r="BA17" s="21"/>
-      <c r="BB17" s="21"/>
-      <c r="BC17" s="21"/>
-      <c r="BD17" s="21"/>
-      <c r="BE17" s="21"/>
-      <c r="BF17" s="90"/>
-      <c r="BG17" s="21"/>
-      <c r="BH17" s="21"/>
-      <c r="BI17" s="21"/>
-      <c r="BJ17" s="21"/>
-      <c r="BK17" s="21"/>
-      <c r="BL17" s="90"/>
-      <c r="BM17" s="21"/>
+      <c r="AW17" s="38"/>
+      <c r="AX17" s="38"/>
+      <c r="AY17" s="99"/>
+      <c r="AZ17" s="38"/>
+      <c r="BA17" s="38"/>
+      <c r="BB17" s="38"/>
+      <c r="BC17" s="38"/>
+      <c r="BD17" s="38"/>
+      <c r="BE17" s="38"/>
+      <c r="BF17" s="99"/>
+      <c r="BG17" s="38"/>
+      <c r="BH17" s="38"/>
+      <c r="BI17" s="38"/>
+      <c r="BJ17" s="38"/>
+      <c r="BK17" s="38"/>
+      <c r="BL17" s="99"/>
+      <c r="BM17" s="38"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="A18" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="71" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F18" s="71" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G18" s="56" t="n">
         <f aca="false">Netzplan!G16</f>
         <v>5</v>
       </c>
-      <c r="H18" s="56" t="str">
+      <c r="H18" s="57" t="n">
         <f aca="false">Netzplan!H16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="58" t="n">
         <f aca="false">Netzplan!I16</f>
-        <v>1.5</v>
-      </c>
-      <c r="J18" s="88" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J18" s="97" t="n">
         <f aca="false">Netzplan!J16</f>
         <v>3</v>
       </c>
-      <c r="K18" s="89" t="n">
+      <c r="K18" s="98" t="n">
         <f aca="false">SUM(L18:BM18)</f>
         <v>3</v>
       </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="21"/>
-      <c r="AE18" s="21"/>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="21"/>
-      <c r="AH18" s="21"/>
-      <c r="AI18" s="21"/>
-      <c r="AJ18" s="21"/>
-      <c r="AK18" s="21"/>
-      <c r="AL18" s="21"/>
-      <c r="AM18" s="21"/>
-      <c r="AN18" s="21"/>
-      <c r="AO18" s="21"/>
-      <c r="AP18" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ18" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR18" s="21"/>
-      <c r="AS18" s="21"/>
-      <c r="AT18" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU18" s="21"/>
-      <c r="AV18" s="21"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="38"/>
+      <c r="AO18" s="38"/>
+      <c r="AP18" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="38"/>
+      <c r="AS18" s="38"/>
+      <c r="AT18" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="38"/>
+      <c r="AV18" s="38"/>
       <c r="AW18" s="56"/>
       <c r="AX18" s="56"/>
-      <c r="AY18" s="90"/>
-      <c r="AZ18" s="21"/>
-      <c r="BA18" s="21"/>
+      <c r="AY18" s="99"/>
+      <c r="AZ18" s="38"/>
+      <c r="BA18" s="38"/>
       <c r="BB18" s="56"/>
-      <c r="BC18" s="21"/>
-      <c r="BD18" s="21"/>
-      <c r="BE18" s="21"/>
-      <c r="BF18" s="90"/>
-      <c r="BG18" s="21"/>
-      <c r="BH18" s="21"/>
-      <c r="BI18" s="21"/>
-      <c r="BK18" s="21"/>
-      <c r="BL18" s="90"/>
-      <c r="BM18" s="21"/>
+      <c r="BC18" s="38"/>
+      <c r="BD18" s="38"/>
+      <c r="BE18" s="38"/>
+      <c r="BF18" s="99"/>
+      <c r="BG18" s="38"/>
+      <c r="BH18" s="38"/>
+      <c r="BI18" s="38"/>
+      <c r="BK18" s="38"/>
+      <c r="BL18" s="99"/>
+      <c r="BM18" s="38"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19"/>
-      <c r="B19" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
       <c r="G19" s="56"/>
       <c r="H19" s="56"/>
       <c r="I19" s="58"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-      <c r="AC19" s="21"/>
-      <c r="AD19" s="21"/>
-      <c r="AE19" s="21"/>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="21"/>
-      <c r="AH19" s="21"/>
-      <c r="AI19" s="21"/>
-      <c r="AJ19" s="21"/>
-      <c r="AK19" s="21"/>
-      <c r="AL19" s="21"/>
-      <c r="AM19" s="21"/>
-      <c r="AN19" s="21"/>
-      <c r="AO19" s="21"/>
-      <c r="AP19" s="21"/>
-      <c r="AQ19" s="21"/>
-      <c r="AR19" s="21"/>
-      <c r="AS19" s="21"/>
-      <c r="AT19" s="21"/>
-      <c r="AU19" s="21"/>
-      <c r="AV19" s="21"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
+      <c r="AJ19" s="38"/>
+      <c r="AK19" s="38"/>
+      <c r="AL19" s="38"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="38"/>
+      <c r="AO19" s="38"/>
+      <c r="AP19" s="38"/>
+      <c r="AQ19" s="38"/>
+      <c r="AR19" s="38"/>
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38"/>
+      <c r="AU19" s="38"/>
+      <c r="AV19" s="38"/>
       <c r="AW19" s="56"/>
       <c r="AX19" s="56"/>
-      <c r="AY19" s="90"/>
-      <c r="AZ19" s="21"/>
-      <c r="BA19" s="21"/>
+      <c r="AY19" s="99"/>
+      <c r="AZ19" s="38"/>
+      <c r="BA19" s="38"/>
       <c r="BB19" s="56"/>
-      <c r="BC19" s="21"/>
-      <c r="BD19" s="21"/>
-      <c r="BE19" s="21"/>
-      <c r="BF19" s="90"/>
-      <c r="BG19" s="21"/>
-      <c r="BH19" s="21"/>
-      <c r="BI19" s="21"/>
-      <c r="BK19" s="21"/>
-      <c r="BL19" s="90"/>
-      <c r="BM19" s="21"/>
+      <c r="BC19" s="38"/>
+      <c r="BD19" s="38"/>
+      <c r="BE19" s="38"/>
+      <c r="BF19" s="99"/>
+      <c r="BG19" s="38"/>
+      <c r="BH19" s="38"/>
+      <c r="BI19" s="38"/>
+      <c r="BK19" s="38"/>
+      <c r="BL19" s="99"/>
+      <c r="BM19" s="38"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79" t="n">
+      <c r="A20" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80" t="n">
         <f aca="false">Netzplan!G17</f>
         <v>1</v>
       </c>
-      <c r="H20" s="79" t="str">
+      <c r="H20" s="101" t="n">
         <f aca="false">Netzplan!H17</f>
         <v>1</v>
       </c>
-      <c r="I20" s="92" t="n">
+      <c r="I20" s="102" t="n">
         <f aca="false">Netzplan!I17</f>
         <v>1</v>
       </c>
-      <c r="J20" s="93" t="n">
+      <c r="J20" s="103" t="n">
         <f aca="false">Netzplan!J17</f>
         <v>1</v>
       </c>
-      <c r="K20" s="89" t="n">
+      <c r="K20" s="98" t="n">
         <f aca="false">SUM(L20:BM20)</f>
         <v>1</v>
       </c>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="25"/>
-      <c r="AH20" s="25"/>
-      <c r="AI20" s="25"/>
-      <c r="AJ20" s="25"/>
-      <c r="AK20" s="25"/>
-      <c r="AL20" s="25"/>
-      <c r="AM20" s="25"/>
-      <c r="AN20" s="25"/>
-      <c r="AO20" s="25"/>
-      <c r="AP20" s="25"/>
-      <c r="AQ20" s="25"/>
-      <c r="AR20" s="25"/>
-      <c r="AS20" s="25"/>
-      <c r="AT20" s="25"/>
-      <c r="AU20" s="25"/>
-      <c r="AV20" s="25"/>
-      <c r="AW20" s="25"/>
-      <c r="AX20" s="25"/>
-      <c r="AY20" s="94"/>
-      <c r="AZ20" s="25"/>
-      <c r="BA20" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB20" s="25"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="42"/>
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="42"/>
+      <c r="AK20" s="42"/>
+      <c r="AL20" s="42"/>
+      <c r="AM20" s="42"/>
+      <c r="AN20" s="42"/>
+      <c r="AO20" s="42"/>
+      <c r="AP20" s="42"/>
+      <c r="AQ20" s="42"/>
+      <c r="AR20" s="42"/>
+      <c r="AS20" s="42"/>
+      <c r="AT20" s="42"/>
+      <c r="AU20" s="42"/>
+      <c r="AV20" s="42"/>
+      <c r="AW20" s="42"/>
+      <c r="AX20" s="42"/>
+      <c r="AY20" s="104"/>
+      <c r="AZ20" s="42"/>
+      <c r="BA20" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB20" s="42"/>
       <c r="BC20" s="56"/>
-      <c r="BD20" s="25"/>
-      <c r="BE20" s="25"/>
-      <c r="BF20" s="94"/>
-      <c r="BG20" s="25"/>
-      <c r="BH20" s="25"/>
-      <c r="BI20" s="25"/>
-      <c r="BJ20" s="25"/>
-      <c r="BK20" s="25"/>
-      <c r="BL20" s="94"/>
-      <c r="BM20" s="25"/>
+      <c r="BD20" s="42"/>
+      <c r="BE20" s="42"/>
+      <c r="BF20" s="104"/>
+      <c r="BG20" s="42"/>
+      <c r="BH20" s="42"/>
+      <c r="BI20" s="42"/>
+      <c r="BJ20" s="42"/>
+      <c r="BK20" s="42"/>
+      <c r="BL20" s="104"/>
+      <c r="BM20" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -6241,7 +6740,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{FAA65A48-2370-4BE0-9E86-1885814D4336}">
+          <x14:cfRule type="expression" priority="3" id="{74AFAA80-E68F-4680-8713-D898E21E37C5}">
             <xm:f>ISNUMBER(_xlfn.xmatch(M$1,FeiertageMV!$A$1:$A$30,0))</xm:f>
             <x14:dxf>
               <font>
@@ -6278,119 +6777,119 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="95" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="105" width="25.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="95" t="s">
-        <v>101</v>
+      <c r="A1" s="105" t="s">
+        <v>112</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="95" t="n">
+      <c r="A2" s="105" t="n">
         <v>44927</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="95" t="n">
+      <c r="A3" s="105" t="n">
         <v>45022</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="95" t="n">
+      <c r="A4" s="105" t="n">
         <v>45023</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="95" t="n">
+      <c r="A5" s="105" t="n">
         <v>45025</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="95" t="n">
+      <c r="A6" s="105" t="n">
         <v>45026</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="95" t="n">
+      <c r="A7" s="105" t="n">
         <v>45047</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="95" t="n">
+      <c r="A8" s="105" t="n">
         <v>45071</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="95" t="n">
+      <c r="A9" s="105" t="n">
         <v>45081</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="95" t="n">
+      <c r="A10" s="105" t="n">
         <v>45082</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="95" t="n">
+      <c r="A11" s="105" t="n">
         <v>45202</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="95" t="n">
+      <c r="A12" s="105" t="n">
         <v>45230</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="95" t="n">
+      <c r="A13" s="105" t="n">
         <v>45285</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="95" t="n">
+      <c r="A14" s="105" t="n">
         <v>45286</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Übungen/Online_Shop.Projekt.xlsx
+++ b/Übungen/Online_Shop.Projekt.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PSP" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="PSP_2" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Netzplan" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Gantt" sheetId="4" state="hidden" r:id="rId6"/>
-    <sheet name="FeiertageMV" sheetId="5" state="hidden" r:id="rId7"/>
+    <sheet name="Gantt" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Feiertage" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="144">
   <si>
     <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
@@ -222,118 +222,22 @@
     <t xml:space="preserve">Tests Frontend</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Korrekturen </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Produktfotos</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Korrekturen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Datenbank</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Korrekturen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Frontend</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">eventuelle Korrekturen </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Produktfotos</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">eventuelle Korrekturen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Datenbank</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">eventuelle Korrekturen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Frontend</t>
-    </r>
+    <t xml:space="preserve">Korrekturen Produktfotos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korrekturen Datenbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korrekturen Frontend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eventuelle Korrekturen Produktfotos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eventuelle Korrekturen Datenbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eventuelle Korrekturen Frontend</t>
   </si>
   <si>
     <t xml:space="preserve">Onlinestellung Backend</t>
@@ -423,65 +327,143 @@
     <t xml:space="preserve">Ressourcen</t>
   </si>
   <si>
-    <t xml:space="preserve">Datenbank fertig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alles fertig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Release</t>
-  </si>
-  <si>
     <t xml:space="preserve">Datum</t>
   </si>
   <si>
     <t xml:space="preserve">Feiertag</t>
   </si>
   <si>
-    <t xml:space="preserve">Neujahr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gründonnerstag</t>
+    <t xml:space="preserve">Heilige Drei Könige</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ba-Wü, Bay, Sa-An</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internationaler Frauentag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> verlängertes Wochenende</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B, MV</t>
   </si>
   <si>
     <t xml:space="preserve">Karfreitag</t>
   </si>
   <si>
-    <t xml:space="preserve">Ostersonntag</t>
+    <t xml:space="preserve"> KW 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bundesweit</t>
   </si>
   <si>
     <t xml:space="preserve">Ostermontag</t>
   </si>
   <si>
+    <t xml:space="preserve"> KW 14</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tag der Arbeit</t>
   </si>
   <si>
+    <t xml:space="preserve"> KW 18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Christi Himmelfahrt</t>
   </si>
   <si>
-    <t xml:space="preserve">Pfingstsonntag</t>
+    <t xml:space="preserve"> KW 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brückentag möglich</t>
   </si>
   <si>
     <t xml:space="preserve">Pfingstmontag</t>
   </si>
   <si>
+    <t xml:space="preserve"> KW 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fronleichnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BaWü, Bay, Hes, NRW, Rh-Pf, Sa-La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariä Himmelfahrt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bay, Sa-La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weltkindertag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thü</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tag der Deutschen Einheit</t>
   </si>
   <si>
+    <t xml:space="preserve"> KW 40</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reformationstag</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Weihnachtsfeiertag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Weihnachtsfeiertag</t>
+    <t xml:space="preserve"> KW 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB, HH, MV, Sa, Sa-An, S-H, Thü</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allerheiligen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BaWü, Bay, NRW, Rh-Pf, Sa-La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buß- und Bettag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Weihnachtstag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Weihnachtstag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00\ %"/>
@@ -490,8 +472,9 @@
     <numFmt numFmtId="169" formatCode="General"/>
     <numFmt numFmtId="170" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="171" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
+    <numFmt numFmtId="172" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -544,11 +527,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -576,7 +554,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,6 +655,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.5"/>
         <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF55308D"/>
+        <bgColor rgb="FF203864"/>
       </patternFill>
     </fill>
   </fills>
@@ -870,7 +854,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="102">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1079,15 +1063,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="13" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1107,7 +1091,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="14" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="8" fillId="14" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1123,15 +1107,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="14" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="8" fillId="14" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="15" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="9" fillId="15" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="8" fillId="10" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1143,11 +1127,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="16" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="8" fillId="16" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="17" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="8" fillId="17" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1207,7 +1191,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="15" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="15" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1223,20 +1207,28 @@
       <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="18" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1247,11 +1239,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1530,7 +1538,7 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF843C0B"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF55308D"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -1548,9 +1556,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>104040</xdr:colOff>
+      <xdr:colOff>103680</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1560,7 +1568,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7192440" y="17212320"/>
-          <a:ext cx="2243520" cy="423360"/>
+          <a:ext cx="2243160" cy="423000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1609,170 +1617,6 @@
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>61200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>175680</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="Raute 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8412840" y="1680480"/>
-          <a:ext cx="114480" cy="166320"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="4472c4"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="1d3155"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>61200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>175680</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Raute 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11430360" y="2819520"/>
-          <a:ext cx="114480" cy="167400"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="4472c4"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="1d3155"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>88560</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>203040</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Raute 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13972320" y="3292920"/>
-          <a:ext cx="114480" cy="167760"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="4472c4"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="1d3155"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -2532,7 +2376,7 @@
   </sheetPr>
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -4638,12 +4482,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BN20"/>
+  <dimension ref="A1:BN17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="0" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="11" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AI19" activeCellId="0" sqref="AI19"/>
+      <selection pane="topRight" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
@@ -4657,7 +4501,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="44" width="18.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
@@ -4686,166 +4530,166 @@
       </c>
       <c r="K1" s="85"/>
       <c r="L1" s="87" t="n">
-        <v>45208</v>
+        <v>45397</v>
       </c>
       <c r="M1" s="87" t="n">
-        <v>45209</v>
+        <v>45398</v>
       </c>
       <c r="N1" s="87" t="n">
-        <v>45210</v>
+        <v>45399</v>
       </c>
       <c r="O1" s="87" t="n">
-        <v>45211</v>
+        <v>45400</v>
       </c>
       <c r="P1" s="87" t="n">
-        <v>45212</v>
+        <v>45401</v>
       </c>
       <c r="Q1" s="87" t="n">
-        <v>45213</v>
+        <v>45402</v>
       </c>
       <c r="R1" s="87" t="n">
-        <v>45214</v>
+        <v>45403</v>
       </c>
       <c r="S1" s="87" t="n">
-        <v>45215</v>
+        <v>45404</v>
       </c>
       <c r="T1" s="87" t="n">
-        <v>45216</v>
+        <v>45405</v>
       </c>
       <c r="U1" s="87" t="n">
-        <v>45217</v>
+        <v>45406</v>
       </c>
       <c r="V1" s="87" t="n">
-        <v>45218</v>
+        <v>45407</v>
       </c>
       <c r="W1" s="87" t="n">
-        <v>45219</v>
+        <v>45408</v>
       </c>
       <c r="X1" s="87" t="n">
-        <v>45220</v>
+        <v>45409</v>
       </c>
       <c r="Y1" s="87" t="n">
-        <v>45221</v>
+        <v>45410</v>
       </c>
       <c r="Z1" s="87" t="n">
-        <v>45222</v>
+        <v>45411</v>
       </c>
       <c r="AA1" s="87" t="n">
-        <v>45223</v>
-      </c>
-      <c r="AB1" s="87" t="n">
-        <v>45224</v>
+        <v>45412</v>
+      </c>
+      <c r="AB1" s="88" t="n">
+        <v>45413</v>
       </c>
       <c r="AC1" s="87" t="n">
-        <v>45225</v>
+        <v>45414</v>
       </c>
       <c r="AD1" s="87" t="n">
-        <v>45226</v>
+        <v>45415</v>
       </c>
       <c r="AE1" s="87" t="n">
-        <v>45227</v>
+        <v>45416</v>
       </c>
       <c r="AF1" s="87" t="n">
-        <v>45228</v>
+        <v>45417</v>
       </c>
       <c r="AG1" s="87" t="n">
-        <v>45229</v>
+        <v>45418</v>
       </c>
       <c r="AH1" s="87" t="n">
-        <v>45230</v>
+        <v>45419</v>
       </c>
       <c r="AI1" s="87" t="n">
-        <v>45231</v>
-      </c>
-      <c r="AJ1" s="87" t="n">
-        <v>45232</v>
+        <v>45420</v>
+      </c>
+      <c r="AJ1" s="88" t="n">
+        <v>45421</v>
       </c>
       <c r="AK1" s="87" t="n">
-        <v>45233</v>
+        <v>45422</v>
       </c>
       <c r="AL1" s="87" t="n">
-        <v>45234</v>
+        <v>45423</v>
       </c>
       <c r="AM1" s="87" t="n">
-        <v>45235</v>
+        <v>45424</v>
       </c>
       <c r="AN1" s="87" t="n">
-        <v>45236</v>
+        <v>45425</v>
       </c>
       <c r="AO1" s="87" t="n">
-        <v>45237</v>
+        <v>45426</v>
       </c>
       <c r="AP1" s="87" t="n">
-        <v>45238</v>
+        <v>45427</v>
       </c>
       <c r="AQ1" s="87" t="n">
-        <v>45239</v>
+        <v>45428</v>
       </c>
       <c r="AR1" s="87" t="n">
-        <v>45240</v>
+        <v>45429</v>
       </c>
       <c r="AS1" s="87" t="n">
-        <v>45241</v>
+        <v>45430</v>
       </c>
       <c r="AT1" s="87" t="n">
-        <v>45242</v>
+        <v>45431</v>
       </c>
       <c r="AU1" s="87" t="n">
-        <v>45243</v>
+        <v>45432</v>
       </c>
       <c r="AV1" s="87" t="n">
-        <v>45244</v>
+        <v>45433</v>
       </c>
       <c r="AW1" s="87" t="n">
-        <v>45245</v>
+        <v>45434</v>
       </c>
       <c r="AX1" s="87" t="n">
-        <v>45246</v>
+        <v>45435</v>
       </c>
       <c r="AY1" s="87" t="n">
-        <v>45247</v>
+        <v>45436</v>
       </c>
       <c r="AZ1" s="87" t="n">
-        <v>45248</v>
+        <v>45437</v>
       </c>
       <c r="BA1" s="87" t="n">
-        <v>45249</v>
+        <v>45438</v>
       </c>
       <c r="BB1" s="87" t="n">
-        <v>45250</v>
+        <v>45439</v>
       </c>
       <c r="BC1" s="87" t="n">
-        <v>45251</v>
+        <v>45440</v>
       </c>
       <c r="BD1" s="87" t="n">
-        <v>45252</v>
-      </c>
-      <c r="BE1" s="87" t="n">
-        <v>45253</v>
+        <v>45441</v>
+      </c>
+      <c r="BE1" s="88" t="n">
+        <v>45442</v>
       </c>
       <c r="BF1" s="87" t="n">
-        <v>45254</v>
+        <v>45443</v>
       </c>
       <c r="BG1" s="87" t="n">
-        <v>45255</v>
+        <v>45444</v>
       </c>
       <c r="BH1" s="87" t="n">
-        <v>45256</v>
+        <v>45445</v>
       </c>
       <c r="BI1" s="87" t="n">
-        <v>45257</v>
+        <v>45446</v>
       </c>
       <c r="BJ1" s="87" t="n">
-        <v>45258</v>
+        <v>45447</v>
       </c>
       <c r="BK1" s="87" t="n">
-        <v>45259</v>
+        <v>45448</v>
       </c>
       <c r="BL1" s="87" t="n">
-        <v>45260</v>
+        <v>45449</v>
       </c>
       <c r="BM1" s="87" t="n">
-        <v>45261</v>
+        <v>45450</v>
       </c>
       <c r="BN1" s="83" t="s">
         <v>99</v>
@@ -4876,20 +4720,16 @@
         <f aca="false">Netzplan!I2</f>
         <v>1</v>
       </c>
-      <c r="J2" s="88" t="n">
+      <c r="J2" s="89" t="n">
         <f aca="false">Netzplan!J2</f>
         <v>2</v>
       </c>
-      <c r="K2" s="89" t="n">
+      <c r="K2" s="90" t="n">
         <f aca="false">SUM(L2:BM2)</f>
-        <v>2</v>
-      </c>
-      <c r="L2" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="56" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="56"/>
       <c r="O2" s="56"/>
       <c r="P2" s="56"/>
@@ -4904,7 +4744,7 @@
       <c r="Y2" s="38"/>
       <c r="Z2" s="38"/>
       <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
+      <c r="AB2" s="91"/>
       <c r="AC2" s="38"/>
       <c r="AD2" s="38"/>
       <c r="AE2" s="38"/>
@@ -4912,7 +4752,7 @@
       <c r="AG2" s="38"/>
       <c r="AH2" s="38"/>
       <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
+      <c r="AJ2" s="91"/>
       <c r="AK2" s="38"/>
       <c r="AL2" s="38"/>
       <c r="AM2" s="38"/>
@@ -4927,20 +4767,20 @@
       <c r="AV2" s="38"/>
       <c r="AW2" s="38"/>
       <c r="AX2" s="38"/>
-      <c r="AY2" s="90"/>
+      <c r="AY2" s="92"/>
       <c r="AZ2" s="38"/>
       <c r="BA2" s="38"/>
       <c r="BB2" s="38"/>
       <c r="BC2" s="38"/>
       <c r="BD2" s="38"/>
-      <c r="BE2" s="38"/>
-      <c r="BF2" s="90"/>
+      <c r="BE2" s="91"/>
+      <c r="BF2" s="92"/>
       <c r="BG2" s="38"/>
       <c r="BH2" s="38"/>
       <c r="BI2" s="38"/>
       <c r="BJ2" s="38"/>
       <c r="BK2" s="38"/>
-      <c r="BL2" s="90"/>
+      <c r="BL2" s="92"/>
       <c r="BM2" s="38"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4970,19 +4810,17 @@
         <f aca="false">Netzplan!I3</f>
         <v>1</v>
       </c>
-      <c r="J3" s="88" t="n">
+      <c r="J3" s="89" t="n">
         <f aca="false">Netzplan!J3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="89" t="n">
+      <c r="K3" s="90" t="n">
         <f aca="false">SUM(L3:BM3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
-      <c r="N3" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="N3" s="38"/>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
@@ -4996,7 +4834,7 @@
       <c r="Y3" s="38"/>
       <c r="Z3" s="38"/>
       <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
+      <c r="AB3" s="91"/>
       <c r="AC3" s="38"/>
       <c r="AD3" s="38"/>
       <c r="AE3" s="38"/>
@@ -5004,7 +4842,7 @@
       <c r="AG3" s="38"/>
       <c r="AH3" s="38"/>
       <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
+      <c r="AJ3" s="91"/>
       <c r="AK3" s="38"/>
       <c r="AL3" s="38"/>
       <c r="AM3" s="38"/>
@@ -5019,20 +4857,20 @@
       <c r="AV3" s="38"/>
       <c r="AW3" s="38"/>
       <c r="AX3" s="38"/>
-      <c r="AY3" s="90"/>
+      <c r="AY3" s="92"/>
       <c r="AZ3" s="38"/>
       <c r="BA3" s="38"/>
       <c r="BB3" s="38"/>
       <c r="BC3" s="38"/>
       <c r="BD3" s="38"/>
-      <c r="BE3" s="38"/>
-      <c r="BF3" s="90"/>
+      <c r="BE3" s="91"/>
+      <c r="BF3" s="92"/>
       <c r="BG3" s="38"/>
       <c r="BH3" s="38"/>
       <c r="BI3" s="38"/>
       <c r="BJ3" s="38"/>
       <c r="BK3" s="38"/>
-      <c r="BL3" s="90"/>
+      <c r="BL3" s="92"/>
       <c r="BM3" s="38"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5062,31 +4900,23 @@
         <f aca="false">Netzplan!I4</f>
         <v>1</v>
       </c>
-      <c r="J4" s="88" t="n">
+      <c r="J4" s="89" t="n">
         <f aca="false">Netzplan!J4</f>
         <v>4</v>
       </c>
-      <c r="K4" s="89" t="n">
+      <c r="K4" s="90" t="n">
         <f aca="false">SUM(L4:BM4)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
-      <c r="O4" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="O4" s="38"/>
       <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
-      <c r="R4" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="56" t="n">
-        <v>1</v>
-      </c>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="56"/>
       <c r="U4" s="56"/>
       <c r="V4" s="56"/>
       <c r="W4" s="56"/>
@@ -5094,7 +4924,7 @@
       <c r="Y4" s="38"/>
       <c r="Z4" s="38"/>
       <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
+      <c r="AB4" s="91"/>
       <c r="AC4" s="38"/>
       <c r="AD4" s="38"/>
       <c r="AE4" s="38"/>
@@ -5102,7 +4932,7 @@
       <c r="AG4" s="38"/>
       <c r="AH4" s="38"/>
       <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
+      <c r="AJ4" s="91"/>
       <c r="AK4" s="38"/>
       <c r="AL4" s="38"/>
       <c r="AM4" s="38"/>
@@ -5117,20 +4947,20 @@
       <c r="AV4" s="38"/>
       <c r="AW4" s="38"/>
       <c r="AX4" s="38"/>
-      <c r="AY4" s="90"/>
+      <c r="AY4" s="92"/>
       <c r="AZ4" s="38"/>
       <c r="BA4" s="38"/>
       <c r="BB4" s="38"/>
       <c r="BC4" s="38"/>
       <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="90"/>
+      <c r="BE4" s="91"/>
+      <c r="BF4" s="92"/>
       <c r="BG4" s="38"/>
       <c r="BH4" s="38"/>
       <c r="BI4" s="38"/>
       <c r="BJ4" s="38"/>
       <c r="BK4" s="38"/>
-      <c r="BL4" s="90"/>
+      <c r="BL4" s="92"/>
       <c r="BM4" s="38"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5160,28 +4990,22 @@
         <f aca="false">Netzplan!I5</f>
         <v>0.6</v>
       </c>
-      <c r="J5" s="88" t="n">
+      <c r="J5" s="89" t="n">
         <f aca="false">Netzplan!J5</f>
         <v>3</v>
       </c>
-      <c r="K5" s="89" t="n">
+      <c r="K5" s="90" t="n">
         <f aca="false">SUM(L5:BM5)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
-      <c r="O5" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="O5" s="38"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
-      <c r="R5" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
       <c r="T5" s="56"/>
       <c r="U5" s="56"/>
       <c r="V5" s="56"/>
@@ -5190,7 +5014,7 @@
       <c r="Y5" s="38"/>
       <c r="Z5" s="38"/>
       <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
+      <c r="AB5" s="91"/>
       <c r="AC5" s="38"/>
       <c r="AD5" s="38"/>
       <c r="AE5" s="38"/>
@@ -5198,7 +5022,7 @@
       <c r="AG5" s="38"/>
       <c r="AH5" s="38"/>
       <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
+      <c r="AJ5" s="91"/>
       <c r="AK5" s="38"/>
       <c r="AL5" s="38"/>
       <c r="AM5" s="38"/>
@@ -5213,20 +5037,20 @@
       <c r="AV5" s="38"/>
       <c r="AW5" s="38"/>
       <c r="AX5" s="38"/>
-      <c r="AY5" s="90"/>
+      <c r="AY5" s="92"/>
       <c r="AZ5" s="38"/>
       <c r="BA5" s="38"/>
       <c r="BB5" s="38"/>
       <c r="BC5" s="38"/>
       <c r="BD5" s="38"/>
-      <c r="BE5" s="38"/>
-      <c r="BF5" s="90"/>
+      <c r="BE5" s="91"/>
+      <c r="BF5" s="92"/>
       <c r="BG5" s="38"/>
       <c r="BH5" s="38"/>
       <c r="BI5" s="38"/>
       <c r="BJ5" s="38"/>
       <c r="BK5" s="38"/>
-      <c r="BL5" s="90"/>
+      <c r="BL5" s="92"/>
       <c r="BM5" s="38"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5256,13 +5080,13 @@
         <f aca="false">Netzplan!I6</f>
         <v>1.5</v>
       </c>
-      <c r="J6" s="88" t="n">
+      <c r="J6" s="89" t="n">
         <f aca="false">Netzplan!J6</f>
         <v>5</v>
       </c>
-      <c r="K6" s="89" t="n">
+      <c r="K6" s="90" t="n">
         <f aca="false">SUM(L6:BM6)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
@@ -5272,25 +5096,15 @@
       <c r="Q6" s="38"/>
       <c r="R6" s="38"/>
       <c r="S6" s="38"/>
-      <c r="T6" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
       <c r="W6" s="56"/>
       <c r="X6" s="38"/>
-      <c r="Y6" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="56" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="56"/>
       <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
+      <c r="AB6" s="93"/>
       <c r="AC6" s="56"/>
       <c r="AD6" s="38"/>
       <c r="AE6" s="38"/>
@@ -5298,7 +5112,7 @@
       <c r="AG6" s="38"/>
       <c r="AH6" s="38"/>
       <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
+      <c r="AJ6" s="91"/>
       <c r="AK6" s="38"/>
       <c r="AL6" s="38"/>
       <c r="AM6" s="38"/>
@@ -5313,20 +5127,20 @@
       <c r="AV6" s="38"/>
       <c r="AW6" s="38"/>
       <c r="AX6" s="38"/>
-      <c r="AY6" s="90"/>
+      <c r="AY6" s="92"/>
       <c r="AZ6" s="38"/>
       <c r="BA6" s="38"/>
       <c r="BB6" s="38"/>
       <c r="BC6" s="38"/>
       <c r="BD6" s="38"/>
-      <c r="BE6" s="38"/>
-      <c r="BF6" s="90"/>
+      <c r="BE6" s="91"/>
+      <c r="BF6" s="92"/>
       <c r="BG6" s="38"/>
       <c r="BH6" s="38"/>
       <c r="BI6" s="38"/>
       <c r="BJ6" s="38"/>
       <c r="BK6" s="38"/>
-      <c r="BL6" s="90"/>
+      <c r="BL6" s="92"/>
       <c r="BM6" s="38"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5356,19 +5170,17 @@
         <f aca="false">Netzplan!I7</f>
         <v>1</v>
       </c>
-      <c r="J7" s="88" t="n">
+      <c r="J7" s="89" t="n">
         <f aca="false">Netzplan!J7</f>
         <v>1</v>
       </c>
-      <c r="K7" s="89" t="n">
+      <c r="K7" s="90" t="n">
         <f aca="false">SUM(L7:BM7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
-      <c r="N7" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="N7" s="38"/>
       <c r="O7" s="38"/>
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
@@ -5382,7 +5194,7 @@
       <c r="Y7" s="38"/>
       <c r="Z7" s="38"/>
       <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
+      <c r="AB7" s="91"/>
       <c r="AC7" s="38"/>
       <c r="AD7" s="38"/>
       <c r="AE7" s="38"/>
@@ -5390,7 +5202,7 @@
       <c r="AG7" s="38"/>
       <c r="AH7" s="38"/>
       <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
+      <c r="AJ7" s="91"/>
       <c r="AK7" s="38"/>
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
@@ -5405,20 +5217,20 @@
       <c r="AV7" s="38"/>
       <c r="AW7" s="38"/>
       <c r="AX7" s="38"/>
-      <c r="AY7" s="90"/>
+      <c r="AY7" s="92"/>
       <c r="AZ7" s="38"/>
       <c r="BA7" s="38"/>
       <c r="BB7" s="38"/>
       <c r="BC7" s="38"/>
       <c r="BD7" s="38"/>
-      <c r="BE7" s="38"/>
-      <c r="BF7" s="90"/>
+      <c r="BE7" s="91"/>
+      <c r="BF7" s="92"/>
       <c r="BG7" s="38"/>
       <c r="BH7" s="38"/>
       <c r="BI7" s="38"/>
       <c r="BJ7" s="38"/>
       <c r="BK7" s="38"/>
-      <c r="BL7" s="90"/>
+      <c r="BL7" s="92"/>
       <c r="BM7" s="38"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5448,31 +5260,23 @@
         <f aca="false">Netzplan!I8</f>
         <v>0.8</v>
       </c>
-      <c r="J8" s="88" t="n">
+      <c r="J8" s="89" t="n">
         <f aca="false">Netzplan!J8</f>
         <v>4</v>
       </c>
-      <c r="K8" s="89" t="n">
+      <c r="K8" s="90" t="n">
         <f aca="false">SUM(L8:BM8)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
-      <c r="O8" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="O8" s="38"/>
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
-      <c r="R8" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" s="56" t="n">
-        <v>1</v>
-      </c>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="56"/>
       <c r="U8" s="56"/>
       <c r="V8" s="56"/>
       <c r="W8" s="38"/>
@@ -5480,7 +5284,7 @@
       <c r="Y8" s="38"/>
       <c r="Z8" s="38"/>
       <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
+      <c r="AB8" s="91"/>
       <c r="AC8" s="38"/>
       <c r="AD8" s="38"/>
       <c r="AE8" s="38"/>
@@ -5488,7 +5292,7 @@
       <c r="AG8" s="38"/>
       <c r="AH8" s="38"/>
       <c r="AI8" s="38"/>
-      <c r="AJ8" s="38"/>
+      <c r="AJ8" s="91"/>
       <c r="AK8" s="38"/>
       <c r="AL8" s="38"/>
       <c r="AM8" s="38"/>
@@ -5503,36 +5307,57 @@
       <c r="AV8" s="38"/>
       <c r="AW8" s="38"/>
       <c r="AX8" s="38"/>
-      <c r="AY8" s="90"/>
+      <c r="AY8" s="92"/>
       <c r="AZ8" s="38"/>
       <c r="BA8" s="38"/>
       <c r="BB8" s="38"/>
       <c r="BC8" s="38"/>
       <c r="BD8" s="38"/>
-      <c r="BE8" s="38"/>
-      <c r="BF8" s="90"/>
+      <c r="BE8" s="91"/>
+      <c r="BF8" s="92"/>
       <c r="BG8" s="38"/>
       <c r="BH8" s="38"/>
       <c r="BI8" s="38"/>
       <c r="BJ8" s="38"/>
       <c r="BK8" s="38"/>
-      <c r="BL8" s="90"/>
+      <c r="BL8" s="92"/>
       <c r="BM8" s="38"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36"/>
-      <c r="B9" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="89"/>
+      <c r="A9" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="56" t="n">
+        <f aca="false">Netzplan!G9</f>
+        <v>2</v>
+      </c>
+      <c r="H9" s="56" t="str">
+        <f aca="false">Netzplan!H9</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="58" t="n">
+        <f aca="false">Netzplan!I9</f>
+        <v>1.5</v>
+      </c>
+      <c r="J9" s="89" t="n">
+        <f aca="false">Netzplan!J9</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="90" t="n">
+        <f aca="false">SUM(L9:BM9)</f>
+        <v>0</v>
+      </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
@@ -5541,23 +5366,23 @@
       <c r="Q9" s="38"/>
       <c r="R9" s="38"/>
       <c r="S9" s="38"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
       <c r="W9" s="38"/>
       <c r="X9" s="38"/>
       <c r="Y9" s="38"/>
       <c r="Z9" s="38"/>
       <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
+      <c r="AB9" s="91"/>
       <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
+      <c r="AD9" s="56"/>
       <c r="AE9" s="38"/>
       <c r="AF9" s="38"/>
-      <c r="AG9" s="38"/>
+      <c r="AG9" s="56"/>
       <c r="AH9" s="38"/>
       <c r="AI9" s="38"/>
-      <c r="AJ9" s="38"/>
+      <c r="AJ9" s="91"/>
       <c r="AK9" s="38"/>
       <c r="AL9" s="38"/>
       <c r="AM9" s="38"/>
@@ -5572,56 +5397,56 @@
       <c r="AV9" s="38"/>
       <c r="AW9" s="38"/>
       <c r="AX9" s="38"/>
-      <c r="AY9" s="90"/>
+      <c r="AY9" s="92"/>
       <c r="AZ9" s="38"/>
       <c r="BA9" s="38"/>
       <c r="BB9" s="38"/>
       <c r="BC9" s="38"/>
       <c r="BD9" s="38"/>
-      <c r="BE9" s="38"/>
-      <c r="BF9" s="90"/>
+      <c r="BE9" s="91"/>
+      <c r="BF9" s="92"/>
       <c r="BG9" s="38"/>
       <c r="BH9" s="38"/>
       <c r="BI9" s="38"/>
       <c r="BJ9" s="38"/>
       <c r="BK9" s="38"/>
-      <c r="BL9" s="90"/>
+      <c r="BL9" s="92"/>
       <c r="BM9" s="38"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
       <c r="E10" s="71" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="F10" s="71" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G10" s="56" t="n">
-        <f aca="false">Netzplan!G9</f>
+        <f aca="false">Netzplan!G10</f>
         <v>2</v>
       </c>
       <c r="H10" s="56" t="str">
-        <f aca="false">Netzplan!H9</f>
+        <f aca="false">Netzplan!H10</f>
         <v>1</v>
       </c>
       <c r="I10" s="58" t="n">
-        <f aca="false">Netzplan!I9</f>
+        <f aca="false">Netzplan!I10</f>
         <v>1.5</v>
       </c>
-      <c r="J10" s="88" t="n">
-        <f aca="false">Netzplan!J9</f>
+      <c r="J10" s="89" t="n">
+        <f aca="false">Netzplan!J10</f>
         <v>1</v>
       </c>
-      <c r="K10" s="89" t="n">
+      <c r="K10" s="90" t="n">
         <f aca="false">SUM(L10:BM10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -5639,17 +5464,15 @@
       <c r="Y10" s="38"/>
       <c r="Z10" s="38"/>
       <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="56"/>
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="38"/>
       <c r="AE10" s="38"/>
       <c r="AF10" s="38"/>
-      <c r="AG10" s="56"/>
-      <c r="AH10" s="38"/>
-      <c r="AI10" s="38"/>
-      <c r="AJ10" s="38"/>
+      <c r="AG10" s="38"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="91"/>
       <c r="AK10" s="38"/>
       <c r="AL10" s="38"/>
       <c r="AM10" s="38"/>
@@ -5664,56 +5487,56 @@
       <c r="AV10" s="38"/>
       <c r="AW10" s="38"/>
       <c r="AX10" s="38"/>
-      <c r="AY10" s="90"/>
+      <c r="AY10" s="92"/>
       <c r="AZ10" s="38"/>
       <c r="BA10" s="38"/>
       <c r="BB10" s="38"/>
       <c r="BC10" s="38"/>
       <c r="BD10" s="38"/>
-      <c r="BE10" s="38"/>
-      <c r="BF10" s="90"/>
+      <c r="BE10" s="91"/>
+      <c r="BF10" s="92"/>
       <c r="BG10" s="38"/>
       <c r="BH10" s="38"/>
       <c r="BI10" s="38"/>
       <c r="BJ10" s="38"/>
       <c r="BK10" s="38"/>
-      <c r="BL10" s="90"/>
+      <c r="BL10" s="92"/>
       <c r="BM10" s="38"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
       <c r="E11" s="71" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G11" s="56" t="n">
-        <f aca="false">Netzplan!G10</f>
+        <f aca="false">Netzplan!G11</f>
         <v>2</v>
       </c>
       <c r="H11" s="56" t="str">
-        <f aca="false">Netzplan!H10</f>
+        <f aca="false">Netzplan!H11</f>
         <v>1</v>
       </c>
       <c r="I11" s="58" t="n">
-        <f aca="false">Netzplan!I10</f>
+        <f aca="false">Netzplan!I11</f>
         <v>1.5</v>
       </c>
-      <c r="J11" s="88" t="n">
-        <f aca="false">Netzplan!J10</f>
+      <c r="J11" s="89" t="n">
+        <f aca="false">Netzplan!J11</f>
         <v>1</v>
       </c>
-      <c r="K11" s="89" t="n">
+      <c r="K11" s="90" t="n">
         <f aca="false">SUM(L11:BM11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
@@ -5731,18 +5554,15 @@
       <c r="Y11" s="38"/>
       <c r="Z11" s="38"/>
       <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
+      <c r="AB11" s="91"/>
       <c r="AC11" s="38"/>
       <c r="AD11" s="38"/>
       <c r="AE11" s="38"/>
-      <c r="AF11" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF11" s="38"/>
       <c r="AG11" s="38"/>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="56"/>
-      <c r="AJ11" s="38"/>
-      <c r="AK11" s="38"/>
+      <c r="AH11" s="38"/>
+      <c r="AJ11" s="93"/>
+      <c r="AK11" s="56"/>
       <c r="AL11" s="38"/>
       <c r="AM11" s="38"/>
       <c r="AN11" s="38"/>
@@ -5756,56 +5576,56 @@
       <c r="AV11" s="38"/>
       <c r="AW11" s="38"/>
       <c r="AX11" s="38"/>
-      <c r="AY11" s="90"/>
+      <c r="AY11" s="92"/>
       <c r="AZ11" s="38"/>
       <c r="BA11" s="38"/>
       <c r="BB11" s="38"/>
       <c r="BC11" s="38"/>
       <c r="BD11" s="38"/>
-      <c r="BE11" s="38"/>
-      <c r="BF11" s="90"/>
+      <c r="BE11" s="91"/>
+      <c r="BF11" s="92"/>
       <c r="BG11" s="38"/>
       <c r="BH11" s="38"/>
       <c r="BI11" s="38"/>
       <c r="BJ11" s="38"/>
       <c r="BK11" s="38"/>
-      <c r="BL11" s="90"/>
+      <c r="BL11" s="92"/>
       <c r="BM11" s="38"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="36" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
       <c r="E12" s="71" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="G12" s="56" t="n">
-        <f aca="false">Netzplan!G11</f>
-        <v>2</v>
-      </c>
-      <c r="H12" s="56" t="str">
-        <f aca="false">Netzplan!H11</f>
+        <f aca="false">Netzplan!G12</f>
+        <v>10</v>
+      </c>
+      <c r="H12" s="57" t="n">
+        <f aca="false">Netzplan!H12</f>
         <v>1</v>
       </c>
       <c r="I12" s="58" t="n">
-        <f aca="false">Netzplan!I11</f>
-        <v>1.5</v>
-      </c>
-      <c r="J12" s="88" t="n">
-        <f aca="false">Netzplan!J11</f>
-        <v>1</v>
-      </c>
-      <c r="K12" s="89" t="n">
+        <f aca="false">Netzplan!I12</f>
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="89" t="n">
+        <f aca="false">Netzplan!J12</f>
+        <v>20</v>
+      </c>
+      <c r="K12" s="90" t="n">
         <f aca="false">SUM(L12:BM12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
@@ -5818,21 +5638,20 @@
       <c r="T12" s="38"/>
       <c r="U12" s="38"/>
       <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
+      <c r="W12" s="56"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
       <c r="Z12" s="38"/>
       <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
+      <c r="AB12" s="91"/>
       <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
+      <c r="AD12" s="56"/>
       <c r="AE12" s="38"/>
       <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="56"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="93"/>
       <c r="AK12" s="56"/>
       <c r="AL12" s="38"/>
       <c r="AM12" s="38"/>
@@ -5840,63 +5659,62 @@
       <c r="AO12" s="38"/>
       <c r="AP12" s="38"/>
       <c r="AQ12" s="38"/>
-      <c r="AR12" s="38"/>
+      <c r="AR12" s="56"/>
       <c r="AS12" s="38"/>
       <c r="AT12" s="38"/>
       <c r="AU12" s="38"/>
       <c r="AV12" s="38"/>
       <c r="AW12" s="38"/>
-      <c r="AX12" s="38"/>
-      <c r="AY12" s="90"/>
+      <c r="AX12" s="56"/>
+      <c r="AY12" s="92"/>
       <c r="AZ12" s="38"/>
       <c r="BA12" s="38"/>
       <c r="BB12" s="38"/>
       <c r="BC12" s="38"/>
       <c r="BD12" s="38"/>
-      <c r="BE12" s="38"/>
-      <c r="BF12" s="90"/>
+      <c r="BE12" s="91"/>
+      <c r="BF12" s="92"/>
       <c r="BG12" s="38"/>
       <c r="BH12" s="38"/>
-      <c r="BI12" s="38"/>
       <c r="BJ12" s="38"/>
       <c r="BK12" s="38"/>
-      <c r="BL12" s="90"/>
+      <c r="BL12" s="92"/>
       <c r="BM12" s="38"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="36" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
       <c r="E13" s="71" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F13" s="71" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G13" s="56" t="n">
-        <f aca="false">Netzplan!G12</f>
-        <v>10</v>
-      </c>
-      <c r="H13" s="57" t="n">
-        <f aca="false">Netzplan!H12</f>
+        <f aca="false">Netzplan!G13</f>
+        <v>3</v>
+      </c>
+      <c r="H13" s="56" t="str">
+        <f aca="false">Netzplan!H13</f>
         <v>1</v>
       </c>
       <c r="I13" s="58" t="n">
-        <f aca="false">Netzplan!I12</f>
-        <v>0.5</v>
-      </c>
-      <c r="J13" s="88" t="n">
-        <f aca="false">Netzplan!J12</f>
-        <v>20</v>
-      </c>
-      <c r="K13" s="89" t="n">
+        <f aca="false">Netzplan!I13</f>
+        <v>1.5</v>
+      </c>
+      <c r="J13" s="89" t="n">
+        <f aca="false">Netzplan!J13</f>
+        <v>2</v>
+      </c>
+      <c r="K13" s="90" t="n">
         <f aca="false">SUM(L13:BM13)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
@@ -5907,125 +5725,85 @@
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
-      <c r="U13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="V13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="W13" s="56"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
       <c r="X13" s="38"/>
-      <c r="Y13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="56"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="91"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
       <c r="AE13" s="38"/>
-      <c r="AF13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="56"/>
-      <c r="AH13" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ13" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK13" s="56"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="38"/>
+      <c r="AI13" s="38"/>
+      <c r="AJ13" s="91"/>
       <c r="AL13" s="38"/>
-      <c r="AM13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR13" s="56"/>
+      <c r="AM13" s="38"/>
+      <c r="AN13" s="56"/>
+      <c r="AO13" s="56"/>
+      <c r="AP13" s="56"/>
+      <c r="AQ13" s="38"/>
+      <c r="AR13" s="38"/>
       <c r="AS13" s="38"/>
-      <c r="AT13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="56"/>
-      <c r="AY13" s="90"/>
+      <c r="AT13" s="38"/>
+      <c r="AU13" s="38"/>
+      <c r="AV13" s="38"/>
+      <c r="AW13" s="38"/>
+      <c r="AX13" s="38"/>
+      <c r="AY13" s="92"/>
       <c r="AZ13" s="38"/>
       <c r="BA13" s="38"/>
       <c r="BB13" s="38"/>
       <c r="BC13" s="38"/>
       <c r="BD13" s="38"/>
-      <c r="BE13" s="38"/>
-      <c r="BF13" s="90"/>
+      <c r="BE13" s="91"/>
+      <c r="BF13" s="92"/>
       <c r="BG13" s="38"/>
       <c r="BH13" s="38"/>
+      <c r="BI13" s="38"/>
       <c r="BJ13" s="38"/>
       <c r="BK13" s="38"/>
-      <c r="BL13" s="90"/>
+      <c r="BL13" s="92"/>
       <c r="BM13" s="38"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="36" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
       <c r="E14" s="71" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G14" s="56" t="n">
-        <f aca="false">Netzplan!G13</f>
+        <f aca="false">Netzplan!G14</f>
         <v>3</v>
       </c>
       <c r="H14" s="56" t="str">
-        <f aca="false">Netzplan!H13</f>
+        <f aca="false">Netzplan!H14</f>
         <v>1</v>
       </c>
       <c r="I14" s="58" t="n">
-        <f aca="false">Netzplan!I13</f>
+        <f aca="false">Netzplan!I14</f>
         <v>1.5</v>
       </c>
-      <c r="J14" s="88" t="n">
-        <f aca="false">Netzplan!J13</f>
+      <c r="J14" s="89" t="n">
+        <f aca="false">Netzplan!J14</f>
         <v>2</v>
       </c>
-      <c r="K14" s="89" t="n">
+      <c r="K14" s="90" t="n">
         <f aca="false">SUM(L14:BM14)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
@@ -6043,82 +5821,78 @@
       <c r="Y14" s="38"/>
       <c r="Z14" s="38"/>
       <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
+      <c r="AB14" s="91"/>
       <c r="AC14" s="38"/>
       <c r="AD14" s="38"/>
       <c r="AE14" s="38"/>
       <c r="AF14" s="38"/>
       <c r="AG14" s="38"/>
       <c r="AH14" s="38"/>
-      <c r="AI14" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI14" s="38"/>
+      <c r="AJ14" s="91"/>
+      <c r="AK14" s="38"/>
       <c r="AL14" s="38"/>
       <c r="AM14" s="38"/>
-      <c r="AN14" s="56"/>
-      <c r="AO14" s="56"/>
-      <c r="AP14" s="56"/>
-      <c r="AQ14" s="38"/>
-      <c r="AR14" s="38"/>
+      <c r="AN14" s="38"/>
+      <c r="AO14" s="38"/>
+      <c r="AQ14" s="56"/>
+      <c r="AR14" s="56"/>
       <c r="AS14" s="38"/>
       <c r="AT14" s="38"/>
-      <c r="AU14" s="38"/>
+      <c r="AU14" s="56"/>
       <c r="AV14" s="38"/>
       <c r="AW14" s="38"/>
       <c r="AX14" s="38"/>
-      <c r="AY14" s="90"/>
+      <c r="AY14" s="92"/>
       <c r="AZ14" s="38"/>
       <c r="BA14" s="38"/>
       <c r="BB14" s="38"/>
       <c r="BC14" s="38"/>
       <c r="BD14" s="38"/>
-      <c r="BE14" s="38"/>
-      <c r="BF14" s="90"/>
+      <c r="BE14" s="91"/>
+      <c r="BF14" s="92"/>
       <c r="BG14" s="38"/>
       <c r="BH14" s="38"/>
       <c r="BI14" s="38"/>
       <c r="BJ14" s="38"/>
       <c r="BK14" s="38"/>
-      <c r="BL14" s="90"/>
+      <c r="BL14" s="92"/>
       <c r="BM14" s="38"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="36" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
       <c r="E15" s="71" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G15" s="56" t="n">
-        <f aca="false">Netzplan!G14</f>
-        <v>3</v>
+        <f aca="false">Netzplan!G15</f>
+        <v>1</v>
       </c>
       <c r="H15" s="56" t="str">
-        <f aca="false">Netzplan!H14</f>
+        <f aca="false">Netzplan!H15</f>
         <v>1</v>
       </c>
       <c r="I15" s="58" t="n">
-        <f aca="false">Netzplan!I14</f>
+        <f aca="false">Netzplan!I15</f>
         <v>1.5</v>
       </c>
-      <c r="J15" s="88" t="n">
-        <f aca="false">Netzplan!J14</f>
-        <v>2</v>
-      </c>
-      <c r="K15" s="89" t="n">
+      <c r="J15" s="89" t="n">
+        <f aca="false">Netzplan!J15</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="90" t="n">
         <f aca="false">SUM(L15:BM15)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
@@ -6136,7 +5910,7 @@
       <c r="Y15" s="38"/>
       <c r="Z15" s="38"/>
       <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
+      <c r="AB15" s="91"/>
       <c r="AC15" s="38"/>
       <c r="AD15" s="38"/>
       <c r="AE15" s="38"/>
@@ -6144,54 +5918,72 @@
       <c r="AG15" s="38"/>
       <c r="AH15" s="38"/>
       <c r="AI15" s="38"/>
-      <c r="AJ15" s="38"/>
+      <c r="AJ15" s="91"/>
       <c r="AK15" s="38"/>
       <c r="AL15" s="38"/>
-      <c r="AM15" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN15" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM15" s="38"/>
+      <c r="AN15" s="38"/>
       <c r="AO15" s="38"/>
-      <c r="AQ15" s="56"/>
-      <c r="AR15" s="56"/>
+      <c r="AP15" s="38"/>
+      <c r="AQ15" s="38"/>
+      <c r="AR15" s="38"/>
       <c r="AS15" s="38"/>
       <c r="AT15" s="38"/>
-      <c r="AU15" s="56"/>
-      <c r="AV15" s="38"/>
+      <c r="AU15" s="38"/>
+      <c r="AV15" s="56"/>
       <c r="AW15" s="38"/>
       <c r="AX15" s="38"/>
-      <c r="AY15" s="90"/>
+      <c r="AY15" s="92"/>
       <c r="AZ15" s="38"/>
       <c r="BA15" s="38"/>
       <c r="BB15" s="38"/>
       <c r="BC15" s="38"/>
       <c r="BD15" s="38"/>
-      <c r="BE15" s="38"/>
-      <c r="BF15" s="90"/>
+      <c r="BE15" s="91"/>
+      <c r="BF15" s="92"/>
       <c r="BG15" s="38"/>
       <c r="BH15" s="38"/>
       <c r="BI15" s="38"/>
       <c r="BJ15" s="38"/>
       <c r="BK15" s="38"/>
-      <c r="BL15" s="90"/>
+      <c r="BL15" s="92"/>
       <c r="BM15" s="38"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36"/>
-      <c r="B16" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="89"/>
+      <c r="A16" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="56" t="n">
+        <f aca="false">Netzplan!G16</f>
+        <v>5</v>
+      </c>
+      <c r="H16" s="56" t="str">
+        <f aca="false">Netzplan!H16</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="58" t="n">
+        <f aca="false">Netzplan!I16</f>
+        <v>1.5</v>
+      </c>
+      <c r="J16" s="89" t="n">
+        <f aca="false">Netzplan!J16</f>
+        <v>3</v>
+      </c>
+      <c r="K16" s="90" t="n">
+        <f aca="false">SUM(L16:BM16)</f>
+        <v>0</v>
+      </c>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
@@ -6208,7 +6000,7 @@
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
       <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
+      <c r="AB16" s="91"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="38"/>
       <c r="AE16" s="38"/>
@@ -6216,383 +6008,126 @@
       <c r="AG16" s="38"/>
       <c r="AH16" s="38"/>
       <c r="AI16" s="38"/>
-      <c r="AJ16" s="38"/>
+      <c r="AJ16" s="91"/>
       <c r="AK16" s="38"/>
       <c r="AL16" s="38"/>
       <c r="AM16" s="38"/>
       <c r="AN16" s="38"/>
       <c r="AO16" s="38"/>
-      <c r="AQ16" s="56"/>
-      <c r="AR16" s="56"/>
+      <c r="AP16" s="38"/>
+      <c r="AQ16" s="38"/>
+      <c r="AR16" s="38"/>
       <c r="AS16" s="38"/>
       <c r="AT16" s="38"/>
-      <c r="AU16" s="56"/>
+      <c r="AU16" s="38"/>
       <c r="AV16" s="38"/>
-      <c r="AW16" s="38"/>
-      <c r="AX16" s="38"/>
-      <c r="AY16" s="90"/>
+      <c r="AW16" s="56"/>
+      <c r="AX16" s="56"/>
+      <c r="AY16" s="92"/>
       <c r="AZ16" s="38"/>
       <c r="BA16" s="38"/>
-      <c r="BB16" s="38"/>
+      <c r="BB16" s="56"/>
       <c r="BC16" s="38"/>
       <c r="BD16" s="38"/>
-      <c r="BE16" s="38"/>
-      <c r="BF16" s="90"/>
+      <c r="BE16" s="91"/>
+      <c r="BF16" s="92"/>
       <c r="BG16" s="38"/>
       <c r="BH16" s="38"/>
       <c r="BI16" s="38"/>
-      <c r="BJ16" s="38"/>
       <c r="BK16" s="38"/>
-      <c r="BL16" s="90"/>
+      <c r="BL16" s="92"/>
       <c r="BM16" s="38"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="56" t="n">
-        <f aca="false">Netzplan!G15</f>
-        <v>1</v>
-      </c>
-      <c r="H17" s="56" t="str">
-        <f aca="false">Netzplan!H15</f>
-        <v>1</v>
-      </c>
-      <c r="I17" s="58" t="n">
-        <f aca="false">Netzplan!I15</f>
-        <v>1.5</v>
-      </c>
-      <c r="J17" s="88" t="n">
-        <f aca="false">Netzplan!J15</f>
-        <v>1</v>
-      </c>
-      <c r="K17" s="89" t="n">
-        <f aca="false">SUM(L17:BM17)</f>
-        <v>1</v>
-      </c>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="38"/>
-      <c r="AK17" s="38"/>
-      <c r="AL17" s="38"/>
-      <c r="AM17" s="38"/>
-      <c r="AN17" s="38"/>
-      <c r="AO17" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP17" s="38"/>
-      <c r="AQ17" s="38"/>
-      <c r="AR17" s="38"/>
-      <c r="AS17" s="38"/>
-      <c r="AT17" s="38"/>
-      <c r="AU17" s="38"/>
-      <c r="AV17" s="56"/>
-      <c r="AW17" s="38"/>
-      <c r="AX17" s="38"/>
-      <c r="AY17" s="90"/>
-      <c r="AZ17" s="38"/>
-      <c r="BA17" s="38"/>
-      <c r="BB17" s="38"/>
-      <c r="BC17" s="38"/>
-      <c r="BD17" s="38"/>
-      <c r="BE17" s="38"/>
-      <c r="BF17" s="90"/>
-      <c r="BG17" s="38"/>
-      <c r="BH17" s="38"/>
-      <c r="BI17" s="38"/>
-      <c r="BJ17" s="38"/>
-      <c r="BK17" s="38"/>
-      <c r="BL17" s="90"/>
-      <c r="BM17" s="38"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="71" t="s">
+      <c r="A17" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="56" t="n">
-        <f aca="false">Netzplan!G16</f>
-        <v>5</v>
-      </c>
-      <c r="H18" s="56" t="str">
-        <f aca="false">Netzplan!H16</f>
-        <v>1</v>
-      </c>
-      <c r="I18" s="58" t="n">
-        <f aca="false">Netzplan!I16</f>
-        <v>1.5</v>
-      </c>
-      <c r="J18" s="88" t="n">
-        <f aca="false">Netzplan!J16</f>
-        <v>3</v>
-      </c>
-      <c r="K18" s="89" t="n">
-        <f aca="false">SUM(L18:BM18)</f>
-        <v>3</v>
-      </c>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="38"/>
-      <c r="AI18" s="38"/>
-      <c r="AJ18" s="38"/>
-      <c r="AK18" s="38"/>
-      <c r="AL18" s="38"/>
-      <c r="AM18" s="38"/>
-      <c r="AN18" s="38"/>
-      <c r="AO18" s="38"/>
-      <c r="AP18" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ18" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR18" s="38"/>
-      <c r="AS18" s="38"/>
-      <c r="AT18" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU18" s="38"/>
-      <c r="AV18" s="38"/>
-      <c r="AW18" s="56"/>
-      <c r="AX18" s="56"/>
-      <c r="AY18" s="90"/>
-      <c r="AZ18" s="38"/>
-      <c r="BA18" s="38"/>
-      <c r="BB18" s="56"/>
-      <c r="BC18" s="38"/>
-      <c r="BD18" s="38"/>
-      <c r="BE18" s="38"/>
-      <c r="BF18" s="90"/>
-      <c r="BG18" s="38"/>
-      <c r="BH18" s="38"/>
-      <c r="BI18" s="38"/>
-      <c r="BK18" s="38"/>
-      <c r="BL18" s="90"/>
-      <c r="BM18" s="38"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="36"/>
-      <c r="B19" s="91" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="38"/>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="38"/>
-      <c r="AK19" s="38"/>
-      <c r="AL19" s="38"/>
-      <c r="AM19" s="38"/>
-      <c r="AN19" s="38"/>
-      <c r="AO19" s="38"/>
-      <c r="AP19" s="38"/>
-      <c r="AQ19" s="38"/>
-      <c r="AR19" s="38"/>
-      <c r="AS19" s="38"/>
-      <c r="AT19" s="38"/>
-      <c r="AU19" s="38"/>
-      <c r="AV19" s="38"/>
-      <c r="AW19" s="56"/>
-      <c r="AX19" s="56"/>
-      <c r="AY19" s="90"/>
-      <c r="AZ19" s="38"/>
-      <c r="BA19" s="38"/>
-      <c r="BB19" s="56"/>
-      <c r="BC19" s="38"/>
-      <c r="BD19" s="38"/>
-      <c r="BE19" s="38"/>
-      <c r="BF19" s="90"/>
-      <c r="BG19" s="38"/>
-      <c r="BH19" s="38"/>
-      <c r="BI19" s="38"/>
-      <c r="BK19" s="38"/>
-      <c r="BL19" s="90"/>
-      <c r="BM19" s="38"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="41" t="s">
+      <c r="B17" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="77" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79" t="n">
+      <c r="F17" s="78"/>
+      <c r="G17" s="79" t="n">
         <f aca="false">Netzplan!G17</f>
         <v>1</v>
       </c>
-      <c r="H20" s="79" t="str">
+      <c r="H17" s="79" t="str">
         <f aca="false">Netzplan!H17</f>
         <v>1</v>
       </c>
-      <c r="I20" s="92" t="n">
+      <c r="I17" s="94" t="n">
         <f aca="false">Netzplan!I17</f>
         <v>1</v>
       </c>
-      <c r="J20" s="93" t="n">
+      <c r="J17" s="95" t="n">
         <f aca="false">Netzplan!J17</f>
         <v>1</v>
       </c>
-      <c r="K20" s="89" t="n">
-        <f aca="false">SUM(L20:BM20)</f>
-        <v>1</v>
-      </c>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="42"/>
-      <c r="AE20" s="42"/>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="42"/>
-      <c r="AH20" s="42"/>
-      <c r="AI20" s="42"/>
-      <c r="AJ20" s="42"/>
-      <c r="AK20" s="42"/>
-      <c r="AL20" s="42"/>
-      <c r="AM20" s="42"/>
-      <c r="AN20" s="42"/>
-      <c r="AO20" s="42"/>
-      <c r="AP20" s="42"/>
-      <c r="AQ20" s="42"/>
-      <c r="AR20" s="42"/>
-      <c r="AS20" s="42"/>
-      <c r="AT20" s="42"/>
-      <c r="AU20" s="42"/>
-      <c r="AV20" s="42"/>
-      <c r="AW20" s="42"/>
-      <c r="AX20" s="42"/>
-      <c r="AY20" s="94"/>
-      <c r="AZ20" s="42"/>
-      <c r="BA20" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB20" s="42"/>
-      <c r="BC20" s="56"/>
-      <c r="BD20" s="42"/>
-      <c r="BE20" s="42"/>
-      <c r="BF20" s="94"/>
-      <c r="BG20" s="42"/>
-      <c r="BH20" s="42"/>
-      <c r="BI20" s="42"/>
-      <c r="BJ20" s="42"/>
-      <c r="BK20" s="42"/>
-      <c r="BL20" s="94"/>
-      <c r="BM20" s="42"/>
+      <c r="K17" s="90" t="n">
+        <f aca="false">SUM(L17:BM17)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="96"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="42"/>
+      <c r="AH17" s="42"/>
+      <c r="AI17" s="42"/>
+      <c r="AJ17" s="96"/>
+      <c r="AK17" s="42"/>
+      <c r="AL17" s="42"/>
+      <c r="AM17" s="42"/>
+      <c r="AN17" s="42"/>
+      <c r="AO17" s="42"/>
+      <c r="AP17" s="42"/>
+      <c r="AQ17" s="42"/>
+      <c r="AR17" s="42"/>
+      <c r="AS17" s="42"/>
+      <c r="AT17" s="42"/>
+      <c r="AU17" s="42"/>
+      <c r="AV17" s="42"/>
+      <c r="AW17" s="42"/>
+      <c r="AX17" s="42"/>
+      <c r="AY17" s="97"/>
+      <c r="AZ17" s="42"/>
+      <c r="BA17" s="42"/>
+      <c r="BB17" s="42"/>
+      <c r="BC17" s="56"/>
+      <c r="BD17" s="42"/>
+      <c r="BE17" s="96"/>
+      <c r="BF17" s="97"/>
+      <c r="BG17" s="42"/>
+      <c r="BH17" s="42"/>
+      <c r="BI17" s="42"/>
+      <c r="BJ17" s="42"/>
+      <c r="BK17" s="42"/>
+      <c r="BL17" s="97"/>
+      <c r="BM17" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="17">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -6610,21 +6145,18 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
-  <conditionalFormatting sqref="L1:BM20">
+  <conditionalFormatting sqref="L2:BM17 L1:L17 M1:BM1">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>IF(OR(WEEKDAY(M$1)=7,WEEKDAY(M$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:BM20">
+  <conditionalFormatting sqref="L2:BM17">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K20">
+  <conditionalFormatting sqref="K2:K17">
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>IF(K2&lt;&gt;J2,TRUE())</formula>
     </cfRule>
@@ -6636,13 +6168,12 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{30E6D248-FEAB-4AF6-B765-C612E8508856}">
-            <xm:f>ISNUMBER(_xlfn.xmatch(M$1,FeiertageMV!$A$1:$A$30,0))</xm:f>
+          <x14:cfRule type="expression" priority="3" id="{A119ED65-525F-4F8C-99DC-EB30D5CCA054}">
+            <xm:f>ISNUMBER(_xlfn.xmatch(M$1,Feiertage!$A$1:$A$29,0))</xm:f>
             <x14:dxf>
               <font>
                 <name val="Arial"/>
@@ -6657,7 +6188,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L1:BM20</xm:sqref>
+          <xm:sqref>L2:BM17 L1:L17 M1:BM1</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6670,129 +6201,299 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q25" activeCellId="0" sqref="Q25"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="95" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="98" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="99" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B2" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="E2" s="100" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="95" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B2" s="83" t="s">
+      <c r="F2" s="101" t="n">
+        <v>45413</v>
+      </c>
+      <c r="G2" s="101" t="n">
+        <v>45414</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="99" t="n">
+        <v>45359</v>
+      </c>
+      <c r="B3" s="98" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="95" t="n">
-        <v>45022</v>
-      </c>
-      <c r="B3" s="83" t="s">
+      <c r="C3" s="100" t="s">
         <v>106</v>
       </c>
+      <c r="D3" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="100" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="95" t="n">
-        <v>45023</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="99" t="n">
+        <v>45380</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="100" t="s">
         <v>107</v>
       </c>
+      <c r="E4" s="100" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="95" t="n">
-        <v>45025</v>
-      </c>
-      <c r="B5" s="83" t="s">
-        <v>108</v>
+      <c r="A5" s="99" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B5" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="100" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="100" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="95" t="n">
-        <v>45026</v>
-      </c>
-      <c r="B6" s="83" t="s">
-        <v>109</v>
+      <c r="A6" s="99" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B6" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="100" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="95" t="n">
-        <v>45047</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>110</v>
+      <c r="A7" s="99" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B7" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="100" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="95" t="n">
-        <v>45071</v>
-      </c>
-      <c r="B8" s="83" t="s">
+      <c r="A8" s="99" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B8" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="100" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="100" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="95" t="n">
-        <v>45081</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>112</v>
+      <c r="A9" s="99" t="n">
+        <v>45442</v>
+      </c>
+      <c r="B9" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="100" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="95" t="n">
-        <v>45082</v>
-      </c>
-      <c r="B10" s="83" t="s">
-        <v>113</v>
+      <c r="A10" s="99" t="n">
+        <v>45519</v>
+      </c>
+      <c r="B10" s="98" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="100" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="95" t="n">
-        <v>45202</v>
-      </c>
-      <c r="B11" s="83" t="s">
-        <v>114</v>
+      <c r="A11" s="99" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="100" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="100" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="95" t="n">
-        <v>45230</v>
-      </c>
-      <c r="B12" s="83" t="s">
-        <v>115</v>
+      <c r="A12" s="99" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B12" s="98" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="100" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="100" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="95" t="n">
-        <v>45285</v>
-      </c>
-      <c r="B13" s="83" t="s">
-        <v>116</v>
+      <c r="A13" s="99" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B13" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="98" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="95" t="n">
-        <v>45286</v>
-      </c>
-      <c r="B14" s="83" t="s">
-        <v>117</v>
-      </c>
-    </row>
+      <c r="A14" s="101" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B14" s="98" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="100" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="101" t="n">
+        <v>45616</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="100" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="101" t="n">
+        <v>45651</v>
+      </c>
+      <c r="B16" s="98" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="100" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="101" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B17" s="98" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="100" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Übungen/Online_Shop.Projekt.xlsx
+++ b/Übungen/Online_Shop.Projekt.xlsx
@@ -3101,7 +3101,7 @@
   <dimension ref="A1:BQ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -4487,7 +4487,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="11" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topRight" activeCell="AA9" activeCellId="0" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
@@ -4726,10 +4726,14 @@
       </c>
       <c r="K2" s="90" t="n">
         <f aca="false">SUM(L2:BM2)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+        <v>2</v>
+      </c>
+      <c r="L2" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="N2" s="56"/>
       <c r="O2" s="56"/>
       <c r="P2" s="56"/>
@@ -4816,11 +4820,13 @@
       </c>
       <c r="K3" s="90" t="n">
         <f aca="false">SUM(L3:BM3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="N3" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
@@ -4906,17 +4912,25 @@
       </c>
       <c r="K4" s="90" t="n">
         <f aca="false">SUM(L4:BM4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
+      <c r="O4" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="56"/>
+      <c r="R4" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="U4" s="56"/>
       <c r="V4" s="56"/>
       <c r="W4" s="56"/>
@@ -4996,16 +5010,22 @@
       </c>
       <c r="K5" s="90" t="n">
         <f aca="false">SUM(L5:BM5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
+      <c r="O5" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
+      <c r="R5" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="T5" s="56"/>
       <c r="U5" s="56"/>
       <c r="V5" s="56"/>
@@ -5086,7 +5106,7 @@
       </c>
       <c r="K6" s="90" t="n">
         <f aca="false">SUM(L6:BM6)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
@@ -5096,13 +5116,23 @@
       <c r="Q6" s="38"/>
       <c r="R6" s="38"/>
       <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
+      <c r="T6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="W6" s="56"/>
       <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="56"/>
+      <c r="Y6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AA6" s="56"/>
       <c r="AB6" s="93"/>
       <c r="AC6" s="56"/>
@@ -5176,11 +5206,13 @@
       </c>
       <c r="K7" s="90" t="n">
         <f aca="false">SUM(L7:BM7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
+      <c r="N7" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="O7" s="38"/>
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
@@ -5266,17 +5298,25 @@
       </c>
       <c r="K8" s="90" t="n">
         <f aca="false">SUM(L8:BM8)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
+      <c r="O8" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="56"/>
+      <c r="R8" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="U8" s="56"/>
       <c r="V8" s="56"/>
       <c r="W8" s="38"/>
@@ -5356,7 +5396,7 @@
       </c>
       <c r="K9" s="90" t="n">
         <f aca="false">SUM(L9:BM9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
@@ -5373,7 +5413,9 @@
       <c r="X9" s="38"/>
       <c r="Y9" s="38"/>
       <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
+      <c r="AA9" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AB9" s="91"/>
       <c r="AC9" s="38"/>
       <c r="AD9" s="56"/>
@@ -5446,7 +5488,7 @@
       </c>
       <c r="K10" s="90" t="n">
         <f aca="false">SUM(L10:BM10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -5465,7 +5507,9 @@
       <c r="Z10" s="38"/>
       <c r="AA10" s="38"/>
       <c r="AB10" s="91"/>
-      <c r="AC10" s="38"/>
+      <c r="AC10" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AD10" s="38"/>
       <c r="AE10" s="38"/>
       <c r="AF10" s="38"/>
@@ -5536,7 +5580,7 @@
       </c>
       <c r="K11" s="90" t="n">
         <f aca="false">SUM(L11:BM11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
@@ -5558,7 +5602,9 @@
       <c r="AC11" s="38"/>
       <c r="AD11" s="38"/>
       <c r="AE11" s="38"/>
-      <c r="AF11" s="38"/>
+      <c r="AF11" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AG11" s="38"/>
       <c r="AH11" s="38"/>
       <c r="AJ11" s="93"/>
@@ -5625,7 +5671,7 @@
       </c>
       <c r="K12" s="90" t="n">
         <f aca="false">SUM(L12:BM12)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
@@ -5636,36 +5682,76 @@
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
+      <c r="U12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="W12" s="56"/>
       <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
+      <c r="Y12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AB12" s="91"/>
-      <c r="AC12" s="38"/>
+      <c r="AC12" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AD12" s="56"/>
       <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="56"/>
+      <c r="AF12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ12" s="93"/>
       <c r="AK12" s="56"/>
       <c r="AL12" s="38"/>
-      <c r="AM12" s="38"/>
-      <c r="AN12" s="38"/>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="38"/>
+      <c r="AM12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AR12" s="56"/>
       <c r="AS12" s="38"/>
-      <c r="AT12" s="38"/>
-      <c r="AU12" s="38"/>
-      <c r="AV12" s="38"/>
-      <c r="AW12" s="38"/>
-      <c r="AX12" s="56"/>
+      <c r="AT12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AY12" s="92"/>
       <c r="AZ12" s="38"/>
       <c r="BA12" s="38"/>
@@ -5714,7 +5800,7 @@
       </c>
       <c r="K13" s="90" t="n">
         <f aca="false">SUM(L13:BM13)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
@@ -5737,8 +5823,12 @@
       <c r="AD13" s="38"/>
       <c r="AE13" s="38"/>
       <c r="AF13" s="38"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="38"/>
+      <c r="AG13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AI13" s="38"/>
       <c r="AJ13" s="91"/>
       <c r="AL13" s="38"/>
@@ -5803,7 +5893,7 @@
       </c>
       <c r="K14" s="90" t="n">
         <f aca="false">SUM(L14:BM14)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
@@ -5828,11 +5918,15 @@
       <c r="AF14" s="38"/>
       <c r="AG14" s="38"/>
       <c r="AH14" s="38"/>
-      <c r="AI14" s="38"/>
+      <c r="AI14" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ14" s="91"/>
       <c r="AK14" s="38"/>
       <c r="AL14" s="38"/>
-      <c r="AM14" s="38"/>
+      <c r="AM14" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AN14" s="38"/>
       <c r="AO14" s="38"/>
       <c r="AQ14" s="56"/>
@@ -5892,7 +5986,7 @@
       </c>
       <c r="K15" s="90" t="n">
         <f aca="false">SUM(L15:BM15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
@@ -5922,10 +6016,12 @@
       <c r="AK15" s="38"/>
       <c r="AL15" s="38"/>
       <c r="AM15" s="38"/>
-      <c r="AN15" s="38"/>
+      <c r="AN15" s="0"/>
       <c r="AO15" s="38"/>
       <c r="AP15" s="38"/>
-      <c r="AQ15" s="38"/>
+      <c r="AQ15" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AR15" s="38"/>
       <c r="AS15" s="38"/>
       <c r="AT15" s="38"/>
@@ -5982,7 +6078,7 @@
       </c>
       <c r="K16" s="90" t="n">
         <f aca="false">SUM(L16:BM16)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
@@ -6013,14 +6109,20 @@
       <c r="AL16" s="38"/>
       <c r="AM16" s="38"/>
       <c r="AN16" s="38"/>
-      <c r="AO16" s="38"/>
-      <c r="AP16" s="38"/>
-      <c r="AQ16" s="38"/>
+      <c r="AO16" s="0"/>
+      <c r="AP16" s="0"/>
+      <c r="AQ16" s="0"/>
       <c r="AR16" s="38"/>
       <c r="AS16" s="38"/>
-      <c r="AT16" s="38"/>
-      <c r="AU16" s="38"/>
-      <c r="AV16" s="38"/>
+      <c r="AT16" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AW16" s="56"/>
       <c r="AX16" s="56"/>
       <c r="AY16" s="92"/>
@@ -6069,7 +6171,7 @@
       </c>
       <c r="K17" s="90" t="n">
         <f aca="false">SUM(L17:BM17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="42"/>
       <c r="M17" s="42"/>
@@ -6112,7 +6214,9 @@
       <c r="AX17" s="42"/>
       <c r="AY17" s="97"/>
       <c r="AZ17" s="42"/>
-      <c r="BA17" s="42"/>
+      <c r="BA17" s="42" t="n">
+        <v>1</v>
+      </c>
       <c r="BB17" s="42"/>
       <c r="BC17" s="56"/>
       <c r="BD17" s="42"/>
@@ -6146,12 +6250,12 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
   </mergeCells>
-  <conditionalFormatting sqref="L2:BM17 L1:L17 M1:BM1">
+  <conditionalFormatting sqref="L1:L17 M1:BM1 L2:BM14 L17:BM17 L15:AM15 AO15:BM15 L16:AN16 AR16:BM16">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>IF(OR(WEEKDAY(M$1)=7,WEEKDAY(M$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:BM17">
+  <conditionalFormatting sqref="L2:BM14 L17:BM17 L15:AM15 AO15:BM15 L16:AN16 AR16:BM16">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>1</formula>
     </cfRule>
@@ -6172,7 +6276,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{A119ED65-525F-4F8C-99DC-EB30D5CCA054}">
+          <x14:cfRule type="expression" priority="3" id="{9360B76E-1953-476F-A475-505AAC439F74}">
             <xm:f>ISNUMBER(_xlfn.xmatch(M$1,Feiertage!$A$1:$A$29,0))</xm:f>
             <x14:dxf>
               <font>
@@ -6188,7 +6292,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L2:BM17 L1:L17 M1:BM1</xm:sqref>
+          <xm:sqref>L1:L17 M1:BM1 L2:BM14 L17:BM17 L15:AM15 AO15:BM15 L16:AN16 AR16:BM16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Übungen/Online_Shop.Projekt.xlsx
+++ b/Übungen/Online_Shop.Projekt.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="147">
   <si>
     <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
@@ -325,6 +325,15 @@
   </si>
   <si>
     <t xml:space="preserve">Ressourcen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorbereitung fertig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature freeze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release</t>
   </si>
   <si>
     <t xml:space="preserve">Datum</t>
@@ -463,7 +472,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00\ %"/>
@@ -472,7 +481,6 @@
     <numFmt numFmtId="169" formatCode="General"/>
     <numFmt numFmtId="170" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="171" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
-    <numFmt numFmtId="172" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -1231,6 +1239,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1251,15 +1263,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1556,9 +1564,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>103680</xdr:colOff>
+      <xdr:colOff>103320</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1568,7 +1576,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7192440" y="17212320"/>
-          <a:ext cx="2243160" cy="423000"/>
+          <a:ext cx="2242800" cy="422640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1617,6 +1625,143 @@
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>61560</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>144000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>177840</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>155880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="Form 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7910280" y="1626840"/>
+          <a:ext cx="116280" cy="173520"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>55080</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>171720</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Form 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11927160" y="2778120"/>
+          <a:ext cx="116640" cy="161640"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>72360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>189000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Form 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15213240" y="3264840"/>
+          <a:ext cx="116640" cy="161640"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -1803,7 +1948,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="BN2:BN3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2377,7 +2522,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
+      <selection pane="topLeft" activeCell="B50" activeCellId="1" sqref="BN2:BN3 B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3100,8 +3245,8 @@
   </sheetPr>
   <dimension ref="A1:BQ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF3" activeCellId="1" sqref="BN2:BN3 AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -4482,12 +4627,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BN17"/>
+  <dimension ref="A1:BN20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <pane xSplit="11" ySplit="0" topLeftCell="AW1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AA9" activeCellId="0" sqref="AA9"/>
+      <selection pane="topRight" activeCell="BN3" activeCellId="0" sqref="BN2:BN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
@@ -4501,7 +4646,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="44" width="18.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
@@ -5364,40 +5509,19 @@
       <c r="BM8" s="38"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="56" t="n">
-        <f aca="false">Netzplan!G9</f>
-        <v>2</v>
-      </c>
-      <c r="H9" s="56" t="str">
-        <f aca="false">Netzplan!H9</f>
-        <v>1</v>
-      </c>
-      <c r="I9" s="58" t="n">
-        <f aca="false">Netzplan!I9</f>
-        <v>1.5</v>
-      </c>
-      <c r="J9" s="89" t="n">
-        <f aca="false">Netzplan!J9</f>
-        <v>1</v>
-      </c>
-      <c r="K9" s="90" t="n">
-        <f aca="false">SUM(L9:BM9)</f>
-        <v>1</v>
-      </c>
+      <c r="A9" s="36"/>
+      <c r="B9" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="90"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
@@ -5406,22 +5530,20 @@
       <c r="Q9" s="38"/>
       <c r="R9" s="38"/>
       <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
       <c r="W9" s="38"/>
       <c r="X9" s="38"/>
       <c r="Y9" s="38"/>
       <c r="Z9" s="38"/>
-      <c r="AA9" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA9" s="38"/>
       <c r="AB9" s="91"/>
       <c r="AC9" s="38"/>
-      <c r="AD9" s="56"/>
+      <c r="AD9" s="38"/>
       <c r="AE9" s="38"/>
       <c r="AF9" s="38"/>
-      <c r="AG9" s="56"/>
+      <c r="AG9" s="38"/>
       <c r="AH9" s="38"/>
       <c r="AI9" s="38"/>
       <c r="AJ9" s="91"/>
@@ -5457,33 +5579,33 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
       <c r="E10" s="71" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="F10" s="71" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="56" t="n">
-        <f aca="false">Netzplan!G10</f>
+        <f aca="false">Netzplan!G9</f>
         <v>2</v>
       </c>
       <c r="H10" s="56" t="str">
-        <f aca="false">Netzplan!H10</f>
+        <f aca="false">Netzplan!H9</f>
         <v>1</v>
       </c>
       <c r="I10" s="58" t="n">
-        <f aca="false">Netzplan!I10</f>
+        <f aca="false">Netzplan!I9</f>
         <v>1.5</v>
       </c>
       <c r="J10" s="89" t="n">
-        <f aca="false">Netzplan!J10</f>
+        <f aca="false">Netzplan!J9</f>
         <v>1</v>
       </c>
       <c r="K10" s="90" t="n">
@@ -5505,17 +5627,17 @@
       <c r="X10" s="38"/>
       <c r="Y10" s="38"/>
       <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
+      <c r="AA10" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AB10" s="91"/>
-      <c r="AC10" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="56"/>
       <c r="AE10" s="38"/>
       <c r="AF10" s="38"/>
-      <c r="AG10" s="38"/>
-      <c r="AH10" s="56"/>
-      <c r="AI10" s="56"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="38"/>
+      <c r="AI10" s="38"/>
       <c r="AJ10" s="91"/>
       <c r="AK10" s="38"/>
       <c r="AL10" s="38"/>
@@ -5549,33 +5671,33 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
       <c r="E11" s="71" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G11" s="56" t="n">
-        <f aca="false">Netzplan!G11</f>
+        <f aca="false">Netzplan!G10</f>
         <v>2</v>
       </c>
       <c r="H11" s="56" t="str">
-        <f aca="false">Netzplan!H11</f>
+        <f aca="false">Netzplan!H10</f>
         <v>1</v>
       </c>
       <c r="I11" s="58" t="n">
-        <f aca="false">Netzplan!I11</f>
+        <f aca="false">Netzplan!I10</f>
         <v>1.5</v>
       </c>
       <c r="J11" s="89" t="n">
-        <f aca="false">Netzplan!J11</f>
+        <f aca="false">Netzplan!J10</f>
         <v>1</v>
       </c>
       <c r="K11" s="90" t="n">
@@ -5599,16 +5721,17 @@
       <c r="Z11" s="38"/>
       <c r="AA11" s="38"/>
       <c r="AB11" s="91"/>
-      <c r="AC11" s="38"/>
+      <c r="AC11" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AD11" s="38"/>
       <c r="AE11" s="38"/>
-      <c r="AF11" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF11" s="38"/>
       <c r="AG11" s="38"/>
-      <c r="AH11" s="38"/>
-      <c r="AJ11" s="93"/>
-      <c r="AK11" s="56"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="91"/>
+      <c r="AK11" s="38"/>
       <c r="AL11" s="38"/>
       <c r="AM11" s="38"/>
       <c r="AN11" s="38"/>
@@ -5640,38 +5763,38 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="36" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
       <c r="E12" s="71" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G12" s="56" t="n">
-        <f aca="false">Netzplan!G12</f>
-        <v>10</v>
-      </c>
-      <c r="H12" s="57" t="n">
-        <f aca="false">Netzplan!H12</f>
+        <f aca="false">Netzplan!G11</f>
+        <v>2</v>
+      </c>
+      <c r="H12" s="56" t="str">
+        <f aca="false">Netzplan!H11</f>
         <v>1</v>
       </c>
       <c r="I12" s="58" t="n">
-        <f aca="false">Netzplan!I12</f>
-        <v>0.5</v>
+        <f aca="false">Netzplan!I11</f>
+        <v>1.5</v>
       </c>
       <c r="J12" s="89" t="n">
-        <f aca="false">Netzplan!J12</f>
-        <v>20</v>
+        <f aca="false">Netzplan!J11</f>
+        <v>1</v>
       </c>
       <c r="K12" s="90" t="n">
         <f aca="false">SUM(L12:BM12)</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
@@ -5682,76 +5805,37 @@
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
-      <c r="U12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="W12" s="56"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
       <c r="X12" s="38"/>
-      <c r="Y12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
       <c r="AB12" s="91"/>
-      <c r="AC12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="56"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
       <c r="AE12" s="38"/>
       <c r="AF12" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="AG12" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38"/>
       <c r="AJ12" s="93"/>
       <c r="AK12" s="56"/>
       <c r="AL12" s="38"/>
-      <c r="AM12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR12" s="56"/>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="38"/>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="38"/>
+      <c r="AR12" s="38"/>
       <c r="AS12" s="38"/>
-      <c r="AT12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX12" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT12" s="38"/>
+      <c r="AU12" s="38"/>
+      <c r="AV12" s="38"/>
+      <c r="AW12" s="38"/>
+      <c r="AX12" s="38"/>
       <c r="AY12" s="92"/>
       <c r="AZ12" s="38"/>
       <c r="BA12" s="38"/>
@@ -5762,6 +5846,7 @@
       <c r="BF12" s="92"/>
       <c r="BG12" s="38"/>
       <c r="BH12" s="38"/>
+      <c r="BI12" s="38"/>
       <c r="BJ12" s="38"/>
       <c r="BK12" s="38"/>
       <c r="BL12" s="92"/>
@@ -5769,38 +5854,38 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="36" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
       <c r="E13" s="71" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F13" s="71" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G13" s="56" t="n">
-        <f aca="false">Netzplan!G13</f>
-        <v>3</v>
-      </c>
-      <c r="H13" s="56" t="str">
-        <f aca="false">Netzplan!H13</f>
+        <f aca="false">Netzplan!G12</f>
+        <v>10</v>
+      </c>
+      <c r="H13" s="57" t="n">
+        <f aca="false">Netzplan!H12</f>
         <v>1</v>
       </c>
       <c r="I13" s="58" t="n">
-        <f aca="false">Netzplan!I13</f>
-        <v>1.5</v>
+        <f aca="false">Netzplan!I12</f>
+        <v>0.5</v>
       </c>
       <c r="J13" s="89" t="n">
-        <f aca="false">Netzplan!J13</f>
-        <v>2</v>
+        <f aca="false">Netzplan!J12</f>
+        <v>20</v>
       </c>
       <c r="K13" s="90" t="n">
         <f aca="false">SUM(L13:BM13)</f>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
@@ -5811,39 +5896,76 @@
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
+      <c r="U13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" s="56"/>
       <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
+      <c r="Y13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AB13" s="91"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
+      <c r="AC13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="56"/>
       <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="91"/>
+      <c r="AF13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="93"/>
+      <c r="AK13" s="56"/>
       <c r="AL13" s="38"/>
-      <c r="AM13" s="38"/>
-      <c r="AN13" s="56"/>
-      <c r="AO13" s="56"/>
-      <c r="AP13" s="56"/>
-      <c r="AQ13" s="38"/>
-      <c r="AR13" s="38"/>
+      <c r="AM13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="56"/>
       <c r="AS13" s="38"/>
-      <c r="AT13" s="38"/>
-      <c r="AU13" s="38"/>
-      <c r="AV13" s="38"/>
-      <c r="AW13" s="38"/>
-      <c r="AX13" s="38"/>
+      <c r="AT13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AY13" s="92"/>
       <c r="AZ13" s="38"/>
       <c r="BA13" s="38"/>
@@ -5854,7 +5976,6 @@
       <c r="BF13" s="92"/>
       <c r="BG13" s="38"/>
       <c r="BH13" s="38"/>
-      <c r="BI13" s="38"/>
       <c r="BJ13" s="38"/>
       <c r="BK13" s="38"/>
       <c r="BL13" s="92"/>
@@ -5862,33 +5983,33 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="36" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
       <c r="E14" s="71" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G14" s="56" t="n">
-        <f aca="false">Netzplan!G14</f>
+        <f aca="false">Netzplan!G13</f>
         <v>3</v>
       </c>
       <c r="H14" s="56" t="str">
-        <f aca="false">Netzplan!H14</f>
+        <f aca="false">Netzplan!H13</f>
         <v>1</v>
       </c>
       <c r="I14" s="58" t="n">
-        <f aca="false">Netzplan!I14</f>
+        <f aca="false">Netzplan!I13</f>
         <v>1.5</v>
       </c>
       <c r="J14" s="89" t="n">
-        <f aca="false">Netzplan!J14</f>
+        <f aca="false">Netzplan!J13</f>
         <v>2</v>
       </c>
       <c r="K14" s="90" t="n">
@@ -5916,24 +6037,24 @@
       <c r="AD14" s="38"/>
       <c r="AE14" s="38"/>
       <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG14" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="38"/>
       <c r="AJ14" s="91"/>
-      <c r="AK14" s="38"/>
       <c r="AL14" s="38"/>
-      <c r="AM14" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN14" s="38"/>
-      <c r="AO14" s="38"/>
-      <c r="AQ14" s="56"/>
-      <c r="AR14" s="56"/>
+      <c r="AM14" s="38"/>
+      <c r="AN14" s="56"/>
+      <c r="AO14" s="56"/>
+      <c r="AP14" s="56"/>
+      <c r="AQ14" s="38"/>
+      <c r="AR14" s="38"/>
       <c r="AS14" s="38"/>
       <c r="AT14" s="38"/>
-      <c r="AU14" s="56"/>
+      <c r="AU14" s="38"/>
       <c r="AV14" s="38"/>
       <c r="AW14" s="38"/>
       <c r="AX14" s="38"/>
@@ -5955,38 +6076,38 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="36" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
       <c r="E15" s="71" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G15" s="56" t="n">
-        <f aca="false">Netzplan!G15</f>
-        <v>1</v>
+        <f aca="false">Netzplan!G14</f>
+        <v>3</v>
       </c>
       <c r="H15" s="56" t="str">
-        <f aca="false">Netzplan!H15</f>
+        <f aca="false">Netzplan!H14</f>
         <v>1</v>
       </c>
       <c r="I15" s="58" t="n">
-        <f aca="false">Netzplan!I15</f>
+        <f aca="false">Netzplan!I14</f>
         <v>1.5</v>
       </c>
       <c r="J15" s="89" t="n">
-        <f aca="false">Netzplan!J15</f>
-        <v>1</v>
+        <f aca="false">Netzplan!J14</f>
+        <v>2</v>
       </c>
       <c r="K15" s="90" t="n">
         <f aca="false">SUM(L15:BM15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
@@ -6011,22 +6132,23 @@
       <c r="AF15" s="38"/>
       <c r="AG15" s="38"/>
       <c r="AH15" s="38"/>
-      <c r="AI15" s="38"/>
+      <c r="AI15" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ15" s="91"/>
       <c r="AK15" s="38"/>
       <c r="AL15" s="38"/>
-      <c r="AM15" s="38"/>
-      <c r="AN15" s="0"/>
+      <c r="AM15" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="38"/>
       <c r="AO15" s="38"/>
-      <c r="AP15" s="38"/>
-      <c r="AQ15" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR15" s="38"/>
+      <c r="AQ15" s="56"/>
+      <c r="AR15" s="56"/>
       <c r="AS15" s="38"/>
       <c r="AT15" s="38"/>
-      <c r="AU15" s="38"/>
-      <c r="AV15" s="56"/>
+      <c r="AU15" s="56"/>
+      <c r="AV15" s="38"/>
       <c r="AW15" s="38"/>
       <c r="AX15" s="38"/>
       <c r="AY15" s="92"/>
@@ -6046,40 +6168,19 @@
       <c r="BM15" s="38"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="56" t="n">
-        <f aca="false">Netzplan!G16</f>
-        <v>5</v>
-      </c>
-      <c r="H16" s="56" t="str">
-        <f aca="false">Netzplan!H16</f>
-        <v>1</v>
-      </c>
-      <c r="I16" s="58" t="n">
-        <f aca="false">Netzplan!I16</f>
-        <v>1.5</v>
-      </c>
-      <c r="J16" s="89" t="n">
-        <f aca="false">Netzplan!J16</f>
-        <v>3</v>
-      </c>
-      <c r="K16" s="90" t="n">
-        <f aca="false">SUM(L16:BM16)</f>
-        <v>3</v>
-      </c>
+      <c r="A16" s="36"/>
+      <c r="B16" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="90"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
@@ -6109,26 +6210,19 @@
       <c r="AL16" s="38"/>
       <c r="AM16" s="38"/>
       <c r="AN16" s="38"/>
-      <c r="AO16" s="0"/>
-      <c r="AP16" s="0"/>
-      <c r="AQ16" s="0"/>
-      <c r="AR16" s="38"/>
+      <c r="AO16" s="38"/>
+      <c r="AQ16" s="56"/>
+      <c r="AR16" s="56"/>
       <c r="AS16" s="38"/>
-      <c r="AT16" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU16" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV16" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW16" s="56"/>
-      <c r="AX16" s="56"/>
+      <c r="AT16" s="38"/>
+      <c r="AU16" s="56"/>
+      <c r="AV16" s="38"/>
+      <c r="AW16" s="38"/>
+      <c r="AX16" s="38"/>
       <c r="AY16" s="92"/>
       <c r="AZ16" s="38"/>
       <c r="BA16" s="38"/>
-      <c r="BB16" s="56"/>
+      <c r="BB16" s="38"/>
       <c r="BC16" s="38"/>
       <c r="BD16" s="38"/>
       <c r="BE16" s="91"/>
@@ -6136,102 +6230,351 @@
       <c r="BG16" s="38"/>
       <c r="BH16" s="38"/>
       <c r="BI16" s="38"/>
+      <c r="BJ16" s="38"/>
       <c r="BK16" s="38"/>
       <c r="BL16" s="92"/>
       <c r="BM16" s="38"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="78"/>
-      <c r="G17" s="79" t="n">
-        <f aca="false">Netzplan!G17</f>
-        <v>1</v>
-      </c>
-      <c r="H17" s="79" t="str">
-        <f aca="false">Netzplan!H17</f>
-        <v>1</v>
-      </c>
-      <c r="I17" s="94" t="n">
-        <f aca="false">Netzplan!I17</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="95" t="n">
-        <f aca="false">Netzplan!J17</f>
+      <c r="A17" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="56" t="n">
+        <f aca="false">Netzplan!G15</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="56" t="str">
+        <f aca="false">Netzplan!H15</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="58" t="n">
+        <f aca="false">Netzplan!I15</f>
+        <v>1.5</v>
+      </c>
+      <c r="J17" s="89" t="n">
+        <f aca="false">Netzplan!J15</f>
         <v>1</v>
       </c>
       <c r="K17" s="90" t="n">
         <f aca="false">SUM(L17:BM17)</f>
         <v>1</v>
       </c>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="96"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="42"/>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="42"/>
-      <c r="AH17" s="42"/>
-      <c r="AI17" s="42"/>
-      <c r="AJ17" s="96"/>
-      <c r="AK17" s="42"/>
-      <c r="AL17" s="42"/>
-      <c r="AM17" s="42"/>
-      <c r="AN17" s="42"/>
-      <c r="AO17" s="42"/>
-      <c r="AP17" s="42"/>
-      <c r="AQ17" s="42"/>
-      <c r="AR17" s="42"/>
-      <c r="AS17" s="42"/>
-      <c r="AT17" s="42"/>
-      <c r="AU17" s="42"/>
-      <c r="AV17" s="42"/>
-      <c r="AW17" s="42"/>
-      <c r="AX17" s="42"/>
-      <c r="AY17" s="97"/>
-      <c r="AZ17" s="42"/>
-      <c r="BA17" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB17" s="42"/>
-      <c r="BC17" s="56"/>
-      <c r="BD17" s="42"/>
-      <c r="BE17" s="96"/>
-      <c r="BF17" s="97"/>
-      <c r="BG17" s="42"/>
-      <c r="BH17" s="42"/>
-      <c r="BI17" s="42"/>
-      <c r="BJ17" s="42"/>
-      <c r="BK17" s="42"/>
-      <c r="BL17" s="97"/>
-      <c r="BM17" s="42"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="91"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="91"/>
+      <c r="AK17" s="38"/>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="38"/>
+      <c r="AO17" s="38"/>
+      <c r="AP17" s="38"/>
+      <c r="AQ17" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="38"/>
+      <c r="AS17" s="38"/>
+      <c r="AT17" s="38"/>
+      <c r="AU17" s="38"/>
+      <c r="AV17" s="56"/>
+      <c r="AW17" s="38"/>
+      <c r="AX17" s="38"/>
+      <c r="AY17" s="92"/>
+      <c r="AZ17" s="38"/>
+      <c r="BA17" s="38"/>
+      <c r="BB17" s="38"/>
+      <c r="BC17" s="38"/>
+      <c r="BD17" s="38"/>
+      <c r="BE17" s="91"/>
+      <c r="BF17" s="92"/>
+      <c r="BG17" s="38"/>
+      <c r="BH17" s="38"/>
+      <c r="BI17" s="38"/>
+      <c r="BJ17" s="38"/>
+      <c r="BK17" s="38"/>
+      <c r="BL17" s="92"/>
+      <c r="BM17" s="38"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="56" t="n">
+        <f aca="false">Netzplan!G16</f>
+        <v>5</v>
+      </c>
+      <c r="H18" s="56" t="str">
+        <f aca="false">Netzplan!H16</f>
+        <v>1</v>
+      </c>
+      <c r="I18" s="58" t="n">
+        <f aca="false">Netzplan!I16</f>
+        <v>1.5</v>
+      </c>
+      <c r="J18" s="89" t="n">
+        <f aca="false">Netzplan!J16</f>
+        <v>3</v>
+      </c>
+      <c r="K18" s="90" t="n">
+        <f aca="false">SUM(L18:BM18)</f>
+        <v>3</v>
+      </c>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="91"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="91"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="38"/>
+      <c r="AR18" s="38"/>
+      <c r="AS18" s="38"/>
+      <c r="AT18" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="56"/>
+      <c r="AX18" s="56"/>
+      <c r="AY18" s="92"/>
+      <c r="AZ18" s="38"/>
+      <c r="BA18" s="38"/>
+      <c r="BB18" s="56"/>
+      <c r="BC18" s="38"/>
+      <c r="BD18" s="38"/>
+      <c r="BE18" s="91"/>
+      <c r="BF18" s="92"/>
+      <c r="BG18" s="38"/>
+      <c r="BH18" s="38"/>
+      <c r="BI18" s="38"/>
+      <c r="BK18" s="38"/>
+      <c r="BL18" s="92"/>
+      <c r="BM18" s="38"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="36"/>
+      <c r="B19" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="91"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
+      <c r="AJ19" s="91"/>
+      <c r="AK19" s="38"/>
+      <c r="AL19" s="38"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="38"/>
+      <c r="AR19" s="38"/>
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38"/>
+      <c r="AU19" s="38"/>
+      <c r="AV19" s="38"/>
+      <c r="AW19" s="56"/>
+      <c r="AX19" s="56"/>
+      <c r="AY19" s="92"/>
+      <c r="AZ19" s="38"/>
+      <c r="BA19" s="38"/>
+      <c r="BB19" s="56"/>
+      <c r="BC19" s="38"/>
+      <c r="BD19" s="38"/>
+      <c r="BE19" s="91"/>
+      <c r="BF19" s="92"/>
+      <c r="BG19" s="38"/>
+      <c r="BH19" s="38"/>
+      <c r="BI19" s="38"/>
+      <c r="BK19" s="38"/>
+      <c r="BL19" s="92"/>
+      <c r="BM19" s="38"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79" t="n">
+        <f aca="false">Netzplan!G17</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="79" t="str">
+        <f aca="false">Netzplan!H17</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="95" t="n">
+        <f aca="false">Netzplan!I17</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="96" t="n">
+        <f aca="false">Netzplan!J17</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="90" t="n">
+        <f aca="false">SUM(L20:BM20)</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="97"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="42"/>
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="97"/>
+      <c r="AK20" s="42"/>
+      <c r="AL20" s="42"/>
+      <c r="AM20" s="42"/>
+      <c r="AN20" s="42"/>
+      <c r="AO20" s="42"/>
+      <c r="AP20" s="42"/>
+      <c r="AQ20" s="42"/>
+      <c r="AR20" s="42"/>
+      <c r="AS20" s="42"/>
+      <c r="AT20" s="42"/>
+      <c r="AU20" s="42"/>
+      <c r="AV20" s="42"/>
+      <c r="AW20" s="42"/>
+      <c r="AX20" s="42"/>
+      <c r="AY20" s="98"/>
+      <c r="AZ20" s="42"/>
+      <c r="BA20" s="0"/>
+      <c r="BB20" s="42"/>
+      <c r="BC20" s="56"/>
+      <c r="BD20" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE20" s="97"/>
+      <c r="BF20" s="98"/>
+      <c r="BG20" s="42"/>
+      <c r="BH20" s="42"/>
+      <c r="BI20" s="42"/>
+      <c r="BJ20" s="42"/>
+      <c r="BK20" s="42"/>
+      <c r="BL20" s="98"/>
+      <c r="BM20" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -6249,18 +6592,21 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
-  <conditionalFormatting sqref="L1:L17 M1:BM1 L2:BM14 L17:BM17 L15:AM15 AO15:BM15 L16:AN16 AR16:BM16">
+  <conditionalFormatting sqref="L1:L20 M1:BM1 L2:BM16 BB20:BM20 L17:AM17 AO17:BM17 L18:AN19 AR18:BM19 L20:AZ20">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>IF(OR(WEEKDAY(M$1)=7,WEEKDAY(M$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:BM14 L17:BM17 L15:AM15 AO15:BM15 L16:AN16 AR16:BM16">
+  <conditionalFormatting sqref="L2:BM16 BB20:BM20 L17:AM17 AO17:BM17 L18:AN19 AR18:BM19 L20:AZ20">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K17">
+  <conditionalFormatting sqref="K2:K20">
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>IF(K2&lt;&gt;J2,TRUE())</formula>
     </cfRule>
@@ -6272,11 +6618,12 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{9360B76E-1953-476F-A475-505AAC439F74}">
+          <x14:cfRule type="expression" priority="3" id="{9D7626D4-9BBB-4AD2-A03C-71764EB14993}">
             <xm:f>ISNUMBER(_xlfn.xmatch(M$1,Feiertage!$A$1:$A$29,0))</xm:f>
             <x14:dxf>
               <font>
@@ -6292,7 +6639,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L1:L17 M1:BM1 L2:BM14 L17:BM17 L15:AM15 AO15:BM15 L16:AN16 AR16:BM16</xm:sqref>
+          <xm:sqref>L1:L20 M1:BM1 L2:BM16 BB20:BM20 L17:AM17 AO17:BM17 L18:AN19 AR18:BM19 L20:AZ20</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6308,38 +6655,38 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="BN2:BN3 F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="98" width="8.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="99" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="44" width="23.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="44" width="23.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="44" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="44" width="32.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="98" t="s">
-        <v>100</v>
+      <c r="A1" s="99" t="s">
+        <v>103</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="99" t="n">
+      <c r="A2" s="100" t="n">
         <v>45297</v>
       </c>
-      <c r="B2" s="98" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="100" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="100" t="s">
-        <v>104</v>
+      <c r="B2" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>107</v>
       </c>
       <c r="F2" s="101" t="n">
         <v>45413</v>
@@ -6349,252 +6696,252 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="99" t="n">
+      <c r="A3" s="100" t="n">
         <v>45359</v>
       </c>
-      <c r="B3" s="98" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="100" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="100" t="s">
+      <c r="B3" s="99" t="s">
         <v>108</v>
       </c>
+      <c r="C3" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="99" t="n">
+      <c r="A4" s="100" t="n">
         <v>45380</v>
       </c>
-      <c r="B4" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="100" t="s">
+      <c r="B4" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="100" t="s">
-        <v>111</v>
+      <c r="E4" s="83" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="99" t="n">
+      <c r="A5" s="100" t="n">
         <v>45383</v>
       </c>
-      <c r="B5" s="98" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="100" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="100" t="s">
-        <v>111</v>
+      <c r="B5" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="83" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="99" t="n">
+      <c r="A6" s="100" t="n">
         <v>45413</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="100" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="100" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="99" t="n">
+      <c r="A7" s="100" t="n">
         <v>45421</v>
       </c>
-      <c r="B7" s="98" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="100" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="100" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="100" t="s">
-        <v>111</v>
+      <c r="B7" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="83" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="99" t="n">
+      <c r="A8" s="100" t="n">
         <v>45432</v>
       </c>
-      <c r="B8" s="98" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="100" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="100" t="s">
-        <v>111</v>
+      <c r="B8" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="83" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="99" t="n">
+      <c r="A9" s="100" t="n">
         <v>45442</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="100" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="100" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="100" t="s">
-        <v>123</v>
+      <c r="E9" s="83" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="99" t="n">
+      <c r="A10" s="100" t="n">
         <v>45519</v>
       </c>
-      <c r="B10" s="98" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="100" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="100" t="s">
-        <v>126</v>
+      <c r="B10" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="83" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="99" t="n">
+      <c r="A11" s="100" t="n">
         <v>45555</v>
       </c>
-      <c r="B11" s="98" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="100" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="100" t="s">
-        <v>129</v>
+      <c r="B11" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="83" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="99" t="n">
+      <c r="A12" s="100" t="n">
         <v>45568</v>
       </c>
-      <c r="B12" s="98" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="100" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="100" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="100" t="s">
-        <v>111</v>
+      <c r="B12" s="99" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="83" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="99" t="n">
+      <c r="A13" s="100" t="n">
         <v>45596</v>
       </c>
-      <c r="B13" s="98" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="100" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="100" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="98" t="s">
-        <v>134</v>
+      <c r="B13" s="99" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="99" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="101" t="n">
         <v>45597</v>
       </c>
-      <c r="B14" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="100" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="100" t="s">
+      <c r="B14" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="83" t="s">
         <v>136</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="83" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="101" t="n">
         <v>45616</v>
       </c>
-      <c r="B15" s="98" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="100" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="100" t="s">
-        <v>139</v>
+      <c r="B15" s="99" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="83" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="101" t="n">
         <v>45651</v>
       </c>
-      <c r="B16" s="98" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="100" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="100" t="s">
-        <v>111</v>
+      <c r="B16" s="99" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="101" t="n">
         <v>45652</v>
       </c>
-      <c r="B17" s="98" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="100" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="100" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="100" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="100" t="s">
-        <v>143</v>
+      <c r="B17" s="99" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="83" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Übungen/Online_Shop.Projekt.xlsx
+++ b/Übungen/Online_Shop.Projekt.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="126">
   <si>
     <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
@@ -270,9 +270,6 @@
     <t xml:space="preserve">1.1.2, 1.1.3</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.2.4, 1.3.1</t>
   </si>
   <si>
@@ -339,25 +336,7 @@
     <t xml:space="preserve">Rückwärtsrechnen</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF443205"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Spätester-End-Zeitpunkt (SEZ) = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF443205"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> kleinster SAZ der Nachfolger</t>
-    </r>
+    <t xml:space="preserve">Spätester-End-Zeitpunkt (SEZ) =  kleinster SAZ der Nachfolger</t>
   </si>
   <si>
     <t xml:space="preserve">Spätester-Anfangs-Zeitpunkt (SAZ) = SEZ – D</t>
@@ -440,7 +419,7 @@
     <numFmt numFmtId="170" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="171" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -533,12 +512,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF443205"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -644,6 +617,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFBBE33D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE8E8E8"/>
         <bgColor rgb="FFEEEEEE"/>
       </patternFill>
@@ -676,12 +655,6 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.5"/>
         <bgColor rgb="FF993366"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFBBE33D"/>
       </patternFill>
     </fill>
   </fills>
@@ -875,7 +848,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="112">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1060,11 +1033,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1072,19 +1049,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="14" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1100,8 +1081,172 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="15" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="15" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="16" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="10" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="17" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="18" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="16" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1112,163 +1257,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="14" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="14" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="15" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="10" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="16" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="17" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="18" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="15" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1593,9 +1590,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>103320</xdr:colOff>
+      <xdr:colOff>102600</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1604,8 +1601,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7192440" y="17374320"/>
-          <a:ext cx="2242800" cy="422640"/>
+          <a:off x="5208480" y="17374320"/>
+          <a:ext cx="2242440" cy="422280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1671,9 +1668,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>174960</xdr:colOff>
+      <xdr:colOff>174600</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1683,7 +1680,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8412840" y="1680480"/>
-          <a:ext cx="113760" cy="165600"/>
+          <a:ext cx="113400" cy="165240"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1724,9 +1721,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>174960</xdr:colOff>
+      <xdr:colOff>174600</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1736,7 +1733,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11430360" y="2819520"/>
-          <a:ext cx="113760" cy="166680"/>
+          <a:ext cx="113400" cy="166320"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1777,9 +1774,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>202320</xdr:colOff>
+      <xdr:colOff>201960</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1789,7 +1786,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13972320" y="3292920"/>
-          <a:ext cx="113760" cy="167040"/>
+          <a:ext cx="113400" cy="166680"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -3301,18 +3298,21 @@
   </sheetPr>
   <dimension ref="A1:BQ33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="10" ySplit="0" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="1" max="4" min="2" style="43" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="5" min="5" style="3" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="6" min="6" style="3" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="8" min="7" style="3" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="9" min="9" style="44" width="11.57"/>
-    <col collapsed="true" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="2" max="3" min="2" style="43" width="11.71"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="2" max="4" min="4" style="43" width="11.73"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="5" min="5" style="3" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="6" min="6" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="2" max="8" min="7" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="2" max="9" min="9" style="44" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="11" style="43" width="3.86"/>
   </cols>
   <sheetData>
@@ -3331,13 +3331,13 @@
       <c r="F1" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="47" t="s">
         <v>77</v>
       </c>
       <c r="J1" s="45" t="s">
@@ -3353,120 +3353,120 @@
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="49" t="n">
+      <c r="G2" s="50" t="n">
         <v>5</v>
       </c>
-      <c r="H2" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="49" t="n">
+      <c r="H2" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="53" t="n">
         <f aca="false">ROUND(G2/(H2*I2),0)</f>
-        <v>2</v>
-      </c>
-      <c r="L2" s="52" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="54" t="n">
+      <c r="M2" s="55"/>
+      <c r="N2" s="56" t="n">
         <f aca="false">L2+L4</f>
-        <v>2</v>
-      </c>
-      <c r="Q2" s="52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="54" t="n">
         <f aca="false">N2</f>
-        <v>2</v>
-      </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" s="55"/>
+      <c r="S2" s="56" t="n">
         <f aca="false">Q2+Q4</f>
-        <v>3</v>
-      </c>
-      <c r="V2" s="52" t="n">
+        <v>6</v>
+      </c>
+      <c r="V2" s="54" t="n">
         <f aca="false">S2</f>
-        <v>3</v>
-      </c>
-      <c r="W2" s="53"/>
-      <c r="X2" s="54" t="n">
+        <v>6</v>
+      </c>
+      <c r="W2" s="55"/>
+      <c r="X2" s="56" t="n">
         <f aca="false">V2+V4</f>
         <v>10</v>
       </c>
-      <c r="AF2" s="52" t="n">
+      <c r="AF2" s="54" t="n">
         <f aca="false">MAX(X2,AC8,X14)</f>
-        <v>10</v>
-      </c>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="54" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="56" t="n">
         <f aca="false">AF2+AF4</f>
-        <v>11</v>
-      </c>
-      <c r="AK2" s="52" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK2" s="54" t="n">
         <f aca="false">AH2</f>
-        <v>11</v>
-      </c>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="54" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="56" t="n">
         <f aca="false">AK2+AK4</f>
-        <v>12</v>
-      </c>
-      <c r="AP2" s="52" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP2" s="54" t="n">
         <f aca="false">AM2</f>
-        <v>12</v>
-      </c>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="54" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="56" t="n">
         <f aca="false">AP2+AP4</f>
-        <v>13</v>
-      </c>
-      <c r="AU2" s="52" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU2" s="54" t="n">
         <f aca="false">AR2</f>
-        <v>13</v>
-      </c>
-      <c r="AV2" s="53"/>
-      <c r="AW2" s="54" t="n">
+        <v>22</v>
+      </c>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="56" t="n">
         <f aca="false">AU2+AU4</f>
-        <v>15</v>
-      </c>
-      <c r="AZ2" s="52" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ2" s="54" t="n">
         <f aca="false">AW2</f>
-        <v>15</v>
-      </c>
-      <c r="BA2" s="53"/>
-      <c r="BB2" s="54" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA2" s="55"/>
+      <c r="BB2" s="56" t="n">
         <f aca="false">AZ2+AZ4</f>
-        <v>17</v>
-      </c>
-      <c r="BE2" s="52" t="n">
+        <v>28</v>
+      </c>
+      <c r="BE2" s="54" t="n">
         <f aca="false">BB2</f>
-        <v>17</v>
-      </c>
-      <c r="BF2" s="53"/>
-      <c r="BG2" s="54" t="n">
+        <v>28</v>
+      </c>
+      <c r="BF2" s="55"/>
+      <c r="BG2" s="56" t="n">
         <f aca="false">BE2+BE4</f>
-        <v>18</v>
-      </c>
-      <c r="BJ2" s="52" t="n">
+        <v>29</v>
+      </c>
+      <c r="BJ2" s="54" t="n">
         <f aca="false">BG2</f>
-        <v>18</v>
-      </c>
-      <c r="BK2" s="53"/>
-      <c r="BL2" s="54" t="n">
+        <v>29</v>
+      </c>
+      <c r="BK2" s="55"/>
+      <c r="BL2" s="56" t="n">
         <f aca="false">BJ2+BJ4</f>
-        <v>21</v>
-      </c>
-      <c r="BO2" s="52" t="n">
+        <v>34</v>
+      </c>
+      <c r="BO2" s="54" t="n">
         <f aca="false">MAX(BL2,AC14)</f>
-        <v>28</v>
-      </c>
-      <c r="BP2" s="53"/>
-      <c r="BQ2" s="54" t="n">
+        <v>34</v>
+      </c>
+      <c r="BP2" s="55"/>
+      <c r="BQ2" s="56" t="n">
         <f aca="false">BO2+BO4</f>
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3478,105 +3478,105 @@
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="56" t="n">
+      <c r="G3" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="61" t="n">
         <f aca="false">ROUND(G3/(H3*I3),0)</f>
         <v>1</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="59" t="s">
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="59" t="s">
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="59" t="s">
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="59" t="s">
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="60"/>
-      <c r="AO3" s="61"/>
-      <c r="AP3" s="59" t="s">
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="60"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="59" t="s">
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="64"/>
+      <c r="AU3" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="AV3" s="59"/>
-      <c r="AW3" s="59"/>
-      <c r="AX3" s="60"/>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="59" t="s">
+      <c r="AV3" s="62"/>
+      <c r="AW3" s="62"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="64"/>
+      <c r="AZ3" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="BA3" s="59"/>
-      <c r="BB3" s="59"/>
-      <c r="BC3" s="60"/>
-      <c r="BD3" s="61"/>
-      <c r="BE3" s="59" t="s">
+      <c r="BA3" s="62"/>
+      <c r="BB3" s="62"/>
+      <c r="BC3" s="63"/>
+      <c r="BD3" s="64"/>
+      <c r="BE3" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="BF3" s="59"/>
-      <c r="BG3" s="59"/>
-      <c r="BH3" s="60"/>
-      <c r="BI3" s="61"/>
-      <c r="BJ3" s="59" t="s">
+      <c r="BF3" s="62"/>
+      <c r="BG3" s="62"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="64"/>
+      <c r="BJ3" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="BK3" s="59"/>
-      <c r="BL3" s="59"/>
-      <c r="BM3" s="60"/>
-      <c r="BN3" s="61"/>
-      <c r="BO3" s="59" t="s">
+      <c r="BK3" s="62"/>
+      <c r="BL3" s="62"/>
+      <c r="BM3" s="63"/>
+      <c r="BN3" s="64"/>
+      <c r="BO3" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="BP3" s="59"/>
-      <c r="BQ3" s="59"/>
+      <c r="BP3" s="62"/>
+      <c r="BQ3" s="62"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="36" t="s">
@@ -3587,158 +3587,158 @@
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="56" t="n">
+      <c r="G4" s="58" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="58" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J4" s="56" t="n">
+      <c r="H4" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="61" t="n">
         <f aca="false">ROUND(G4/(H4*I4),0)</f>
-        <v>7</v>
-      </c>
-      <c r="L4" s="63" t="n">
+        <v>4</v>
+      </c>
+      <c r="L4" s="66" t="n">
         <f aca="false">J2</f>
-        <v>2</v>
-      </c>
-      <c r="M4" s="64" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" s="67" t="n">
         <f aca="false">N5-N2</f>
         <v>0</v>
       </c>
-      <c r="N4" s="65" t="n">
+      <c r="N4" s="68" t="n">
         <f aca="false">MIN(Q2,Q14)-N2</f>
         <v>0</v>
       </c>
-      <c r="O4" s="66"/>
-      <c r="Q4" s="63" t="n">
+      <c r="O4" s="69"/>
+      <c r="Q4" s="66" t="n">
         <f aca="false">J3</f>
         <v>1</v>
       </c>
-      <c r="R4" s="64" t="n">
+      <c r="R4" s="67" t="n">
         <f aca="false">S5-S2</f>
-        <v>7</v>
-      </c>
-      <c r="S4" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="68" t="n">
         <f aca="false">MIN(V2,V8)-S2</f>
         <v>0</v>
       </c>
-      <c r="T4" s="66"/>
-      <c r="V4" s="63" t="n">
+      <c r="T4" s="69"/>
+      <c r="V4" s="66" t="n">
         <f aca="false">J4</f>
-        <v>7</v>
-      </c>
-      <c r="W4" s="64" t="n">
+        <v>4</v>
+      </c>
+      <c r="W4" s="67" t="n">
         <f aca="false">X5-X2</f>
-        <v>7</v>
-      </c>
-      <c r="X4" s="65" t="n">
+        <v>6</v>
+      </c>
+      <c r="X4" s="68" t="n">
         <f aca="false">AF2-X2</f>
+        <v>6</v>
+      </c>
+      <c r="AE4" s="70"/>
+      <c r="AF4" s="66" t="n">
+        <f aca="false">J9</f>
+        <v>2</v>
+      </c>
+      <c r="AG4" s="67" t="n">
+        <f aca="false">AH5-AH2</f>
         <v>0</v>
       </c>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="63" t="n">
-        <f aca="false">J9</f>
-        <v>1</v>
-      </c>
-      <c r="AG4" s="64" t="n">
-        <f aca="false">AH5-AH2</f>
-        <v>7</v>
-      </c>
-      <c r="AH4" s="65" t="n">
+      <c r="AH4" s="68" t="n">
         <f aca="false">AK2-AH2</f>
         <v>0</v>
       </c>
-      <c r="AK4" s="63" t="n">
+      <c r="AK4" s="66" t="n">
         <f aca="false">J10</f>
-        <v>1</v>
-      </c>
-      <c r="AL4" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="67" t="n">
         <f aca="false">AM5-AM2</f>
-        <v>7</v>
-      </c>
-      <c r="AM4" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="68" t="n">
         <f aca="false">AP2-AM2</f>
         <v>0</v>
       </c>
-      <c r="AP4" s="63" t="n">
+      <c r="AP4" s="66" t="n">
         <f aca="false">J11</f>
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ4" s="67" t="n">
         <f aca="false">AR5-AR2</f>
-        <v>7</v>
-      </c>
-      <c r="AR4" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="68" t="n">
         <f aca="false">AU2-AR2</f>
         <v>0</v>
       </c>
-      <c r="AU4" s="63" t="n">
+      <c r="AU4" s="66" t="n">
         <f aca="false">J13</f>
-        <v>2</v>
-      </c>
-      <c r="AV4" s="64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="67" t="n">
         <f aca="false">AW5-AW2</f>
-        <v>7</v>
-      </c>
-      <c r="AW4" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="68" t="n">
         <f aca="false">AZ2-AW2</f>
         <v>0</v>
       </c>
-      <c r="AZ4" s="63" t="n">
+      <c r="AZ4" s="66" t="n">
         <f aca="false">J14</f>
-        <v>2</v>
-      </c>
-      <c r="BA4" s="64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA4" s="67" t="n">
         <f aca="false">BB5-BB2</f>
-        <v>7</v>
-      </c>
-      <c r="BB4" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="68" t="n">
         <f aca="false">BE2-BB2</f>
         <v>0</v>
       </c>
-      <c r="BE4" s="63" t="n">
+      <c r="BE4" s="66" t="n">
         <f aca="false">J15</f>
         <v>1</v>
       </c>
-      <c r="BF4" s="64" t="n">
+      <c r="BF4" s="67" t="n">
         <f aca="false">BG5-BG2</f>
-        <v>7</v>
-      </c>
-      <c r="BG4" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="68" t="n">
         <f aca="false">BJ2-BG2</f>
         <v>0</v>
       </c>
-      <c r="BJ4" s="63" t="n">
+      <c r="BJ4" s="66" t="n">
         <f aca="false">J16</f>
-        <v>3</v>
-      </c>
-      <c r="BK4" s="64" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK4" s="67" t="n">
         <f aca="false">BL5-BL2</f>
-        <v>7</v>
-      </c>
-      <c r="BL4" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="68" t="n">
         <f aca="false">BO2-BL2</f>
-        <v>7</v>
-      </c>
-      <c r="BN4" s="61"/>
-      <c r="BO4" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="64"/>
+      <c r="BO4" s="66" t="n">
         <f aca="false">J17</f>
         <v>1</v>
       </c>
-      <c r="BP4" s="64" t="n">
+      <c r="BP4" s="67" t="n">
         <f aca="false">BQ5-BQ2</f>
         <v>0</v>
       </c>
-      <c r="BQ4" s="65"/>
+      <c r="BQ4" s="68"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="36" t="s">
@@ -3749,127 +3749,127 @@
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="56" t="n">
+      <c r="G5" s="58" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="50" t="n">
+      <c r="H5" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="61" t="n">
+        <f aca="false">ROUND(G5/(H5*I5),0)</f>
         <v>3</v>
       </c>
-      <c r="I5" s="51" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J5" s="56" t="n">
-        <f aca="false">ROUND(G5/(H5*I5),0)</f>
-        <v>2</v>
-      </c>
-      <c r="L5" s="68" t="n">
+      <c r="L5" s="71" t="n">
         <f aca="false">N5-L4</f>
         <v>0</v>
       </c>
-      <c r="M5" s="53"/>
-      <c r="N5" s="69" t="n">
+      <c r="M5" s="55"/>
+      <c r="N5" s="72" t="n">
         <f aca="false">MIN(Q5,Q17)</f>
-        <v>2</v>
-      </c>
-      <c r="O5" s="70"/>
-      <c r="Q5" s="68" t="n">
+        <v>5</v>
+      </c>
+      <c r="O5" s="73"/>
+      <c r="Q5" s="71" t="n">
         <f aca="false">S5-Q4</f>
-        <v>9</v>
-      </c>
-      <c r="R5" s="53"/>
-      <c r="S5" s="69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" s="55"/>
+      <c r="S5" s="72" t="n">
         <f aca="false">MIN(V5,V11)</f>
-        <v>10</v>
-      </c>
-      <c r="T5" s="70"/>
-      <c r="V5" s="68" t="n">
+        <v>6</v>
+      </c>
+      <c r="T5" s="73"/>
+      <c r="V5" s="71" t="n">
         <f aca="false">X5-V4</f>
-        <v>10</v>
-      </c>
-      <c r="W5" s="53"/>
-      <c r="X5" s="69" t="n">
+        <v>12</v>
+      </c>
+      <c r="W5" s="55"/>
+      <c r="X5" s="72" t="n">
         <f aca="false">AF5</f>
-        <v>17</v>
-      </c>
-      <c r="AD5" s="70"/>
-      <c r="AF5" s="68" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD5" s="73"/>
+      <c r="AF5" s="71" t="n">
         <f aca="false">AH5-AF4</f>
-        <v>17</v>
-      </c>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="69" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="72" t="n">
         <f aca="false">AK5</f>
         <v>18</v>
       </c>
-      <c r="AK5" s="68" t="n">
+      <c r="AK5" s="71" t="n">
         <f aca="false">AM5-AK4</f>
         <v>18</v>
       </c>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="69" t="n">
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="72" t="n">
         <f aca="false">AP5</f>
-        <v>19</v>
-      </c>
-      <c r="AP5" s="68" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP5" s="71" t="n">
         <f aca="false">AR5-AP4</f>
-        <v>19</v>
-      </c>
-      <c r="AQ5" s="53"/>
-      <c r="AR5" s="69" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ5" s="55"/>
+      <c r="AR5" s="72" t="n">
         <f aca="false">AU5</f>
-        <v>20</v>
-      </c>
-      <c r="AU5" s="68" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU5" s="71" t="n">
         <f aca="false">AW5-AU4</f>
-        <v>20</v>
-      </c>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="69" t="n">
+        <v>22</v>
+      </c>
+      <c r="AV5" s="55"/>
+      <c r="AW5" s="72" t="n">
         <f aca="false">AZ5</f>
-        <v>22</v>
-      </c>
-      <c r="AZ5" s="68" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ5" s="71" t="n">
         <f aca="false">BB5-AZ4</f>
-        <v>22</v>
-      </c>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="69" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA5" s="55"/>
+      <c r="BB5" s="72" t="n">
         <f aca="false">BE5</f>
-        <v>24</v>
-      </c>
-      <c r="BE5" s="68" t="n">
+        <v>28</v>
+      </c>
+      <c r="BE5" s="71" t="n">
         <f aca="false">BG5-BE4</f>
-        <v>24</v>
-      </c>
-      <c r="BF5" s="53"/>
-      <c r="BG5" s="69" t="n">
+        <v>28</v>
+      </c>
+      <c r="BF5" s="55"/>
+      <c r="BG5" s="72" t="n">
         <f aca="false">BJ5</f>
-        <v>25</v>
-      </c>
-      <c r="BJ5" s="68" t="n">
+        <v>29</v>
+      </c>
+      <c r="BJ5" s="71" t="n">
         <f aca="false">BL5-BJ4</f>
-        <v>25</v>
-      </c>
-      <c r="BK5" s="53"/>
-      <c r="BL5" s="69" t="n">
+        <v>29</v>
+      </c>
+      <c r="BK5" s="55"/>
+      <c r="BL5" s="72" t="n">
         <f aca="false">BO5</f>
-        <v>28</v>
-      </c>
-      <c r="BM5" s="70"/>
-      <c r="BO5" s="68" t="n">
+        <v>34</v>
+      </c>
+      <c r="BM5" s="73"/>
+      <c r="BO5" s="71" t="n">
         <f aca="false">BQ5-BO4</f>
-        <v>28</v>
-      </c>
-      <c r="BP5" s="53"/>
-      <c r="BQ5" s="69" t="n">
+        <v>34</v>
+      </c>
+      <c r="BP5" s="55"/>
+      <c r="BQ5" s="72" t="n">
         <f aca="false">BQ2</f>
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3881,30 +3881,30 @@
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="72" t="n">
+      <c r="G6" s="75" t="n">
         <v>7</v>
       </c>
-      <c r="H6" s="57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="58" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J6" s="56" t="n">
+      <c r="H6" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="61" t="n">
         <f aca="false">ROUND(G6/(H6*I6),0)</f>
-        <v>5</v>
-      </c>
-      <c r="O6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="AD6" s="70"/>
-      <c r="AE6" s="70"/>
-      <c r="BM6" s="70"/>
+        <v>7</v>
+      </c>
+      <c r="O6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73"/>
+      <c r="BM6" s="73"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="36" t="s">
@@ -3915,30 +3915,30 @@
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="56" t="n">
+      <c r="G7" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="61" t="n">
         <f aca="false">ROUND(G7/(H7*I7),0)</f>
         <v>1</v>
       </c>
-      <c r="O7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="AD7" s="70"/>
-      <c r="AE7" s="70"/>
-      <c r="BM7" s="70"/>
+      <c r="O7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="73"/>
+      <c r="BM7" s="73"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="36" t="s">
@@ -3949,48 +3949,48 @@
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="72" t="n">
+      <c r="F8" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="75" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="51" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J8" s="56" t="n">
+      <c r="H8" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="61" t="n">
         <f aca="false">ROUND(G8/(H8*I8),0)</f>
-        <v>5</v>
-      </c>
-      <c r="O8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="V8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" s="73"/>
+      <c r="T8" s="73"/>
+      <c r="V8" s="54" t="n">
         <f aca="false">S2</f>
-        <v>3</v>
-      </c>
-      <c r="W8" s="53"/>
-      <c r="X8" s="54" t="n">
+        <v>6</v>
+      </c>
+      <c r="W8" s="55"/>
+      <c r="X8" s="56" t="n">
         <f aca="false">V8+V10</f>
-        <v>5</v>
-      </c>
-      <c r="AA8" s="52" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA8" s="54" t="n">
         <f aca="false">X8</f>
-        <v>5</v>
-      </c>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="56" t="n">
         <f aca="false">AA8+AA10</f>
-        <v>10</v>
-      </c>
-      <c r="AD8" s="70"/>
-      <c r="AE8" s="70"/>
-      <c r="BM8" s="70"/>
+        <v>16</v>
+      </c>
+      <c r="AD8" s="73"/>
+      <c r="AE8" s="73"/>
+      <c r="BM8" s="73"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="36" t="s">
@@ -4001,42 +4001,42 @@
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
-      <c r="E9" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="71" t="s">
+      <c r="E9" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="72" t="n">
+      <c r="G9" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="57" t="n">
+      <c r="H9" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="61" t="n">
+        <f aca="false">ROUND(G9/(H9*I9),0)</f>
         <v>2</v>
       </c>
-      <c r="I9" s="58" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J9" s="56" t="n">
-        <f aca="false">ROUND(G9/(H9*I9),0)</f>
-        <v>1</v>
-      </c>
-      <c r="O9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="V9" s="59" t="s">
+      <c r="O9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="V9" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="59" t="s">
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="70"/>
-      <c r="BM9" s="70"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="76"/>
+      <c r="AE9" s="73"/>
+      <c r="BM9" s="73"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="36" t="s">
@@ -4047,53 +4047,53 @@
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="72" t="n">
+      <c r="G10" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="57" t="n">
+      <c r="H10" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="61" t="n">
+        <f aca="false">ROUND(G10/(H10*I10),0)</f>
         <v>2</v>
       </c>
-      <c r="I10" s="58" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J10" s="56" t="n">
-        <f aca="false">ROUND(G10/(H10*I10),0)</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="70"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="63" t="n">
+      <c r="O10" s="73"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="66" t="n">
         <f aca="false">J5</f>
-        <v>2</v>
-      </c>
-      <c r="W10" s="64" t="n">
+        <v>3</v>
+      </c>
+      <c r="W10" s="67" t="n">
         <f aca="false">X11-X8</f>
-        <v>7</v>
-      </c>
-      <c r="X10" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="68" t="n">
         <f aca="false">AA8-X8</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="63" t="n">
+      <c r="AA10" s="66" t="n">
         <f aca="false">J6</f>
-        <v>5</v>
-      </c>
-      <c r="AB10" s="64" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="67" t="n">
         <f aca="false">AC11-AC8</f>
-        <v>7</v>
-      </c>
-      <c r="AC10" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="68" t="n">
         <f aca="false">AF2-AC8</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="70"/>
-      <c r="BM10" s="70"/>
+      <c r="AE10" s="73"/>
+      <c r="BM10" s="73"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="36" t="s">
@@ -4104,83 +4104,83 @@
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="72" t="n">
+      <c r="G11" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="50" t="n">
+      <c r="H11" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="61" t="n">
+        <f aca="false">ROUND(G11/(H11*I11),0)</f>
         <v>2</v>
       </c>
-      <c r="I11" s="51" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J11" s="56" t="n">
-        <f aca="false">ROUND(G11/(H11*I11),0)</f>
-        <v>1</v>
-      </c>
-      <c r="O11" s="70"/>
-      <c r="V11" s="68" t="n">
+      <c r="O11" s="73"/>
+      <c r="V11" s="71" t="n">
         <f aca="false">X11-V10</f>
-        <v>10</v>
-      </c>
-      <c r="W11" s="53"/>
-      <c r="X11" s="69" t="n">
+        <v>6</v>
+      </c>
+      <c r="W11" s="55"/>
+      <c r="X11" s="72" t="n">
         <f aca="false">AA11</f>
-        <v>12</v>
-      </c>
-      <c r="AA11" s="68" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA11" s="71" t="n">
         <f aca="false">AC11-AA10</f>
-        <v>12</v>
-      </c>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="69" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="72" t="n">
         <f aca="false">AF5</f>
-        <v>17</v>
-      </c>
-      <c r="AE11" s="70"/>
-      <c r="BM11" s="70"/>
+        <v>16</v>
+      </c>
+      <c r="AE11" s="73"/>
+      <c r="BM11" s="73"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="36" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="72" t="n">
+      <c r="G12" s="75" t="n">
         <v>10</v>
       </c>
-      <c r="H12" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="75" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J12" s="56" t="n">
+      <c r="H12" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="61" t="n">
         <f aca="false">ROUND(G12/(H12*I12),0)</f>
-        <v>20</v>
-      </c>
-      <c r="O12" s="70"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="62"/>
-      <c r="AD12" s="62"/>
-      <c r="AE12" s="76"/>
-      <c r="BM12" s="70"/>
+        <v>10</v>
+      </c>
+      <c r="O12" s="73"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="78"/>
+      <c r="BM12" s="73"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="36" t="s">
@@ -4191,28 +4191,28 @@
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="72" t="n">
+      <c r="G13" s="75" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" s="58" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J13" s="56" t="n">
+      <c r="H13" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="61" t="n">
         <f aca="false">ROUND(G13/(H13*I13),0)</f>
-        <v>2</v>
-      </c>
-      <c r="O13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="BM13" s="70"/>
+        <v>3</v>
+      </c>
+      <c r="O13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="BM13" s="73"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="36" t="s">
@@ -4223,55 +4223,55 @@
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="71" t="s">
+      <c r="F14" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="72" t="n">
+      <c r="G14" s="75" t="n">
         <v>3</v>
       </c>
-      <c r="H14" s="50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" s="51" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J14" s="56" t="n">
+      <c r="H14" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="61" t="n">
         <f aca="false">ROUND(G14/(H14*I14),0)</f>
-        <v>2</v>
-      </c>
-      <c r="O14" s="70"/>
-      <c r="Q14" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" s="73"/>
+      <c r="Q14" s="54" t="n">
         <f aca="false">N2</f>
-        <v>2</v>
-      </c>
-      <c r="R14" s="53"/>
-      <c r="S14" s="54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" s="55"/>
+      <c r="S14" s="56" t="n">
         <f aca="false">Q14+Q16</f>
-        <v>3</v>
-      </c>
-      <c r="V14" s="52" t="n">
+        <v>6</v>
+      </c>
+      <c r="V14" s="54" t="n">
         <f aca="false">S14</f>
-        <v>3</v>
-      </c>
-      <c r="W14" s="53"/>
-      <c r="X14" s="54" t="n">
+        <v>6</v>
+      </c>
+      <c r="W14" s="55"/>
+      <c r="X14" s="56" t="n">
         <f aca="false">V14+V16</f>
-        <v>8</v>
-      </c>
-      <c r="Y14" s="73"/>
-      <c r="AA14" s="52" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="76"/>
+      <c r="AA14" s="54" t="n">
         <f aca="false">X14</f>
-        <v>8</v>
-      </c>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="56" t="n">
         <f aca="false">AA14+AA16</f>
-        <v>28</v>
-      </c>
-      <c r="BM14" s="70"/>
+        <v>19</v>
+      </c>
+      <c r="BM14" s="73"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="36" t="s">
@@ -4282,82 +4282,82 @@
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="71" t="s">
+      <c r="F15" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" s="58" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J15" s="56" t="n">
+      <c r="G15" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="61" t="n">
         <f aca="false">ROUND(G15/(H15*I15),0)</f>
         <v>1</v>
       </c>
-      <c r="O15" s="70"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="59" t="s">
+      <c r="O15" s="73"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="59" t="s">
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="59" t="s">
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="60"/>
-      <c r="AE15" s="62"/>
-      <c r="AF15" s="62"/>
-      <c r="AG15" s="62"/>
-      <c r="AH15" s="62"/>
-      <c r="AI15" s="62"/>
-      <c r="AJ15" s="62"/>
-      <c r="AK15" s="62"/>
-      <c r="AL15" s="62"/>
-      <c r="AM15" s="62"/>
-      <c r="AN15" s="62"/>
-      <c r="AO15" s="62"/>
-      <c r="AP15" s="62"/>
-      <c r="AQ15" s="62"/>
-      <c r="AR15" s="62"/>
-      <c r="AS15" s="62"/>
-      <c r="AT15" s="62"/>
-      <c r="AU15" s="62"/>
-      <c r="AV15" s="62"/>
-      <c r="AW15" s="62"/>
-      <c r="AX15" s="62"/>
-      <c r="AY15" s="62"/>
-      <c r="AZ15" s="62"/>
-      <c r="BA15" s="62"/>
-      <c r="BB15" s="62"/>
-      <c r="BC15" s="62"/>
-      <c r="BD15" s="62"/>
-      <c r="BE15" s="62"/>
-      <c r="BF15" s="62"/>
-      <c r="BG15" s="62"/>
-      <c r="BH15" s="62"/>
-      <c r="BI15" s="62"/>
-      <c r="BJ15" s="62"/>
-      <c r="BK15" s="62"/>
-      <c r="BL15" s="62"/>
-      <c r="BM15" s="76"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="63"/>
+      <c r="AE15" s="65"/>
+      <c r="AF15" s="65"/>
+      <c r="AG15" s="65"/>
+      <c r="AH15" s="65"/>
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="65"/>
+      <c r="AK15" s="65"/>
+      <c r="AL15" s="65"/>
+      <c r="AM15" s="65"/>
+      <c r="AN15" s="65"/>
+      <c r="AO15" s="65"/>
+      <c r="AP15" s="65"/>
+      <c r="AQ15" s="65"/>
+      <c r="AR15" s="65"/>
+      <c r="AS15" s="65"/>
+      <c r="AT15" s="65"/>
+      <c r="AU15" s="65"/>
+      <c r="AV15" s="65"/>
+      <c r="AW15" s="65"/>
+      <c r="AX15" s="65"/>
+      <c r="AY15" s="65"/>
+      <c r="AZ15" s="65"/>
+      <c r="BA15" s="65"/>
+      <c r="BB15" s="65"/>
+      <c r="BC15" s="65"/>
+      <c r="BD15" s="65"/>
+      <c r="BE15" s="65"/>
+      <c r="BF15" s="65"/>
+      <c r="BG15" s="65"/>
+      <c r="BH15" s="65"/>
+      <c r="BI15" s="65"/>
+      <c r="BJ15" s="65"/>
+      <c r="BK15" s="65"/>
+      <c r="BL15" s="65"/>
+      <c r="BM15" s="78"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="36" t="s">
@@ -4368,60 +4368,60 @@
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="71" t="s">
+      <c r="F16" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="72" t="n">
+      <c r="G16" s="75" t="n">
         <v>5</v>
       </c>
-      <c r="H16" s="57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" s="58" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J16" s="56" t="n">
+      <c r="H16" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="61" t="n">
         <f aca="false">ROUND(G16/(H16*I16),0)</f>
-        <v>3</v>
-      </c>
-      <c r="Q16" s="63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="66" t="n">
         <f aca="false">J7</f>
         <v>1</v>
       </c>
-      <c r="R16" s="64" t="n">
+      <c r="R16" s="67" t="n">
         <f aca="false">S17-S14</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="65" t="n">
+        <v>7</v>
+      </c>
+      <c r="S16" s="68" t="n">
         <f aca="false">V14-S14</f>
         <v>0</v>
       </c>
-      <c r="V16" s="63" t="n">
+      <c r="V16" s="66" t="n">
         <f aca="false">J8</f>
-        <v>5</v>
-      </c>
-      <c r="W16" s="64" t="n">
+        <v>3</v>
+      </c>
+      <c r="W16" s="67" t="n">
         <f aca="false">X17-X14</f>
-        <v>0</v>
-      </c>
-      <c r="X16" s="65" t="n">
+        <v>7</v>
+      </c>
+      <c r="X16" s="68" t="n">
         <f aca="false">MIN(AA14,AF2)-X14</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="63" t="n">
+      <c r="AA16" s="66" t="n">
         <f aca="false">J12</f>
-        <v>20</v>
-      </c>
-      <c r="AB16" s="64" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB16" s="67" t="n">
         <f aca="false">AC17-AC14</f>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="65" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC16" s="68" t="n">
         <f aca="false">BO2-AC14</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4433,168 +4433,165 @@
       </c>
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
-      <c r="E17" s="78" t="s">
+      <c r="E17" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="81"/>
+      <c r="G17" s="82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="83" t="n">
+        <f aca="false">ROUND(G17/(H17*I17),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="71" t="n">
+        <f aca="false">S17-Q16</f>
+        <v>12</v>
+      </c>
+      <c r="R17" s="55"/>
+      <c r="S17" s="72" t="n">
+        <f aca="false">V17</f>
+        <v>13</v>
+      </c>
+      <c r="V17" s="71" t="n">
+        <f aca="false">X17-V16</f>
+        <v>13</v>
+      </c>
+      <c r="W17" s="55"/>
+      <c r="X17" s="72" t="n">
+        <f aca="false">MIN(AA17,AF5)</f>
+        <v>16</v>
+      </c>
+      <c r="AA17" s="71" t="n">
+        <f aca="false">AC17-AA16</f>
+        <v>24</v>
+      </c>
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="72" t="n">
+        <f aca="false">BO5</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="79"/>
-      <c r="G17" s="80" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="80" t="n">
-        <f aca="false">ROUND(G17/(H17*I17),0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q17" s="68" t="n">
-        <f aca="false">S17-Q16</f>
-        <v>2</v>
-      </c>
-      <c r="R17" s="53"/>
-      <c r="S17" s="69" t="n">
-        <f aca="false">V17</f>
-        <v>3</v>
-      </c>
-      <c r="V17" s="68" t="n">
-        <f aca="false">X17-V16</f>
-        <v>3</v>
-      </c>
-      <c r="W17" s="53"/>
-      <c r="X17" s="69" t="n">
-        <f aca="false">MIN(AA17,AF5)</f>
-        <v>8</v>
-      </c>
-      <c r="AA17" s="68" t="n">
-        <f aca="false">AC17-AA16</f>
-        <v>8</v>
-      </c>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="69" t="n">
-        <f aca="false">BO5</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="82" t="s">
+      <c r="C19" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="83" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="54" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="52" t="s">
+      <c r="B20" s="55"/>
+      <c r="C20" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54" t="s">
+      <c r="D20" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="83" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="62" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="59" t="s">
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="63" t="s">
+      <c r="B22" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="84" t="s">
+      <c r="C22" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="D22" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="83" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="71" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="68" t="s">
+      <c r="B23" s="55"/>
+      <c r="C23" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="69" t="s">
+      <c r="D23" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="83" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="88" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="85" t="s">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="89" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="86" t="s">
+      <c r="B26" s="89"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="87" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="91" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="88" t="s">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="89" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="86" t="s">
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="89" t="s">
+      <c r="E30" s="43"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="0"/>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="90" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="94" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="91" t="s">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="95" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="93"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -4771,183 +4768,183 @@
       <c r="F1" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="95" t="s">
+      <c r="I1" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="94"/>
-      <c r="L1" s="96" t="n">
+      <c r="K1" s="97"/>
+      <c r="L1" s="99" t="n">
         <v>45208</v>
       </c>
-      <c r="M1" s="96" t="n">
+      <c r="M1" s="99" t="n">
         <v>45209</v>
       </c>
-      <c r="N1" s="96" t="n">
+      <c r="N1" s="99" t="n">
         <v>45210</v>
       </c>
-      <c r="O1" s="96" t="n">
+      <c r="O1" s="99" t="n">
         <v>45211</v>
       </c>
-      <c r="P1" s="96" t="n">
+      <c r="P1" s="99" t="n">
         <v>45212</v>
       </c>
-      <c r="Q1" s="96" t="n">
+      <c r="Q1" s="99" t="n">
         <v>45213</v>
       </c>
-      <c r="R1" s="96" t="n">
+      <c r="R1" s="99" t="n">
         <v>45214</v>
       </c>
-      <c r="S1" s="96" t="n">
+      <c r="S1" s="99" t="n">
         <v>45215</v>
       </c>
-      <c r="T1" s="96" t="n">
+      <c r="T1" s="99" t="n">
         <v>45216</v>
       </c>
-      <c r="U1" s="96" t="n">
+      <c r="U1" s="99" t="n">
         <v>45217</v>
       </c>
-      <c r="V1" s="96" t="n">
+      <c r="V1" s="99" t="n">
         <v>45218</v>
       </c>
-      <c r="W1" s="96" t="n">
+      <c r="W1" s="99" t="n">
         <v>45219</v>
       </c>
-      <c r="X1" s="96" t="n">
+      <c r="X1" s="99" t="n">
         <v>45220</v>
       </c>
-      <c r="Y1" s="96" t="n">
+      <c r="Y1" s="99" t="n">
         <v>45221</v>
       </c>
-      <c r="Z1" s="96" t="n">
+      <c r="Z1" s="99" t="n">
         <v>45222</v>
       </c>
-      <c r="AA1" s="96" t="n">
+      <c r="AA1" s="99" t="n">
         <v>45223</v>
       </c>
-      <c r="AB1" s="96" t="n">
+      <c r="AB1" s="99" t="n">
         <v>45224</v>
       </c>
-      <c r="AC1" s="96" t="n">
+      <c r="AC1" s="99" t="n">
         <v>45225</v>
       </c>
-      <c r="AD1" s="96" t="n">
+      <c r="AD1" s="99" t="n">
         <v>45226</v>
       </c>
-      <c r="AE1" s="96" t="n">
+      <c r="AE1" s="99" t="n">
         <v>45227</v>
       </c>
-      <c r="AF1" s="96" t="n">
+      <c r="AF1" s="99" t="n">
         <v>45228</v>
       </c>
-      <c r="AG1" s="96" t="n">
+      <c r="AG1" s="99" t="n">
         <v>45229</v>
       </c>
-      <c r="AH1" s="96" t="n">
+      <c r="AH1" s="99" t="n">
         <v>45230</v>
       </c>
-      <c r="AI1" s="96" t="n">
+      <c r="AI1" s="99" t="n">
         <v>45231</v>
       </c>
-      <c r="AJ1" s="96" t="n">
+      <c r="AJ1" s="99" t="n">
         <v>45232</v>
       </c>
-      <c r="AK1" s="96" t="n">
+      <c r="AK1" s="99" t="n">
         <v>45233</v>
       </c>
-      <c r="AL1" s="96" t="n">
+      <c r="AL1" s="99" t="n">
         <v>45234</v>
       </c>
-      <c r="AM1" s="96" t="n">
+      <c r="AM1" s="99" t="n">
         <v>45235</v>
       </c>
-      <c r="AN1" s="96" t="n">
+      <c r="AN1" s="99" t="n">
         <v>45236</v>
       </c>
-      <c r="AO1" s="96" t="n">
+      <c r="AO1" s="99" t="n">
         <v>45237</v>
       </c>
-      <c r="AP1" s="96" t="n">
+      <c r="AP1" s="99" t="n">
         <v>45238</v>
       </c>
-      <c r="AQ1" s="96" t="n">
+      <c r="AQ1" s="99" t="n">
         <v>45239</v>
       </c>
-      <c r="AR1" s="96" t="n">
+      <c r="AR1" s="99" t="n">
         <v>45240</v>
       </c>
-      <c r="AS1" s="96" t="n">
+      <c r="AS1" s="99" t="n">
         <v>45241</v>
       </c>
-      <c r="AT1" s="96" t="n">
+      <c r="AT1" s="99" t="n">
         <v>45242</v>
       </c>
-      <c r="AU1" s="96" t="n">
+      <c r="AU1" s="99" t="n">
         <v>45243</v>
       </c>
-      <c r="AV1" s="96" t="n">
+      <c r="AV1" s="99" t="n">
         <v>45244</v>
       </c>
-      <c r="AW1" s="96" t="n">
+      <c r="AW1" s="99" t="n">
         <v>45245</v>
       </c>
-      <c r="AX1" s="96" t="n">
+      <c r="AX1" s="99" t="n">
         <v>45246</v>
       </c>
-      <c r="AY1" s="96" t="n">
+      <c r="AY1" s="99" t="n">
         <v>45247</v>
       </c>
-      <c r="AZ1" s="96" t="n">
+      <c r="AZ1" s="99" t="n">
         <v>45248</v>
       </c>
-      <c r="BA1" s="96" t="n">
+      <c r="BA1" s="99" t="n">
         <v>45249</v>
       </c>
-      <c r="BB1" s="96" t="n">
+      <c r="BB1" s="99" t="n">
         <v>45250</v>
       </c>
-      <c r="BC1" s="96" t="n">
+      <c r="BC1" s="99" t="n">
         <v>45251</v>
       </c>
-      <c r="BD1" s="96" t="n">
+      <c r="BD1" s="99" t="n">
         <v>45252</v>
       </c>
-      <c r="BE1" s="96" t="n">
+      <c r="BE1" s="99" t="n">
         <v>45253</v>
       </c>
-      <c r="BF1" s="96" t="n">
+      <c r="BF1" s="99" t="n">
         <v>45254</v>
       </c>
-      <c r="BG1" s="96" t="n">
+      <c r="BG1" s="99" t="n">
         <v>45255</v>
       </c>
-      <c r="BH1" s="96" t="n">
+      <c r="BH1" s="99" t="n">
         <v>45256</v>
       </c>
-      <c r="BI1" s="96" t="n">
+      <c r="BI1" s="99" t="n">
         <v>45257</v>
       </c>
-      <c r="BJ1" s="96" t="n">
+      <c r="BJ1" s="99" t="n">
         <v>45258</v>
       </c>
-      <c r="BK1" s="96" t="n">
+      <c r="BK1" s="99" t="n">
         <v>45259</v>
       </c>
-      <c r="BL1" s="96" t="n">
+      <c r="BL1" s="99" t="n">
         <v>45260</v>
       </c>
-      <c r="BM1" s="96" t="n">
+      <c r="BM1" s="99" t="n">
         <v>45261</v>
       </c>
-      <c r="BN1" s="83" t="s">
-        <v>108</v>
+      <c r="BN1" s="86" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4959,39 +4956,39 @@
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="56" t="n">
+      <c r="G2" s="61" t="n">
         <f aca="false">Netzplan!G2</f>
         <v>5</v>
       </c>
-      <c r="H2" s="57" t="n">
+      <c r="H2" s="100" t="n">
         <f aca="false">Netzplan!H2</f>
-        <v>3</v>
-      </c>
-      <c r="I2" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="101" t="n">
         <f aca="false">Netzplan!I2</f>
         <v>1</v>
       </c>
-      <c r="J2" s="97" t="n">
+      <c r="J2" s="102" t="n">
         <f aca="false">Netzplan!J2</f>
-        <v>2</v>
-      </c>
-      <c r="K2" s="98" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" s="103" t="n">
         <f aca="false">SUM(L2:BM2)</f>
         <v>2</v>
       </c>
-      <c r="L2" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
+      <c r="L2" s="104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="38"/>
       <c r="S2" s="38"/>
@@ -5026,20 +5023,20 @@
       <c r="AV2" s="38"/>
       <c r="AW2" s="38"/>
       <c r="AX2" s="38"/>
-      <c r="AY2" s="99"/>
+      <c r="AY2" s="105"/>
       <c r="AZ2" s="38"/>
       <c r="BA2" s="38"/>
       <c r="BB2" s="38"/>
       <c r="BC2" s="38"/>
       <c r="BD2" s="38"/>
       <c r="BE2" s="38"/>
-      <c r="BF2" s="99"/>
+      <c r="BF2" s="105"/>
       <c r="BG2" s="38"/>
       <c r="BH2" s="38"/>
       <c r="BI2" s="38"/>
       <c r="BJ2" s="38"/>
       <c r="BK2" s="38"/>
-      <c r="BL2" s="99"/>
+      <c r="BL2" s="105"/>
       <c r="BM2" s="38"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5051,29 +5048,29 @@
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="56" t="n">
+      <c r="G3" s="61" t="n">
         <f aca="false">Netzplan!G3</f>
         <v>1</v>
       </c>
-      <c r="H3" s="57" t="n">
+      <c r="H3" s="100" t="n">
         <f aca="false">Netzplan!H3</f>
         <v>1</v>
       </c>
-      <c r="I3" s="58" t="n">
+      <c r="I3" s="101" t="n">
         <f aca="false">Netzplan!I3</f>
         <v>1</v>
       </c>
-      <c r="J3" s="97" t="n">
+      <c r="J3" s="102" t="n">
         <f aca="false">Netzplan!J3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="98" t="n">
+      <c r="K3" s="103" t="n">
         <f aca="false">SUM(L3:BM3)</f>
         <v>1</v>
       </c>
@@ -5086,7 +5083,7 @@
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="38"/>
-      <c r="S3" s="56"/>
+      <c r="S3" s="104"/>
       <c r="T3" s="38"/>
       <c r="U3" s="38"/>
       <c r="V3" s="38"/>
@@ -5118,20 +5115,20 @@
       <c r="AV3" s="38"/>
       <c r="AW3" s="38"/>
       <c r="AX3" s="38"/>
-      <c r="AY3" s="99"/>
+      <c r="AY3" s="105"/>
       <c r="AZ3" s="38"/>
       <c r="BA3" s="38"/>
       <c r="BB3" s="38"/>
       <c r="BC3" s="38"/>
       <c r="BD3" s="38"/>
       <c r="BE3" s="38"/>
-      <c r="BF3" s="99"/>
+      <c r="BF3" s="105"/>
       <c r="BG3" s="38"/>
       <c r="BH3" s="38"/>
       <c r="BI3" s="38"/>
       <c r="BJ3" s="38"/>
       <c r="BK3" s="38"/>
-      <c r="BL3" s="99"/>
+      <c r="BL3" s="105"/>
       <c r="BM3" s="38"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5143,29 +5140,29 @@
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="56" t="n">
+      <c r="G4" s="61" t="n">
         <f aca="false">Netzplan!G4</f>
         <v>4</v>
       </c>
-      <c r="H4" s="56" t="str">
+      <c r="H4" s="100" t="n">
         <f aca="false">Netzplan!H4</f>
         <v>1</v>
       </c>
-      <c r="I4" s="58" t="n">
+      <c r="I4" s="101" t="n">
         <f aca="false">Netzplan!I4</f>
-        <v>0.6</v>
-      </c>
-      <c r="J4" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="102" t="n">
         <f aca="false">Netzplan!J4</f>
-        <v>7</v>
-      </c>
-      <c r="K4" s="98" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" s="103" t="n">
         <f aca="false">SUM(L4:BM4)</f>
         <v>4</v>
       </c>
@@ -5183,12 +5180,12 @@
       <c r="S4" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="T4" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
+      <c r="T4" s="104" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="104"/>
       <c r="X4" s="38"/>
       <c r="Y4" s="38"/>
       <c r="Z4" s="38"/>
@@ -5216,20 +5213,20 @@
       <c r="AV4" s="38"/>
       <c r="AW4" s="38"/>
       <c r="AX4" s="38"/>
-      <c r="AY4" s="99"/>
+      <c r="AY4" s="105"/>
       <c r="AZ4" s="38"/>
       <c r="BA4" s="38"/>
       <c r="BB4" s="38"/>
       <c r="BC4" s="38"/>
       <c r="BD4" s="38"/>
       <c r="BE4" s="38"/>
-      <c r="BF4" s="99"/>
+      <c r="BF4" s="105"/>
       <c r="BG4" s="38"/>
       <c r="BH4" s="38"/>
       <c r="BI4" s="38"/>
       <c r="BJ4" s="38"/>
       <c r="BK4" s="38"/>
-      <c r="BL4" s="99"/>
+      <c r="BL4" s="105"/>
       <c r="BM4" s="38"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5241,29 +5238,29 @@
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="56" t="n">
+      <c r="G5" s="61" t="n">
         <f aca="false">Netzplan!G5</f>
         <v>3</v>
       </c>
-      <c r="H5" s="57" t="n">
+      <c r="H5" s="100" t="n">
         <f aca="false">Netzplan!H5</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="101" t="n">
+        <f aca="false">Netzplan!I5</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="102" t="n">
+        <f aca="false">Netzplan!J5</f>
         <v>3</v>
       </c>
-      <c r="I5" s="58" t="n">
-        <f aca="false">Netzplan!I5</f>
-        <v>0.6</v>
-      </c>
-      <c r="J5" s="97" t="n">
-        <f aca="false">Netzplan!J5</f>
-        <v>2</v>
-      </c>
-      <c r="K5" s="98" t="n">
+      <c r="K5" s="103" t="n">
         <f aca="false">SUM(L5:BM5)</f>
         <v>3</v>
       </c>
@@ -5281,9 +5278,9 @@
       <c r="S5" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="104"/>
       <c r="W5" s="38"/>
       <c r="X5" s="38"/>
       <c r="Y5" s="38"/>
@@ -5312,20 +5309,20 @@
       <c r="AV5" s="38"/>
       <c r="AW5" s="38"/>
       <c r="AX5" s="38"/>
-      <c r="AY5" s="99"/>
+      <c r="AY5" s="105"/>
       <c r="AZ5" s="38"/>
       <c r="BA5" s="38"/>
       <c r="BB5" s="38"/>
       <c r="BC5" s="38"/>
       <c r="BD5" s="38"/>
       <c r="BE5" s="38"/>
-      <c r="BF5" s="99"/>
+      <c r="BF5" s="105"/>
       <c r="BG5" s="38"/>
       <c r="BH5" s="38"/>
       <c r="BI5" s="38"/>
       <c r="BJ5" s="38"/>
       <c r="BK5" s="38"/>
-      <c r="BL5" s="99"/>
+      <c r="BL5" s="105"/>
       <c r="BM5" s="38"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5337,29 +5334,29 @@
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="56" t="n">
+      <c r="G6" s="61" t="n">
         <f aca="false">Netzplan!G6</f>
         <v>7</v>
       </c>
-      <c r="H6" s="57" t="n">
+      <c r="H6" s="100" t="n">
         <f aca="false">Netzplan!H6</f>
-        <v>2</v>
-      </c>
-      <c r="I6" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="101" t="n">
         <f aca="false">Netzplan!I6</f>
-        <v>0.75</v>
-      </c>
-      <c r="J6" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="102" t="n">
         <f aca="false">Netzplan!J6</f>
-        <v>5</v>
-      </c>
-      <c r="K6" s="98" t="n">
+        <v>7</v>
+      </c>
+      <c r="K6" s="103" t="n">
         <f aca="false">SUM(L6:BM6)</f>
         <v>5</v>
       </c>
@@ -5380,17 +5377,17 @@
       <c r="V6" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="W6" s="56"/>
+      <c r="W6" s="104"/>
       <c r="X6" s="38"/>
       <c r="Y6" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="Z6" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="56"/>
+      <c r="Z6" s="104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="104"/>
       <c r="AD6" s="38"/>
       <c r="AE6" s="38"/>
       <c r="AF6" s="38"/>
@@ -5412,20 +5409,20 @@
       <c r="AV6" s="38"/>
       <c r="AW6" s="38"/>
       <c r="AX6" s="38"/>
-      <c r="AY6" s="99"/>
+      <c r="AY6" s="105"/>
       <c r="AZ6" s="38"/>
       <c r="BA6" s="38"/>
       <c r="BB6" s="38"/>
       <c r="BC6" s="38"/>
       <c r="BD6" s="38"/>
       <c r="BE6" s="38"/>
-      <c r="BF6" s="99"/>
+      <c r="BF6" s="105"/>
       <c r="BG6" s="38"/>
       <c r="BH6" s="38"/>
       <c r="BI6" s="38"/>
       <c r="BJ6" s="38"/>
       <c r="BK6" s="38"/>
-      <c r="BL6" s="99"/>
+      <c r="BL6" s="105"/>
       <c r="BM6" s="38"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5437,29 +5434,29 @@
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="56" t="n">
+      <c r="G7" s="61" t="n">
         <f aca="false">Netzplan!G7</f>
         <v>1</v>
       </c>
-      <c r="H7" s="57" t="n">
+      <c r="H7" s="100" t="n">
         <f aca="false">Netzplan!H7</f>
-        <v>2</v>
-      </c>
-      <c r="I7" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="101" t="n">
         <f aca="false">Netzplan!I7</f>
         <v>1</v>
       </c>
-      <c r="J7" s="97" t="n">
+      <c r="J7" s="102" t="n">
         <f aca="false">Netzplan!J7</f>
         <v>1</v>
       </c>
-      <c r="K7" s="98" t="n">
+      <c r="K7" s="103" t="n">
         <f aca="false">SUM(L7:BM7)</f>
         <v>1</v>
       </c>
@@ -5472,7 +5469,7 @@
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
       <c r="R7" s="38"/>
-      <c r="S7" s="56"/>
+      <c r="S7" s="104"/>
       <c r="T7" s="38"/>
       <c r="U7" s="38"/>
       <c r="V7" s="38"/>
@@ -5504,20 +5501,20 @@
       <c r="AV7" s="38"/>
       <c r="AW7" s="38"/>
       <c r="AX7" s="38"/>
-      <c r="AY7" s="99"/>
+      <c r="AY7" s="105"/>
       <c r="AZ7" s="38"/>
       <c r="BA7" s="38"/>
       <c r="BB7" s="38"/>
       <c r="BC7" s="38"/>
       <c r="BD7" s="38"/>
       <c r="BE7" s="38"/>
-      <c r="BF7" s="99"/>
+      <c r="BF7" s="105"/>
       <c r="BG7" s="38"/>
       <c r="BH7" s="38"/>
       <c r="BI7" s="38"/>
       <c r="BJ7" s="38"/>
       <c r="BK7" s="38"/>
-      <c r="BL7" s="99"/>
+      <c r="BL7" s="105"/>
       <c r="BM7" s="38"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5529,29 +5526,29 @@
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="56" t="n">
+      <c r="F8" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="61" t="n">
         <f aca="false">Netzplan!G8</f>
         <v>3</v>
       </c>
-      <c r="H8" s="57" t="n">
+      <c r="H8" s="100" t="n">
         <f aca="false">Netzplan!H8</f>
         <v>1</v>
       </c>
-      <c r="I8" s="58" t="n">
+      <c r="I8" s="101" t="n">
         <f aca="false">Netzplan!I8</f>
-        <v>0.6</v>
-      </c>
-      <c r="J8" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="102" t="n">
         <f aca="false">Netzplan!J8</f>
-        <v>5</v>
-      </c>
-      <c r="K8" s="98" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" s="103" t="n">
         <f aca="false">SUM(L8:BM8)</f>
         <v>4</v>
       </c>
@@ -5569,11 +5566,11 @@
       <c r="S8" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="T8" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
+      <c r="T8" s="104" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
       <c r="W8" s="38"/>
       <c r="X8" s="38"/>
       <c r="Y8" s="38"/>
@@ -5602,36 +5599,36 @@
       <c r="AV8" s="38"/>
       <c r="AW8" s="38"/>
       <c r="AX8" s="38"/>
-      <c r="AY8" s="99"/>
+      <c r="AY8" s="105"/>
       <c r="AZ8" s="38"/>
       <c r="BA8" s="38"/>
       <c r="BB8" s="38"/>
       <c r="BC8" s="38"/>
       <c r="BD8" s="38"/>
       <c r="BE8" s="38"/>
-      <c r="BF8" s="99"/>
+      <c r="BF8" s="105"/>
       <c r="BG8" s="38"/>
       <c r="BH8" s="38"/>
       <c r="BI8" s="38"/>
       <c r="BJ8" s="38"/>
       <c r="BK8" s="38"/>
-      <c r="BL8" s="99"/>
+      <c r="BL8" s="105"/>
       <c r="BM8" s="38"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="36"/>
-      <c r="B9" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="98"/>
+      <c r="B9" s="106" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="103"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
@@ -5640,9 +5637,9 @@
       <c r="Q9" s="38"/>
       <c r="R9" s="38"/>
       <c r="S9" s="38"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="104"/>
       <c r="W9" s="38"/>
       <c r="X9" s="38"/>
       <c r="Y9" s="38"/>
@@ -5671,20 +5668,20 @@
       <c r="AV9" s="38"/>
       <c r="AW9" s="38"/>
       <c r="AX9" s="38"/>
-      <c r="AY9" s="99"/>
+      <c r="AY9" s="105"/>
       <c r="AZ9" s="38"/>
       <c r="BA9" s="38"/>
       <c r="BB9" s="38"/>
       <c r="BC9" s="38"/>
       <c r="BD9" s="38"/>
       <c r="BE9" s="38"/>
-      <c r="BF9" s="99"/>
+      <c r="BF9" s="105"/>
       <c r="BG9" s="38"/>
       <c r="BH9" s="38"/>
       <c r="BI9" s="38"/>
       <c r="BJ9" s="38"/>
       <c r="BK9" s="38"/>
-      <c r="BL9" s="99"/>
+      <c r="BL9" s="105"/>
       <c r="BM9" s="38"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5696,29 +5693,29 @@
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="71" t="s">
+      <c r="E10" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="56" t="n">
+      <c r="G10" s="61" t="n">
         <f aca="false">Netzplan!G9</f>
         <v>2</v>
       </c>
-      <c r="H10" s="57" t="n">
+      <c r="H10" s="100" t="n">
         <f aca="false">Netzplan!H9</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="101" t="n">
+        <f aca="false">Netzplan!I9</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="102" t="n">
+        <f aca="false">Netzplan!J9</f>
         <v>2</v>
       </c>
-      <c r="I10" s="58" t="n">
-        <f aca="false">Netzplan!I9</f>
-        <v>0.75</v>
-      </c>
-      <c r="J10" s="97" t="n">
-        <f aca="false">Netzplan!J9</f>
-        <v>1</v>
-      </c>
-      <c r="K10" s="98" t="n">
+      <c r="K10" s="103" t="n">
         <f aca="false">SUM(L10:BM10)</f>
         <v>1</v>
       </c>
@@ -5742,10 +5739,10 @@
       <c r="AC10" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="AD10" s="56"/>
+      <c r="AD10" s="104"/>
       <c r="AE10" s="38"/>
       <c r="AF10" s="38"/>
-      <c r="AG10" s="56"/>
+      <c r="AG10" s="104"/>
       <c r="AH10" s="38"/>
       <c r="AI10" s="38"/>
       <c r="AJ10" s="38"/>
@@ -5763,20 +5760,20 @@
       <c r="AV10" s="38"/>
       <c r="AW10" s="38"/>
       <c r="AX10" s="38"/>
-      <c r="AY10" s="99"/>
+      <c r="AY10" s="105"/>
       <c r="AZ10" s="38"/>
       <c r="BA10" s="38"/>
       <c r="BB10" s="38"/>
       <c r="BC10" s="38"/>
       <c r="BD10" s="38"/>
       <c r="BE10" s="38"/>
-      <c r="BF10" s="99"/>
+      <c r="BF10" s="105"/>
       <c r="BG10" s="38"/>
       <c r="BH10" s="38"/>
       <c r="BI10" s="38"/>
       <c r="BJ10" s="38"/>
       <c r="BK10" s="38"/>
-      <c r="BL10" s="99"/>
+      <c r="BL10" s="105"/>
       <c r="BM10" s="38"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5788,29 +5785,29 @@
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="56" t="n">
+      <c r="G11" s="61" t="n">
         <f aca="false">Netzplan!G10</f>
         <v>2</v>
       </c>
-      <c r="H11" s="57" t="n">
+      <c r="H11" s="100" t="n">
         <f aca="false">Netzplan!H10</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="101" t="n">
+        <f aca="false">Netzplan!I10</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="102" t="n">
+        <f aca="false">Netzplan!J10</f>
         <v>2</v>
       </c>
-      <c r="I11" s="58" t="n">
-        <f aca="false">Netzplan!I10</f>
-        <v>0.75</v>
-      </c>
-      <c r="J11" s="97" t="n">
-        <f aca="false">Netzplan!J10</f>
-        <v>1</v>
-      </c>
-      <c r="K11" s="98" t="n">
+      <c r="K11" s="103" t="n">
         <f aca="false">SUM(L11:BM11)</f>
         <v>1</v>
       </c>
@@ -5838,8 +5835,8 @@
         <v>1</v>
       </c>
       <c r="AG11" s="38"/>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="56"/>
+      <c r="AH11" s="104"/>
+      <c r="AI11" s="104"/>
       <c r="AJ11" s="38"/>
       <c r="AK11" s="38"/>
       <c r="AL11" s="38"/>
@@ -5855,20 +5852,20 @@
       <c r="AV11" s="38"/>
       <c r="AW11" s="38"/>
       <c r="AX11" s="38"/>
-      <c r="AY11" s="99"/>
+      <c r="AY11" s="105"/>
       <c r="AZ11" s="38"/>
       <c r="BA11" s="38"/>
       <c r="BB11" s="38"/>
       <c r="BC11" s="38"/>
       <c r="BD11" s="38"/>
       <c r="BE11" s="38"/>
-      <c r="BF11" s="99"/>
+      <c r="BF11" s="105"/>
       <c r="BG11" s="38"/>
       <c r="BH11" s="38"/>
       <c r="BI11" s="38"/>
       <c r="BJ11" s="38"/>
       <c r="BK11" s="38"/>
-      <c r="BL11" s="99"/>
+      <c r="BL11" s="105"/>
       <c r="BM11" s="38"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5880,29 +5877,29 @@
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="56" t="n">
+      <c r="G12" s="61" t="n">
         <f aca="false">Netzplan!G11</f>
         <v>2</v>
       </c>
-      <c r="H12" s="57" t="n">
+      <c r="H12" s="100" t="n">
         <f aca="false">Netzplan!H11</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="101" t="n">
+        <f aca="false">Netzplan!I11</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="102" t="n">
+        <f aca="false">Netzplan!J11</f>
         <v>2</v>
       </c>
-      <c r="I12" s="58" t="n">
-        <f aca="false">Netzplan!I11</f>
-        <v>0.75</v>
-      </c>
-      <c r="J12" s="97" t="n">
-        <f aca="false">Netzplan!J11</f>
-        <v>1</v>
-      </c>
-      <c r="K12" s="98" t="n">
+      <c r="K12" s="103" t="n">
         <f aca="false">SUM(L12:BM12)</f>
         <v>1</v>
       </c>
@@ -5931,8 +5928,8 @@
       <c r="AH12" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="56"/>
+      <c r="AJ12" s="104"/>
+      <c r="AK12" s="104"/>
       <c r="AL12" s="38"/>
       <c r="AM12" s="38"/>
       <c r="AN12" s="38"/>
@@ -5946,20 +5943,20 @@
       <c r="AV12" s="38"/>
       <c r="AW12" s="38"/>
       <c r="AX12" s="38"/>
-      <c r="AY12" s="99"/>
+      <c r="AY12" s="105"/>
       <c r="AZ12" s="38"/>
       <c r="BA12" s="38"/>
       <c r="BB12" s="38"/>
       <c r="BC12" s="38"/>
       <c r="BD12" s="38"/>
       <c r="BE12" s="38"/>
-      <c r="BF12" s="99"/>
+      <c r="BF12" s="105"/>
       <c r="BG12" s="38"/>
       <c r="BH12" s="38"/>
       <c r="BI12" s="38"/>
       <c r="BJ12" s="38"/>
       <c r="BK12" s="38"/>
-      <c r="BL12" s="99"/>
+      <c r="BL12" s="105"/>
       <c r="BM12" s="38"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5967,33 +5964,33 @@
         <v>17</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="56" t="n">
+      <c r="G13" s="61" t="n">
         <f aca="false">Netzplan!G12</f>
         <v>10</v>
       </c>
-      <c r="H13" s="57" t="n">
+      <c r="H13" s="100" t="n">
         <f aca="false">Netzplan!H12</f>
         <v>1</v>
       </c>
-      <c r="I13" s="58" t="n">
+      <c r="I13" s="101" t="n">
         <f aca="false">Netzplan!I12</f>
-        <v>0.5</v>
-      </c>
-      <c r="J13" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="102" t="n">
         <f aca="false">Netzplan!J12</f>
-        <v>20</v>
-      </c>
-      <c r="K13" s="98" t="n">
+        <v>10</v>
+      </c>
+      <c r="K13" s="103" t="n">
         <f aca="false">SUM(L13:BM13)</f>
         <v>20</v>
       </c>
@@ -6012,7 +6009,7 @@
       <c r="V13" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="W13" s="56"/>
+      <c r="W13" s="104"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38" t="n">
         <v>1</v>
@@ -6029,22 +6026,22 @@
       <c r="AC13" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="AD13" s="56"/>
+      <c r="AD13" s="104"/>
       <c r="AE13" s="38"/>
       <c r="AF13" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="AG13" s="56"/>
-      <c r="AH13" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ13" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK13" s="56"/>
+      <c r="AG13" s="104"/>
+      <c r="AH13" s="104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="104"/>
       <c r="AL13" s="38"/>
       <c r="AM13" s="38" t="n">
         <v>1</v>
@@ -6061,7 +6058,7 @@
       <c r="AQ13" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="AR13" s="56"/>
+      <c r="AR13" s="104"/>
       <c r="AS13" s="38"/>
       <c r="AT13" s="38" t="n">
         <v>1</v>
@@ -6075,20 +6072,20 @@
       <c r="AW13" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="AX13" s="56"/>
-      <c r="AY13" s="99"/>
+      <c r="AX13" s="104"/>
+      <c r="AY13" s="105"/>
       <c r="AZ13" s="38"/>
       <c r="BA13" s="38"/>
       <c r="BB13" s="38"/>
       <c r="BC13" s="38"/>
       <c r="BD13" s="38"/>
       <c r="BE13" s="38"/>
-      <c r="BF13" s="99"/>
+      <c r="BF13" s="105"/>
       <c r="BG13" s="38"/>
       <c r="BH13" s="38"/>
       <c r="BJ13" s="38"/>
       <c r="BK13" s="38"/>
-      <c r="BL13" s="99"/>
+      <c r="BL13" s="105"/>
       <c r="BM13" s="38"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6100,29 +6097,29 @@
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="71" t="s">
+      <c r="F14" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="56" t="n">
+      <c r="G14" s="61" t="n">
         <f aca="false">Netzplan!G13</f>
         <v>3</v>
       </c>
-      <c r="H14" s="57" t="n">
+      <c r="H14" s="100" t="n">
         <f aca="false">Netzplan!H13</f>
-        <v>2</v>
-      </c>
-      <c r="I14" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="101" t="n">
         <f aca="false">Netzplan!I13</f>
-        <v>0.75</v>
-      </c>
-      <c r="J14" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="102" t="n">
         <f aca="false">Netzplan!J13</f>
-        <v>2</v>
-      </c>
-      <c r="K14" s="98" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" s="103" t="n">
         <f aca="false">SUM(L14:BM14)</f>
         <v>2</v>
       </c>
@@ -6157,9 +6154,9 @@
       </c>
       <c r="AL14" s="38"/>
       <c r="AM14" s="38"/>
-      <c r="AN14" s="56"/>
-      <c r="AO14" s="56"/>
-      <c r="AP14" s="56"/>
+      <c r="AN14" s="104"/>
+      <c r="AO14" s="104"/>
+      <c r="AP14" s="104"/>
       <c r="AQ14" s="38"/>
       <c r="AR14" s="38"/>
       <c r="AS14" s="38"/>
@@ -6168,20 +6165,20 @@
       <c r="AV14" s="38"/>
       <c r="AW14" s="38"/>
       <c r="AX14" s="38"/>
-      <c r="AY14" s="99"/>
+      <c r="AY14" s="105"/>
       <c r="AZ14" s="38"/>
       <c r="BA14" s="38"/>
       <c r="BB14" s="38"/>
       <c r="BC14" s="38"/>
       <c r="BD14" s="38"/>
       <c r="BE14" s="38"/>
-      <c r="BF14" s="99"/>
+      <c r="BF14" s="105"/>
       <c r="BG14" s="38"/>
       <c r="BH14" s="38"/>
       <c r="BI14" s="38"/>
       <c r="BJ14" s="38"/>
       <c r="BK14" s="38"/>
-      <c r="BL14" s="99"/>
+      <c r="BL14" s="105"/>
       <c r="BM14" s="38"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6193,29 +6190,29 @@
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="71" t="s">
+      <c r="F15" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="56" t="n">
+      <c r="G15" s="61" t="n">
         <f aca="false">Netzplan!G14</f>
         <v>3</v>
       </c>
-      <c r="H15" s="57" t="n">
+      <c r="H15" s="100" t="n">
         <f aca="false">Netzplan!H14</f>
-        <v>2</v>
-      </c>
-      <c r="I15" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="101" t="n">
         <f aca="false">Netzplan!I14</f>
-        <v>0.75</v>
-      </c>
-      <c r="J15" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="102" t="n">
         <f aca="false">Netzplan!J14</f>
-        <v>2</v>
-      </c>
-      <c r="K15" s="98" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" s="103" t="n">
         <f aca="false">SUM(L15:BM15)</f>
         <v>2</v>
       </c>
@@ -6253,44 +6250,44 @@
         <v>1</v>
       </c>
       <c r="AO15" s="38"/>
-      <c r="AQ15" s="56"/>
-      <c r="AR15" s="56"/>
+      <c r="AQ15" s="104"/>
+      <c r="AR15" s="104"/>
       <c r="AS15" s="38"/>
       <c r="AT15" s="38"/>
-      <c r="AU15" s="56"/>
+      <c r="AU15" s="104"/>
       <c r="AV15" s="38"/>
       <c r="AW15" s="38"/>
       <c r="AX15" s="38"/>
-      <c r="AY15" s="99"/>
+      <c r="AY15" s="105"/>
       <c r="AZ15" s="38"/>
       <c r="BA15" s="38"/>
       <c r="BB15" s="38"/>
       <c r="BC15" s="38"/>
       <c r="BD15" s="38"/>
       <c r="BE15" s="38"/>
-      <c r="BF15" s="99"/>
+      <c r="BF15" s="105"/>
       <c r="BG15" s="38"/>
       <c r="BH15" s="38"/>
       <c r="BI15" s="38"/>
       <c r="BJ15" s="38"/>
       <c r="BK15" s="38"/>
-      <c r="BL15" s="99"/>
+      <c r="BL15" s="105"/>
       <c r="BM15" s="38"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="36"/>
-      <c r="B16" s="100" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="98"/>
+      <c r="B16" s="106" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="103"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
@@ -6321,28 +6318,28 @@
       <c r="AM16" s="38"/>
       <c r="AN16" s="38"/>
       <c r="AO16" s="38"/>
-      <c r="AQ16" s="56"/>
-      <c r="AR16" s="56"/>
+      <c r="AQ16" s="104"/>
+      <c r="AR16" s="104"/>
       <c r="AS16" s="38"/>
       <c r="AT16" s="38"/>
-      <c r="AU16" s="56"/>
+      <c r="AU16" s="104"/>
       <c r="AV16" s="38"/>
       <c r="AW16" s="38"/>
       <c r="AX16" s="38"/>
-      <c r="AY16" s="99"/>
+      <c r="AY16" s="105"/>
       <c r="AZ16" s="38"/>
       <c r="BA16" s="38"/>
       <c r="BB16" s="38"/>
       <c r="BC16" s="38"/>
       <c r="BD16" s="38"/>
       <c r="BE16" s="38"/>
-      <c r="BF16" s="99"/>
+      <c r="BF16" s="105"/>
       <c r="BG16" s="38"/>
       <c r="BH16" s="38"/>
       <c r="BI16" s="38"/>
       <c r="BJ16" s="38"/>
       <c r="BK16" s="38"/>
-      <c r="BL16" s="99"/>
+      <c r="BL16" s="105"/>
       <c r="BM16" s="38"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6354,29 +6351,29 @@
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="56" t="n">
+      <c r="G17" s="61" t="n">
         <f aca="false">Netzplan!G15</f>
         <v>1</v>
       </c>
-      <c r="H17" s="57" t="n">
+      <c r="H17" s="100" t="n">
         <f aca="false">Netzplan!H15</f>
-        <v>2</v>
-      </c>
-      <c r="I17" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="101" t="n">
         <f aca="false">Netzplan!I15</f>
-        <v>0.75</v>
-      </c>
-      <c r="J17" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="102" t="n">
         <f aca="false">Netzplan!J15</f>
         <v>1</v>
       </c>
-      <c r="K17" s="98" t="n">
+      <c r="K17" s="103" t="n">
         <f aca="false">SUM(L17:BM17)</f>
         <v>1</v>
       </c>
@@ -6418,23 +6415,23 @@
       <c r="AS17" s="38"/>
       <c r="AT17" s="38"/>
       <c r="AU17" s="38"/>
-      <c r="AV17" s="56"/>
+      <c r="AV17" s="104"/>
       <c r="AW17" s="38"/>
       <c r="AX17" s="38"/>
-      <c r="AY17" s="99"/>
+      <c r="AY17" s="105"/>
       <c r="AZ17" s="38"/>
       <c r="BA17" s="38"/>
       <c r="BB17" s="38"/>
       <c r="BC17" s="38"/>
       <c r="BD17" s="38"/>
       <c r="BE17" s="38"/>
-      <c r="BF17" s="99"/>
+      <c r="BF17" s="105"/>
       <c r="BG17" s="38"/>
       <c r="BH17" s="38"/>
       <c r="BI17" s="38"/>
       <c r="BJ17" s="38"/>
       <c r="BK17" s="38"/>
-      <c r="BL17" s="99"/>
+      <c r="BL17" s="105"/>
       <c r="BM17" s="38"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6446,29 +6443,29 @@
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="71" t="s">
+      <c r="F18" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="56" t="n">
+      <c r="G18" s="61" t="n">
         <f aca="false">Netzplan!G16</f>
         <v>5</v>
       </c>
-      <c r="H18" s="57" t="n">
+      <c r="H18" s="100" t="n">
         <f aca="false">Netzplan!H16</f>
-        <v>2</v>
-      </c>
-      <c r="I18" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="101" t="n">
         <f aca="false">Netzplan!I16</f>
-        <v>0.75</v>
-      </c>
-      <c r="J18" s="97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="102" t="n">
         <f aca="false">Netzplan!J16</f>
-        <v>3</v>
-      </c>
-      <c r="K18" s="98" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" s="103" t="n">
         <f aca="false">SUM(L18:BM18)</f>
         <v>3</v>
       </c>
@@ -6515,37 +6512,37 @@
       </c>
       <c r="AU18" s="38"/>
       <c r="AV18" s="38"/>
-      <c r="AW18" s="56"/>
-      <c r="AX18" s="56"/>
-      <c r="AY18" s="99"/>
+      <c r="AW18" s="104"/>
+      <c r="AX18" s="104"/>
+      <c r="AY18" s="105"/>
       <c r="AZ18" s="38"/>
       <c r="BA18" s="38"/>
-      <c r="BB18" s="56"/>
+      <c r="BB18" s="104"/>
       <c r="BC18" s="38"/>
       <c r="BD18" s="38"/>
       <c r="BE18" s="38"/>
-      <c r="BF18" s="99"/>
+      <c r="BF18" s="105"/>
       <c r="BG18" s="38"/>
       <c r="BH18" s="38"/>
       <c r="BI18" s="38"/>
       <c r="BK18" s="38"/>
-      <c r="BL18" s="99"/>
+      <c r="BL18" s="105"/>
       <c r="BM18" s="38"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="36"/>
-      <c r="B19" s="100" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="98"/>
+      <c r="B19" s="106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="103"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
       <c r="N19" s="38"/>
@@ -6583,21 +6580,21 @@
       <c r="AT19" s="38"/>
       <c r="AU19" s="38"/>
       <c r="AV19" s="38"/>
-      <c r="AW19" s="56"/>
-      <c r="AX19" s="56"/>
-      <c r="AY19" s="99"/>
+      <c r="AW19" s="104"/>
+      <c r="AX19" s="104"/>
+      <c r="AY19" s="105"/>
       <c r="AZ19" s="38"/>
       <c r="BA19" s="38"/>
-      <c r="BB19" s="56"/>
+      <c r="BB19" s="104"/>
       <c r="BC19" s="38"/>
       <c r="BD19" s="38"/>
       <c r="BE19" s="38"/>
-      <c r="BF19" s="99"/>
+      <c r="BF19" s="105"/>
       <c r="BG19" s="38"/>
       <c r="BH19" s="38"/>
       <c r="BI19" s="38"/>
       <c r="BK19" s="38"/>
-      <c r="BL19" s="99"/>
+      <c r="BL19" s="105"/>
       <c r="BM19" s="38"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6609,27 +6606,27 @@
       </c>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
-      <c r="E20" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="79"/>
-      <c r="G20" s="80" t="n">
+      <c r="E20" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="81"/>
+      <c r="G20" s="83" t="n">
         <f aca="false">Netzplan!G17</f>
         <v>1</v>
       </c>
-      <c r="H20" s="101" t="n">
+      <c r="H20" s="107" t="n">
         <f aca="false">Netzplan!H17</f>
         <v>1</v>
       </c>
-      <c r="I20" s="102" t="n">
+      <c r="I20" s="108" t="n">
         <f aca="false">Netzplan!I17</f>
         <v>1</v>
       </c>
-      <c r="J20" s="103" t="n">
+      <c r="J20" s="109" t="n">
         <f aca="false">Netzplan!J17</f>
         <v>1</v>
       </c>
-      <c r="K20" s="98" t="n">
+      <c r="K20" s="103" t="n">
         <f aca="false">SUM(L20:BM20)</f>
         <v>1</v>
       </c>
@@ -6672,22 +6669,22 @@
       <c r="AV20" s="42"/>
       <c r="AW20" s="42"/>
       <c r="AX20" s="42"/>
-      <c r="AY20" s="104"/>
+      <c r="AY20" s="110"/>
       <c r="AZ20" s="42"/>
       <c r="BA20" s="42" t="n">
         <v>1</v>
       </c>
       <c r="BB20" s="42"/>
-      <c r="BC20" s="56"/>
+      <c r="BC20" s="104"/>
       <c r="BD20" s="42"/>
       <c r="BE20" s="42"/>
-      <c r="BF20" s="104"/>
+      <c r="BF20" s="110"/>
       <c r="BG20" s="42"/>
       <c r="BH20" s="42"/>
       <c r="BI20" s="42"/>
       <c r="BJ20" s="42"/>
       <c r="BK20" s="42"/>
-      <c r="BL20" s="104"/>
+      <c r="BL20" s="110"/>
       <c r="BM20" s="42"/>
     </row>
   </sheetData>
@@ -6740,7 +6737,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{74AFAA80-E68F-4680-8713-D898E21E37C5}">
+          <x14:cfRule type="expression" priority="3" id="{F6F6CBEE-FE7F-4641-BE76-35AEFE3F8C92}">
             <xm:f>ISNUMBER(_xlfn.xmatch(M$1,FeiertageMV!$A$1:$A$30,0))</xm:f>
             <x14:dxf>
               <font>
@@ -6777,119 +6774,119 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="105" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="111" width="25.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="83" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="111" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B2" s="86" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="105" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B2" s="83" t="s">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="111" t="n">
+        <v>45022</v>
+      </c>
+      <c r="B3" s="86" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="105" t="n">
-        <v>45022</v>
-      </c>
-      <c r="B3" s="83" t="s">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="111" t="n">
+        <v>45023</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="105" t="n">
-        <v>45023</v>
-      </c>
-      <c r="B4" s="83" t="s">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="111" t="n">
+        <v>45025</v>
+      </c>
+      <c r="B5" s="86" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="105" t="n">
-        <v>45025</v>
-      </c>
-      <c r="B5" s="83" t="s">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="111" t="n">
+        <v>45026</v>
+      </c>
+      <c r="B6" s="86" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="105" t="n">
-        <v>45026</v>
-      </c>
-      <c r="B6" s="83" t="s">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="111" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B7" s="86" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="105" t="n">
-        <v>45047</v>
-      </c>
-      <c r="B7" s="83" t="s">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="111" t="n">
+        <v>45071</v>
+      </c>
+      <c r="B8" s="86" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="105" t="n">
-        <v>45071</v>
-      </c>
-      <c r="B8" s="83" t="s">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="111" t="n">
+        <v>45081</v>
+      </c>
+      <c r="B9" s="86" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="105" t="n">
-        <v>45081</v>
-      </c>
-      <c r="B9" s="83" t="s">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="111" t="n">
+        <v>45082</v>
+      </c>
+      <c r="B10" s="86" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="105" t="n">
-        <v>45082</v>
-      </c>
-      <c r="B10" s="83" t="s">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="111" t="n">
+        <v>45202</v>
+      </c>
+      <c r="B11" s="86" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="105" t="n">
-        <v>45202</v>
-      </c>
-      <c r="B11" s="83" t="s">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="111" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B12" s="86" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="105" t="n">
-        <v>45230</v>
-      </c>
-      <c r="B12" s="83" t="s">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="111" t="n">
+        <v>45285</v>
+      </c>
+      <c r="B13" s="86" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="105" t="n">
-        <v>45285</v>
-      </c>
-      <c r="B13" s="83" t="s">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="111" t="n">
+        <v>45286</v>
+      </c>
+      <c r="B14" s="86" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="105" t="n">
-        <v>45286</v>
-      </c>
-      <c r="B14" s="83" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Übungen/Online_Shop.Projekt.xlsx
+++ b/Übungen/Online_Shop.Projekt.xlsx
@@ -3301,7 +3301,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="10" ySplit="0" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J18" activeCellId="0" sqref="J18"/>
+      <selection pane="topRight" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
@@ -3361,14 +3361,14 @@
         <v>5</v>
       </c>
       <c r="H2" s="51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" s="52" t="n">
         <v>1</v>
       </c>
       <c r="J2" s="53" t="n">
         <f aca="false">ROUND(G2/(H2*I2),0)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L2" s="54" t="n">
         <v>0</v>
@@ -3376,97 +3376,97 @@
       <c r="M2" s="55"/>
       <c r="N2" s="56" t="n">
         <f aca="false">L2+L4</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="54" t="n">
         <f aca="false">N2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R2" s="55"/>
       <c r="S2" s="56" t="n">
         <f aca="false">Q2+Q4</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V2" s="54" t="n">
         <f aca="false">S2</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W2" s="55"/>
       <c r="X2" s="56" t="n">
         <f aca="false">V2+V4</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AF2" s="54" t="n">
         <f aca="false">MAX(X2,AC8,X14)</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AG2" s="55"/>
       <c r="AH2" s="56" t="n">
         <f aca="false">AF2+AF4</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AK2" s="54" t="n">
         <f aca="false">AH2</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AL2" s="55"/>
       <c r="AM2" s="56" t="n">
         <f aca="false">AK2+AK4</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AP2" s="54" t="n">
         <f aca="false">AM2</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AQ2" s="55"/>
       <c r="AR2" s="56" t="n">
         <f aca="false">AP2+AP4</f>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AU2" s="54" t="n">
         <f aca="false">AR2</f>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AV2" s="55"/>
       <c r="AW2" s="56" t="n">
         <f aca="false">AU2+AU4</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AZ2" s="54" t="n">
         <f aca="false">AW2</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="BA2" s="55"/>
       <c r="BB2" s="56" t="n">
         <f aca="false">AZ2+AZ4</f>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="BE2" s="54" t="n">
         <f aca="false">BB2</f>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="BF2" s="55"/>
       <c r="BG2" s="56" t="n">
         <f aca="false">BE2+BE4</f>
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="BJ2" s="54" t="n">
         <f aca="false">BG2</f>
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="BK2" s="55"/>
       <c r="BL2" s="56" t="n">
         <f aca="false">BJ2+BJ4</f>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="BO2" s="54" t="n">
         <f aca="false">MAX(BL2,AC14)</f>
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="BP2" s="55"/>
       <c r="BQ2" s="56" t="n">
         <f aca="false">BO2+BO4</f>
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="L4" s="66" t="n">
         <f aca="false">J2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M4" s="67" t="n">
         <f aca="false">N5-N2</f>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="R4" s="67" t="n">
         <f aca="false">S5-S2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S4" s="68" t="n">
         <f aca="false">MIN(V2,V8)-S2</f>
@@ -3638,20 +3638,20 @@
       </c>
       <c r="W4" s="67" t="n">
         <f aca="false">X5-X2</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X4" s="68" t="n">
         <f aca="false">AF2-X2</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE4" s="70"/>
       <c r="AF4" s="66" t="n">
         <f aca="false">J9</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG4" s="67" t="n">
         <f aca="false">AH5-AH2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH4" s="68" t="n">
         <f aca="false">AK2-AH2</f>
@@ -3659,11 +3659,11 @@
       </c>
       <c r="AK4" s="66" t="n">
         <f aca="false">J10</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="67" t="n">
         <f aca="false">AM5-AM2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM4" s="68" t="n">
         <f aca="false">AP2-AM2</f>
@@ -3671,11 +3671,11 @@
       </c>
       <c r="AP4" s="66" t="n">
         <f aca="false">J11</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ4" s="67" t="n">
         <f aca="false">AR5-AR2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR4" s="68" t="n">
         <f aca="false">AU2-AR2</f>
@@ -3683,11 +3683,11 @@
       </c>
       <c r="AU4" s="66" t="n">
         <f aca="false">J13</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV4" s="67" t="n">
         <f aca="false">AW5-AW2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW4" s="68" t="n">
         <f aca="false">AZ2-AW2</f>
@@ -3695,11 +3695,11 @@
       </c>
       <c r="AZ4" s="66" t="n">
         <f aca="false">J14</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA4" s="67" t="n">
         <f aca="false">BB5-BB2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB4" s="68" t="n">
         <f aca="false">BE2-BB2</f>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="BF4" s="67" t="n">
         <f aca="false">BG5-BG2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG4" s="68" t="n">
         <f aca="false">BJ2-BG2</f>
@@ -3719,15 +3719,15 @@
       </c>
       <c r="BJ4" s="66" t="n">
         <f aca="false">J16</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BK4" s="67" t="n">
         <f aca="false">BL5-BL2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL4" s="68" t="n">
         <f aca="false">BO2-BL2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BN4" s="64"/>
       <c r="BO4" s="66" t="n">
@@ -3775,7 +3775,7 @@
       <c r="M5" s="55"/>
       <c r="N5" s="72" t="n">
         <f aca="false">MIN(Q5,Q17)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O5" s="73"/>
       <c r="Q5" s="71" t="n">
@@ -3790,86 +3790,86 @@
       <c r="T5" s="73"/>
       <c r="V5" s="71" t="n">
         <f aca="false">X5-V4</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W5" s="55"/>
       <c r="X5" s="72" t="n">
         <f aca="false">AF5</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AD5" s="73"/>
       <c r="AF5" s="71" t="n">
         <f aca="false">AH5-AF4</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG5" s="55"/>
       <c r="AH5" s="72" t="n">
         <f aca="false">AK5</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AK5" s="71" t="n">
         <f aca="false">AM5-AK4</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AL5" s="55"/>
       <c r="AM5" s="72" t="n">
         <f aca="false">AP5</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AP5" s="71" t="n">
         <f aca="false">AR5-AP4</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AQ5" s="55"/>
       <c r="AR5" s="72" t="n">
         <f aca="false">AU5</f>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AU5" s="71" t="n">
         <f aca="false">AW5-AU4</f>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AV5" s="55"/>
       <c r="AW5" s="72" t="n">
         <f aca="false">AZ5</f>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AZ5" s="71" t="n">
         <f aca="false">BB5-AZ4</f>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="BA5" s="55"/>
       <c r="BB5" s="72" t="n">
         <f aca="false">BE5</f>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="BE5" s="71" t="n">
         <f aca="false">BG5-BE4</f>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="BF5" s="55"/>
       <c r="BG5" s="72" t="n">
         <f aca="false">BJ5</f>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="BJ5" s="71" t="n">
         <f aca="false">BL5-BJ4</f>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="BK5" s="55"/>
       <c r="BL5" s="72" t="n">
         <f aca="false">BO5</f>
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="BM5" s="73"/>
       <c r="BO5" s="71" t="n">
         <f aca="false">BQ5-BO4</f>
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="BP5" s="55"/>
       <c r="BQ5" s="72" t="n">
         <f aca="false">BQ2</f>
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3891,14 +3891,15 @@
         <v>7</v>
       </c>
       <c r="H6" s="51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="52" t="n">
-        <v>1</v>
+        <f aca="false">150%/H6</f>
+        <v>0.75</v>
       </c>
       <c r="J6" s="61" t="n">
         <f aca="false">ROUND(G6/(H6*I6),0)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O6" s="73"/>
       <c r="T6" s="73"/>
@@ -3959,34 +3960,35 @@
         <v>3</v>
       </c>
       <c r="H8" s="51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="52" t="n">
-        <v>1</v>
+        <f aca="false">150%/H8</f>
+        <v>0.75</v>
       </c>
       <c r="J8" s="61" t="n">
         <f aca="false">ROUND(G8/(H8*I8),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O8" s="73"/>
       <c r="T8" s="73"/>
       <c r="V8" s="54" t="n">
         <f aca="false">S2</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W8" s="55"/>
       <c r="X8" s="56" t="n">
         <f aca="false">V8+V10</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AA8" s="54" t="n">
         <f aca="false">X8</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AB8" s="55"/>
       <c r="AC8" s="56" t="n">
         <f aca="false">AA8+AA10</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AD8" s="73"/>
       <c r="AE8" s="73"/>
@@ -4011,14 +4013,15 @@
         <v>2</v>
       </c>
       <c r="H9" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="60" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I9" s="52" t="n">
+        <f aca="false">150%/H9</f>
+        <v>0.75</v>
       </c>
       <c r="J9" s="61" t="n">
         <f aca="false">ROUND(G9/(H9*I9),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" s="73"/>
       <c r="T9" s="73"/>
@@ -4057,14 +4060,15 @@
         <v>2</v>
       </c>
       <c r="H10" s="51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="52" t="n">
-        <v>1</v>
+        <f aca="false">150%/H10</f>
+        <v>0.75</v>
       </c>
       <c r="J10" s="61" t="n">
         <f aca="false">ROUND(G10/(H10*I10),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O10" s="73"/>
       <c r="U10" s="77"/>
@@ -4074,7 +4078,7 @@
       </c>
       <c r="W10" s="67" t="n">
         <f aca="false">X11-X8</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X10" s="68" t="n">
         <f aca="false">AA8-X8</f>
@@ -4082,11 +4086,11 @@
       </c>
       <c r="AA10" s="66" t="n">
         <f aca="false">J6</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB10" s="67" t="n">
         <f aca="false">AC11-AC8</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC10" s="68" t="n">
         <f aca="false">AF2-AC8</f>
@@ -4114,14 +4118,15 @@
         <v>2</v>
       </c>
       <c r="H11" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="60" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I11" s="52" t="n">
+        <f aca="false">150%/H11</f>
+        <v>0.75</v>
       </c>
       <c r="J11" s="61" t="n">
         <f aca="false">ROUND(G11/(H11*I11),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11" s="73"/>
       <c r="V11" s="71" t="n">
@@ -4140,7 +4145,7 @@
       <c r="AB11" s="55"/>
       <c r="AC11" s="72" t="n">
         <f aca="false">AF5</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE11" s="73"/>
       <c r="BM11" s="73"/>
@@ -4167,11 +4172,11 @@
         <v>1</v>
       </c>
       <c r="I12" s="52" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J12" s="61" t="n">
         <f aca="false">ROUND(G12/(H12*I12),0)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O12" s="73"/>
       <c r="Z12" s="65"/>
@@ -4201,14 +4206,15 @@
         <v>3</v>
       </c>
       <c r="H13" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="60" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I13" s="52" t="n">
+        <f aca="false">150%/H13</f>
+        <v>0.75</v>
       </c>
       <c r="J13" s="61" t="n">
         <f aca="false">ROUND(G13/(H13*I13),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O13" s="73"/>
       <c r="Y13" s="73"/>
@@ -4233,43 +4239,44 @@
         <v>3</v>
       </c>
       <c r="H14" s="51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="52" t="n">
-        <v>1</v>
+        <f aca="false">150%/H14</f>
+        <v>0.75</v>
       </c>
       <c r="J14" s="61" t="n">
         <f aca="false">ROUND(G14/(H14*I14),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O14" s="73"/>
       <c r="Q14" s="54" t="n">
         <f aca="false">N2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R14" s="55"/>
       <c r="S14" s="56" t="n">
         <f aca="false">Q14+Q16</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V14" s="54" t="n">
         <f aca="false">S14</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W14" s="55"/>
       <c r="X14" s="56" t="n">
         <f aca="false">V14+V16</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Y14" s="76"/>
       <c r="AA14" s="54" t="n">
         <f aca="false">X14</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AB14" s="55"/>
       <c r="AC14" s="56" t="n">
         <f aca="false">AA14+AA16</f>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BM14" s="73"/>
     </row>
@@ -4292,10 +4299,11 @@
         <v>1</v>
       </c>
       <c r="H15" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="60" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I15" s="52" t="n">
+        <f aca="false">150%/H15</f>
+        <v>0.75</v>
       </c>
       <c r="J15" s="61" t="n">
         <f aca="false">ROUND(G15/(H15*I15),0)</f>
@@ -4378,14 +4386,15 @@
         <v>5</v>
       </c>
       <c r="H16" s="51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="52" t="n">
-        <v>1</v>
+        <f aca="false">150%/H16</f>
+        <v>0.75</v>
       </c>
       <c r="J16" s="61" t="n">
         <f aca="false">ROUND(G16/(H16*I16),0)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q16" s="66" t="n">
         <f aca="false">J7</f>
@@ -4393,7 +4402,7 @@
       </c>
       <c r="R16" s="67" t="n">
         <f aca="false">S17-S14</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S16" s="68" t="n">
         <f aca="false">V14-S14</f>
@@ -4401,11 +4410,11 @@
       </c>
       <c r="V16" s="66" t="n">
         <f aca="false">J8</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W16" s="67" t="n">
         <f aca="false">X17-X14</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X16" s="68" t="n">
         <f aca="false">MIN(AA14,AF2)-X14</f>
@@ -4413,15 +4422,15 @@
       </c>
       <c r="AA16" s="66" t="n">
         <f aca="false">J12</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB16" s="67" t="n">
         <f aca="false">AC17-AC14</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="68" t="n">
         <f aca="false">BO2-AC14</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4452,30 +4461,30 @@
       </c>
       <c r="Q17" s="71" t="n">
         <f aca="false">S17-Q16</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="R17" s="55"/>
       <c r="S17" s="72" t="n">
         <f aca="false">V17</f>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="V17" s="71" t="n">
         <f aca="false">X17-V16</f>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="W17" s="55"/>
       <c r="X17" s="72" t="n">
         <f aca="false">MIN(AA17,AF5)</f>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AA17" s="71" t="n">
         <f aca="false">AC17-AA16</f>
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AB17" s="55"/>
       <c r="AC17" s="72" t="n">
         <f aca="false">BO5</f>
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4966,7 +4975,7 @@
       </c>
       <c r="H2" s="100" t="n">
         <f aca="false">Netzplan!H2</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" s="101" t="n">
         <f aca="false">Netzplan!I2</f>
@@ -4974,7 +4983,7 @@
       </c>
       <c r="J2" s="102" t="n">
         <f aca="false">Netzplan!J2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K2" s="103" t="n">
         <f aca="false">SUM(L2:BM2)</f>
@@ -5346,15 +5355,15 @@
       </c>
       <c r="H6" s="100" t="n">
         <f aca="false">Netzplan!H6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="101" t="n">
         <f aca="false">Netzplan!I6</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J6" s="102" t="n">
         <f aca="false">Netzplan!J6</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K6" s="103" t="n">
         <f aca="false">SUM(L6:BM6)</f>
@@ -5538,15 +5547,15 @@
       </c>
       <c r="H8" s="100" t="n">
         <f aca="false">Netzplan!H8</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="101" t="n">
         <f aca="false">Netzplan!I8</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J8" s="102" t="n">
         <f aca="false">Netzplan!J8</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" s="103" t="n">
         <f aca="false">SUM(L8:BM8)</f>
@@ -5705,15 +5714,15 @@
       </c>
       <c r="H10" s="100" t="n">
         <f aca="false">Netzplan!H9</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="101" t="n">
         <f aca="false">Netzplan!I9</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J10" s="102" t="n">
         <f aca="false">Netzplan!J9</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="103" t="n">
         <f aca="false">SUM(L10:BM10)</f>
@@ -5797,15 +5806,15 @@
       </c>
       <c r="H11" s="100" t="n">
         <f aca="false">Netzplan!H10</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="101" t="n">
         <f aca="false">Netzplan!I10</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J11" s="102" t="n">
         <f aca="false">Netzplan!J10</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" s="103" t="n">
         <f aca="false">SUM(L11:BM11)</f>
@@ -5889,15 +5898,15 @@
       </c>
       <c r="H12" s="100" t="n">
         <f aca="false">Netzplan!H11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="101" t="n">
         <f aca="false">Netzplan!I11</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J12" s="102" t="n">
         <f aca="false">Netzplan!J11</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" s="103" t="n">
         <f aca="false">SUM(L12:BM12)</f>
@@ -5984,11 +5993,11 @@
       </c>
       <c r="I13" s="101" t="n">
         <f aca="false">Netzplan!I12</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J13" s="102" t="n">
         <f aca="false">Netzplan!J12</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K13" s="103" t="n">
         <f aca="false">SUM(L13:BM13)</f>
@@ -6109,15 +6118,15 @@
       </c>
       <c r="H14" s="100" t="n">
         <f aca="false">Netzplan!H13</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="101" t="n">
         <f aca="false">Netzplan!I13</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J14" s="102" t="n">
         <f aca="false">Netzplan!J13</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" s="103" t="n">
         <f aca="false">SUM(L14:BM14)</f>
@@ -6202,15 +6211,15 @@
       </c>
       <c r="H15" s="100" t="n">
         <f aca="false">Netzplan!H14</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="101" t="n">
         <f aca="false">Netzplan!I14</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J15" s="102" t="n">
         <f aca="false">Netzplan!J14</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" s="103" t="n">
         <f aca="false">SUM(L15:BM15)</f>
@@ -6363,11 +6372,11 @@
       </c>
       <c r="H17" s="100" t="n">
         <f aca="false">Netzplan!H15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="101" t="n">
         <f aca="false">Netzplan!I15</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J17" s="102" t="n">
         <f aca="false">Netzplan!J15</f>
@@ -6455,15 +6464,15 @@
       </c>
       <c r="H18" s="100" t="n">
         <f aca="false">Netzplan!H16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="101" t="n">
         <f aca="false">Netzplan!I16</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J18" s="102" t="n">
         <f aca="false">Netzplan!J16</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K18" s="103" t="n">
         <f aca="false">SUM(L18:BM18)</f>
@@ -6737,7 +6746,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{F6F6CBEE-FE7F-4641-BE76-35AEFE3F8C92}">
+          <x14:cfRule type="expression" priority="3" id="{CB5FB9DB-3CD6-48AB-9474-85E565C0C179}">
             <xm:f>ISNUMBER(_xlfn.xmatch(M$1,FeiertageMV!$A$1:$A$30,0))</xm:f>
             <x14:dxf>
               <font>

--- a/Übungen/Online_Shop.Projekt.xlsx
+++ b/Übungen/Online_Shop.Projekt.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PSP" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="PSP_2" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Netzplan" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Gantt" sheetId="4" state="hidden" r:id="rId6"/>
-    <sheet name="FeiertageMV" sheetId="5" state="hidden" r:id="rId7"/>
+    <sheet name="Gantt" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Feiertage" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="144">
   <si>
     <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
@@ -270,6 +270,9 @@
     <t xml:space="preserve">1.1.2, 1.1.3</t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.2.4, 1.3.1</t>
   </si>
   <si>
@@ -321,88 +324,139 @@
     <t xml:space="preserve">Spätester</t>
   </si>
   <si>
-    <t xml:space="preserve">Dauer (D) = Aus Tabelle übernommen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vorwärtsrechnen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frühester-Anfangs-Zeitpunkt (FAZ) = größten FEZ der Vorgänger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frühester-End-Zeitpunkt (FEZ) = FAZ + D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rückwärtsrechnen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spätester-End-Zeitpunkt (SEZ) =  kleinster SAZ der Nachfolger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spätester-Anfangs-Zeitpunkt (SAZ) = SEZ – D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesamt-Puffer (GP) = SAZ – FAZ = SEZ – FEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freier Puffer = kleinster FAZ der Nachfolger – FEZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ressourcen</t>
   </si>
   <si>
-    <t xml:space="preserve">Datenbank fertig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alles fertig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Release</t>
-  </si>
-  <si>
     <t xml:space="preserve">Datum</t>
   </si>
   <si>
     <t xml:space="preserve">Feiertag</t>
   </si>
   <si>
-    <t xml:space="preserve">Neujahr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gründonnerstag</t>
+    <t xml:space="preserve">Heilige Drei Könige</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ba-Wü, Bay, Sa-An</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internationaler Frauentag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> verlängertes Wochenende</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B, MV</t>
   </si>
   <si>
     <t xml:space="preserve">Karfreitag</t>
   </si>
   <si>
-    <t xml:space="preserve">Ostersonntag</t>
+    <t xml:space="preserve"> KW 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bundesweit</t>
   </si>
   <si>
     <t xml:space="preserve">Ostermontag</t>
   </si>
   <si>
+    <t xml:space="preserve"> KW 14</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tag der Arbeit</t>
   </si>
   <si>
+    <t xml:space="preserve"> KW 18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Christi Himmelfahrt</t>
   </si>
   <si>
-    <t xml:space="preserve">Pfingstsonntag</t>
+    <t xml:space="preserve"> KW 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brückentag möglich</t>
   </si>
   <si>
     <t xml:space="preserve">Pfingstmontag</t>
   </si>
   <si>
+    <t xml:space="preserve"> KW 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fronleichnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BaWü, Bay, Hes, NRW, Rh-Pf, Sa-La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariä Himmelfahrt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bay, Sa-La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weltkindertag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thü</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tag der Deutschen Einheit</t>
   </si>
   <si>
+    <t xml:space="preserve"> KW 40</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reformationstag</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Weihnachtsfeiertag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Weihnachtsfeiertag</t>
+    <t xml:space="preserve"> KW 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB, HH, MV, Sa, Sa-An, S-H, Thü</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allerheiligen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BaWü, Bay, NRW, Rh-Pf, Sa-La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buß- und Bettag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Weihnachtstag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Weihnachtstag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -419,7 +473,7 @@
     <numFmt numFmtId="170" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="171" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -486,55 +540,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF729FCF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF8000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF443205"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF2A6099"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00A933"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFBBE33D"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Cambria Math"/>
@@ -576,7 +581,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor rgb="FFFF8000"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
     <fill>
@@ -606,19 +611,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.3999"/>
-        <bgColor rgb="FFBBE33D"/>
+        <bgColor rgb="FFAADCF7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAADCF7"/>
         <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFBBE33D"/>
       </patternFill>
     </fill>
     <fill>
@@ -630,7 +629,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor rgb="FF2A6099"/>
+        <bgColor rgb="FF666666"/>
       </patternFill>
     </fill>
     <fill>
@@ -655,6 +654,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.5"/>
         <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF55308D"/>
+        <bgColor rgb="FF203864"/>
       </patternFill>
     </fill>
   </fills>
@@ -848,7 +853,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="103">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1021,27 +1026,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1049,23 +1050,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="14" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1081,15 +1078,155 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="14" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="14" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="15" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="10" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="16" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="17" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="15" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="18" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1097,190 +1234,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="15" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="15" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="16" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="10" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="17" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="18" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="16" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1289,11 +1246,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1309,7 +1278,7 @@
     <cellStyle name="KritischerPfad" xfId="21"/>
     <cellStyle name="Wochenende" xfId="22"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="20">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -1478,19 +1447,6 @@
         <name val="Arial"/>
         <charset val="1"/>
         <family val="2"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
         <color rgb="FF548235"/>
       </font>
       <fill>
@@ -1534,17 +1490,17 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFA9D18E"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF729FCF"/>
+      <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFE8E8E8"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF2A6099"/>
+      <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFBF00"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1560,19 +1516,19 @@
       <rgbColor rgb="FFF4B183"/>
       <rgbColor rgb="FF4472C4"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FFBBE33D"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFF8000"/>
+      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFED7D31"/>
       <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF70AD47"/>
       <rgbColor rgb="FF203864"/>
-      <rgbColor rgb="FF00A933"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF443205"/>
+      <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF843C0B"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF55308D"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -1585,14 +1541,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>34560</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>48240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>102600</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:colOff>102960</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1601,7 +1557,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5208480" y="17374320"/>
+          <a:off x="7192440" y="17212320"/>
           <a:ext cx="2242440" cy="422280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1651,170 +1607,6 @@
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>61200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>174600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="Raute 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8412840" y="1680480"/>
-          <a:ext cx="113400" cy="165240"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="4472c4"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="1d3155"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>61200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>174600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Raute 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11430360" y="2819520"/>
-          <a:ext cx="113400" cy="166320"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="4472c4"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="1d3155"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>88560</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>201960</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Raute 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13972320" y="3292920"/>
-          <a:ext cx="113400" cy="166680"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="4472c4"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="1d3155"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -2000,8 +1792,8 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2574,8 +2366,8 @@
   </sheetPr>
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I34" activeCellId="0" sqref="I34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3296,24 +3088,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BQ33"/>
+  <dimension ref="A1:BQ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="0" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF3" activeCellId="0" sqref="AF3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="2" max="3" min="2" style="43" width="11.71"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="2" max="4" min="4" style="43" width="11.73"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="5" min="5" style="3" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="6" min="6" style="3" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="2" max="8" min="7" style="3" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="2" max="9" min="9" style="44" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="7" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="43" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="11" style="43" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="11" style="44" width="3.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3331,13 +3119,13 @@
       <c r="F1" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="46" t="s">
         <v>77</v>
       </c>
       <c r="J1" s="45" t="s">
@@ -3353,120 +3141,120 @@
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="50" t="n">
+      <c r="G2" s="49" t="n">
         <v>5</v>
       </c>
-      <c r="H2" s="51" t="n">
+      <c r="H2" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="I2" s="52" t="n">
+      <c r="I2" s="51" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="53" t="n">
+      <c r="J2" s="49" t="n">
         <f aca="false">ROUND(G2/(H2*I2),0)</f>
         <v>2</v>
       </c>
-      <c r="L2" s="54" t="n">
+      <c r="L2" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="56" t="n">
+      <c r="M2" s="53"/>
+      <c r="N2" s="54" t="n">
         <f aca="false">L2+L4</f>
         <v>2</v>
       </c>
-      <c r="Q2" s="54" t="n">
+      <c r="Q2" s="52" t="n">
         <f aca="false">N2</f>
         <v>2</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="56" t="n">
+      <c r="R2" s="53"/>
+      <c r="S2" s="54" t="n">
         <f aca="false">Q2+Q4</f>
         <v>3</v>
       </c>
-      <c r="V2" s="54" t="n">
+      <c r="V2" s="52" t="n">
         <f aca="false">S2</f>
         <v>3</v>
       </c>
-      <c r="W2" s="55"/>
-      <c r="X2" s="56" t="n">
+      <c r="W2" s="53"/>
+      <c r="X2" s="54" t="n">
         <f aca="false">V2+V4</f>
         <v>7</v>
       </c>
-      <c r="AF2" s="54" t="n">
+      <c r="AF2" s="52" t="n">
         <f aca="false">MAX(X2,AC8,X14)</f>
         <v>11</v>
       </c>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="56" t="n">
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="54" t="n">
         <f aca="false">AF2+AF4</f>
         <v>12</v>
       </c>
-      <c r="AK2" s="54" t="n">
+      <c r="AK2" s="52" t="n">
         <f aca="false">AH2</f>
         <v>12</v>
       </c>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="56" t="n">
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="54" t="n">
         <f aca="false">AK2+AK4</f>
         <v>13</v>
       </c>
-      <c r="AP2" s="54" t="n">
+      <c r="AP2" s="52" t="n">
         <f aca="false">AM2</f>
         <v>13</v>
       </c>
-      <c r="AQ2" s="55"/>
-      <c r="AR2" s="56" t="n">
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="54" t="n">
         <f aca="false">AP2+AP4</f>
         <v>14</v>
       </c>
-      <c r="AU2" s="54" t="n">
+      <c r="AU2" s="52" t="n">
         <f aca="false">AR2</f>
         <v>14</v>
       </c>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="56" t="n">
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="54" t="n">
         <f aca="false">AU2+AU4</f>
         <v>16</v>
       </c>
-      <c r="AZ2" s="54" t="n">
+      <c r="AZ2" s="52" t="n">
         <f aca="false">AW2</f>
         <v>16</v>
       </c>
-      <c r="BA2" s="55"/>
-      <c r="BB2" s="56" t="n">
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="54" t="n">
         <f aca="false">AZ2+AZ4</f>
         <v>18</v>
       </c>
-      <c r="BE2" s="54" t="n">
+      <c r="BE2" s="52" t="n">
         <f aca="false">BB2</f>
         <v>18</v>
       </c>
-      <c r="BF2" s="55"/>
-      <c r="BG2" s="56" t="n">
+      <c r="BF2" s="53"/>
+      <c r="BG2" s="54" t="n">
         <f aca="false">BE2+BE4</f>
         <v>19</v>
       </c>
-      <c r="BJ2" s="54" t="n">
+      <c r="BJ2" s="52" t="n">
         <f aca="false">BG2</f>
         <v>19</v>
       </c>
-      <c r="BK2" s="55"/>
-      <c r="BL2" s="56" t="n">
+      <c r="BK2" s="53"/>
+      <c r="BL2" s="54" t="n">
         <f aca="false">BJ2+BJ4</f>
         <v>22</v>
       </c>
-      <c r="BO2" s="54" t="n">
+      <c r="BO2" s="52" t="n">
         <f aca="false">MAX(BL2,AC14)</f>
-        <v>25</v>
-      </c>
-      <c r="BP2" s="55"/>
-      <c r="BQ2" s="56" t="n">
+        <v>27</v>
+      </c>
+      <c r="BP2" s="53"/>
+      <c r="BQ2" s="54" t="n">
         <f aca="false">BO2+BO4</f>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3478,105 +3266,105 @@
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="58" t="n">
+      <c r="G3" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="59" t="n">
+      <c r="H3" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="61" t="n">
+      <c r="J3" s="56" t="n">
         <f aca="false">ROUND(G3/(H3*I3),0)</f>
         <v>1</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="62" t="s">
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="62" t="s">
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="62" t="s">
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="62" t="s">
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="64"/>
-      <c r="AP3" s="62" t="s">
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="64"/>
-      <c r="AU3" s="62" t="s">
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="60"/>
+      <c r="AT3" s="61"/>
+      <c r="AU3" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="AV3" s="62"/>
-      <c r="AW3" s="62"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="64"/>
-      <c r="AZ3" s="62" t="s">
+      <c r="AV3" s="59"/>
+      <c r="AW3" s="59"/>
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="61"/>
+      <c r="AZ3" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="BA3" s="62"/>
-      <c r="BB3" s="62"/>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="64"/>
-      <c r="BE3" s="62" t="s">
+      <c r="BA3" s="59"/>
+      <c r="BB3" s="59"/>
+      <c r="BC3" s="60"/>
+      <c r="BD3" s="61"/>
+      <c r="BE3" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="BF3" s="62"/>
-      <c r="BG3" s="62"/>
-      <c r="BH3" s="63"/>
-      <c r="BI3" s="64"/>
-      <c r="BJ3" s="62" t="s">
+      <c r="BF3" s="59"/>
+      <c r="BG3" s="59"/>
+      <c r="BH3" s="60"/>
+      <c r="BI3" s="61"/>
+      <c r="BJ3" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="BK3" s="62"/>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="63"/>
-      <c r="BN3" s="64"/>
-      <c r="BO3" s="62" t="s">
+      <c r="BK3" s="59"/>
+      <c r="BL3" s="59"/>
+      <c r="BM3" s="60"/>
+      <c r="BN3" s="61"/>
+      <c r="BO3" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="BP3" s="62"/>
-      <c r="BQ3" s="62"/>
+      <c r="BP3" s="59"/>
+      <c r="BQ3" s="59"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="36" t="s">
@@ -3587,158 +3375,158 @@
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="58" t="n">
+      <c r="G4" s="56" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="51" t="n">
+      <c r="H4" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="61" t="n">
+      <c r="J4" s="56" t="n">
         <f aca="false">ROUND(G4/(H4*I4),0)</f>
         <v>4</v>
       </c>
-      <c r="L4" s="66" t="n">
+      <c r="L4" s="63" t="n">
         <f aca="false">J2</f>
         <v>2</v>
       </c>
-      <c r="M4" s="67" t="n">
+      <c r="M4" s="64" t="n">
         <f aca="false">N5-N2</f>
         <v>0</v>
       </c>
-      <c r="N4" s="68" t="n">
+      <c r="N4" s="65" t="n">
         <f aca="false">MIN(Q2,Q14)-N2</f>
         <v>0</v>
       </c>
-      <c r="O4" s="69"/>
-      <c r="Q4" s="66" t="n">
+      <c r="O4" s="66"/>
+      <c r="Q4" s="63" t="n">
         <f aca="false">J3</f>
         <v>1</v>
       </c>
-      <c r="R4" s="67" t="n">
+      <c r="R4" s="64" t="n">
         <f aca="false">S5-S2</f>
-        <v>3</v>
-      </c>
-      <c r="S4" s="68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" s="65" t="n">
         <f aca="false">MIN(V2,V8)-S2</f>
         <v>0</v>
       </c>
-      <c r="T4" s="69"/>
-      <c r="V4" s="66" t="n">
+      <c r="T4" s="66"/>
+      <c r="V4" s="63" t="n">
         <f aca="false">J4</f>
         <v>4</v>
       </c>
-      <c r="W4" s="67" t="n">
+      <c r="W4" s="64" t="n">
         <f aca="false">X5-X2</f>
-        <v>7</v>
-      </c>
-      <c r="X4" s="68" t="n">
+        <v>9</v>
+      </c>
+      <c r="X4" s="65" t="n">
         <f aca="false">AF2-X2</f>
         <v>4</v>
       </c>
-      <c r="AE4" s="70"/>
-      <c r="AF4" s="66" t="n">
+      <c r="AE4" s="67"/>
+      <c r="AF4" s="63" t="n">
         <f aca="false">J9</f>
         <v>1</v>
       </c>
-      <c r="AG4" s="67" t="n">
+      <c r="AG4" s="64" t="n">
         <f aca="false">AH5-AH2</f>
-        <v>3</v>
-      </c>
-      <c r="AH4" s="68" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="65" t="n">
         <f aca="false">AK2-AH2</f>
         <v>0</v>
       </c>
-      <c r="AK4" s="66" t="n">
+      <c r="AK4" s="63" t="n">
         <f aca="false">J10</f>
         <v>1</v>
       </c>
-      <c r="AL4" s="67" t="n">
+      <c r="AL4" s="64" t="n">
         <f aca="false">AM5-AM2</f>
-        <v>3</v>
-      </c>
-      <c r="AM4" s="68" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM4" s="65" t="n">
         <f aca="false">AP2-AM2</f>
         <v>0</v>
       </c>
-      <c r="AP4" s="66" t="n">
+      <c r="AP4" s="63" t="n">
         <f aca="false">J11</f>
         <v>1</v>
       </c>
-      <c r="AQ4" s="67" t="n">
+      <c r="AQ4" s="64" t="n">
         <f aca="false">AR5-AR2</f>
-        <v>3</v>
-      </c>
-      <c r="AR4" s="68" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR4" s="65" t="n">
         <f aca="false">AU2-AR2</f>
         <v>0</v>
       </c>
-      <c r="AU4" s="66" t="n">
+      <c r="AU4" s="63" t="n">
         <f aca="false">J13</f>
         <v>2</v>
       </c>
-      <c r="AV4" s="67" t="n">
+      <c r="AV4" s="64" t="n">
         <f aca="false">AW5-AW2</f>
-        <v>3</v>
-      </c>
-      <c r="AW4" s="68" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW4" s="65" t="n">
         <f aca="false">AZ2-AW2</f>
         <v>0</v>
       </c>
-      <c r="AZ4" s="66" t="n">
+      <c r="AZ4" s="63" t="n">
         <f aca="false">J14</f>
         <v>2</v>
       </c>
-      <c r="BA4" s="67" t="n">
+      <c r="BA4" s="64" t="n">
         <f aca="false">BB5-BB2</f>
-        <v>3</v>
-      </c>
-      <c r="BB4" s="68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB4" s="65" t="n">
         <f aca="false">BE2-BB2</f>
         <v>0</v>
       </c>
-      <c r="BE4" s="66" t="n">
+      <c r="BE4" s="63" t="n">
         <f aca="false">J15</f>
         <v>1</v>
       </c>
-      <c r="BF4" s="67" t="n">
+      <c r="BF4" s="64" t="n">
         <f aca="false">BG5-BG2</f>
-        <v>3</v>
-      </c>
-      <c r="BG4" s="68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG4" s="65" t="n">
         <f aca="false">BJ2-BG2</f>
         <v>0</v>
       </c>
-      <c r="BJ4" s="66" t="n">
+      <c r="BJ4" s="63" t="n">
         <f aca="false">J16</f>
         <v>3</v>
       </c>
-      <c r="BK4" s="67" t="n">
+      <c r="BK4" s="64" t="n">
         <f aca="false">BL5-BL2</f>
-        <v>3</v>
-      </c>
-      <c r="BL4" s="68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BL4" s="65" t="n">
         <f aca="false">BO2-BL2</f>
-        <v>3</v>
-      </c>
-      <c r="BN4" s="64"/>
-      <c r="BO4" s="66" t="n">
+        <v>5</v>
+      </c>
+      <c r="BN4" s="61"/>
+      <c r="BO4" s="63" t="n">
         <f aca="false">J17</f>
         <v>1</v>
       </c>
-      <c r="BP4" s="67" t="n">
+      <c r="BP4" s="64" t="n">
         <f aca="false">BQ5-BQ2</f>
         <v>0</v>
       </c>
-      <c r="BQ4" s="68"/>
+      <c r="BQ4" s="65"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="36" t="s">
@@ -3749,127 +3537,128 @@
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="58" t="n">
+      <c r="G5" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="61" t="n">
+      <c r="H5" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="58" t="n">
+        <f aca="false">120%/2</f>
+        <v>0.6</v>
+      </c>
+      <c r="J5" s="56" t="n">
         <f aca="false">ROUND(G5/(H5*I5),0)</f>
         <v>3</v>
       </c>
-      <c r="L5" s="71" t="n">
+      <c r="L5" s="68" t="n">
         <f aca="false">N5-L4</f>
         <v>0</v>
       </c>
-      <c r="M5" s="55"/>
-      <c r="N5" s="72" t="n">
+      <c r="M5" s="53"/>
+      <c r="N5" s="69" t="n">
         <f aca="false">MIN(Q5,Q17)</f>
         <v>2</v>
       </c>
-      <c r="O5" s="73"/>
-      <c r="Q5" s="71" t="n">
+      <c r="O5" s="70"/>
+      <c r="Q5" s="68" t="n">
         <f aca="false">S5-Q4</f>
-        <v>5</v>
-      </c>
-      <c r="R5" s="55"/>
-      <c r="S5" s="72" t="n">
+        <v>7</v>
+      </c>
+      <c r="R5" s="53"/>
+      <c r="S5" s="69" t="n">
         <f aca="false">MIN(V5,V11)</f>
-        <v>6</v>
-      </c>
-      <c r="T5" s="73"/>
-      <c r="V5" s="71" t="n">
+        <v>8</v>
+      </c>
+      <c r="T5" s="70"/>
+      <c r="V5" s="68" t="n">
         <f aca="false">X5-V4</f>
-        <v>10</v>
-      </c>
-      <c r="W5" s="55"/>
-      <c r="X5" s="72" t="n">
+        <v>12</v>
+      </c>
+      <c r="W5" s="53"/>
+      <c r="X5" s="69" t="n">
         <f aca="false">AF5</f>
-        <v>14</v>
-      </c>
-      <c r="AD5" s="73"/>
-      <c r="AF5" s="71" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD5" s="70"/>
+      <c r="AF5" s="68" t="n">
         <f aca="false">AH5-AF4</f>
-        <v>14</v>
-      </c>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="72" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="69" t="n">
         <f aca="false">AK5</f>
-        <v>15</v>
-      </c>
-      <c r="AK5" s="71" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK5" s="68" t="n">
         <f aca="false">AM5-AK4</f>
-        <v>15</v>
-      </c>
-      <c r="AL5" s="55"/>
-      <c r="AM5" s="72" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="69" t="n">
         <f aca="false">AP5</f>
-        <v>16</v>
-      </c>
-      <c r="AP5" s="71" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP5" s="68" t="n">
         <f aca="false">AR5-AP4</f>
-        <v>16</v>
-      </c>
-      <c r="AQ5" s="55"/>
-      <c r="AR5" s="72" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="69" t="n">
         <f aca="false">AU5</f>
-        <v>17</v>
-      </c>
-      <c r="AU5" s="71" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU5" s="68" t="n">
         <f aca="false">AW5-AU4</f>
-        <v>17</v>
-      </c>
-      <c r="AV5" s="55"/>
-      <c r="AW5" s="72" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="69" t="n">
         <f aca="false">AZ5</f>
-        <v>19</v>
-      </c>
-      <c r="AZ5" s="71" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ5" s="68" t="n">
         <f aca="false">BB5-AZ4</f>
-        <v>19</v>
-      </c>
-      <c r="BA5" s="55"/>
-      <c r="BB5" s="72" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="69" t="n">
         <f aca="false">BE5</f>
-        <v>21</v>
-      </c>
-      <c r="BE5" s="71" t="n">
+        <v>23</v>
+      </c>
+      <c r="BE5" s="68" t="n">
         <f aca="false">BG5-BE4</f>
-        <v>21</v>
-      </c>
-      <c r="BF5" s="55"/>
-      <c r="BG5" s="72" t="n">
+        <v>23</v>
+      </c>
+      <c r="BF5" s="53"/>
+      <c r="BG5" s="69" t="n">
         <f aca="false">BJ5</f>
-        <v>22</v>
-      </c>
-      <c r="BJ5" s="71" t="n">
+        <v>24</v>
+      </c>
+      <c r="BJ5" s="68" t="n">
         <f aca="false">BL5-BJ4</f>
-        <v>22</v>
-      </c>
-      <c r="BK5" s="55"/>
-      <c r="BL5" s="72" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK5" s="53"/>
+      <c r="BL5" s="69" t="n">
         <f aca="false">BO5</f>
-        <v>25</v>
-      </c>
-      <c r="BM5" s="73"/>
-      <c r="BO5" s="71" t="n">
+        <v>27</v>
+      </c>
+      <c r="BM5" s="70"/>
+      <c r="BO5" s="68" t="n">
         <f aca="false">BQ5-BO4</f>
-        <v>25</v>
-      </c>
-      <c r="BP5" s="55"/>
-      <c r="BQ5" s="72" t="n">
+        <v>27</v>
+      </c>
+      <c r="BP5" s="53"/>
+      <c r="BQ5" s="69" t="n">
         <f aca="false">BQ2</f>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3881,31 +3670,31 @@
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="F6" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="75" t="n">
+      <c r="G6" s="72" t="n">
         <v>7</v>
       </c>
-      <c r="H6" s="51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="52" t="n">
-        <f aca="false">150%/H6</f>
-        <v>0.75</v>
-      </c>
-      <c r="J6" s="61" t="n">
+      <c r="H6" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="58" t="n">
+        <f aca="false">100%+(100%-$I$12)</f>
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="56" t="n">
         <f aca="false">ROUND(G6/(H6*I6),0)</f>
         <v>5</v>
       </c>
-      <c r="O6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="AD6" s="73"/>
-      <c r="AE6" s="73"/>
-      <c r="BM6" s="73"/>
+      <c r="O6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="AD6" s="70"/>
+      <c r="AE6" s="70"/>
+      <c r="BM6" s="70"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="36" t="s">
@@ -3916,30 +3705,30 @@
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="58" t="n">
+      <c r="G7" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="59" t="n">
+      <c r="H7" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="61" t="n">
+      <c r="J7" s="56" t="n">
         <f aca="false">ROUND(G7/(H7*I7),0)</f>
         <v>1</v>
       </c>
-      <c r="O7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="AD7" s="73"/>
-      <c r="AE7" s="73"/>
-      <c r="BM7" s="73"/>
+      <c r="O7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="70"/>
+      <c r="BM7" s="70"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="36" t="s">
@@ -3950,49 +3739,48 @@
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="72" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="75" t="n">
-        <v>3</v>
-      </c>
-      <c r="H8" s="51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="52" t="n">
-        <f aca="false">150%/H8</f>
-        <v>0.75</v>
-      </c>
-      <c r="J8" s="61" t="n">
+      <c r="I8" s="58" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J8" s="56" t="n">
         <f aca="false">ROUND(G8/(H8*I8),0)</f>
-        <v>2</v>
-      </c>
-      <c r="O8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="V8" s="54" t="n">
+        <v>4</v>
+      </c>
+      <c r="O8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="V8" s="52" t="n">
         <f aca="false">S2</f>
         <v>3</v>
       </c>
-      <c r="W8" s="55"/>
-      <c r="X8" s="56" t="n">
+      <c r="W8" s="53"/>
+      <c r="X8" s="54" t="n">
         <f aca="false">V8+V10</f>
         <v>6</v>
       </c>
-      <c r="AA8" s="54" t="n">
+      <c r="AA8" s="52" t="n">
         <f aca="false">X8</f>
         <v>6</v>
       </c>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="56" t="n">
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="54" t="n">
         <f aca="false">AA8+AA10</f>
         <v>11</v>
       </c>
-      <c r="AD8" s="73"/>
-      <c r="AE8" s="73"/>
-      <c r="BM8" s="73"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="70"/>
+      <c r="BM8" s="70"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="36" t="s">
@@ -4003,43 +3791,43 @@
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
-      <c r="E9" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="74" t="s">
+      <c r="E9" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="75" t="n">
+      <c r="G9" s="72" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="52" t="n">
-        <f aca="false">150%/H9</f>
-        <v>0.75</v>
-      </c>
-      <c r="J9" s="61" t="n">
+      <c r="H9" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="58" t="n">
+        <f aca="false">100%+(100%-$I$12)</f>
+        <v>1.5</v>
+      </c>
+      <c r="J9" s="56" t="n">
         <f aca="false">ROUND(G9/(H9*I9),0)</f>
         <v>1</v>
       </c>
-      <c r="O9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="V9" s="62" t="s">
+      <c r="O9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="V9" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="62" t="s">
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="73"/>
-      <c r="BM9" s="73"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="70"/>
+      <c r="BM9" s="70"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="36" t="s">
@@ -4050,54 +3838,54 @@
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="74" t="s">
+      <c r="F10" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="75" t="n">
+      <c r="G10" s="72" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="52" t="n">
-        <f aca="false">150%/H10</f>
-        <v>0.75</v>
-      </c>
-      <c r="J10" s="61" t="n">
+      <c r="H10" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="58" t="n">
+        <f aca="false">100%+(100%-$I$12)</f>
+        <v>1.5</v>
+      </c>
+      <c r="J10" s="56" t="n">
         <f aca="false">ROUND(G10/(H10*I10),0)</f>
         <v>1</v>
       </c>
-      <c r="O10" s="73"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="66" t="n">
+      <c r="O10" s="70"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="63" t="n">
         <f aca="false">J5</f>
         <v>3</v>
       </c>
-      <c r="W10" s="67" t="n">
+      <c r="W10" s="64" t="n">
         <f aca="false">X11-X8</f>
-        <v>3</v>
-      </c>
-      <c r="X10" s="68" t="n">
+        <v>5</v>
+      </c>
+      <c r="X10" s="65" t="n">
         <f aca="false">AA8-X8</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="66" t="n">
+      <c r="AA10" s="63" t="n">
         <f aca="false">J6</f>
         <v>5</v>
       </c>
-      <c r="AB10" s="67" t="n">
+      <c r="AB10" s="64" t="n">
         <f aca="false">AC11-AC8</f>
-        <v>3</v>
-      </c>
-      <c r="AC10" s="68" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="65" t="n">
         <f aca="false">AF2-AC8</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="73"/>
-      <c r="BM10" s="73"/>
+      <c r="AE10" s="70"/>
+      <c r="BM10" s="70"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="36" t="s">
@@ -4108,84 +3896,84 @@
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="75" t="n">
+      <c r="G11" s="72" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" s="52" t="n">
-        <f aca="false">150%/H11</f>
-        <v>0.75</v>
-      </c>
-      <c r="J11" s="61" t="n">
+      <c r="H11" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="58" t="n">
+        <f aca="false">100%+(100%-$I$12)</f>
+        <v>1.5</v>
+      </c>
+      <c r="J11" s="56" t="n">
         <f aca="false">ROUND(G11/(H11*I11),0)</f>
         <v>1</v>
       </c>
-      <c r="O11" s="73"/>
-      <c r="V11" s="71" t="n">
+      <c r="O11" s="70"/>
+      <c r="V11" s="68" t="n">
         <f aca="false">X11-V10</f>
-        <v>6</v>
-      </c>
-      <c r="W11" s="55"/>
-      <c r="X11" s="72" t="n">
+        <v>8</v>
+      </c>
+      <c r="W11" s="53"/>
+      <c r="X11" s="69" t="n">
         <f aca="false">AA11</f>
-        <v>9</v>
-      </c>
-      <c r="AA11" s="71" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA11" s="68" t="n">
         <f aca="false">AC11-AA10</f>
-        <v>9</v>
-      </c>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="72" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="69" t="n">
         <f aca="false">AF5</f>
-        <v>14</v>
-      </c>
-      <c r="AE11" s="73"/>
-      <c r="BM11" s="73"/>
+        <v>16</v>
+      </c>
+      <c r="AE11" s="70"/>
+      <c r="BM11" s="70"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="36" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="74" t="s">
+      <c r="E12" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="74" t="s">
+      <c r="F12" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="75" t="n">
+      <c r="G12" s="72" t="n">
         <v>10</v>
       </c>
-      <c r="H12" s="51" t="n">
+      <c r="H12" s="57" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="52" t="n">
+      <c r="I12" s="58" t="n">
         <v>0.5</v>
       </c>
-      <c r="J12" s="61" t="n">
+      <c r="J12" s="56" t="n">
         <f aca="false">ROUND(G12/(H12*I12),0)</f>
         <v>20</v>
       </c>
-      <c r="O12" s="73"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="78"/>
-      <c r="BM12" s="73"/>
+      <c r="O12" s="70"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="62"/>
+      <c r="AD12" s="62"/>
+      <c r="AE12" s="75"/>
+      <c r="BM12" s="70"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="36" t="s">
@@ -4196,29 +3984,29 @@
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="74" t="s">
+      <c r="F13" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="75" t="n">
+      <c r="G13" s="72" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" s="52" t="n">
-        <f aca="false">150%/H13</f>
-        <v>0.75</v>
-      </c>
-      <c r="J13" s="61" t="n">
+      <c r="H13" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="58" t="n">
+        <f aca="false">100%+(100%-$I$12)</f>
+        <v>1.5</v>
+      </c>
+      <c r="J13" s="56" t="n">
         <f aca="false">ROUND(G13/(H13*I13),0)</f>
         <v>2</v>
       </c>
-      <c r="O13" s="73"/>
-      <c r="Y13" s="73"/>
-      <c r="BM13" s="73"/>
+      <c r="O13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="BM13" s="70"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="36" t="s">
@@ -4229,56 +4017,56 @@
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="74" t="s">
+      <c r="E14" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="74" t="s">
+      <c r="F14" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="75" t="n">
+      <c r="G14" s="72" t="n">
         <v>3</v>
       </c>
-      <c r="H14" s="51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" s="52" t="n">
-        <f aca="false">150%/H14</f>
-        <v>0.75</v>
-      </c>
-      <c r="J14" s="61" t="n">
+      <c r="H14" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="58" t="n">
+        <f aca="false">100%+(100%-$I$12)</f>
+        <v>1.5</v>
+      </c>
+      <c r="J14" s="56" t="n">
         <f aca="false">ROUND(G14/(H14*I14),0)</f>
         <v>2</v>
       </c>
-      <c r="O14" s="73"/>
-      <c r="Q14" s="54" t="n">
+      <c r="O14" s="70"/>
+      <c r="Q14" s="52" t="n">
         <f aca="false">N2</f>
         <v>2</v>
       </c>
-      <c r="R14" s="55"/>
-      <c r="S14" s="56" t="n">
+      <c r="R14" s="53"/>
+      <c r="S14" s="54" t="n">
         <f aca="false">Q14+Q16</f>
         <v>3</v>
       </c>
-      <c r="V14" s="54" t="n">
+      <c r="V14" s="52" t="n">
         <f aca="false">S14</f>
         <v>3</v>
       </c>
-      <c r="W14" s="55"/>
-      <c r="X14" s="56" t="n">
+      <c r="W14" s="53"/>
+      <c r="X14" s="54" t="n">
         <f aca="false">V14+V16</f>
-        <v>5</v>
-      </c>
-      <c r="Y14" s="76"/>
-      <c r="AA14" s="54" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y14" s="73"/>
+      <c r="AA14" s="52" t="n">
         <f aca="false">X14</f>
-        <v>5</v>
-      </c>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="56" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="54" t="n">
         <f aca="false">AA14+AA16</f>
-        <v>25</v>
-      </c>
-      <c r="BM14" s="73"/>
+        <v>27</v>
+      </c>
+      <c r="BM14" s="70"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="36" t="s">
@@ -4289,83 +4077,83 @@
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="74" t="s">
+      <c r="E15" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="74" t="s">
+      <c r="F15" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="75" t="n">
+      <c r="G15" s="72" t="n">
         <v>1</v>
       </c>
-      <c r="H15" s="59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" s="52" t="n">
-        <f aca="false">150%/H15</f>
-        <v>0.75</v>
-      </c>
-      <c r="J15" s="61" t="n">
+      <c r="H15" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="58" t="n">
+        <f aca="false">100%+(100%-$I$12)</f>
+        <v>1.5</v>
+      </c>
+      <c r="J15" s="56" t="n">
         <f aca="false">ROUND(G15/(H15*I15),0)</f>
         <v>1</v>
       </c>
-      <c r="O15" s="73"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="62" t="s">
+      <c r="O15" s="70"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="62" t="s">
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="64"/>
-      <c r="AA15" s="62" t="s">
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
-      <c r="AD15" s="63"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="65"/>
-      <c r="AI15" s="65"/>
-      <c r="AJ15" s="65"/>
-      <c r="AK15" s="65"/>
-      <c r="AL15" s="65"/>
-      <c r="AM15" s="65"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="65"/>
-      <c r="AQ15" s="65"/>
-      <c r="AR15" s="65"/>
-      <c r="AS15" s="65"/>
-      <c r="AT15" s="65"/>
-      <c r="AU15" s="65"/>
-      <c r="AV15" s="65"/>
-      <c r="AW15" s="65"/>
-      <c r="AX15" s="65"/>
-      <c r="AY15" s="65"/>
-      <c r="AZ15" s="65"/>
-      <c r="BA15" s="65"/>
-      <c r="BB15" s="65"/>
-      <c r="BC15" s="65"/>
-      <c r="BD15" s="65"/>
-      <c r="BE15" s="65"/>
-      <c r="BF15" s="65"/>
-      <c r="BG15" s="65"/>
-      <c r="BH15" s="65"/>
-      <c r="BI15" s="65"/>
-      <c r="BJ15" s="65"/>
-      <c r="BK15" s="65"/>
-      <c r="BL15" s="65"/>
-      <c r="BM15" s="78"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="60"/>
+      <c r="AE15" s="62"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="62"/>
+      <c r="AJ15" s="62"/>
+      <c r="AK15" s="62"/>
+      <c r="AL15" s="62"/>
+      <c r="AM15" s="62"/>
+      <c r="AN15" s="62"/>
+      <c r="AO15" s="62"/>
+      <c r="AP15" s="62"/>
+      <c r="AQ15" s="62"/>
+      <c r="AR15" s="62"/>
+      <c r="AS15" s="62"/>
+      <c r="AT15" s="62"/>
+      <c r="AU15" s="62"/>
+      <c r="AV15" s="62"/>
+      <c r="AW15" s="62"/>
+      <c r="AX15" s="62"/>
+      <c r="AY15" s="62"/>
+      <c r="AZ15" s="62"/>
+      <c r="BA15" s="62"/>
+      <c r="BB15" s="62"/>
+      <c r="BC15" s="62"/>
+      <c r="BD15" s="62"/>
+      <c r="BE15" s="62"/>
+      <c r="BF15" s="62"/>
+      <c r="BG15" s="62"/>
+      <c r="BH15" s="62"/>
+      <c r="BI15" s="62"/>
+      <c r="BJ15" s="62"/>
+      <c r="BK15" s="62"/>
+      <c r="BL15" s="62"/>
+      <c r="BM15" s="75"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="36" t="s">
@@ -4376,59 +4164,59 @@
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="75" t="n">
+      <c r="G16" s="72" t="n">
         <v>5</v>
       </c>
-      <c r="H16" s="51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" s="52" t="n">
-        <f aca="false">150%/H16</f>
-        <v>0.75</v>
-      </c>
-      <c r="J16" s="61" t="n">
+      <c r="H16" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="58" t="n">
+        <f aca="false">100%+(100%-$I$12)</f>
+        <v>1.5</v>
+      </c>
+      <c r="J16" s="56" t="n">
         <f aca="false">ROUND(G16/(H16*I16),0)</f>
         <v>3</v>
       </c>
-      <c r="Q16" s="66" t="n">
+      <c r="Q16" s="63" t="n">
         <f aca="false">J7</f>
         <v>1</v>
       </c>
-      <c r="R16" s="67" t="n">
+      <c r="R16" s="64" t="n">
         <f aca="false">S17-S14</f>
         <v>0</v>
       </c>
-      <c r="S16" s="68" t="n">
+      <c r="S16" s="65" t="n">
         <f aca="false">V14-S14</f>
         <v>0</v>
       </c>
-      <c r="V16" s="66" t="n">
+      <c r="V16" s="63" t="n">
         <f aca="false">J8</f>
-        <v>2</v>
-      </c>
-      <c r="W16" s="67" t="n">
+        <v>4</v>
+      </c>
+      <c r="W16" s="64" t="n">
         <f aca="false">X17-X14</f>
         <v>0</v>
       </c>
-      <c r="X16" s="68" t="n">
+      <c r="X16" s="65" t="n">
         <f aca="false">MIN(AA14,AF2)-X14</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="66" t="n">
+      <c r="AA16" s="63" t="n">
         <f aca="false">J12</f>
         <v>20</v>
       </c>
-      <c r="AB16" s="67" t="n">
+      <c r="AB16" s="64" t="n">
         <f aca="false">AC17-AC14</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="68" t="n">
+      <c r="AC16" s="65" t="n">
         <f aca="false">BO2-AC14</f>
         <v>0</v>
       </c>
@@ -4442,168 +4230,111 @@
       </c>
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
-      <c r="E17" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="81"/>
-      <c r="G17" s="82" t="n">
+      <c r="E17" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="78"/>
+      <c r="G17" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="H17" s="59" t="n">
+      <c r="H17" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="I17" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="83" t="n">
+      <c r="J17" s="79" t="n">
         <f aca="false">ROUND(G17/(H17*I17),0)</f>
         <v>1</v>
       </c>
-      <c r="Q17" s="71" t="n">
+      <c r="Q17" s="68" t="n">
         <f aca="false">S17-Q16</f>
         <v>2</v>
       </c>
-      <c r="R17" s="55"/>
-      <c r="S17" s="72" t="n">
+      <c r="R17" s="53"/>
+      <c r="S17" s="69" t="n">
         <f aca="false">V17</f>
         <v>3</v>
       </c>
-      <c r="V17" s="71" t="n">
+      <c r="V17" s="68" t="n">
         <f aca="false">X17-V16</f>
         <v>3</v>
       </c>
-      <c r="W17" s="55"/>
-      <c r="X17" s="72" t="n">
+      <c r="W17" s="53"/>
+      <c r="X17" s="69" t="n">
         <f aca="false">MIN(AA17,AF5)</f>
-        <v>5</v>
-      </c>
-      <c r="AA17" s="71" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA17" s="68" t="n">
         <f aca="false">AC17-AA16</f>
-        <v>5</v>
-      </c>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="72" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="69" t="n">
         <f aca="false">BO5</f>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="86" t="s">
+      <c r="A19" s="82" t="s">
         <v>86</v>
       </c>
+      <c r="C19" s="83" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="56" t="s">
+      <c r="A20" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="86" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="54" t="s">
         <v>89</v>
       </c>
+      <c r="D20" s="83" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
+      <c r="A21" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="87" t="s">
+      <c r="A22" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="B22" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="86" t="s">
+      <c r="C22" s="65" t="s">
         <v>94</v>
       </c>
+      <c r="D22" s="83" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="72" t="s">
+      <c r="A23" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="86" t="s">
+      <c r="B23" s="53"/>
+      <c r="C23" s="69" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="88" t="s">
+      <c r="D23" s="83" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="90" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="91" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="89" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="43"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="93" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="94" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="95" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-    </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="35">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -4639,8 +4370,6 @@
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A29:E29"/>
   </mergeCells>
   <conditionalFormatting sqref="BP4">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -4743,23 +4472,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BN20"/>
+  <dimension ref="A1:BN1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="0" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="11" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AI19" activeCellId="0" sqref="AI19"/>
+      <selection pane="topRight" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="5" min="5" style="43" width="16.14"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="1" max="6" min="6" style="43" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="2" max="9" min="7" style="43" width="11.57"/>
-    <col collapsed="true" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="43" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="11" min="11" style="43" width="3.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="12" style="43" width="3.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="43" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="5" min="5" style="44" width="16.14"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="1" max="6" min="6" style="44" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="2" max="9" min="7" style="44" width="11.57"/>
+    <col collapsed="true" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="44" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="11" min="11" style="44" width="3.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="12" style="44" width="3.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="44" width="18.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4777,183 +4506,183 @@
       <c r="F1" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="97"/>
-      <c r="L1" s="99" t="n">
-        <v>45208</v>
-      </c>
-      <c r="M1" s="99" t="n">
-        <v>45209</v>
-      </c>
-      <c r="N1" s="99" t="n">
-        <v>45210</v>
-      </c>
-      <c r="O1" s="99" t="n">
-        <v>45211</v>
-      </c>
-      <c r="P1" s="99" t="n">
-        <v>45212</v>
-      </c>
-      <c r="Q1" s="99" t="n">
-        <v>45213</v>
-      </c>
-      <c r="R1" s="99" t="n">
-        <v>45214</v>
-      </c>
-      <c r="S1" s="99" t="n">
-        <v>45215</v>
-      </c>
-      <c r="T1" s="99" t="n">
-        <v>45216</v>
-      </c>
-      <c r="U1" s="99" t="n">
-        <v>45217</v>
-      </c>
-      <c r="V1" s="99" t="n">
-        <v>45218</v>
-      </c>
-      <c r="W1" s="99" t="n">
-        <v>45219</v>
-      </c>
-      <c r="X1" s="99" t="n">
-        <v>45220</v>
-      </c>
-      <c r="Y1" s="99" t="n">
-        <v>45221</v>
-      </c>
-      <c r="Z1" s="99" t="n">
-        <v>45222</v>
-      </c>
-      <c r="AA1" s="99" t="n">
-        <v>45223</v>
-      </c>
-      <c r="AB1" s="99" t="n">
-        <v>45224</v>
-      </c>
-      <c r="AC1" s="99" t="n">
-        <v>45225</v>
-      </c>
-      <c r="AD1" s="99" t="n">
-        <v>45226</v>
-      </c>
-      <c r="AE1" s="99" t="n">
-        <v>45227</v>
-      </c>
-      <c r="AF1" s="99" t="n">
-        <v>45228</v>
-      </c>
-      <c r="AG1" s="99" t="n">
-        <v>45229</v>
-      </c>
-      <c r="AH1" s="99" t="n">
-        <v>45230</v>
-      </c>
-      <c r="AI1" s="99" t="n">
-        <v>45231</v>
-      </c>
-      <c r="AJ1" s="99" t="n">
-        <v>45232</v>
-      </c>
-      <c r="AK1" s="99" t="n">
-        <v>45233</v>
-      </c>
-      <c r="AL1" s="99" t="n">
-        <v>45234</v>
-      </c>
-      <c r="AM1" s="99" t="n">
-        <v>45235</v>
-      </c>
-      <c r="AN1" s="99" t="n">
-        <v>45236</v>
-      </c>
-      <c r="AO1" s="99" t="n">
-        <v>45237</v>
-      </c>
-      <c r="AP1" s="99" t="n">
-        <v>45238</v>
-      </c>
-      <c r="AQ1" s="99" t="n">
-        <v>45239</v>
-      </c>
-      <c r="AR1" s="99" t="n">
-        <v>45240</v>
-      </c>
-      <c r="AS1" s="99" t="n">
-        <v>45241</v>
-      </c>
-      <c r="AT1" s="99" t="n">
-        <v>45242</v>
-      </c>
-      <c r="AU1" s="99" t="n">
-        <v>45243</v>
-      </c>
-      <c r="AV1" s="99" t="n">
-        <v>45244</v>
-      </c>
-      <c r="AW1" s="99" t="n">
-        <v>45245</v>
-      </c>
-      <c r="AX1" s="99" t="n">
-        <v>45246</v>
-      </c>
-      <c r="AY1" s="99" t="n">
-        <v>45247</v>
-      </c>
-      <c r="AZ1" s="99" t="n">
-        <v>45248</v>
-      </c>
-      <c r="BA1" s="99" t="n">
-        <v>45249</v>
-      </c>
-      <c r="BB1" s="99" t="n">
-        <v>45250</v>
-      </c>
-      <c r="BC1" s="99" t="n">
-        <v>45251</v>
-      </c>
-      <c r="BD1" s="99" t="n">
-        <v>45252</v>
-      </c>
-      <c r="BE1" s="99" t="n">
-        <v>45253</v>
-      </c>
-      <c r="BF1" s="99" t="n">
-        <v>45254</v>
-      </c>
-      <c r="BG1" s="99" t="n">
-        <v>45255</v>
-      </c>
-      <c r="BH1" s="99" t="n">
-        <v>45256</v>
-      </c>
-      <c r="BI1" s="99" t="n">
-        <v>45257</v>
-      </c>
-      <c r="BJ1" s="99" t="n">
-        <v>45258</v>
-      </c>
-      <c r="BK1" s="99" t="n">
-        <v>45259</v>
-      </c>
-      <c r="BL1" s="99" t="n">
-        <v>45260</v>
-      </c>
-      <c r="BM1" s="99" t="n">
-        <v>45261</v>
-      </c>
-      <c r="BN1" s="86" t="s">
-        <v>107</v>
+      <c r="K1" s="85"/>
+      <c r="L1" s="87" t="n">
+        <v>45397</v>
+      </c>
+      <c r="M1" s="87" t="n">
+        <v>45398</v>
+      </c>
+      <c r="N1" s="87" t="n">
+        <v>45399</v>
+      </c>
+      <c r="O1" s="87" t="n">
+        <v>45400</v>
+      </c>
+      <c r="P1" s="87" t="n">
+        <v>45401</v>
+      </c>
+      <c r="Q1" s="87" t="n">
+        <v>45402</v>
+      </c>
+      <c r="R1" s="87" t="n">
+        <v>45403</v>
+      </c>
+      <c r="S1" s="87" t="n">
+        <v>45404</v>
+      </c>
+      <c r="T1" s="87" t="n">
+        <v>45405</v>
+      </c>
+      <c r="U1" s="87" t="n">
+        <v>45406</v>
+      </c>
+      <c r="V1" s="87" t="n">
+        <v>45407</v>
+      </c>
+      <c r="W1" s="87" t="n">
+        <v>45408</v>
+      </c>
+      <c r="X1" s="87" t="n">
+        <v>45409</v>
+      </c>
+      <c r="Y1" s="87" t="n">
+        <v>45410</v>
+      </c>
+      <c r="Z1" s="87" t="n">
+        <v>45411</v>
+      </c>
+      <c r="AA1" s="87" t="n">
+        <v>45412</v>
+      </c>
+      <c r="AB1" s="88" t="n">
+        <v>45413</v>
+      </c>
+      <c r="AC1" s="87" t="n">
+        <v>45414</v>
+      </c>
+      <c r="AD1" s="87" t="n">
+        <v>45415</v>
+      </c>
+      <c r="AE1" s="87" t="n">
+        <v>45416</v>
+      </c>
+      <c r="AF1" s="87" t="n">
+        <v>45417</v>
+      </c>
+      <c r="AG1" s="87" t="n">
+        <v>45418</v>
+      </c>
+      <c r="AH1" s="87" t="n">
+        <v>45419</v>
+      </c>
+      <c r="AI1" s="87" t="n">
+        <v>45420</v>
+      </c>
+      <c r="AJ1" s="88" t="n">
+        <v>45421</v>
+      </c>
+      <c r="AK1" s="87" t="n">
+        <v>45422</v>
+      </c>
+      <c r="AL1" s="87" t="n">
+        <v>45423</v>
+      </c>
+      <c r="AM1" s="87" t="n">
+        <v>45424</v>
+      </c>
+      <c r="AN1" s="87" t="n">
+        <v>45425</v>
+      </c>
+      <c r="AO1" s="87" t="n">
+        <v>45426</v>
+      </c>
+      <c r="AP1" s="87" t="n">
+        <v>45427</v>
+      </c>
+      <c r="AQ1" s="87" t="n">
+        <v>45428</v>
+      </c>
+      <c r="AR1" s="87" t="n">
+        <v>45429</v>
+      </c>
+      <c r="AS1" s="87" t="n">
+        <v>45430</v>
+      </c>
+      <c r="AT1" s="87" t="n">
+        <v>45431</v>
+      </c>
+      <c r="AU1" s="87" t="n">
+        <v>45432</v>
+      </c>
+      <c r="AV1" s="87" t="n">
+        <v>45433</v>
+      </c>
+      <c r="AW1" s="87" t="n">
+        <v>45434</v>
+      </c>
+      <c r="AX1" s="87" t="n">
+        <v>45435</v>
+      </c>
+      <c r="AY1" s="87" t="n">
+        <v>45436</v>
+      </c>
+      <c r="AZ1" s="87" t="n">
+        <v>45437</v>
+      </c>
+      <c r="BA1" s="87" t="n">
+        <v>45438</v>
+      </c>
+      <c r="BB1" s="87" t="n">
+        <v>45439</v>
+      </c>
+      <c r="BC1" s="87" t="n">
+        <v>45440</v>
+      </c>
+      <c r="BD1" s="87" t="n">
+        <v>45441</v>
+      </c>
+      <c r="BE1" s="88" t="n">
+        <v>45442</v>
+      </c>
+      <c r="BF1" s="87" t="n">
+        <v>45443</v>
+      </c>
+      <c r="BG1" s="87" t="n">
+        <v>45444</v>
+      </c>
+      <c r="BH1" s="87" t="n">
+        <v>45445</v>
+      </c>
+      <c r="BI1" s="87" t="n">
+        <v>45446</v>
+      </c>
+      <c r="BJ1" s="87" t="n">
+        <v>45447</v>
+      </c>
+      <c r="BK1" s="87" t="n">
+        <v>45448</v>
+      </c>
+      <c r="BL1" s="87" t="n">
+        <v>45449</v>
+      </c>
+      <c r="BM1" s="87" t="n">
+        <v>45450</v>
+      </c>
+      <c r="BN1" s="83" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4965,39 +4694,35 @@
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="61" t="n">
+      <c r="G2" s="56" t="n">
         <f aca="false">Netzplan!G2</f>
         <v>5</v>
       </c>
-      <c r="H2" s="100" t="n">
+      <c r="H2" s="57" t="n">
         <f aca="false">Netzplan!H2</f>
         <v>3</v>
       </c>
-      <c r="I2" s="101" t="n">
+      <c r="I2" s="58" t="n">
         <f aca="false">Netzplan!I2</f>
         <v>1</v>
       </c>
-      <c r="J2" s="102" t="n">
+      <c r="J2" s="89" t="n">
         <f aca="false">Netzplan!J2</f>
         <v>2</v>
       </c>
-      <c r="K2" s="103" t="n">
+      <c r="K2" s="90" t="n">
         <f aca="false">SUM(L2:BM2)</f>
-        <v>2</v>
-      </c>
-      <c r="L2" s="104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="38"/>
       <c r="S2" s="38"/>
@@ -5009,7 +4734,7 @@
       <c r="Y2" s="38"/>
       <c r="Z2" s="38"/>
       <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
+      <c r="AB2" s="91"/>
       <c r="AC2" s="38"/>
       <c r="AD2" s="38"/>
       <c r="AE2" s="38"/>
@@ -5017,7 +4742,7 @@
       <c r="AG2" s="38"/>
       <c r="AH2" s="38"/>
       <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
+      <c r="AJ2" s="91"/>
       <c r="AK2" s="38"/>
       <c r="AL2" s="38"/>
       <c r="AM2" s="38"/>
@@ -5032,20 +4757,20 @@
       <c r="AV2" s="38"/>
       <c r="AW2" s="38"/>
       <c r="AX2" s="38"/>
-      <c r="AY2" s="105"/>
+      <c r="AY2" s="92"/>
       <c r="AZ2" s="38"/>
       <c r="BA2" s="38"/>
       <c r="BB2" s="38"/>
       <c r="BC2" s="38"/>
       <c r="BD2" s="38"/>
-      <c r="BE2" s="38"/>
-      <c r="BF2" s="105"/>
+      <c r="BE2" s="91"/>
+      <c r="BF2" s="92"/>
       <c r="BG2" s="38"/>
       <c r="BH2" s="38"/>
       <c r="BI2" s="38"/>
       <c r="BJ2" s="38"/>
       <c r="BK2" s="38"/>
-      <c r="BL2" s="105"/>
+      <c r="BL2" s="92"/>
       <c r="BM2" s="38"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5057,42 +4782,40 @@
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="61" t="n">
+      <c r="G3" s="56" t="n">
         <f aca="false">Netzplan!G3</f>
         <v>1</v>
       </c>
-      <c r="H3" s="100" t="n">
+      <c r="H3" s="57" t="n">
         <f aca="false">Netzplan!H3</f>
-        <v>1</v>
-      </c>
-      <c r="I3" s="101" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="58" t="n">
         <f aca="false">Netzplan!I3</f>
         <v>1</v>
       </c>
-      <c r="J3" s="102" t="n">
+      <c r="J3" s="89" t="n">
         <f aca="false">Netzplan!J3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="103" t="n">
+      <c r="K3" s="90" t="n">
         <f aca="false">SUM(L3:BM3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
-      <c r="N3" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="N3" s="38"/>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="38"/>
-      <c r="S3" s="104"/>
+      <c r="S3" s="56"/>
       <c r="T3" s="38"/>
       <c r="U3" s="38"/>
       <c r="V3" s="38"/>
@@ -5101,7 +4824,7 @@
       <c r="Y3" s="38"/>
       <c r="Z3" s="38"/>
       <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
+      <c r="AB3" s="91"/>
       <c r="AC3" s="38"/>
       <c r="AD3" s="38"/>
       <c r="AE3" s="38"/>
@@ -5109,7 +4832,7 @@
       <c r="AG3" s="38"/>
       <c r="AH3" s="38"/>
       <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
+      <c r="AJ3" s="91"/>
       <c r="AK3" s="38"/>
       <c r="AL3" s="38"/>
       <c r="AM3" s="38"/>
@@ -5124,20 +4847,20 @@
       <c r="AV3" s="38"/>
       <c r="AW3" s="38"/>
       <c r="AX3" s="38"/>
-      <c r="AY3" s="105"/>
+      <c r="AY3" s="92"/>
       <c r="AZ3" s="38"/>
       <c r="BA3" s="38"/>
       <c r="BB3" s="38"/>
       <c r="BC3" s="38"/>
       <c r="BD3" s="38"/>
-      <c r="BE3" s="38"/>
-      <c r="BF3" s="105"/>
+      <c r="BE3" s="91"/>
+      <c r="BF3" s="92"/>
       <c r="BG3" s="38"/>
       <c r="BH3" s="38"/>
       <c r="BI3" s="38"/>
       <c r="BJ3" s="38"/>
       <c r="BK3" s="38"/>
-      <c r="BL3" s="105"/>
+      <c r="BL3" s="92"/>
       <c r="BM3" s="38"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5149,57 +4872,49 @@
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="61" t="n">
+      <c r="G4" s="56" t="n">
         <f aca="false">Netzplan!G4</f>
         <v>4</v>
       </c>
-      <c r="H4" s="100" t="n">
+      <c r="H4" s="56" t="str">
         <f aca="false">Netzplan!H4</f>
         <v>1</v>
       </c>
-      <c r="I4" s="101" t="n">
+      <c r="I4" s="58" t="n">
         <f aca="false">Netzplan!I4</f>
         <v>1</v>
       </c>
-      <c r="J4" s="102" t="n">
+      <c r="J4" s="89" t="n">
         <f aca="false">Netzplan!J4</f>
         <v>4</v>
       </c>
-      <c r="K4" s="103" t="n">
+      <c r="K4" s="90" t="n">
         <f aca="false">SUM(L4:BM4)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
-      <c r="O4" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="O4" s="38"/>
       <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
-      <c r="R4" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="104" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
       <c r="X4" s="38"/>
       <c r="Y4" s="38"/>
       <c r="Z4" s="38"/>
       <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
+      <c r="AB4" s="91"/>
       <c r="AC4" s="38"/>
       <c r="AD4" s="38"/>
       <c r="AE4" s="38"/>
@@ -5207,7 +4922,7 @@
       <c r="AG4" s="38"/>
       <c r="AH4" s="38"/>
       <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
+      <c r="AJ4" s="91"/>
       <c r="AK4" s="38"/>
       <c r="AL4" s="38"/>
       <c r="AM4" s="38"/>
@@ -5222,20 +4937,20 @@
       <c r="AV4" s="38"/>
       <c r="AW4" s="38"/>
       <c r="AX4" s="38"/>
-      <c r="AY4" s="105"/>
+      <c r="AY4" s="92"/>
       <c r="AZ4" s="38"/>
       <c r="BA4" s="38"/>
       <c r="BB4" s="38"/>
       <c r="BC4" s="38"/>
       <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="105"/>
+      <c r="BE4" s="91"/>
+      <c r="BF4" s="92"/>
       <c r="BG4" s="38"/>
       <c r="BH4" s="38"/>
       <c r="BI4" s="38"/>
       <c r="BJ4" s="38"/>
       <c r="BK4" s="38"/>
-      <c r="BL4" s="105"/>
+      <c r="BL4" s="92"/>
       <c r="BM4" s="38"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5247,55 +4962,49 @@
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="61" t="n">
+      <c r="G5" s="56" t="n">
         <f aca="false">Netzplan!G5</f>
         <v>3</v>
       </c>
-      <c r="H5" s="100" t="n">
+      <c r="H5" s="57" t="n">
         <f aca="false">Netzplan!H5</f>
-        <v>1</v>
-      </c>
-      <c r="I5" s="101" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="58" t="n">
         <f aca="false">Netzplan!I5</f>
-        <v>1</v>
-      </c>
-      <c r="J5" s="102" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J5" s="89" t="n">
         <f aca="false">Netzplan!J5</f>
         <v>3</v>
       </c>
-      <c r="K5" s="103" t="n">
+      <c r="K5" s="90" t="n">
         <f aca="false">SUM(L5:BM5)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
-      <c r="O5" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="O5" s="38"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
-      <c r="R5" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="104"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
       <c r="W5" s="38"/>
       <c r="X5" s="38"/>
       <c r="Y5" s="38"/>
       <c r="Z5" s="38"/>
       <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
+      <c r="AB5" s="91"/>
       <c r="AC5" s="38"/>
       <c r="AD5" s="38"/>
       <c r="AE5" s="38"/>
@@ -5303,7 +5012,7 @@
       <c r="AG5" s="38"/>
       <c r="AH5" s="38"/>
       <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
+      <c r="AJ5" s="91"/>
       <c r="AK5" s="38"/>
       <c r="AL5" s="38"/>
       <c r="AM5" s="38"/>
@@ -5318,20 +5027,20 @@
       <c r="AV5" s="38"/>
       <c r="AW5" s="38"/>
       <c r="AX5" s="38"/>
-      <c r="AY5" s="105"/>
+      <c r="AY5" s="92"/>
       <c r="AZ5" s="38"/>
       <c r="BA5" s="38"/>
       <c r="BB5" s="38"/>
       <c r="BC5" s="38"/>
       <c r="BD5" s="38"/>
-      <c r="BE5" s="38"/>
-      <c r="BF5" s="105"/>
+      <c r="BE5" s="91"/>
+      <c r="BF5" s="92"/>
       <c r="BG5" s="38"/>
       <c r="BH5" s="38"/>
       <c r="BI5" s="38"/>
       <c r="BJ5" s="38"/>
       <c r="BK5" s="38"/>
-      <c r="BL5" s="105"/>
+      <c r="BL5" s="92"/>
       <c r="BM5" s="38"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5343,31 +5052,31 @@
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="F6" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="61" t="n">
+      <c r="G6" s="56" t="n">
         <f aca="false">Netzplan!G6</f>
         <v>7</v>
       </c>
-      <c r="H6" s="100" t="n">
+      <c r="H6" s="57" t="n">
         <f aca="false">Netzplan!H6</f>
-        <v>2</v>
-      </c>
-      <c r="I6" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="58" t="n">
         <f aca="false">Netzplan!I6</f>
-        <v>0.75</v>
-      </c>
-      <c r="J6" s="102" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="89" t="n">
         <f aca="false">Netzplan!J6</f>
         <v>5</v>
       </c>
-      <c r="K6" s="103" t="n">
+      <c r="K6" s="90" t="n">
         <f aca="false">SUM(L6:BM6)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
@@ -5377,33 +5086,23 @@
       <c r="Q6" s="38"/>
       <c r="R6" s="38"/>
       <c r="S6" s="38"/>
-      <c r="T6" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" s="104"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="56"/>
       <c r="X6" s="38"/>
-      <c r="Y6" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="104" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="93"/>
+      <c r="AC6" s="56"/>
       <c r="AD6" s="38"/>
       <c r="AE6" s="38"/>
       <c r="AF6" s="38"/>
       <c r="AG6" s="38"/>
       <c r="AH6" s="38"/>
       <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
+      <c r="AJ6" s="91"/>
       <c r="AK6" s="38"/>
       <c r="AL6" s="38"/>
       <c r="AM6" s="38"/>
@@ -5418,20 +5117,20 @@
       <c r="AV6" s="38"/>
       <c r="AW6" s="38"/>
       <c r="AX6" s="38"/>
-      <c r="AY6" s="105"/>
+      <c r="AY6" s="92"/>
       <c r="AZ6" s="38"/>
       <c r="BA6" s="38"/>
       <c r="BB6" s="38"/>
       <c r="BC6" s="38"/>
       <c r="BD6" s="38"/>
-      <c r="BE6" s="38"/>
-      <c r="BF6" s="105"/>
+      <c r="BE6" s="91"/>
+      <c r="BF6" s="92"/>
       <c r="BG6" s="38"/>
       <c r="BH6" s="38"/>
       <c r="BI6" s="38"/>
       <c r="BJ6" s="38"/>
       <c r="BK6" s="38"/>
-      <c r="BL6" s="105"/>
+      <c r="BL6" s="92"/>
       <c r="BM6" s="38"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5443,42 +5142,40 @@
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="61" t="n">
+      <c r="G7" s="56" t="n">
         <f aca="false">Netzplan!G7</f>
         <v>1</v>
       </c>
-      <c r="H7" s="100" t="n">
+      <c r="H7" s="56" t="str">
         <f aca="false">Netzplan!H7</f>
         <v>1</v>
       </c>
-      <c r="I7" s="101" t="n">
+      <c r="I7" s="58" t="n">
         <f aca="false">Netzplan!I7</f>
         <v>1</v>
       </c>
-      <c r="J7" s="102" t="n">
+      <c r="J7" s="89" t="n">
         <f aca="false">Netzplan!J7</f>
         <v>1</v>
       </c>
-      <c r="K7" s="103" t="n">
+      <c r="K7" s="90" t="n">
         <f aca="false">SUM(L7:BM7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
-      <c r="N7" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="N7" s="38"/>
       <c r="O7" s="38"/>
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
       <c r="R7" s="38"/>
-      <c r="S7" s="104"/>
+      <c r="S7" s="56"/>
       <c r="T7" s="38"/>
       <c r="U7" s="38"/>
       <c r="V7" s="38"/>
@@ -5487,7 +5184,7 @@
       <c r="Y7" s="38"/>
       <c r="Z7" s="38"/>
       <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
+      <c r="AB7" s="91"/>
       <c r="AC7" s="38"/>
       <c r="AD7" s="38"/>
       <c r="AE7" s="38"/>
@@ -5495,7 +5192,7 @@
       <c r="AG7" s="38"/>
       <c r="AH7" s="38"/>
       <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
+      <c r="AJ7" s="91"/>
       <c r="AK7" s="38"/>
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
@@ -5510,20 +5207,20 @@
       <c r="AV7" s="38"/>
       <c r="AW7" s="38"/>
       <c r="AX7" s="38"/>
-      <c r="AY7" s="105"/>
+      <c r="AY7" s="92"/>
       <c r="AZ7" s="38"/>
       <c r="BA7" s="38"/>
       <c r="BB7" s="38"/>
       <c r="BC7" s="38"/>
       <c r="BD7" s="38"/>
-      <c r="BE7" s="38"/>
-      <c r="BF7" s="105"/>
+      <c r="BE7" s="91"/>
+      <c r="BF7" s="92"/>
       <c r="BG7" s="38"/>
       <c r="BH7" s="38"/>
       <c r="BI7" s="38"/>
       <c r="BJ7" s="38"/>
       <c r="BK7" s="38"/>
-      <c r="BL7" s="105"/>
+      <c r="BL7" s="92"/>
       <c r="BM7" s="38"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5535,57 +5232,49 @@
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="61" t="n">
+      <c r="F8" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="56" t="n">
         <f aca="false">Netzplan!G8</f>
         <v>3</v>
       </c>
-      <c r="H8" s="100" t="n">
+      <c r="H8" s="56" t="str">
         <f aca="false">Netzplan!H8</f>
-        <v>2</v>
-      </c>
-      <c r="I8" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="58" t="n">
         <f aca="false">Netzplan!I8</f>
-        <v>0.75</v>
-      </c>
-      <c r="J8" s="102" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J8" s="89" t="n">
         <f aca="false">Netzplan!J8</f>
-        <v>2</v>
-      </c>
-      <c r="K8" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" s="90" t="n">
         <f aca="false">SUM(L8:BM8)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
-      <c r="O8" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="O8" s="38"/>
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
-      <c r="R8" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" s="104" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
       <c r="W8" s="38"/>
       <c r="X8" s="38"/>
       <c r="Y8" s="38"/>
       <c r="Z8" s="38"/>
       <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
+      <c r="AB8" s="91"/>
       <c r="AC8" s="38"/>
       <c r="AD8" s="38"/>
       <c r="AE8" s="38"/>
@@ -5593,7 +5282,7 @@
       <c r="AG8" s="38"/>
       <c r="AH8" s="38"/>
       <c r="AI8" s="38"/>
-      <c r="AJ8" s="38"/>
+      <c r="AJ8" s="91"/>
       <c r="AK8" s="38"/>
       <c r="AL8" s="38"/>
       <c r="AM8" s="38"/>
@@ -5608,36 +5297,57 @@
       <c r="AV8" s="38"/>
       <c r="AW8" s="38"/>
       <c r="AX8" s="38"/>
-      <c r="AY8" s="105"/>
+      <c r="AY8" s="92"/>
       <c r="AZ8" s="38"/>
       <c r="BA8" s="38"/>
       <c r="BB8" s="38"/>
       <c r="BC8" s="38"/>
       <c r="BD8" s="38"/>
-      <c r="BE8" s="38"/>
-      <c r="BF8" s="105"/>
+      <c r="BE8" s="91"/>
+      <c r="BF8" s="92"/>
       <c r="BG8" s="38"/>
       <c r="BH8" s="38"/>
       <c r="BI8" s="38"/>
       <c r="BJ8" s="38"/>
       <c r="BK8" s="38"/>
-      <c r="BL8" s="105"/>
+      <c r="BL8" s="92"/>
       <c r="BM8" s="38"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36"/>
-      <c r="B9" s="106" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="103"/>
+      <c r="A9" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="94" t="n">
+        <f aca="false">Netzplan!G9</f>
+        <v>2</v>
+      </c>
+      <c r="H9" s="94" t="str">
+        <f aca="false">Netzplan!H9</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="58" t="n">
+        <f aca="false">Netzplan!I9</f>
+        <v>1.5</v>
+      </c>
+      <c r="J9" s="89" t="n">
+        <f aca="false">Netzplan!J9</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="90" t="n">
+        <f aca="false">SUM(L9:BM9)</f>
+        <v>0</v>
+      </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
@@ -5646,23 +5356,23 @@
       <c r="Q9" s="38"/>
       <c r="R9" s="38"/>
       <c r="S9" s="38"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="104"/>
-      <c r="V9" s="104"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
       <c r="W9" s="38"/>
       <c r="X9" s="38"/>
       <c r="Y9" s="38"/>
       <c r="Z9" s="38"/>
       <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
+      <c r="AB9" s="91"/>
       <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
+      <c r="AD9" s="56"/>
       <c r="AE9" s="38"/>
       <c r="AF9" s="38"/>
-      <c r="AG9" s="38"/>
+      <c r="AG9" s="56"/>
       <c r="AH9" s="38"/>
       <c r="AI9" s="38"/>
-      <c r="AJ9" s="38"/>
+      <c r="AJ9" s="91"/>
       <c r="AK9" s="38"/>
       <c r="AL9" s="38"/>
       <c r="AM9" s="38"/>
@@ -5677,56 +5387,56 @@
       <c r="AV9" s="38"/>
       <c r="AW9" s="38"/>
       <c r="AX9" s="38"/>
-      <c r="AY9" s="105"/>
+      <c r="AY9" s="92"/>
       <c r="AZ9" s="38"/>
       <c r="BA9" s="38"/>
       <c r="BB9" s="38"/>
       <c r="BC9" s="38"/>
       <c r="BD9" s="38"/>
-      <c r="BE9" s="38"/>
-      <c r="BF9" s="105"/>
+      <c r="BE9" s="91"/>
+      <c r="BF9" s="92"/>
       <c r="BG9" s="38"/>
       <c r="BH9" s="38"/>
       <c r="BI9" s="38"/>
       <c r="BJ9" s="38"/>
       <c r="BK9" s="38"/>
-      <c r="BL9" s="105"/>
+      <c r="BL9" s="92"/>
       <c r="BM9" s="38"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="61" t="n">
-        <f aca="false">Netzplan!G9</f>
+      <c r="E10" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="94" t="n">
+        <f aca="false">Netzplan!G10</f>
         <v>2</v>
       </c>
-      <c r="H10" s="100" t="n">
-        <f aca="false">Netzplan!H9</f>
-        <v>2</v>
-      </c>
-      <c r="I10" s="101" t="n">
-        <f aca="false">Netzplan!I9</f>
-        <v>0.75</v>
-      </c>
-      <c r="J10" s="102" t="n">
-        <f aca="false">Netzplan!J9</f>
+      <c r="H10" s="94" t="str">
+        <f aca="false">Netzplan!H10</f>
         <v>1</v>
       </c>
-      <c r="K10" s="103" t="n">
+      <c r="I10" s="58" t="n">
+        <f aca="false">Netzplan!I10</f>
+        <v>1.5</v>
+      </c>
+      <c r="J10" s="89" t="n">
+        <f aca="false">Netzplan!J10</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="90" t="n">
         <f aca="false">SUM(L10:BM10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -5744,17 +5454,15 @@
       <c r="Y10" s="38"/>
       <c r="Z10" s="38"/>
       <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="104"/>
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="38"/>
       <c r="AE10" s="38"/>
       <c r="AF10" s="38"/>
-      <c r="AG10" s="104"/>
-      <c r="AH10" s="38"/>
-      <c r="AI10" s="38"/>
-      <c r="AJ10" s="38"/>
+      <c r="AG10" s="38"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="91"/>
       <c r="AK10" s="38"/>
       <c r="AL10" s="38"/>
       <c r="AM10" s="38"/>
@@ -5769,56 +5477,56 @@
       <c r="AV10" s="38"/>
       <c r="AW10" s="38"/>
       <c r="AX10" s="38"/>
-      <c r="AY10" s="105"/>
+      <c r="AY10" s="92"/>
       <c r="AZ10" s="38"/>
       <c r="BA10" s="38"/>
       <c r="BB10" s="38"/>
       <c r="BC10" s="38"/>
       <c r="BD10" s="38"/>
-      <c r="BE10" s="38"/>
-      <c r="BF10" s="105"/>
+      <c r="BE10" s="91"/>
+      <c r="BF10" s="92"/>
       <c r="BG10" s="38"/>
       <c r="BH10" s="38"/>
       <c r="BI10" s="38"/>
       <c r="BJ10" s="38"/>
       <c r="BK10" s="38"/>
-      <c r="BL10" s="105"/>
+      <c r="BL10" s="92"/>
       <c r="BM10" s="38"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="61" t="n">
-        <f aca="false">Netzplan!G10</f>
+      <c r="E11" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="94" t="n">
+        <f aca="false">Netzplan!G11</f>
         <v>2</v>
       </c>
-      <c r="H11" s="100" t="n">
-        <f aca="false">Netzplan!H10</f>
-        <v>2</v>
-      </c>
-      <c r="I11" s="101" t="n">
-        <f aca="false">Netzplan!I10</f>
-        <v>0.75</v>
-      </c>
-      <c r="J11" s="102" t="n">
-        <f aca="false">Netzplan!J10</f>
+      <c r="H11" s="94" t="str">
+        <f aca="false">Netzplan!H11</f>
         <v>1</v>
       </c>
-      <c r="K11" s="103" t="n">
+      <c r="I11" s="58" t="n">
+        <f aca="false">Netzplan!I11</f>
+        <v>1.5</v>
+      </c>
+      <c r="J11" s="89" t="n">
+        <f aca="false">Netzplan!J11</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="90" t="n">
         <f aca="false">SUM(L11:BM11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
@@ -5836,18 +5544,15 @@
       <c r="Y11" s="38"/>
       <c r="Z11" s="38"/>
       <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
+      <c r="AB11" s="91"/>
       <c r="AC11" s="38"/>
       <c r="AD11" s="38"/>
       <c r="AE11" s="38"/>
-      <c r="AF11" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF11" s="38"/>
       <c r="AG11" s="38"/>
-      <c r="AH11" s="104"/>
-      <c r="AI11" s="104"/>
-      <c r="AJ11" s="38"/>
-      <c r="AK11" s="38"/>
+      <c r="AH11" s="38"/>
+      <c r="AJ11" s="93"/>
+      <c r="AK11" s="56"/>
       <c r="AL11" s="38"/>
       <c r="AM11" s="38"/>
       <c r="AN11" s="38"/>
@@ -5861,56 +5566,56 @@
       <c r="AV11" s="38"/>
       <c r="AW11" s="38"/>
       <c r="AX11" s="38"/>
-      <c r="AY11" s="105"/>
+      <c r="AY11" s="92"/>
       <c r="AZ11" s="38"/>
       <c r="BA11" s="38"/>
       <c r="BB11" s="38"/>
       <c r="BC11" s="38"/>
       <c r="BD11" s="38"/>
-      <c r="BE11" s="38"/>
-      <c r="BF11" s="105"/>
+      <c r="BE11" s="91"/>
+      <c r="BF11" s="92"/>
       <c r="BG11" s="38"/>
       <c r="BH11" s="38"/>
       <c r="BI11" s="38"/>
       <c r="BJ11" s="38"/>
       <c r="BK11" s="38"/>
-      <c r="BL11" s="105"/>
+      <c r="BL11" s="92"/>
       <c r="BM11" s="38"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="36" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="61" t="n">
-        <f aca="false">Netzplan!G11</f>
-        <v>2</v>
-      </c>
-      <c r="H12" s="100" t="n">
-        <f aca="false">Netzplan!H11</f>
-        <v>2</v>
-      </c>
-      <c r="I12" s="101" t="n">
-        <f aca="false">Netzplan!I11</f>
-        <v>0.75</v>
-      </c>
-      <c r="J12" s="102" t="n">
-        <f aca="false">Netzplan!J11</f>
+      <c r="E12" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="94" t="n">
+        <f aca="false">Netzplan!G12</f>
+        <v>10</v>
+      </c>
+      <c r="H12" s="57" t="n">
+        <f aca="false">Netzplan!H12</f>
         <v>1</v>
       </c>
-      <c r="K12" s="103" t="n">
+      <c r="I12" s="58" t="n">
+        <f aca="false">Netzplan!I12</f>
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="89" t="n">
+        <f aca="false">Netzplan!J12</f>
+        <v>20</v>
+      </c>
+      <c r="K12" s="90" t="n">
         <f aca="false">SUM(L12:BM12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
@@ -5923,85 +5628,83 @@
       <c r="T12" s="38"/>
       <c r="U12" s="38"/>
       <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
+      <c r="W12" s="56"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
       <c r="Z12" s="38"/>
       <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
+      <c r="AB12" s="91"/>
       <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
+      <c r="AD12" s="56"/>
       <c r="AE12" s="38"/>
       <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="104"/>
-      <c r="AK12" s="104"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="93"/>
+      <c r="AK12" s="56"/>
       <c r="AL12" s="38"/>
       <c r="AM12" s="38"/>
       <c r="AN12" s="38"/>
       <c r="AO12" s="38"/>
       <c r="AP12" s="38"/>
       <c r="AQ12" s="38"/>
-      <c r="AR12" s="38"/>
+      <c r="AR12" s="56"/>
       <c r="AS12" s="38"/>
       <c r="AT12" s="38"/>
       <c r="AU12" s="38"/>
       <c r="AV12" s="38"/>
       <c r="AW12" s="38"/>
       <c r="AX12" s="38"/>
-      <c r="AY12" s="105"/>
+      <c r="AY12" s="92"/>
       <c r="AZ12" s="38"/>
       <c r="BA12" s="38"/>
       <c r="BB12" s="38"/>
       <c r="BC12" s="38"/>
       <c r="BD12" s="38"/>
-      <c r="BE12" s="38"/>
-      <c r="BF12" s="105"/>
+      <c r="BE12" s="91"/>
+      <c r="BF12" s="92"/>
       <c r="BG12" s="38"/>
       <c r="BH12" s="38"/>
-      <c r="BI12" s="38"/>
       <c r="BJ12" s="38"/>
       <c r="BK12" s="38"/>
-      <c r="BL12" s="105"/>
+      <c r="BL12" s="92"/>
       <c r="BM12" s="38"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="36" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="61" t="n">
-        <f aca="false">Netzplan!G12</f>
-        <v>10</v>
-      </c>
-      <c r="H13" s="100" t="n">
-        <f aca="false">Netzplan!H12</f>
+      <c r="E13" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="94" t="n">
+        <f aca="false">Netzplan!G13</f>
+        <v>3</v>
+      </c>
+      <c r="H13" s="94" t="str">
+        <f aca="false">Netzplan!H13</f>
         <v>1</v>
       </c>
-      <c r="I13" s="101" t="n">
-        <f aca="false">Netzplan!I12</f>
-        <v>0.5</v>
-      </c>
-      <c r="J13" s="102" t="n">
-        <f aca="false">Netzplan!J12</f>
-        <v>20</v>
-      </c>
-      <c r="K13" s="103" t="n">
+      <c r="I13" s="58" t="n">
+        <f aca="false">Netzplan!I13</f>
+        <v>1.5</v>
+      </c>
+      <c r="J13" s="89" t="n">
+        <f aca="false">Netzplan!J13</f>
+        <v>2</v>
+      </c>
+      <c r="K13" s="90" t="n">
         <f aca="false">SUM(L13:BM13)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
@@ -6012,125 +5715,85 @@
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
-      <c r="U13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="V13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="W13" s="104"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
       <c r="X13" s="38"/>
-      <c r="Y13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="104"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="91"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
       <c r="AE13" s="38"/>
-      <c r="AF13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="104"/>
-      <c r="AH13" s="104" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="104" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ13" s="104" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK13" s="104"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="38"/>
+      <c r="AI13" s="38"/>
+      <c r="AJ13" s="91"/>
       <c r="AL13" s="38"/>
-      <c r="AM13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR13" s="104"/>
+      <c r="AM13" s="38"/>
+      <c r="AN13" s="56"/>
+      <c r="AO13" s="56"/>
+      <c r="AP13" s="56"/>
+      <c r="AQ13" s="38"/>
+      <c r="AR13" s="38"/>
       <c r="AS13" s="38"/>
-      <c r="AT13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="104"/>
-      <c r="AY13" s="105"/>
+      <c r="AT13" s="38"/>
+      <c r="AU13" s="38"/>
+      <c r="AV13" s="38"/>
+      <c r="AW13" s="38"/>
+      <c r="AX13" s="38"/>
+      <c r="AY13" s="92"/>
       <c r="AZ13" s="38"/>
       <c r="BA13" s="38"/>
       <c r="BB13" s="38"/>
       <c r="BC13" s="38"/>
       <c r="BD13" s="38"/>
-      <c r="BE13" s="38"/>
-      <c r="BF13" s="105"/>
+      <c r="BE13" s="91"/>
+      <c r="BF13" s="92"/>
       <c r="BG13" s="38"/>
       <c r="BH13" s="38"/>
+      <c r="BI13" s="38"/>
       <c r="BJ13" s="38"/>
       <c r="BK13" s="38"/>
-      <c r="BL13" s="105"/>
+      <c r="BL13" s="92"/>
       <c r="BM13" s="38"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="36" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="74" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="61" t="n">
-        <f aca="false">Netzplan!G13</f>
+      <c r="E14" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="94" t="n">
+        <f aca="false">Netzplan!G14</f>
         <v>3</v>
       </c>
-      <c r="H14" s="100" t="n">
-        <f aca="false">Netzplan!H13</f>
+      <c r="H14" s="94" t="str">
+        <f aca="false">Netzplan!H14</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="58" t="n">
+        <f aca="false">Netzplan!I14</f>
+        <v>1.5</v>
+      </c>
+      <c r="J14" s="89" t="n">
+        <f aca="false">Netzplan!J14</f>
         <v>2</v>
       </c>
-      <c r="I14" s="101" t="n">
-        <f aca="false">Netzplan!I13</f>
-        <v>0.75</v>
-      </c>
-      <c r="J14" s="102" t="n">
-        <f aca="false">Netzplan!J13</f>
-        <v>2</v>
-      </c>
-      <c r="K14" s="103" t="n">
+      <c r="K14" s="90" t="n">
         <f aca="false">SUM(L14:BM14)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
@@ -6148,82 +5811,78 @@
       <c r="Y14" s="38"/>
       <c r="Z14" s="38"/>
       <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
+      <c r="AB14" s="91"/>
       <c r="AC14" s="38"/>
       <c r="AD14" s="38"/>
       <c r="AE14" s="38"/>
       <c r="AF14" s="38"/>
       <c r="AG14" s="38"/>
       <c r="AH14" s="38"/>
-      <c r="AI14" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI14" s="38"/>
+      <c r="AJ14" s="91"/>
+      <c r="AK14" s="38"/>
       <c r="AL14" s="38"/>
       <c r="AM14" s="38"/>
-      <c r="AN14" s="104"/>
-      <c r="AO14" s="104"/>
-      <c r="AP14" s="104"/>
-      <c r="AQ14" s="38"/>
-      <c r="AR14" s="38"/>
+      <c r="AN14" s="38"/>
+      <c r="AO14" s="38"/>
+      <c r="AQ14" s="56"/>
+      <c r="AR14" s="56"/>
       <c r="AS14" s="38"/>
       <c r="AT14" s="38"/>
-      <c r="AU14" s="38"/>
+      <c r="AU14" s="56"/>
       <c r="AV14" s="38"/>
       <c r="AW14" s="38"/>
       <c r="AX14" s="38"/>
-      <c r="AY14" s="105"/>
+      <c r="AY14" s="92"/>
       <c r="AZ14" s="38"/>
       <c r="BA14" s="38"/>
       <c r="BB14" s="38"/>
       <c r="BC14" s="38"/>
       <c r="BD14" s="38"/>
-      <c r="BE14" s="38"/>
-      <c r="BF14" s="105"/>
+      <c r="BE14" s="91"/>
+      <c r="BF14" s="92"/>
       <c r="BG14" s="38"/>
       <c r="BH14" s="38"/>
       <c r="BI14" s="38"/>
       <c r="BJ14" s="38"/>
       <c r="BK14" s="38"/>
-      <c r="BL14" s="105"/>
+      <c r="BL14" s="92"/>
       <c r="BM14" s="38"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="36" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="61" t="n">
-        <f aca="false">Netzplan!G14</f>
-        <v>3</v>
-      </c>
-      <c r="H15" s="100" t="n">
-        <f aca="false">Netzplan!H14</f>
-        <v>2</v>
-      </c>
-      <c r="I15" s="101" t="n">
-        <f aca="false">Netzplan!I14</f>
-        <v>0.75</v>
-      </c>
-      <c r="J15" s="102" t="n">
-        <f aca="false">Netzplan!J14</f>
-        <v>2</v>
-      </c>
-      <c r="K15" s="103" t="n">
+      <c r="E15" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="94" t="n">
+        <f aca="false">Netzplan!G15</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="94" t="str">
+        <f aca="false">Netzplan!H15</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="58" t="n">
+        <f aca="false">Netzplan!I15</f>
+        <v>1.5</v>
+      </c>
+      <c r="J15" s="89" t="n">
+        <f aca="false">Netzplan!J15</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="90" t="n">
         <f aca="false">SUM(L15:BM15)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
@@ -6241,7 +5900,7 @@
       <c r="Y15" s="38"/>
       <c r="Z15" s="38"/>
       <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
+      <c r="AB15" s="91"/>
       <c r="AC15" s="38"/>
       <c r="AD15" s="38"/>
       <c r="AE15" s="38"/>
@@ -6249,54 +5908,71 @@
       <c r="AG15" s="38"/>
       <c r="AH15" s="38"/>
       <c r="AI15" s="38"/>
-      <c r="AJ15" s="38"/>
+      <c r="AJ15" s="91"/>
       <c r="AK15" s="38"/>
       <c r="AL15" s="38"/>
-      <c r="AM15" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN15" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM15" s="38"/>
       <c r="AO15" s="38"/>
-      <c r="AQ15" s="104"/>
-      <c r="AR15" s="104"/>
+      <c r="AP15" s="38"/>
+      <c r="AQ15" s="38"/>
+      <c r="AR15" s="38"/>
       <c r="AS15" s="38"/>
       <c r="AT15" s="38"/>
-      <c r="AU15" s="104"/>
-      <c r="AV15" s="38"/>
+      <c r="AU15" s="38"/>
+      <c r="AV15" s="56"/>
       <c r="AW15" s="38"/>
       <c r="AX15" s="38"/>
-      <c r="AY15" s="105"/>
+      <c r="AY15" s="92"/>
       <c r="AZ15" s="38"/>
       <c r="BA15" s="38"/>
       <c r="BB15" s="38"/>
       <c r="BC15" s="38"/>
       <c r="BD15" s="38"/>
-      <c r="BE15" s="38"/>
-      <c r="BF15" s="105"/>
+      <c r="BE15" s="91"/>
+      <c r="BF15" s="92"/>
       <c r="BG15" s="38"/>
       <c r="BH15" s="38"/>
       <c r="BI15" s="38"/>
       <c r="BJ15" s="38"/>
       <c r="BK15" s="38"/>
-      <c r="BL15" s="105"/>
+      <c r="BL15" s="92"/>
       <c r="BM15" s="38"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36"/>
-      <c r="B16" s="106" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="103"/>
+      <c r="A16" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="94" t="n">
+        <f aca="false">Netzplan!G16</f>
+        <v>5</v>
+      </c>
+      <c r="H16" s="94" t="str">
+        <f aca="false">Netzplan!H16</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="58" t="n">
+        <f aca="false">Netzplan!I16</f>
+        <v>1.5</v>
+      </c>
+      <c r="J16" s="89" t="n">
+        <f aca="false">Netzplan!J16</f>
+        <v>3</v>
+      </c>
+      <c r="K16" s="90" t="n">
+        <f aca="false">SUM(L16:BM16)</f>
+        <v>0</v>
+      </c>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
@@ -6313,7 +5989,7 @@
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
       <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
+      <c r="AB16" s="91"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="38"/>
       <c r="AE16" s="38"/>
@@ -6321,383 +5997,125 @@
       <c r="AG16" s="38"/>
       <c r="AH16" s="38"/>
       <c r="AI16" s="38"/>
-      <c r="AJ16" s="38"/>
+      <c r="AJ16" s="91"/>
       <c r="AK16" s="38"/>
       <c r="AL16" s="38"/>
       <c r="AM16" s="38"/>
       <c r="AN16" s="38"/>
-      <c r="AO16" s="38"/>
-      <c r="AQ16" s="104"/>
-      <c r="AR16" s="104"/>
+      <c r="AR16" s="38"/>
       <c r="AS16" s="38"/>
       <c r="AT16" s="38"/>
-      <c r="AU16" s="104"/>
+      <c r="AU16" s="38"/>
       <c r="AV16" s="38"/>
-      <c r="AW16" s="38"/>
-      <c r="AX16" s="38"/>
-      <c r="AY16" s="105"/>
+      <c r="AW16" s="56"/>
+      <c r="AX16" s="56"/>
+      <c r="AY16" s="92"/>
       <c r="AZ16" s="38"/>
       <c r="BA16" s="38"/>
-      <c r="BB16" s="38"/>
+      <c r="BB16" s="56"/>
       <c r="BC16" s="38"/>
       <c r="BD16" s="38"/>
-      <c r="BE16" s="38"/>
-      <c r="BF16" s="105"/>
+      <c r="BE16" s="91"/>
+      <c r="BF16" s="92"/>
       <c r="BG16" s="38"/>
       <c r="BH16" s="38"/>
       <c r="BI16" s="38"/>
-      <c r="BJ16" s="38"/>
       <c r="BK16" s="38"/>
-      <c r="BL16" s="105"/>
+      <c r="BL16" s="92"/>
       <c r="BM16" s="38"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="74" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="61" t="n">
-        <f aca="false">Netzplan!G15</f>
-        <v>1</v>
-      </c>
-      <c r="H17" s="100" t="n">
-        <f aca="false">Netzplan!H15</f>
-        <v>2</v>
-      </c>
-      <c r="I17" s="101" t="n">
-        <f aca="false">Netzplan!I15</f>
-        <v>0.75</v>
-      </c>
-      <c r="J17" s="102" t="n">
-        <f aca="false">Netzplan!J15</f>
-        <v>1</v>
-      </c>
-      <c r="K17" s="103" t="n">
-        <f aca="false">SUM(L17:BM17)</f>
-        <v>1</v>
-      </c>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="38"/>
-      <c r="AK17" s="38"/>
-      <c r="AL17" s="38"/>
-      <c r="AM17" s="38"/>
-      <c r="AN17" s="38"/>
-      <c r="AO17" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP17" s="38"/>
-      <c r="AQ17" s="38"/>
-      <c r="AR17" s="38"/>
-      <c r="AS17" s="38"/>
-      <c r="AT17" s="38"/>
-      <c r="AU17" s="38"/>
-      <c r="AV17" s="104"/>
-      <c r="AW17" s="38"/>
-      <c r="AX17" s="38"/>
-      <c r="AY17" s="105"/>
-      <c r="AZ17" s="38"/>
-      <c r="BA17" s="38"/>
-      <c r="BB17" s="38"/>
-      <c r="BC17" s="38"/>
-      <c r="BD17" s="38"/>
-      <c r="BE17" s="38"/>
-      <c r="BF17" s="105"/>
-      <c r="BG17" s="38"/>
-      <c r="BH17" s="38"/>
-      <c r="BI17" s="38"/>
-      <c r="BJ17" s="38"/>
-      <c r="BK17" s="38"/>
-      <c r="BL17" s="105"/>
-      <c r="BM17" s="38"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="74" t="s">
+      <c r="A17" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="61" t="n">
-        <f aca="false">Netzplan!G16</f>
-        <v>5</v>
-      </c>
-      <c r="H18" s="100" t="n">
-        <f aca="false">Netzplan!H16</f>
-        <v>2</v>
-      </c>
-      <c r="I18" s="101" t="n">
-        <f aca="false">Netzplan!I16</f>
-        <v>0.75</v>
-      </c>
-      <c r="J18" s="102" t="n">
-        <f aca="false">Netzplan!J16</f>
-        <v>3</v>
-      </c>
-      <c r="K18" s="103" t="n">
-        <f aca="false">SUM(L18:BM18)</f>
-        <v>3</v>
-      </c>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="38"/>
-      <c r="AI18" s="38"/>
-      <c r="AJ18" s="38"/>
-      <c r="AK18" s="38"/>
-      <c r="AL18" s="38"/>
-      <c r="AM18" s="38"/>
-      <c r="AN18" s="38"/>
-      <c r="AO18" s="38"/>
-      <c r="AP18" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ18" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR18" s="38"/>
-      <c r="AS18" s="38"/>
-      <c r="AT18" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU18" s="38"/>
-      <c r="AV18" s="38"/>
-      <c r="AW18" s="104"/>
-      <c r="AX18" s="104"/>
-      <c r="AY18" s="105"/>
-      <c r="AZ18" s="38"/>
-      <c r="BA18" s="38"/>
-      <c r="BB18" s="104"/>
-      <c r="BC18" s="38"/>
-      <c r="BD18" s="38"/>
-      <c r="BE18" s="38"/>
-      <c r="BF18" s="105"/>
-      <c r="BG18" s="38"/>
-      <c r="BH18" s="38"/>
-      <c r="BI18" s="38"/>
-      <c r="BK18" s="38"/>
-      <c r="BL18" s="105"/>
-      <c r="BM18" s="38"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="36"/>
-      <c r="B19" s="106" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="38"/>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="38"/>
-      <c r="AK19" s="38"/>
-      <c r="AL19" s="38"/>
-      <c r="AM19" s="38"/>
-      <c r="AN19" s="38"/>
-      <c r="AO19" s="38"/>
-      <c r="AP19" s="38"/>
-      <c r="AQ19" s="38"/>
-      <c r="AR19" s="38"/>
-      <c r="AS19" s="38"/>
-      <c r="AT19" s="38"/>
-      <c r="AU19" s="38"/>
-      <c r="AV19" s="38"/>
-      <c r="AW19" s="104"/>
-      <c r="AX19" s="104"/>
-      <c r="AY19" s="105"/>
-      <c r="AZ19" s="38"/>
-      <c r="BA19" s="38"/>
-      <c r="BB19" s="104"/>
-      <c r="BC19" s="38"/>
-      <c r="BD19" s="38"/>
-      <c r="BE19" s="38"/>
-      <c r="BF19" s="105"/>
-      <c r="BG19" s="38"/>
-      <c r="BH19" s="38"/>
-      <c r="BI19" s="38"/>
-      <c r="BK19" s="38"/>
-      <c r="BL19" s="105"/>
-      <c r="BM19" s="38"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="41" t="s">
+      <c r="B17" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="81"/>
-      <c r="G20" s="83" t="n">
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="78"/>
+      <c r="G17" s="95" t="n">
         <f aca="false">Netzplan!G17</f>
         <v>1</v>
       </c>
-      <c r="H20" s="107" t="n">
+      <c r="H17" s="95" t="str">
         <f aca="false">Netzplan!H17</f>
         <v>1</v>
       </c>
-      <c r="I20" s="108" t="n">
+      <c r="I17" s="96" t="n">
         <f aca="false">Netzplan!I17</f>
         <v>1</v>
       </c>
-      <c r="J20" s="109" t="n">
+      <c r="J17" s="97" t="n">
         <f aca="false">Netzplan!J17</f>
         <v>1</v>
       </c>
-      <c r="K20" s="103" t="n">
-        <f aca="false">SUM(L20:BM20)</f>
-        <v>1</v>
-      </c>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="42"/>
-      <c r="AE20" s="42"/>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="42"/>
-      <c r="AH20" s="42"/>
-      <c r="AI20" s="42"/>
-      <c r="AJ20" s="42"/>
-      <c r="AK20" s="42"/>
-      <c r="AL20" s="42"/>
-      <c r="AM20" s="42"/>
-      <c r="AN20" s="42"/>
-      <c r="AO20" s="42"/>
-      <c r="AP20" s="42"/>
-      <c r="AQ20" s="42"/>
-      <c r="AR20" s="42"/>
-      <c r="AS20" s="42"/>
-      <c r="AT20" s="42"/>
-      <c r="AU20" s="42"/>
-      <c r="AV20" s="42"/>
-      <c r="AW20" s="42"/>
-      <c r="AX20" s="42"/>
-      <c r="AY20" s="110"/>
-      <c r="AZ20" s="42"/>
-      <c r="BA20" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB20" s="42"/>
-      <c r="BC20" s="104"/>
-      <c r="BD20" s="42"/>
-      <c r="BE20" s="42"/>
-      <c r="BF20" s="110"/>
-      <c r="BG20" s="42"/>
-      <c r="BH20" s="42"/>
-      <c r="BI20" s="42"/>
-      <c r="BJ20" s="42"/>
-      <c r="BK20" s="42"/>
-      <c r="BL20" s="110"/>
-      <c r="BM20" s="42"/>
-    </row>
+      <c r="K17" s="90" t="n">
+        <f aca="false">SUM(L17:BM17)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="98"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="42"/>
+      <c r="AH17" s="42"/>
+      <c r="AI17" s="42"/>
+      <c r="AJ17" s="98"/>
+      <c r="AK17" s="42"/>
+      <c r="AL17" s="42"/>
+      <c r="AM17" s="42"/>
+      <c r="AN17" s="42"/>
+      <c r="AO17" s="42"/>
+      <c r="AP17" s="42"/>
+      <c r="AQ17" s="42"/>
+      <c r="AR17" s="42"/>
+      <c r="AS17" s="42"/>
+      <c r="AT17" s="42"/>
+      <c r="AU17" s="42"/>
+      <c r="AV17" s="42"/>
+      <c r="AW17" s="42"/>
+      <c r="AX17" s="42"/>
+      <c r="AY17" s="99"/>
+      <c r="AZ17" s="42"/>
+      <c r="BB17" s="42"/>
+      <c r="BC17" s="56"/>
+      <c r="BD17" s="42"/>
+      <c r="BE17" s="98"/>
+      <c r="BF17" s="99"/>
+      <c r="BG17" s="42"/>
+      <c r="BH17" s="42"/>
+      <c r="BI17" s="42"/>
+      <c r="BJ17" s="42"/>
+      <c r="BK17" s="42"/>
+      <c r="BL17" s="99"/>
+      <c r="BM17" s="42"/>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="17">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -6715,22 +6133,19 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
-  <conditionalFormatting sqref="L1:BM20">
+  <conditionalFormatting sqref="L1:L17 M1:BM1 L2:BM14 BB17:BM17 L15:AM15 AO15:BM15 L16:AN16 AR16:BM16 L17:AZ17">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
-      <formula>IF(OR(WEEKDAY(M$1)=7,WEEKDAY(M$1)=1),1,0)</formula>
+      <formula>IF(OR(WEEKDAY(L$1)=7,WEEKDAY(L$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:BM20">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+  <conditionalFormatting sqref="L2:BM14 BB17:BM17 L15:AM15 AO15:BM15 L16:AN16 AR16:BM16 L17:AZ17">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K20">
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+  <conditionalFormatting sqref="K2:K17">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>IF(K2&lt;&gt;J2,TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6741,32 +6156,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{CB5FB9DB-3CD6-48AB-9474-85E565C0C179}">
-            <xm:f>ISNUMBER(_xlfn.xmatch(M$1,FeiertageMV!$A$1:$A$30,0))</xm:f>
-            <x14:dxf>
-              <font>
-                <name val="Arial"/>
-                <charset val="1"/>
-                <family val="2"/>
-                <color rgb="FFFFFFFF"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF7030A0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L1:BM20</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6775,129 +6164,299 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q25" activeCellId="0" sqref="Q25"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="111" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="100" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="44" width="23.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="44" width="23.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="44" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="44" width="32.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="101" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B2" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="102" t="n">
+        <v>45413</v>
+      </c>
+      <c r="G2" s="102" t="n">
+        <v>45414</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="101" t="n">
+        <v>45359</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="101" t="n">
+        <v>45380</v>
+      </c>
+      <c r="B4" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="86" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="101" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B5" s="100" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="111" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B2" s="86" t="s">
+      <c r="C5" s="83" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="111" t="n">
-        <v>45022</v>
-      </c>
-      <c r="B3" s="86" t="s">
+      <c r="D5" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="101" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B6" s="100" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="111" t="n">
-        <v>45023</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="C6" s="83" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="111" t="n">
-        <v>45025</v>
-      </c>
-      <c r="B5" s="86" t="s">
+      <c r="E6" s="83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="101" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B7" s="100" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="111" t="n">
-        <v>45026</v>
-      </c>
-      <c r="B6" s="86" t="s">
+      <c r="C7" s="83" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="111" t="n">
-        <v>45047</v>
-      </c>
-      <c r="B7" s="86" t="s">
+      <c r="D7" s="83" t="s">
         <v>118</v>
       </c>
+      <c r="E7" s="83" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="111" t="n">
-        <v>45071</v>
-      </c>
-      <c r="B8" s="86" t="s">
+      <c r="A8" s="101" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B8" s="100" t="s">
         <v>119</v>
       </c>
+      <c r="C8" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="83" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="111" t="n">
-        <v>45081</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>120</v>
+      <c r="A9" s="101" t="n">
+        <v>45442</v>
+      </c>
+      <c r="B9" s="100" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="83" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="111" t="n">
-        <v>45082</v>
-      </c>
-      <c r="B10" s="86" t="s">
-        <v>121</v>
+      <c r="A10" s="101" t="n">
+        <v>45519</v>
+      </c>
+      <c r="B10" s="100" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="83" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="111" t="n">
-        <v>45202</v>
-      </c>
-      <c r="B11" s="86" t="s">
-        <v>122</v>
+      <c r="A11" s="101" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B11" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="83" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="111" t="n">
-        <v>45230</v>
-      </c>
-      <c r="B12" s="86" t="s">
-        <v>123</v>
+      <c r="A12" s="101" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B12" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="83" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="111" t="n">
-        <v>45285</v>
-      </c>
-      <c r="B13" s="86" t="s">
-        <v>124</v>
+      <c r="A13" s="101" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B13" s="100" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="100" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="111" t="n">
-        <v>45286</v>
-      </c>
-      <c r="B14" s="86" t="s">
-        <v>125</v>
-      </c>
-    </row>
+      <c r="A14" s="102" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B14" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="83" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="102" t="n">
+        <v>45616</v>
+      </c>
+      <c r="B15" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="83" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="102" t="n">
+        <v>45651</v>
+      </c>
+      <c r="B16" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="102" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B17" s="100" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Übungen/Online_Shop.Projekt.xlsx
+++ b/Übungen/Online_Shop.Projekt.xlsx
@@ -3091,7 +3091,7 @@
   <dimension ref="A1:BQ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF3" activeCellId="0" sqref="AF3"/>
+      <selection pane="topLeft" activeCell="AA15" activeCellId="0" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -4475,9 +4475,9 @@
   <dimension ref="A1:BN1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <pane xSplit="11" ySplit="0" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topRight" activeCell="AQ17" activeCellId="0" sqref="AQ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
@@ -4716,10 +4716,14 @@
       </c>
       <c r="K2" s="90" t="n">
         <f aca="false">SUM(L2:BM2)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+        <v>2</v>
+      </c>
+      <c r="L2" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="N2" s="56"/>
       <c r="O2" s="56"/>
       <c r="P2" s="56"/>
@@ -4806,11 +4810,13 @@
       </c>
       <c r="K3" s="90" t="n">
         <f aca="false">SUM(L3:BM3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="N3" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
@@ -4896,17 +4902,25 @@
       </c>
       <c r="K4" s="90" t="n">
         <f aca="false">SUM(L4:BM4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
+      <c r="O4" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="Q4" s="38"/>
       <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="56"/>
+      <c r="S4" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="U4" s="56"/>
       <c r="V4" s="56"/>
       <c r="W4" s="56"/>
@@ -4986,16 +5000,22 @@
       </c>
       <c r="K5" s="90" t="n">
         <f aca="false">SUM(L5:BM5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
+      <c r="O5" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="Q5" s="38"/>
       <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
+      <c r="S5" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="T5" s="56"/>
       <c r="U5" s="56"/>
       <c r="V5" s="56"/>
@@ -5076,7 +5096,7 @@
       </c>
       <c r="K6" s="90" t="n">
         <f aca="false">SUM(L6:BM6)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
@@ -5086,13 +5106,23 @@
       <c r="Q6" s="38"/>
       <c r="R6" s="38"/>
       <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="56"/>
+      <c r="T6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="X6" s="38"/>
       <c r="Y6" s="38"/>
-      <c r="Z6" s="56"/>
+      <c r="Z6" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AA6" s="56"/>
       <c r="AB6" s="93"/>
       <c r="AC6" s="56"/>
@@ -5166,11 +5196,13 @@
       </c>
       <c r="K7" s="90" t="n">
         <f aca="false">SUM(L7:BM7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
+      <c r="N7" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="O7" s="38"/>
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
@@ -5256,17 +5288,25 @@
       </c>
       <c r="K8" s="90" t="n">
         <f aca="false">SUM(L8:BM8)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
+      <c r="O8" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="Q8" s="38"/>
       <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="56"/>
+      <c r="S8" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="U8" s="56"/>
       <c r="V8" s="56"/>
       <c r="W8" s="38"/>
@@ -5346,7 +5386,7 @@
       </c>
       <c r="K9" s="90" t="n">
         <f aca="false">SUM(L9:BM9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
@@ -5363,7 +5403,9 @@
       <c r="X9" s="38"/>
       <c r="Y9" s="38"/>
       <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
+      <c r="AA9" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AB9" s="91"/>
       <c r="AC9" s="38"/>
       <c r="AD9" s="56"/>
@@ -5436,7 +5478,7 @@
       </c>
       <c r="K10" s="90" t="n">
         <f aca="false">SUM(L10:BM10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -5455,7 +5497,9 @@
       <c r="Z10" s="38"/>
       <c r="AA10" s="38"/>
       <c r="AB10" s="91"/>
-      <c r="AC10" s="38"/>
+      <c r="AC10" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AD10" s="38"/>
       <c r="AE10" s="38"/>
       <c r="AF10" s="38"/>
@@ -5526,7 +5570,7 @@
       </c>
       <c r="K11" s="90" t="n">
         <f aca="false">SUM(L11:BM11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
@@ -5546,7 +5590,9 @@
       <c r="AA11" s="38"/>
       <c r="AB11" s="91"/>
       <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
+      <c r="AD11" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AE11" s="38"/>
       <c r="AF11" s="38"/>
       <c r="AG11" s="38"/>
@@ -5615,7 +5661,7 @@
       </c>
       <c r="K12" s="90" t="n">
         <f aca="false">SUM(L12:BM12)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
@@ -5626,36 +5672,76 @@
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="56"/>
+      <c r="U12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
+      <c r="Z12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AB12" s="91"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="56"/>
+      <c r="AC12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AE12" s="38"/>
       <c r="AF12" s="38"/>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="56"/>
+      <c r="AG12" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ12" s="93"/>
-      <c r="AK12" s="56"/>
+      <c r="AK12" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AL12" s="38"/>
       <c r="AM12" s="38"/>
-      <c r="AN12" s="38"/>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="38"/>
-      <c r="AR12" s="56"/>
+      <c r="AN12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AS12" s="38"/>
       <c r="AT12" s="38"/>
-      <c r="AU12" s="38"/>
-      <c r="AV12" s="38"/>
-      <c r="AW12" s="38"/>
-      <c r="AX12" s="38"/>
+      <c r="AU12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AY12" s="92"/>
       <c r="AZ12" s="38"/>
       <c r="BA12" s="38"/>
@@ -5704,7 +5790,7 @@
       </c>
       <c r="K13" s="90" t="n">
         <f aca="false">SUM(L13:BM13)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
@@ -5727,8 +5813,12 @@
       <c r="AD13" s="38"/>
       <c r="AE13" s="38"/>
       <c r="AF13" s="38"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="38"/>
+      <c r="AG13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AI13" s="38"/>
       <c r="AJ13" s="91"/>
       <c r="AL13" s="38"/>
@@ -5793,7 +5883,7 @@
       </c>
       <c r="K14" s="90" t="n">
         <f aca="false">SUM(L14:BM14)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
@@ -5818,9 +5908,13 @@
       <c r="AF14" s="38"/>
       <c r="AG14" s="38"/>
       <c r="AH14" s="38"/>
-      <c r="AI14" s="38"/>
+      <c r="AI14" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ14" s="91"/>
-      <c r="AK14" s="38"/>
+      <c r="AK14" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AL14" s="38"/>
       <c r="AM14" s="38"/>
       <c r="AN14" s="38"/>
@@ -5882,7 +5976,7 @@
       </c>
       <c r="K15" s="90" t="n">
         <f aca="false">SUM(L15:BM15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
@@ -5912,10 +6006,13 @@
       <c r="AK15" s="38"/>
       <c r="AL15" s="38"/>
       <c r="AM15" s="38"/>
+      <c r="AN15" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AO15" s="38"/>
       <c r="AP15" s="38"/>
       <c r="AQ15" s="38"/>
-      <c r="AR15" s="38"/>
+      <c r="AR15" s="56"/>
       <c r="AS15" s="38"/>
       <c r="AT15" s="38"/>
       <c r="AU15" s="38"/>
@@ -5971,7 +6068,7 @@
       </c>
       <c r="K16" s="90" t="n">
         <f aca="false">SUM(L16:BM16)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
@@ -6002,7 +6099,16 @@
       <c r="AL16" s="38"/>
       <c r="AM16" s="38"/>
       <c r="AN16" s="38"/>
-      <c r="AR16" s="38"/>
+      <c r="AO16" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="56"/>
       <c r="AS16" s="38"/>
       <c r="AT16" s="38"/>
       <c r="AU16" s="38"/>
@@ -6055,7 +6161,7 @@
       </c>
       <c r="K17" s="90" t="n">
         <f aca="false">SUM(L17:BM17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="42"/>
       <c r="M17" s="42"/>
@@ -6096,7 +6202,9 @@
       <c r="AV17" s="42"/>
       <c r="AW17" s="42"/>
       <c r="AX17" s="42"/>
-      <c r="AY17" s="99"/>
+      <c r="AY17" s="99" t="n">
+        <v>1</v>
+      </c>
       <c r="AZ17" s="42"/>
       <c r="BB17" s="42"/>
       <c r="BC17" s="56"/>
@@ -6134,12 +6242,12 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
   </mergeCells>
-  <conditionalFormatting sqref="L1:L17 M1:BM1 L2:BM14 BB17:BM17 L15:AM15 AO15:BM15 L16:AN16 AR16:BM16 L17:AZ17">
+  <conditionalFormatting sqref="L1:L17 M1:BM1 L2:BM16 BB17:BM17 L17:AZ17">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>IF(OR(WEEKDAY(L$1)=7,WEEKDAY(L$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:BM14 BB17:BM17 L15:AM15 AO15:BM15 L16:AN16 AR16:BM16 L17:AZ17">
+  <conditionalFormatting sqref="L2:BM16 BB17:BM17 L17:AZ17">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>1</formula>
     </cfRule>

--- a/Übungen/Online_Shop.Projekt.xlsx
+++ b/Übungen/Online_Shop.Projekt.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="148">
   <si>
     <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
@@ -325,6 +325,18 @@
   </si>
   <si>
     <t xml:space="preserve">Ressourcen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meier, Nuyen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorarbeiten fertig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produkt fertig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release</t>
   </si>
   <si>
     <t xml:space="preserve">Datum</t>
@@ -853,7 +865,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1230,12 +1242,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1546,9 +1554,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>102600</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1558,7 +1566,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7192440" y="17212320"/>
-          <a:ext cx="2242440" cy="422280"/>
+          <a:ext cx="2242080" cy="421920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1607,6 +1615,143 @@
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>73440</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>149760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>183960</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>149760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="Form 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7922160" y="1632600"/>
+          <a:ext cx="110520" cy="161640"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>73080</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>183600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Form 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12196440" y="2779560"/>
+          <a:ext cx="110520" cy="161640"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>72720</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>183240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Form 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14207760" y="3264840"/>
+          <a:ext cx="110520" cy="161640"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -3091,7 +3236,7 @@
   <dimension ref="A1:BQ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA15" activeCellId="0" sqref="AA15"/>
+      <selection pane="topLeft" activeCell="AF3" activeCellId="0" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -4472,12 +4617,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BN1048576"/>
+  <dimension ref="A1:BN20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="0" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <pane xSplit="11" ySplit="0" topLeftCell="AG1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AQ17" activeCellId="0" sqref="AQ17"/>
+      <selection pane="topRight" activeCell="BN2" activeCellId="0" sqref="BN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
@@ -4776,6 +4921,9 @@
       <c r="BK2" s="38"/>
       <c r="BL2" s="92"/>
       <c r="BM2" s="38"/>
+      <c r="BN2" s="44" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="36" t="s">
@@ -5354,40 +5502,19 @@
       <c r="BM8" s="38"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="94" t="n">
-        <f aca="false">Netzplan!G9</f>
-        <v>2</v>
-      </c>
-      <c r="H9" s="94" t="str">
-        <f aca="false">Netzplan!H9</f>
-        <v>1</v>
-      </c>
-      <c r="I9" s="58" t="n">
-        <f aca="false">Netzplan!I9</f>
-        <v>1.5</v>
-      </c>
-      <c r="J9" s="89" t="n">
-        <f aca="false">Netzplan!J9</f>
-        <v>1</v>
-      </c>
-      <c r="K9" s="90" t="n">
-        <f aca="false">SUM(L9:BM9)</f>
-        <v>1</v>
-      </c>
+      <c r="A9" s="36"/>
+      <c r="B9" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="90"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
@@ -5396,22 +5523,20 @@
       <c r="Q9" s="38"/>
       <c r="R9" s="38"/>
       <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
       <c r="W9" s="38"/>
       <c r="X9" s="38"/>
       <c r="Y9" s="38"/>
       <c r="Z9" s="38"/>
-      <c r="AA9" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AA9" s="38"/>
       <c r="AB9" s="91"/>
       <c r="AC9" s="38"/>
-      <c r="AD9" s="56"/>
+      <c r="AD9" s="38"/>
       <c r="AE9" s="38"/>
       <c r="AF9" s="38"/>
-      <c r="AG9" s="56"/>
+      <c r="AG9" s="38"/>
       <c r="AH9" s="38"/>
       <c r="AI9" s="38"/>
       <c r="AJ9" s="91"/>
@@ -5447,33 +5572,33 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
       <c r="E10" s="71" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="F10" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="94" t="n">
-        <f aca="false">Netzplan!G10</f>
+        <v>35</v>
+      </c>
+      <c r="G10" s="56" t="n">
+        <f aca="false">Netzplan!G9</f>
         <v>2</v>
       </c>
-      <c r="H10" s="94" t="str">
-        <f aca="false">Netzplan!H10</f>
+      <c r="H10" s="56" t="str">
+        <f aca="false">Netzplan!H9</f>
         <v>1</v>
       </c>
       <c r="I10" s="58" t="n">
-        <f aca="false">Netzplan!I10</f>
+        <f aca="false">Netzplan!I9</f>
         <v>1.5</v>
       </c>
       <c r="J10" s="89" t="n">
-        <f aca="false">Netzplan!J10</f>
+        <f aca="false">Netzplan!J9</f>
         <v>1</v>
       </c>
       <c r="K10" s="90" t="n">
@@ -5495,17 +5620,17 @@
       <c r="X10" s="38"/>
       <c r="Y10" s="38"/>
       <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
+      <c r="AA10" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AB10" s="91"/>
-      <c r="AC10" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="56"/>
       <c r="AE10" s="38"/>
       <c r="AF10" s="38"/>
-      <c r="AG10" s="38"/>
-      <c r="AH10" s="56"/>
-      <c r="AI10" s="56"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="38"/>
+      <c r="AI10" s="38"/>
       <c r="AJ10" s="91"/>
       <c r="AK10" s="38"/>
       <c r="AL10" s="38"/>
@@ -5539,33 +5664,33 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
       <c r="E11" s="71" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="94" t="n">
-        <f aca="false">Netzplan!G11</f>
+        <v>37</v>
+      </c>
+      <c r="G11" s="56" t="n">
+        <f aca="false">Netzplan!G10</f>
         <v>2</v>
       </c>
-      <c r="H11" s="94" t="str">
-        <f aca="false">Netzplan!H11</f>
+      <c r="H11" s="56" t="str">
+        <f aca="false">Netzplan!H10</f>
         <v>1</v>
       </c>
       <c r="I11" s="58" t="n">
-        <f aca="false">Netzplan!I11</f>
+        <f aca="false">Netzplan!I10</f>
         <v>1.5</v>
       </c>
       <c r="J11" s="89" t="n">
-        <f aca="false">Netzplan!J11</f>
+        <f aca="false">Netzplan!J10</f>
         <v>1</v>
       </c>
       <c r="K11" s="90" t="n">
@@ -5589,16 +5714,17 @@
       <c r="Z11" s="38"/>
       <c r="AA11" s="38"/>
       <c r="AB11" s="91"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC11" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="38"/>
       <c r="AE11" s="38"/>
       <c r="AF11" s="38"/>
       <c r="AG11" s="38"/>
-      <c r="AH11" s="38"/>
-      <c r="AJ11" s="93"/>
-      <c r="AK11" s="56"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="91"/>
+      <c r="AK11" s="38"/>
       <c r="AL11" s="38"/>
       <c r="AM11" s="38"/>
       <c r="AN11" s="38"/>
@@ -5630,38 +5756,38 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="36" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
       <c r="E12" s="71" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="94" t="n">
-        <f aca="false">Netzplan!G12</f>
-        <v>10</v>
-      </c>
-      <c r="H12" s="57" t="n">
-        <f aca="false">Netzplan!H12</f>
+        <v>23</v>
+      </c>
+      <c r="G12" s="56" t="n">
+        <f aca="false">Netzplan!G11</f>
+        <v>2</v>
+      </c>
+      <c r="H12" s="56" t="str">
+        <f aca="false">Netzplan!H11</f>
         <v>1</v>
       </c>
       <c r="I12" s="58" t="n">
-        <f aca="false">Netzplan!I12</f>
-        <v>0.5</v>
+        <f aca="false">Netzplan!I11</f>
+        <v>1.5</v>
       </c>
       <c r="J12" s="89" t="n">
-        <f aca="false">Netzplan!J12</f>
-        <v>20</v>
+        <f aca="false">Netzplan!J11</f>
+        <v>1</v>
       </c>
       <c r="K12" s="90" t="n">
         <f aca="false">SUM(L12:BM12)</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
@@ -5672,76 +5798,37 @@
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
-      <c r="U12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="W12" s="56" t="n">
-        <v>1</v>
-      </c>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
-      <c r="Z12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
       <c r="AB12" s="91"/>
-      <c r="AC12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="56" t="n">
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38" t="n">
         <v>1</v>
       </c>
       <c r="AE12" s="38"/>
       <c r="AF12" s="38"/>
-      <c r="AG12" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38"/>
       <c r="AJ12" s="93"/>
-      <c r="AK12" s="56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK12" s="56"/>
       <c r="AL12" s="38"/>
       <c r="AM12" s="38"/>
-      <c r="AN12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR12" s="56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="38"/>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="38"/>
+      <c r="AR12" s="38"/>
       <c r="AS12" s="38"/>
       <c r="AT12" s="38"/>
-      <c r="AU12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX12" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU12" s="38"/>
+      <c r="AV12" s="38"/>
+      <c r="AW12" s="38"/>
+      <c r="AX12" s="38"/>
       <c r="AY12" s="92"/>
       <c r="AZ12" s="38"/>
       <c r="BA12" s="38"/>
@@ -5752,6 +5839,7 @@
       <c r="BF12" s="92"/>
       <c r="BG12" s="38"/>
       <c r="BH12" s="38"/>
+      <c r="BI12" s="38"/>
       <c r="BJ12" s="38"/>
       <c r="BK12" s="38"/>
       <c r="BL12" s="92"/>
@@ -5759,38 +5847,38 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="36" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
       <c r="E13" s="71" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F13" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="94" t="n">
-        <f aca="false">Netzplan!G13</f>
-        <v>3</v>
-      </c>
-      <c r="H13" s="94" t="str">
-        <f aca="false">Netzplan!H13</f>
+        <v>44</v>
+      </c>
+      <c r="G13" s="56" t="n">
+        <f aca="false">Netzplan!G12</f>
+        <v>10</v>
+      </c>
+      <c r="H13" s="57" t="n">
+        <f aca="false">Netzplan!H12</f>
         <v>1</v>
       </c>
       <c r="I13" s="58" t="n">
-        <f aca="false">Netzplan!I13</f>
-        <v>1.5</v>
+        <f aca="false">Netzplan!I12</f>
+        <v>0.5</v>
       </c>
       <c r="J13" s="89" t="n">
-        <f aca="false">Netzplan!J13</f>
-        <v>2</v>
+        <f aca="false">Netzplan!J12</f>
+        <v>20</v>
       </c>
       <c r="K13" s="90" t="n">
         <f aca="false">SUM(L13:BM13)</f>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
@@ -5801,39 +5889,76 @@
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
+      <c r="U13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
+      <c r="Z13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AB13" s="91"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
+      <c r="AC13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AE13" s="38"/>
       <c r="AF13" s="38"/>
-      <c r="AG13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="91"/>
+      <c r="AG13" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="93"/>
+      <c r="AK13" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AL13" s="38"/>
       <c r="AM13" s="38"/>
-      <c r="AN13" s="56"/>
-      <c r="AO13" s="56"/>
-      <c r="AP13" s="56"/>
-      <c r="AQ13" s="38"/>
-      <c r="AR13" s="38"/>
+      <c r="AN13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="56" t="n">
+        <v>1</v>
+      </c>
       <c r="AS13" s="38"/>
       <c r="AT13" s="38"/>
-      <c r="AU13" s="38"/>
-      <c r="AV13" s="38"/>
-      <c r="AW13" s="38"/>
-      <c r="AX13" s="38"/>
+      <c r="AU13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AY13" s="92"/>
       <c r="AZ13" s="38"/>
       <c r="BA13" s="38"/>
@@ -5844,7 +5969,6 @@
       <c r="BF13" s="92"/>
       <c r="BG13" s="38"/>
       <c r="BH13" s="38"/>
-      <c r="BI13" s="38"/>
       <c r="BJ13" s="38"/>
       <c r="BK13" s="38"/>
       <c r="BL13" s="92"/>
@@ -5852,33 +5976,33 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="36" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
       <c r="E14" s="71" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="94" t="n">
-        <f aca="false">Netzplan!G14</f>
+        <v>41</v>
+      </c>
+      <c r="G14" s="56" t="n">
+        <f aca="false">Netzplan!G13</f>
         <v>3</v>
       </c>
-      <c r="H14" s="94" t="str">
-        <f aca="false">Netzplan!H14</f>
+      <c r="H14" s="56" t="str">
+        <f aca="false">Netzplan!H13</f>
         <v>1</v>
       </c>
       <c r="I14" s="58" t="n">
-        <f aca="false">Netzplan!I14</f>
+        <f aca="false">Netzplan!I13</f>
         <v>1.5</v>
       </c>
       <c r="J14" s="89" t="n">
-        <f aca="false">Netzplan!J14</f>
+        <f aca="false">Netzplan!J13</f>
         <v>2</v>
       </c>
       <c r="K14" s="90" t="n">
@@ -5906,24 +6030,24 @@
       <c r="AD14" s="38"/>
       <c r="AE14" s="38"/>
       <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG14" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="38"/>
       <c r="AJ14" s="91"/>
-      <c r="AK14" s="38" t="n">
-        <v>1</v>
-      </c>
       <c r="AL14" s="38"/>
       <c r="AM14" s="38"/>
-      <c r="AN14" s="38"/>
-      <c r="AO14" s="38"/>
-      <c r="AQ14" s="56"/>
-      <c r="AR14" s="56"/>
+      <c r="AN14" s="56"/>
+      <c r="AO14" s="56"/>
+      <c r="AP14" s="56"/>
+      <c r="AQ14" s="38"/>
+      <c r="AR14" s="38"/>
       <c r="AS14" s="38"/>
       <c r="AT14" s="38"/>
-      <c r="AU14" s="56"/>
+      <c r="AU14" s="38"/>
       <c r="AV14" s="38"/>
       <c r="AW14" s="38"/>
       <c r="AX14" s="38"/>
@@ -5945,38 +6069,38 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="36" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
       <c r="E15" s="71" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="94" t="n">
-        <f aca="false">Netzplan!G15</f>
-        <v>1</v>
-      </c>
-      <c r="H15" s="94" t="str">
-        <f aca="false">Netzplan!H15</f>
+        <v>29</v>
+      </c>
+      <c r="G15" s="56" t="n">
+        <f aca="false">Netzplan!G14</f>
+        <v>3</v>
+      </c>
+      <c r="H15" s="56" t="str">
+        <f aca="false">Netzplan!H14</f>
         <v>1</v>
       </c>
       <c r="I15" s="58" t="n">
-        <f aca="false">Netzplan!I15</f>
+        <f aca="false">Netzplan!I14</f>
         <v>1.5</v>
       </c>
       <c r="J15" s="89" t="n">
-        <f aca="false">Netzplan!J15</f>
-        <v>1</v>
+        <f aca="false">Netzplan!J14</f>
+        <v>2</v>
       </c>
       <c r="K15" s="90" t="n">
         <f aca="false">SUM(L15:BM15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
@@ -6001,22 +6125,23 @@
       <c r="AF15" s="38"/>
       <c r="AG15" s="38"/>
       <c r="AH15" s="38"/>
-      <c r="AI15" s="38"/>
+      <c r="AI15" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ15" s="91"/>
-      <c r="AK15" s="38"/>
+      <c r="AK15" s="38" t="n">
+        <v>1</v>
+      </c>
       <c r="AL15" s="38"/>
       <c r="AM15" s="38"/>
-      <c r="AN15" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN15" s="38"/>
       <c r="AO15" s="38"/>
-      <c r="AP15" s="38"/>
-      <c r="AQ15" s="38"/>
+      <c r="AQ15" s="56"/>
       <c r="AR15" s="56"/>
       <c r="AS15" s="38"/>
       <c r="AT15" s="38"/>
-      <c r="AU15" s="38"/>
-      <c r="AV15" s="56"/>
+      <c r="AU15" s="56"/>
+      <c r="AV15" s="38"/>
       <c r="AW15" s="38"/>
       <c r="AX15" s="38"/>
       <c r="AY15" s="92"/>
@@ -6036,40 +6161,19 @@
       <c r="BM15" s="38"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="94" t="n">
-        <f aca="false">Netzplan!G16</f>
-        <v>5</v>
-      </c>
-      <c r="H16" s="94" t="str">
-        <f aca="false">Netzplan!H16</f>
-        <v>1</v>
-      </c>
-      <c r="I16" s="58" t="n">
-        <f aca="false">Netzplan!I16</f>
-        <v>1.5</v>
-      </c>
-      <c r="J16" s="89" t="n">
-        <f aca="false">Netzplan!J16</f>
-        <v>3</v>
-      </c>
-      <c r="K16" s="90" t="n">
-        <f aca="false">SUM(L16:BM16)</f>
-        <v>3</v>
-      </c>
+      <c r="A16" s="36"/>
+      <c r="B16" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="90"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
@@ -6099,26 +6203,19 @@
       <c r="AL16" s="38"/>
       <c r="AM16" s="38"/>
       <c r="AN16" s="38"/>
-      <c r="AO16" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP16" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ16" s="38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AO16" s="38"/>
+      <c r="AQ16" s="56"/>
       <c r="AR16" s="56"/>
       <c r="AS16" s="38"/>
       <c r="AT16" s="38"/>
-      <c r="AU16" s="38"/>
+      <c r="AU16" s="56"/>
       <c r="AV16" s="38"/>
-      <c r="AW16" s="56"/>
-      <c r="AX16" s="56"/>
+      <c r="AW16" s="38"/>
+      <c r="AX16" s="38"/>
       <c r="AY16" s="92"/>
       <c r="AZ16" s="38"/>
       <c r="BA16" s="38"/>
-      <c r="BB16" s="56"/>
+      <c r="BB16" s="38"/>
       <c r="BC16" s="38"/>
       <c r="BD16" s="38"/>
       <c r="BE16" s="91"/>
@@ -6126,104 +6223,358 @@
       <c r="BG16" s="38"/>
       <c r="BH16" s="38"/>
       <c r="BI16" s="38"/>
+      <c r="BJ16" s="38"/>
       <c r="BK16" s="38"/>
       <c r="BL16" s="92"/>
       <c r="BM16" s="38"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="78"/>
-      <c r="G17" s="95" t="n">
-        <f aca="false">Netzplan!G17</f>
-        <v>1</v>
-      </c>
-      <c r="H17" s="95" t="str">
-        <f aca="false">Netzplan!H17</f>
-        <v>1</v>
-      </c>
-      <c r="I17" s="96" t="n">
-        <f aca="false">Netzplan!I17</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="97" t="n">
-        <f aca="false">Netzplan!J17</f>
+      <c r="A17" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="56" t="n">
+        <f aca="false">Netzplan!G15</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="56" t="str">
+        <f aca="false">Netzplan!H15</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="58" t="n">
+        <f aca="false">Netzplan!I15</f>
+        <v>1.5</v>
+      </c>
+      <c r="J17" s="89" t="n">
+        <f aca="false">Netzplan!J15</f>
         <v>1</v>
       </c>
       <c r="K17" s="90" t="n">
         <f aca="false">SUM(L17:BM17)</f>
         <v>1</v>
       </c>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="98"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="42"/>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="42"/>
-      <c r="AH17" s="42"/>
-      <c r="AI17" s="42"/>
-      <c r="AJ17" s="98"/>
-      <c r="AK17" s="42"/>
-      <c r="AL17" s="42"/>
-      <c r="AM17" s="42"/>
-      <c r="AN17" s="42"/>
-      <c r="AO17" s="42"/>
-      <c r="AP17" s="42"/>
-      <c r="AQ17" s="42"/>
-      <c r="AR17" s="42"/>
-      <c r="AS17" s="42"/>
-      <c r="AT17" s="42"/>
-      <c r="AU17" s="42"/>
-      <c r="AV17" s="42"/>
-      <c r="AW17" s="42"/>
-      <c r="AX17" s="42"/>
-      <c r="AY17" s="99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ17" s="42"/>
-      <c r="BB17" s="42"/>
-      <c r="BC17" s="56"/>
-      <c r="BD17" s="42"/>
-      <c r="BE17" s="98"/>
-      <c r="BF17" s="99"/>
-      <c r="BG17" s="42"/>
-      <c r="BH17" s="42"/>
-      <c r="BI17" s="42"/>
-      <c r="BJ17" s="42"/>
-      <c r="BK17" s="42"/>
-      <c r="BL17" s="99"/>
-      <c r="BM17" s="42"/>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="91"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="91"/>
+      <c r="AK17" s="38"/>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="0"/>
+      <c r="AO17" s="38"/>
+      <c r="AP17" s="38"/>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS17" s="38"/>
+      <c r="AT17" s="38"/>
+      <c r="AU17" s="38"/>
+      <c r="AV17" s="56"/>
+      <c r="AW17" s="38"/>
+      <c r="AX17" s="38"/>
+      <c r="AY17" s="92"/>
+      <c r="AZ17" s="38"/>
+      <c r="BA17" s="38"/>
+      <c r="BB17" s="38"/>
+      <c r="BC17" s="38"/>
+      <c r="BD17" s="38"/>
+      <c r="BE17" s="91"/>
+      <c r="BF17" s="92"/>
+      <c r="BG17" s="38"/>
+      <c r="BH17" s="38"/>
+      <c r="BI17" s="38"/>
+      <c r="BJ17" s="38"/>
+      <c r="BK17" s="38"/>
+      <c r="BL17" s="92"/>
+      <c r="BM17" s="38"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="56" t="n">
+        <f aca="false">Netzplan!G16</f>
+        <v>5</v>
+      </c>
+      <c r="H18" s="56" t="str">
+        <f aca="false">Netzplan!H16</f>
+        <v>1</v>
+      </c>
+      <c r="I18" s="58" t="n">
+        <f aca="false">Netzplan!I16</f>
+        <v>1.5</v>
+      </c>
+      <c r="J18" s="89" t="n">
+        <f aca="false">Netzplan!J16</f>
+        <v>3</v>
+      </c>
+      <c r="K18" s="90" t="n">
+        <f aca="false">SUM(L18:BM18)</f>
+        <v>3</v>
+      </c>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="91"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="91"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="38"/>
+      <c r="AO18" s="38"/>
+      <c r="AP18" s="38"/>
+      <c r="AQ18" s="38"/>
+      <c r="AR18" s="56"/>
+      <c r="AS18" s="38"/>
+      <c r="AT18" s="38"/>
+      <c r="AU18" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="56"/>
+      <c r="AY18" s="92"/>
+      <c r="AZ18" s="38"/>
+      <c r="BA18" s="38"/>
+      <c r="BB18" s="56"/>
+      <c r="BC18" s="38"/>
+      <c r="BD18" s="38"/>
+      <c r="BE18" s="91"/>
+      <c r="BF18" s="92"/>
+      <c r="BG18" s="38"/>
+      <c r="BH18" s="38"/>
+      <c r="BI18" s="38"/>
+      <c r="BK18" s="38"/>
+      <c r="BL18" s="92"/>
+      <c r="BM18" s="38"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="36"/>
+      <c r="B19" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="91"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
+      <c r="AJ19" s="91"/>
+      <c r="AK19" s="38"/>
+      <c r="AL19" s="38"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="38"/>
+      <c r="AO19" s="38"/>
+      <c r="AP19" s="38"/>
+      <c r="AQ19" s="38"/>
+      <c r="AR19" s="56"/>
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38"/>
+      <c r="AU19" s="38"/>
+      <c r="AV19" s="38"/>
+      <c r="AW19" s="38"/>
+      <c r="AX19" s="56"/>
+      <c r="AY19" s="92"/>
+      <c r="AZ19" s="38"/>
+      <c r="BA19" s="38"/>
+      <c r="BB19" s="56"/>
+      <c r="BC19" s="38"/>
+      <c r="BD19" s="38"/>
+      <c r="BE19" s="91"/>
+      <c r="BF19" s="92"/>
+      <c r="BG19" s="38"/>
+      <c r="BH19" s="38"/>
+      <c r="BI19" s="38"/>
+      <c r="BK19" s="38"/>
+      <c r="BL19" s="92"/>
+      <c r="BM19" s="38"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79" t="n">
+        <f aca="false">Netzplan!G17</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="79" t="str">
+        <f aca="false">Netzplan!H17</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="95" t="n">
+        <f aca="false">Netzplan!I17</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="96" t="n">
+        <f aca="false">Netzplan!J17</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="90" t="n">
+        <f aca="false">SUM(L20:BM20)</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="97"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="42"/>
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="97"/>
+      <c r="AK20" s="42"/>
+      <c r="AL20" s="42"/>
+      <c r="AM20" s="42"/>
+      <c r="AN20" s="42"/>
+      <c r="AO20" s="42"/>
+      <c r="AP20" s="42"/>
+      <c r="AQ20" s="42"/>
+      <c r="AR20" s="42"/>
+      <c r="AS20" s="42"/>
+      <c r="AT20" s="42"/>
+      <c r="AU20" s="42"/>
+      <c r="AV20" s="42"/>
+      <c r="AW20" s="42"/>
+      <c r="AX20" s="42"/>
+      <c r="AY20" s="0"/>
+      <c r="AZ20" s="42"/>
+      <c r="BA20" s="38"/>
+      <c r="BB20" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC20" s="56"/>
+      <c r="BD20" s="42"/>
+      <c r="BE20" s="97"/>
+      <c r="BF20" s="98"/>
+      <c r="BG20" s="42"/>
+      <c r="BH20" s="42"/>
+      <c r="BI20" s="42"/>
+      <c r="BJ20" s="42"/>
+      <c r="BK20" s="42"/>
+      <c r="BL20" s="98"/>
+      <c r="BM20" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -6241,18 +6592,21 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
-  <conditionalFormatting sqref="L1:L17 M1:BM1 L2:BM16 BB17:BM17 L17:AZ17">
+  <conditionalFormatting sqref="L1:L20 M1:BM1 L2:BM16 AZ20:BM20 L17:AM17 AO17:BM17 L18:BM19 L20:AX20">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>IF(OR(WEEKDAY(L$1)=7,WEEKDAY(L$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:BM16 BB17:BM17 L17:AZ17">
+  <conditionalFormatting sqref="L2:BM16 AZ20:BM20 L17:AM17 AO17:BM17 L18:BM19 L20:AX20">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K17">
+  <conditionalFormatting sqref="K2:K20">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>IF(K2&lt;&gt;J2,TRUE())</formula>
     </cfRule>
@@ -6264,6 +6618,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6280,7 +6635,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="100" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="99" width="8.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="44" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="44" width="23.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="44" width="11.53"/>
@@ -6288,280 +6643,280 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="100" t="s">
-        <v>100</v>
+      <c r="A1" s="99" t="s">
+        <v>104</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="101" t="n">
+      <c r="A2" s="100" t="n">
         <v>45297</v>
       </c>
-      <c r="B2" s="100" t="s">
-        <v>102</v>
+      <c r="B2" s="99" t="s">
+        <v>106</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E2" s="83" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="102" t="n">
+        <v>108</v>
+      </c>
+      <c r="F2" s="101" t="n">
         <v>45413</v>
       </c>
-      <c r="G2" s="102" t="n">
+      <c r="G2" s="101" t="n">
         <v>45414</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="101" t="n">
+      <c r="A3" s="100" t="n">
         <v>45359</v>
       </c>
-      <c r="B3" s="100" t="s">
-        <v>105</v>
+      <c r="B3" s="99" t="s">
+        <v>109</v>
       </c>
       <c r="C3" s="83" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D3" s="83" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E3" s="83" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="101" t="n">
+      <c r="A4" s="100" t="n">
         <v>45380</v>
       </c>
-      <c r="B4" s="100" t="s">
-        <v>109</v>
+      <c r="B4" s="99" t="s">
+        <v>113</v>
       </c>
       <c r="C4" s="83" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E4" s="83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="100" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="83" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="101" t="n">
-        <v>45383</v>
-      </c>
-      <c r="B5" s="100" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="83" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="83" t="s">
-        <v>107</v>
-      </c>
       <c r="E5" s="83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="100" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="100" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="100" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B8" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="83" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="101" t="n">
-        <v>45413</v>
-      </c>
-      <c r="B6" s="100" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="83" t="s">
+      <c r="E8" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="83" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="100" t="n">
+        <v>45442</v>
+      </c>
+      <c r="B9" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="100" t="n">
+        <v>45519</v>
+      </c>
+      <c r="B10" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="83" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="100" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B11" s="99" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="83" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="101" t="n">
-        <v>45421</v>
-      </c>
-      <c r="B7" s="100" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="83" t="s">
+      <c r="E11" s="83" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="100" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B12" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="100" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B13" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="99" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="101" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B14" s="99" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="83" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="101" t="n">
-        <v>45432</v>
-      </c>
-      <c r="B8" s="100" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="83" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="83" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="101" t="n">
-        <v>45442</v>
-      </c>
-      <c r="B9" s="100" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="83" t="s">
+      <c r="E14" s="83" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="101" t="n">
+        <v>45616</v>
+      </c>
+      <c r="B15" s="99" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="101" t="n">
+        <v>45651</v>
+      </c>
+      <c r="B16" s="99" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="101" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B17" s="99" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="83" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="101" t="n">
-        <v>45519</v>
-      </c>
-      <c r="B10" s="100" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="83" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="83" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="101" t="n">
-        <v>45555</v>
-      </c>
-      <c r="B11" s="100" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="83" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="83" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="101" t="n">
-        <v>45568</v>
-      </c>
-      <c r="B12" s="100" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="83" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="83" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="101" t="n">
-        <v>45596</v>
-      </c>
-      <c r="B13" s="100" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="83" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="100" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="102" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B14" s="100" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="83" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="83" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="102" t="n">
-        <v>45616</v>
-      </c>
-      <c r="B15" s="100" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="83" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="83" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="102" t="n">
-        <v>45651</v>
-      </c>
-      <c r="B16" s="100" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="83" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="102" t="n">
-        <v>45652</v>
-      </c>
-      <c r="B17" s="100" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="83" t="s">
-        <v>118</v>
-      </c>
       <c r="E17" s="83" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F17" s="83" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Übungen/Online_Shop.Projekt.xlsx
+++ b/Übungen/Online_Shop.Projekt.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PSP" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="PSP_2" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Netzplan" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Gantt" sheetId="4" state="hidden" r:id="rId6"/>
+    <sheet name="Gantt" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="Feiertage" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -483,14 +483,13 @@
     <numFmt numFmtId="168" formatCode="0\ %"/>
     <numFmt numFmtId="169" formatCode="General"/>
     <numFmt numFmtId="170" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="171" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
+    <numFmt numFmtId="171" formatCode="dddd, d/\ mmmm\ yyyy"/>
   </numFmts>
   <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -512,7 +511,6 @@
       <color rgb="FFFFBF00"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -520,28 +518,24 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -549,7 +543,6 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -562,7 +555,6 @@
       <color rgb="FFDDDDDD"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="19">
@@ -1290,7 +1282,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="2"/>
         <b val="1"/>
         <color rgb="FFFF0000"/>
@@ -1299,7 +1290,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="2"/>
         <b val="1"/>
         <color rgb="FFFF0000"/>
@@ -1308,7 +1298,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="2"/>
         <b val="1"/>
         <color rgb="FFFF0000"/>
@@ -1317,7 +1306,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="2"/>
         <b val="1"/>
         <color rgb="FFFF0000"/>
@@ -1326,7 +1314,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="2"/>
         <b val="1"/>
         <color rgb="FFFF0000"/>
@@ -1335,7 +1322,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="2"/>
         <b val="1"/>
         <color rgb="FFFF0000"/>
@@ -1344,7 +1330,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="2"/>
         <b val="1"/>
         <color rgb="FFFF0000"/>
@@ -1353,7 +1338,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="2"/>
         <b val="1"/>
         <color rgb="FFFF0000"/>
@@ -1362,7 +1346,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="2"/>
         <b val="1"/>
         <color rgb="FFFF0000"/>
@@ -1371,7 +1354,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="2"/>
         <b val="1"/>
         <color rgb="FFFF0000"/>
@@ -1380,7 +1362,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="2"/>
         <b val="1"/>
         <color rgb="FFFF0000"/>
@@ -1389,7 +1370,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="2"/>
         <b val="1"/>
         <color rgb="FFFF0000"/>
@@ -1398,7 +1378,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="2"/>
         <b val="1"/>
         <color rgb="FFFF0000"/>
@@ -1407,7 +1386,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="2"/>
         <b val="1"/>
         <color rgb="FFFF0000"/>
@@ -1416,7 +1394,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="2"/>
         <b val="1"/>
         <color rgb="FFFF0000"/>
@@ -1425,7 +1402,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="2"/>
         <b val="1"/>
         <color rgb="FFFF0000"/>
@@ -1434,7 +1410,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="2"/>
         <b val="1"/>
         <color rgb="FFFF0000"/>
@@ -1442,6 +1417,8 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Arial"/>
+        <family val="2"/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -1453,7 +1430,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="2"/>
         <color rgb="FF548235"/>
       </font>
@@ -1466,7 +1442,6 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
         <family val="2"/>
         <b val="1"/>
         <i val="0"/>
@@ -1554,9 +1529,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>102240</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1565,8 +1540,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7192440" y="17212320"/>
-          <a:ext cx="2241720" cy="421560"/>
+          <a:off x="9638280" y="17279640"/>
+          <a:ext cx="2241000" cy="420840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1583,7 +1558,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" horzOverflow="clip" vertOverflow="clip" lIns="0" rIns="0" tIns="0" bIns="0" anchor="t">
+        <a:bodyPr wrap="none" vertOverflow="clip" lIns="0" rIns="0" tIns="0" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -1632,9 +1607,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>183600</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1644,7 +1619,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7922160" y="1632600"/>
-          <a:ext cx="110160" cy="161280"/>
+          <a:ext cx="109440" cy="160560"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1676,9 +1651,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>183240</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:colOff>182520</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1688,7 +1663,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12196440" y="2779560"/>
-          <a:ext cx="110160" cy="161280"/>
+          <a:ext cx="109440" cy="160560"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1720,9 +1695,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>182160</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1732,7 +1707,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14207760" y="3264840"/>
-          <a:ext cx="110160" cy="161280"/>
+          <a:ext cx="109440" cy="160560"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1801,14 +1776,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -1816,67 +1791,25 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -1895,35 +1828,11 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -1937,7 +1846,7 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2511,7 +2420,7 @@
   </sheetPr>
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -3233,23 +3142,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BQ23"/>
+  <dimension ref="A1:BQ107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U20" activeCellId="0" sqref="U20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X10" activeCellId="0" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="7" style="3" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="43" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="7" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="9" min="9" style="43" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="11" style="44" width="3.86"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
@@ -3277,7 +3186,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
         <v>16</v>
       </c>
@@ -3402,7 +3311,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="36" t="s">
         <v>15</v>
       </c>
@@ -3511,7 +3420,7 @@
       <c r="BP3" s="59"/>
       <c r="BQ3" s="59"/>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="36" t="s">
         <v>21</v>
       </c>
@@ -3673,7 +3582,7 @@
       </c>
       <c r="BQ4" s="65"/>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="36" t="s">
         <v>27</v>
       </c>
@@ -3806,7 +3715,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="36" t="s">
         <v>32</v>
       </c>
@@ -3841,7 +3750,7 @@
       <c r="AE6" s="70"/>
       <c r="BM6" s="70"/>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="36" t="s">
         <v>22</v>
       </c>
@@ -3875,7 +3784,7 @@
       <c r="AE7" s="70"/>
       <c r="BM7" s="70"/>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="36" t="s">
         <v>28</v>
       </c>
@@ -3927,7 +3836,7 @@
       <c r="AE8" s="70"/>
       <c r="BM8" s="70"/>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="36" t="s">
         <v>33</v>
       </c>
@@ -3974,7 +3883,7 @@
       <c r="AE9" s="70"/>
       <c r="BM9" s="70"/>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="36" t="s">
         <v>35</v>
       </c>
@@ -4032,7 +3941,7 @@
       <c r="AE10" s="70"/>
       <c r="BM10" s="70"/>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="36" t="s">
         <v>37</v>
       </c>
@@ -4083,7 +3992,7 @@
       <c r="AE11" s="70"/>
       <c r="BM11" s="70"/>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="36" t="s">
         <v>17</v>
       </c>
@@ -4120,7 +4029,7 @@
       <c r="AE12" s="75"/>
       <c r="BM12" s="70"/>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="36" t="s">
         <v>23</v>
       </c>
@@ -4153,7 +4062,7 @@
       <c r="Y13" s="70"/>
       <c r="BM13" s="70"/>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="36" t="s">
         <v>41</v>
       </c>
@@ -4213,7 +4122,7 @@
       </c>
       <c r="BM14" s="70"/>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="36" t="s">
         <v>29</v>
       </c>
@@ -4300,7 +4209,7 @@
       <c r="BL15" s="62"/>
       <c r="BM15" s="75"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="36" t="s">
         <v>43</v>
       </c>
@@ -4366,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="40" t="s">
         <v>44</v>
       </c>
@@ -4420,12 +4329,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="81"/>
       <c r="H18" s="81"/>
       <c r="I18" s="81"/>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="82" t="s">
         <v>86</v>
       </c>
@@ -4433,7 +4342,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="52" t="s">
         <v>88</v>
       </c>
@@ -4445,14 +4354,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="59" t="s">
         <v>91</v>
       </c>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="63" t="s">
         <v>92</v>
       </c>
@@ -4466,7 +4375,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="68" t="s">
         <v>96</v>
       </c>
@@ -4478,6 +4387,90 @@
         <v>98</v>
       </c>
     </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="35">
     <mergeCell ref="B1:D1"/>
@@ -4581,22 +4574,22 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R16">
+  <conditionalFormatting sqref="R4">
     <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R4">
+  <conditionalFormatting sqref="M4">
     <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
+  <conditionalFormatting sqref="B22">
     <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
+  <conditionalFormatting sqref="R16">
     <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>0</formula>
     </cfRule>
@@ -4619,10 +4612,10 @@
   </sheetPr>
   <dimension ref="A1:BN20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="0" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="11" ySplit="0" topLeftCell="BD1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="BN2" activeCellId="0" sqref="BN2"/>
+      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
@@ -6627,7 +6620,7 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6920,11 +6913,11 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CSeite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/Übungen/Online_Shop.Projekt.xlsx
+++ b/Übungen/Online_Shop.Projekt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="PSP" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Netzplan" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Gantt" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="PSP" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Netzplan" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Gantt" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="65">
   <si>
     <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
@@ -214,16 +214,7 @@
     <t xml:space="preserve">Karl, Nyugen (50%)</t>
   </si>
   <si>
-    <t xml:space="preserve">Daten erfasst</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nyugen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta</t>
   </si>
   <si>
     <t xml:space="preserve">Groß, Nyugen (50%)</t>
@@ -450,224 +441,228 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -821,7 +816,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5456880" y="479520"/>
+          <a:off x="5456160" y="479520"/>
           <a:ext cx="5491800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -863,8 +858,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5457600" y="488160"/>
-          <a:ext cx="0" cy="170640"/>
+          <a:off x="5456520" y="488520"/>
+          <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -904,8 +899,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5456880" y="488160"/>
-          <a:ext cx="0" cy="170640"/>
+          <a:off x="5455800" y="488520"/>
+          <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -946,8 +941,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5463360" y="1125360"/>
-          <a:ext cx="0" cy="170640"/>
+          <a:off x="5462280" y="1125360"/>
+          <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -988,8 +983,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5463360" y="1612800"/>
-          <a:ext cx="0" cy="170640"/>
+          <a:off x="5462280" y="1613160"/>
+          <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1030,8 +1025,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5463360" y="2099880"/>
-          <a:ext cx="0" cy="170640"/>
+          <a:off x="5462280" y="2100240"/>
+          <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1072,8 +1067,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5463360" y="2587320"/>
-          <a:ext cx="0" cy="170640"/>
+          <a:off x="5462280" y="2587320"/>
+          <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1114,8 +1109,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8200800" y="324720"/>
-          <a:ext cx="0" cy="170640"/>
+          <a:off x="8199720" y="324720"/>
+          <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1156,8 +1151,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8200800" y="487440"/>
-          <a:ext cx="0" cy="170640"/>
+          <a:off x="8199720" y="487800"/>
+          <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1198,8 +1193,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8200800" y="1125360"/>
-          <a:ext cx="0" cy="170640"/>
+          <a:off x="8199720" y="1125360"/>
+          <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1240,8 +1235,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8200800" y="1612800"/>
-          <a:ext cx="0" cy="170640"/>
+          <a:off x="8199720" y="1613160"/>
+          <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1282,8 +1277,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8200800" y="2587320"/>
-          <a:ext cx="0" cy="170640"/>
+          <a:off x="8199720" y="2587320"/>
+          <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1324,8 +1319,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8200800" y="3074400"/>
-          <a:ext cx="0" cy="170640"/>
+          <a:off x="8199720" y="3074760"/>
+          <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1366,8 +1361,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8200800" y="4048920"/>
-          <a:ext cx="0" cy="170640"/>
+          <a:off x="8199720" y="4048920"/>
+          <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1408,8 +1403,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8200800" y="5023440"/>
-          <a:ext cx="0" cy="170640"/>
+          <a:off x="8199720" y="5023800"/>
+          <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1450,8 +1445,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10938600" y="487440"/>
-          <a:ext cx="0" cy="170640"/>
+          <a:off x="10937520" y="487800"/>
+          <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1492,8 +1487,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10938600" y="1125360"/>
-          <a:ext cx="0" cy="170640"/>
+          <a:off x="10937520" y="1125360"/>
+          <a:ext cx="0" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1534,8 +1529,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10938600" y="1612800"/>
-          <a:ext cx="0" cy="170640"/>
+          <a:off x="10937520" y="1613160"/>
+          <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1576,8 +1571,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10938600" y="2099880"/>
-          <a:ext cx="0" cy="170640"/>
+          <a:off x="10937520" y="2100240"/>
+          <a:ext cx="0" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1618,7 +1613,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8199360" y="3557520"/>
+          <a:off x="8198280" y="3557520"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1660,7 +1655,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8199360" y="4533480"/>
+          <a:off x="8198280" y="4533480"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1702,7 +1697,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8199360" y="2093760"/>
+          <a:off x="8198280" y="2093760"/>
           <a:ext cx="0" cy="170640"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1749,8 +1744,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9587160" y="478440"/>
-          <a:ext cx="535680" cy="6120"/>
+          <a:off x="9580320" y="478800"/>
+          <a:ext cx="534600" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1791,8 +1786,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10926720" y="484560"/>
-          <a:ext cx="541080" cy="5400"/>
+          <a:off x="10917720" y="484920"/>
+          <a:ext cx="539640" cy="5760"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1833,8 +1828,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9831600" y="504360"/>
-          <a:ext cx="18360" cy="1950840"/>
+          <a:off x="9825120" y="505080"/>
+          <a:ext cx="17640" cy="1950480"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1875,7 +1870,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9858960" y="2434680"/>
+          <a:off x="9851760" y="2435040"/>
           <a:ext cx="252360" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1917,8 +1912,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12286800" y="478440"/>
-          <a:ext cx="1863000" cy="5400"/>
+          <a:off x="12274200" y="478800"/>
+          <a:ext cx="1859040" cy="5400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1959,8 +1954,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10926360" y="2435400"/>
-          <a:ext cx="541080" cy="5040"/>
+          <a:off x="10917360" y="2435760"/>
+          <a:ext cx="539640" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2001,8 +1996,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12277800" y="2435400"/>
-          <a:ext cx="535680" cy="5040"/>
+          <a:off x="12265200" y="2435760"/>
+          <a:ext cx="534600" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2043,7 +2038,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11186640" y="482400"/>
+          <a:off x="11176920" y="482760"/>
           <a:ext cx="0" cy="982440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2085,8 +2080,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="11182320" y="1454760"/>
-          <a:ext cx="275400" cy="3960"/>
+          <a:off x="11172960" y="1455120"/>
+          <a:ext cx="274320" cy="3960"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2127,8 +2122,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12269880" y="1455840"/>
-          <a:ext cx="565920" cy="7200"/>
+          <a:off x="12257280" y="1455840"/>
+          <a:ext cx="564120" cy="7200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2169,8 +2164,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14978160" y="480240"/>
-          <a:ext cx="560160" cy="0"/>
+          <a:off x="14959440" y="480240"/>
+          <a:ext cx="558360" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2211,8 +2206,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="12545640" y="1926720"/>
-          <a:ext cx="10440" cy="505440"/>
+          <a:off x="12533040" y="1926720"/>
+          <a:ext cx="9720" cy="505800"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2253,8 +2248,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="12546000" y="1942920"/>
-          <a:ext cx="1345320" cy="4680"/>
+          <a:off x="12533400" y="1943280"/>
+          <a:ext cx="1342080" cy="4680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2295,8 +2290,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="13897440" y="470880"/>
-          <a:ext cx="1080" cy="1504440"/>
+          <a:off x="13881600" y="471240"/>
+          <a:ext cx="1080" cy="1504800"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2337,8 +2332,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13636440" y="1463040"/>
-          <a:ext cx="278280" cy="0"/>
+          <a:off x="13620240" y="1463040"/>
+          <a:ext cx="277560" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2379,8 +2374,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16350480" y="478440"/>
-          <a:ext cx="559440" cy="0"/>
+          <a:off x="16327800" y="478440"/>
+          <a:ext cx="558360" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2421,8 +2416,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17695080" y="478080"/>
-          <a:ext cx="556560" cy="3600"/>
+          <a:off x="17669160" y="478080"/>
+          <a:ext cx="555120" cy="3600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2463,8 +2458,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="19065960" y="484560"/>
-          <a:ext cx="529200" cy="5400"/>
+          <a:off x="19036800" y="484920"/>
+          <a:ext cx="527760" cy="5760"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2505,8 +2500,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20377440" y="479880"/>
-          <a:ext cx="581040" cy="1080"/>
+          <a:off x="20346120" y="480240"/>
+          <a:ext cx="578880" cy="1080"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2547,8 +2542,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="21731040" y="480960"/>
-          <a:ext cx="551160" cy="9000"/>
+          <a:off x="21696480" y="481320"/>
+          <a:ext cx="550080" cy="9360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2589,8 +2584,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="23103720" y="480960"/>
-          <a:ext cx="541080" cy="9000"/>
+          <a:off x="23065560" y="481320"/>
+          <a:ext cx="539640" cy="9360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2631,8 +2626,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23365440" y="489960"/>
-          <a:ext cx="6120" cy="1950480"/>
+          <a:off x="23327280" y="490320"/>
+          <a:ext cx="6120" cy="1950120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2673,8 +2668,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10937520" y="484560"/>
-          <a:ext cx="252000" cy="6120"/>
+          <a:off x="10927800" y="484920"/>
+          <a:ext cx="252000" cy="6480"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2699,8 +2694,8 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>268200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>-720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
@@ -2715,8 +2710,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13632480" y="2436840"/>
-          <a:ext cx="9723960" cy="6120"/>
+          <a:off x="13617000" y="2437560"/>
+          <a:ext cx="9701280" cy="5760"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2740,226 +2735,126 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>8280</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>134280</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name=""/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11856600" y="1647720"/>
-          <a:ext cx="126000" cy="155160"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="10800" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="10800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="21600"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="10800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="0"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
         <a:solidFill>
-          <a:srgbClr val="729fcf"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>5400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>131400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name=""/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13880520" y="2462040"/>
-          <a:ext cx="126000" cy="155160"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="10800" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="10800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="21600"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="10800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="0"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
         <a:solidFill>
-          <a:srgbClr val="729fcf"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>2880</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>128880</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name=""/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17172000" y="2949480"/>
-          <a:ext cx="126000" cy="155160"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="10800" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="10800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="21600"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="10800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="0"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
         <a:solidFill>
-          <a:srgbClr val="729fcf"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3494,7 +3389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3511,7 +3406,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="7" style="3" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="9" min="9" style="20" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="11" style="0" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="11" style="21" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3523,22 +3418,22 @@
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="22" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3551,118 +3446,118 @@
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="25" t="n">
+      <c r="G2" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="25" t="n">
+      <c r="I2" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="26" t="n">
         <f aca="false">ROUND(G2/(H2*I2),0)</f>
         <v>5</v>
       </c>
-      <c r="L2" s="27" t="n">
+      <c r="L2" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="27" t="n">
+      <c r="M2" s="29"/>
+      <c r="N2" s="28" t="n">
         <f aca="false">L2+L4</f>
         <v>5</v>
       </c>
-      <c r="Q2" s="27" t="n">
+      <c r="Q2" s="28" t="n">
         <f aca="false">N2</f>
         <v>5</v>
       </c>
-      <c r="R2" s="28"/>
-      <c r="S2" s="27" t="n">
+      <c r="R2" s="29"/>
+      <c r="S2" s="28" t="n">
         <f aca="false">Q2+Q4</f>
         <v>6</v>
       </c>
-      <c r="V2" s="27" t="n">
+      <c r="V2" s="28" t="n">
         <f aca="false">S2</f>
         <v>6</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="27" t="n">
+      <c r="W2" s="29"/>
+      <c r="X2" s="28" t="n">
         <f aca="false">V2+V4</f>
         <v>10</v>
       </c>
-      <c r="AF2" s="27" t="n">
+      <c r="AF2" s="28" t="n">
         <f aca="false">MAX(X2,AC8,X14)</f>
         <v>16</v>
       </c>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="27" t="n">
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="28" t="n">
         <f aca="false">AF2+AF4</f>
         <v>18</v>
       </c>
-      <c r="AK2" s="27" t="n">
+      <c r="AK2" s="28" t="n">
         <f aca="false">AH2</f>
         <v>18</v>
       </c>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="27" t="n">
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="28" t="n">
         <f aca="false">AK2+AK4</f>
         <v>20</v>
       </c>
-      <c r="AP2" s="27" t="n">
+      <c r="AP2" s="28" t="n">
         <f aca="false">AM2</f>
         <v>20</v>
       </c>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="27" t="n">
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="28" t="n">
         <f aca="false">AP2+AP4</f>
         <v>22</v>
       </c>
-      <c r="AU2" s="27" t="n">
+      <c r="AU2" s="28" t="n">
         <f aca="false">AR2</f>
         <v>22</v>
       </c>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="27" t="n">
+      <c r="AV2" s="29"/>
+      <c r="AW2" s="28" t="n">
         <f aca="false">AU2+AU4</f>
         <v>25</v>
       </c>
-      <c r="AZ2" s="27" t="n">
+      <c r="AZ2" s="28" t="n">
         <f aca="false">AW2</f>
         <v>25</v>
       </c>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="27" t="n">
+      <c r="BA2" s="29"/>
+      <c r="BB2" s="28" t="n">
         <f aca="false">AZ2+AZ4</f>
         <v>28</v>
       </c>
-      <c r="BE2" s="27" t="n">
+      <c r="BE2" s="28" t="n">
         <f aca="false">BB2</f>
         <v>28</v>
       </c>
-      <c r="BF2" s="28"/>
-      <c r="BG2" s="27" t="n">
+      <c r="BF2" s="29"/>
+      <c r="BG2" s="28" t="n">
         <f aca="false">BE2+BE4</f>
         <v>29</v>
       </c>
-      <c r="BJ2" s="27" t="n">
+      <c r="BJ2" s="28" t="n">
         <f aca="false">BG2</f>
         <v>29</v>
       </c>
-      <c r="BK2" s="28"/>
-      <c r="BL2" s="27" t="n">
+      <c r="BK2" s="29"/>
+      <c r="BL2" s="28" t="n">
         <f aca="false">BJ2+BJ4</f>
         <v>34</v>
       </c>
-      <c r="BO2" s="27" t="n">
+      <c r="BO2" s="28" t="n">
         <f aca="false">MAX(BL2,AC14)</f>
         <v>34</v>
       </c>
-      <c r="BP2" s="28"/>
-      <c r="BQ2" s="27" t="n">
+      <c r="BP2" s="29"/>
+      <c r="BQ2" s="28" t="n">
         <f aca="false">BO2+BO4</f>
         <v>35</v>
       </c>
@@ -3676,80 +3571,80 @@
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="29" t="s">
+      <c r="G3" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="30" t="n">
+      <c r="I3" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="31" t="n">
         <f aca="false">ROUND(G3/(H3*I3),0)</f>
         <v>1</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="Q3" s="32" t="s">
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="Q3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="V3" s="32" t="s">
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="V3" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="AF3" s="32" t="s">
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="AF3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AK3" s="32" t="s">
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AK3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="32"/>
-      <c r="AP3" s="32" t="s">
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+      <c r="AP3" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="32"/>
-      <c r="AU3" s="32" t="s">
+      <c r="AQ3" s="33"/>
+      <c r="AR3" s="33"/>
+      <c r="AU3" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="AV3" s="32"/>
-      <c r="AW3" s="32"/>
-      <c r="AZ3" s="32" t="s">
+      <c r="AV3" s="33"/>
+      <c r="AW3" s="33"/>
+      <c r="AZ3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="BA3" s="32"/>
-      <c r="BB3" s="32"/>
-      <c r="BE3" s="32" t="s">
+      <c r="BA3" s="33"/>
+      <c r="BB3" s="33"/>
+      <c r="BE3" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="BF3" s="32"/>
-      <c r="BG3" s="32"/>
-      <c r="BJ3" s="32" t="s">
+      <c r="BF3" s="33"/>
+      <c r="BG3" s="33"/>
+      <c r="BJ3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="BK3" s="32"/>
-      <c r="BL3" s="32"/>
-      <c r="BO3" s="32" t="s">
+      <c r="BK3" s="33"/>
+      <c r="BL3" s="33"/>
+      <c r="BO3" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="BP3" s="32"/>
-      <c r="BQ3" s="32"/>
+      <c r="BP3" s="33"/>
+      <c r="BQ3" s="33"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
@@ -3760,154 +3655,154 @@
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="30" t="n">
+      <c r="G4" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="30" t="n">
+      <c r="I4" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="31" t="n">
         <f aca="false">ROUND(G4/(H4*I4),0)</f>
         <v>4</v>
       </c>
-      <c r="L4" s="33" t="n">
+      <c r="L4" s="34" t="n">
         <f aca="false">J2</f>
         <v>5</v>
       </c>
-      <c r="M4" s="34" t="n">
+      <c r="M4" s="35" t="n">
         <f aca="false">N5-N2</f>
         <v>0</v>
       </c>
-      <c r="N4" s="33" t="n">
+      <c r="N4" s="34" t="n">
         <f aca="false">MIN(Q2,Q14)-N2</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="33" t="n">
+      <c r="Q4" s="34" t="n">
         <f aca="false">J3</f>
         <v>1</v>
       </c>
-      <c r="R4" s="34" t="n">
+      <c r="R4" s="35" t="n">
         <f aca="false">S5-S2</f>
         <v>0</v>
       </c>
-      <c r="S4" s="33" t="n">
+      <c r="S4" s="34" t="n">
         <f aca="false">MIN(V2,V8)-S2</f>
         <v>0</v>
       </c>
-      <c r="V4" s="33" t="n">
+      <c r="V4" s="34" t="n">
         <f aca="false">J4</f>
         <v>4</v>
       </c>
-      <c r="W4" s="34" t="n">
+      <c r="W4" s="35" t="n">
         <f aca="false">X5-X2</f>
         <v>6</v>
       </c>
-      <c r="X4" s="33" t="n">
+      <c r="X4" s="34" t="n">
         <f aca="false">AF2-X2</f>
         <v>6</v>
       </c>
-      <c r="AF4" s="33" t="n">
+      <c r="AF4" s="34" t="n">
         <f aca="false">J9</f>
         <v>2</v>
       </c>
-      <c r="AG4" s="34" t="n">
+      <c r="AG4" s="35" t="n">
         <f aca="false">AH5-AH2</f>
         <v>0</v>
       </c>
-      <c r="AH4" s="33" t="n">
+      <c r="AH4" s="34" t="n">
         <f aca="false">AK2-AH2</f>
         <v>0</v>
       </c>
-      <c r="AK4" s="33" t="n">
+      <c r="AK4" s="34" t="n">
         <f aca="false">J10</f>
         <v>2</v>
       </c>
-      <c r="AL4" s="34" t="n">
+      <c r="AL4" s="35" t="n">
         <f aca="false">AM5-AM2</f>
         <v>0</v>
       </c>
-      <c r="AM4" s="33" t="n">
+      <c r="AM4" s="34" t="n">
         <f aca="false">AP2-AM2</f>
         <v>0</v>
       </c>
-      <c r="AP4" s="33" t="n">
+      <c r="AP4" s="34" t="n">
         <f aca="false">J11</f>
         <v>2</v>
       </c>
-      <c r="AQ4" s="34" t="n">
+      <c r="AQ4" s="35" t="n">
         <f aca="false">AR5-AR2</f>
         <v>0</v>
       </c>
-      <c r="AR4" s="33" t="n">
+      <c r="AR4" s="34" t="n">
         <f aca="false">AU2-AR2</f>
         <v>0</v>
       </c>
-      <c r="AU4" s="33" t="n">
+      <c r="AU4" s="34" t="n">
         <f aca="false">J13</f>
         <v>3</v>
       </c>
-      <c r="AV4" s="34" t="n">
+      <c r="AV4" s="35" t="n">
         <f aca="false">AW5-AW2</f>
         <v>0</v>
       </c>
-      <c r="AW4" s="33" t="n">
+      <c r="AW4" s="34" t="n">
         <f aca="false">AZ2-AW2</f>
         <v>0</v>
       </c>
-      <c r="AZ4" s="33" t="n">
+      <c r="AZ4" s="34" t="n">
         <f aca="false">J14</f>
         <v>3</v>
       </c>
-      <c r="BA4" s="34" t="n">
+      <c r="BA4" s="35" t="n">
         <f aca="false">BB5-BB2</f>
         <v>0</v>
       </c>
-      <c r="BB4" s="33" t="n">
+      <c r="BB4" s="34" t="n">
         <f aca="false">BE2-BB2</f>
         <v>0</v>
       </c>
-      <c r="BE4" s="33" t="n">
+      <c r="BE4" s="34" t="n">
         <f aca="false">J15</f>
         <v>1</v>
       </c>
-      <c r="BF4" s="34" t="n">
+      <c r="BF4" s="35" t="n">
         <f aca="false">BG5-BG2</f>
         <v>0</v>
       </c>
-      <c r="BG4" s="33" t="n">
+      <c r="BG4" s="34" t="n">
         <f aca="false">BJ2-BG2</f>
         <v>0</v>
       </c>
-      <c r="BJ4" s="33" t="n">
+      <c r="BJ4" s="34" t="n">
         <f aca="false">J16</f>
         <v>5</v>
       </c>
-      <c r="BK4" s="34" t="n">
+      <c r="BK4" s="35" t="n">
         <f aca="false">BL5-BL2</f>
         <v>0</v>
       </c>
-      <c r="BL4" s="33" t="n">
+      <c r="BL4" s="34" t="n">
         <f aca="false">BO2-BL2</f>
         <v>0</v>
       </c>
-      <c r="BO4" s="33" t="n">
+      <c r="BO4" s="34" t="n">
         <f aca="false">J17</f>
         <v>1</v>
       </c>
-      <c r="BP4" s="34" t="n">
+      <c r="BP4" s="35" t="n">
         <f aca="false">BQ5-BQ2</f>
         <v>0</v>
       </c>
-      <c r="BQ4" s="33"/>
+      <c r="BQ4" s="34"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
@@ -3918,121 +3813,121 @@
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="30" t="n">
+      <c r="G5" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="30" t="n">
+      <c r="I5" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="31" t="n">
         <f aca="false">ROUND(G5/(H5*I5),0)</f>
         <v>3</v>
       </c>
-      <c r="L5" s="27" t="n">
+      <c r="L5" s="28" t="n">
         <f aca="false">N5-L4</f>
         <v>0</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="27" t="n">
+      <c r="M5" s="29"/>
+      <c r="N5" s="28" t="n">
         <f aca="false">MIN(Q5,Q17)</f>
         <v>5</v>
       </c>
-      <c r="Q5" s="27" t="n">
+      <c r="Q5" s="28" t="n">
         <f aca="false">S5-Q4</f>
         <v>5</v>
       </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="27" t="n">
+      <c r="R5" s="29"/>
+      <c r="S5" s="28" t="n">
         <f aca="false">MIN(V5,V11)</f>
         <v>6</v>
       </c>
-      <c r="V5" s="27" t="n">
+      <c r="V5" s="28" t="n">
         <f aca="false">X5-V4</f>
         <v>12</v>
       </c>
-      <c r="W5" s="28"/>
-      <c r="X5" s="27" t="n">
+      <c r="W5" s="29"/>
+      <c r="X5" s="28" t="n">
         <f aca="false">AF5</f>
         <v>16</v>
       </c>
-      <c r="AF5" s="27" t="n">
+      <c r="AF5" s="28" t="n">
         <f aca="false">AH5-AF4</f>
         <v>16</v>
       </c>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="27" t="n">
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="28" t="n">
         <f aca="false">AK5</f>
         <v>18</v>
       </c>
-      <c r="AK5" s="27" t="n">
+      <c r="AK5" s="28" t="n">
         <f aca="false">AM5-AK4</f>
         <v>18</v>
       </c>
-      <c r="AL5" s="28"/>
-      <c r="AM5" s="27" t="n">
+      <c r="AL5" s="29"/>
+      <c r="AM5" s="28" t="n">
         <f aca="false">AP5</f>
         <v>20</v>
       </c>
-      <c r="AP5" s="27" t="n">
+      <c r="AP5" s="28" t="n">
         <f aca="false">AR5-AP4</f>
         <v>20</v>
       </c>
-      <c r="AQ5" s="28"/>
-      <c r="AR5" s="27" t="n">
+      <c r="AQ5" s="29"/>
+      <c r="AR5" s="28" t="n">
         <f aca="false">AU5</f>
         <v>22</v>
       </c>
-      <c r="AU5" s="27" t="n">
+      <c r="AU5" s="28" t="n">
         <f aca="false">AW5-AU4</f>
         <v>22</v>
       </c>
-      <c r="AV5" s="28"/>
-      <c r="AW5" s="27" t="n">
+      <c r="AV5" s="29"/>
+      <c r="AW5" s="28" t="n">
         <f aca="false">AZ5</f>
         <v>25</v>
       </c>
-      <c r="AZ5" s="27" t="n">
+      <c r="AZ5" s="28" t="n">
         <f aca="false">BB5-AZ4</f>
         <v>25</v>
       </c>
-      <c r="BA5" s="28"/>
-      <c r="BB5" s="27" t="n">
+      <c r="BA5" s="29"/>
+      <c r="BB5" s="28" t="n">
         <f aca="false">BE5</f>
         <v>28</v>
       </c>
-      <c r="BE5" s="27" t="n">
+      <c r="BE5" s="28" t="n">
         <f aca="false">BG5-BE4</f>
         <v>28</v>
       </c>
-      <c r="BF5" s="28"/>
-      <c r="BG5" s="27" t="n">
+      <c r="BF5" s="29"/>
+      <c r="BG5" s="28" t="n">
         <f aca="false">BJ5</f>
         <v>29</v>
       </c>
-      <c r="BJ5" s="27" t="n">
+      <c r="BJ5" s="28" t="n">
         <f aca="false">BL5-BJ4</f>
         <v>29</v>
       </c>
-      <c r="BK5" s="28"/>
-      <c r="BL5" s="27" t="n">
+      <c r="BK5" s="29"/>
+      <c r="BL5" s="28" t="n">
         <f aca="false">BO5</f>
         <v>34</v>
       </c>
-      <c r="BO5" s="27" t="n">
+      <c r="BO5" s="28" t="n">
         <f aca="false">BQ5-BO4</f>
         <v>34</v>
       </c>
-      <c r="BP5" s="28"/>
-      <c r="BQ5" s="27" t="n">
+      <c r="BP5" s="29"/>
+      <c r="BQ5" s="28" t="n">
         <f aca="false">BQ2</f>
         <v>35</v>
       </c>
@@ -4046,22 +3941,22 @@
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="36" t="n">
+      <c r="G6" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="30" t="n">
+      <c r="I6" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="31" t="n">
         <f aca="false">ROUND(G6/(H6*I6),0)</f>
         <v>7</v>
       </c>
@@ -4075,22 +3970,22 @@
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="29" t="s">
+      <c r="G7" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="30" t="n">
+      <c r="I7" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="31" t="n">
         <f aca="false">ROUND(G7/(H7*I7),0)</f>
         <v>1</v>
       </c>
@@ -4104,40 +3999,40 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="36" t="n">
+      <c r="G8" s="37" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="30" t="n">
+      <c r="I8" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="31" t="n">
         <f aca="false">ROUND(G8/(H8*I8),0)</f>
         <v>3</v>
       </c>
-      <c r="V8" s="27" t="n">
+      <c r="V8" s="28" t="n">
         <f aca="false">S2</f>
         <v>6</v>
       </c>
-      <c r="W8" s="28"/>
-      <c r="X8" s="27" t="n">
+      <c r="W8" s="29"/>
+      <c r="X8" s="28" t="n">
         <f aca="false">V8+V10</f>
         <v>9</v>
       </c>
-      <c r="AA8" s="27" t="n">
+      <c r="AA8" s="28" t="n">
         <f aca="false">X8</f>
         <v>9</v>
       </c>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="27" t="n">
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="28" t="n">
         <f aca="false">AA8+AA10</f>
         <v>16</v>
       </c>
@@ -4151,35 +4046,35 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="36" t="n">
+      <c r="G9" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="30" t="n">
+      <c r="I9" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="31" t="n">
         <f aca="false">ROUND(G9/(H9*I9),0)</f>
         <v>2</v>
       </c>
-      <c r="V9" s="32" t="s">
+      <c r="V9" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="AA9" s="32" t="s">
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="AA9" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
@@ -4190,46 +4085,46 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="36" t="n">
+      <c r="G10" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="30" t="n">
+      <c r="I10" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="31" t="n">
         <f aca="false">ROUND(G10/(H10*I10),0)</f>
         <v>2</v>
       </c>
-      <c r="V10" s="33" t="n">
+      <c r="V10" s="34" t="n">
         <f aca="false">J5</f>
         <v>3</v>
       </c>
-      <c r="W10" s="34" t="n">
+      <c r="W10" s="35" t="n">
         <f aca="false">X11-X8</f>
         <v>0</v>
       </c>
-      <c r="X10" s="33" t="n">
+      <c r="X10" s="34" t="n">
         <f aca="false">AA8-X8</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="33" t="n">
+      <c r="AA10" s="34" t="n">
         <f aca="false">J6</f>
         <v>7</v>
       </c>
-      <c r="AB10" s="34" t="n">
+      <c r="AB10" s="35" t="n">
         <f aca="false">AC11-AC8</f>
         <v>0</v>
       </c>
-      <c r="AC10" s="33" t="n">
+      <c r="AC10" s="34" t="n">
         <f aca="false">AF2-AC8</f>
         <v>0</v>
       </c>
@@ -4243,40 +4138,40 @@
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="36" t="n">
+      <c r="G11" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="30" t="n">
+      <c r="I11" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="31" t="n">
         <f aca="false">ROUND(G11/(H11*I11),0)</f>
         <v>2</v>
       </c>
-      <c r="V11" s="27" t="n">
+      <c r="V11" s="28" t="n">
         <f aca="false">X11-V10</f>
         <v>6</v>
       </c>
-      <c r="W11" s="28"/>
-      <c r="X11" s="27" t="n">
+      <c r="W11" s="29"/>
+      <c r="X11" s="28" t="n">
         <f aca="false">AA11</f>
         <v>9</v>
       </c>
-      <c r="AA11" s="27" t="n">
+      <c r="AA11" s="28" t="n">
         <f aca="false">AC11-AA10</f>
         <v>9</v>
       </c>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="27" t="n">
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="28" t="n">
         <f aca="false">AF5</f>
         <v>16</v>
       </c>
@@ -4290,22 +4185,22 @@
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="36" t="n">
+      <c r="G12" s="37" t="n">
         <v>10</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="30" t="n">
+      <c r="I12" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="31" t="n">
         <f aca="false">ROUND(G12/(H12*I12),0)</f>
         <v>10</v>
       </c>
@@ -4319,22 +4214,22 @@
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="36" t="n">
+      <c r="G13" s="37" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="30" t="n">
+      <c r="I13" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="31" t="n">
         <f aca="false">ROUND(G13/(H13*I13),0)</f>
         <v>3</v>
       </c>
@@ -4348,49 +4243,49 @@
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="36" t="n">
+      <c r="G14" s="37" t="n">
         <v>3</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="30" t="n">
+      <c r="I14" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="31" t="n">
         <f aca="false">ROUND(G14/(H14*I14),0)</f>
         <v>3</v>
       </c>
-      <c r="Q14" s="27" t="n">
+      <c r="Q14" s="28" t="n">
         <f aca="false">N2</f>
         <v>5</v>
       </c>
-      <c r="R14" s="28"/>
-      <c r="S14" s="27" t="n">
+      <c r="R14" s="29"/>
+      <c r="S14" s="28" t="n">
         <f aca="false">Q14+Q16</f>
         <v>6</v>
       </c>
-      <c r="V14" s="27" t="n">
+      <c r="V14" s="28" t="n">
         <f aca="false">S14</f>
         <v>6</v>
       </c>
-      <c r="W14" s="28"/>
-      <c r="X14" s="27" t="n">
+      <c r="W14" s="29"/>
+      <c r="X14" s="28" t="n">
         <f aca="false">V14+V16</f>
         <v>9</v>
       </c>
-      <c r="AA14" s="27" t="n">
+      <c r="AA14" s="28" t="n">
         <f aca="false">X14</f>
         <v>9</v>
       </c>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="27" t="n">
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="28" t="n">
         <f aca="false">AA14+AA16</f>
         <v>19</v>
       </c>
@@ -4404,40 +4299,40 @@
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="29" t="s">
+      <c r="G15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="30" t="n">
+      <c r="I15" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="31" t="n">
         <f aca="false">ROUND(G15/(H15*I15),0)</f>
         <v>1</v>
       </c>
-      <c r="Q15" s="32" t="s">
+      <c r="Q15" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="V15" s="32" t="s">
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="V15" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="AA15" s="32" t="s">
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="AA15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
@@ -4448,58 +4343,58 @@
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="36" t="n">
+      <c r="G16" s="37" t="n">
         <v>5</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="30" t="n">
+      <c r="I16" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="31" t="n">
         <f aca="false">ROUND(G16/(H16*I16),0)</f>
         <v>5</v>
       </c>
-      <c r="Q16" s="33" t="n">
+      <c r="Q16" s="34" t="n">
         <f aca="false">J7</f>
         <v>1</v>
       </c>
-      <c r="R16" s="34" t="n">
+      <c r="R16" s="35" t="n">
         <f aca="false">S17-S14</f>
         <v>7</v>
       </c>
-      <c r="S16" s="33" t="n">
+      <c r="S16" s="34" t="n">
         <f aca="false">V14-S14</f>
         <v>0</v>
       </c>
-      <c r="V16" s="33" t="n">
+      <c r="V16" s="34" t="n">
         <f aca="false">J8</f>
         <v>3</v>
       </c>
-      <c r="W16" s="34" t="n">
+      <c r="W16" s="35" t="n">
         <f aca="false">X17-X14</f>
         <v>7</v>
       </c>
-      <c r="X16" s="33" t="n">
+      <c r="X16" s="34" t="n">
         <f aca="false">MIN(AA14,AF2)-X14</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="33" t="n">
+      <c r="AA16" s="34" t="n">
         <f aca="false">J12</f>
         <v>10</v>
       </c>
-      <c r="AB16" s="34" t="n">
+      <c r="AB16" s="35" t="n">
         <f aca="false">AC17-AC14</f>
         <v>15</v>
       </c>
-      <c r="AC16" s="33" t="n">
+      <c r="AC16" s="34" t="n">
         <f aca="false">BO2-AC14</f>
         <v>15</v>
       </c>
@@ -4513,55 +4408,55 @@
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="37" t="s">
+      <c r="F17" s="39"/>
+      <c r="G17" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="39" t="n">
+      <c r="I17" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="40" t="n">
         <f aca="false">ROUND(G17/(H17*I17),0)</f>
         <v>1</v>
       </c>
-      <c r="Q17" s="27" t="n">
+      <c r="Q17" s="28" t="n">
         <f aca="false">S17-Q16</f>
         <v>12</v>
       </c>
-      <c r="R17" s="28"/>
-      <c r="S17" s="27" t="n">
+      <c r="R17" s="29"/>
+      <c r="S17" s="28" t="n">
         <f aca="false">V17</f>
         <v>13</v>
       </c>
-      <c r="V17" s="27" t="n">
+      <c r="V17" s="28" t="n">
         <f aca="false">X17-V16</f>
         <v>13</v>
       </c>
-      <c r="W17" s="28"/>
-      <c r="X17" s="27" t="n">
+      <c r="W17" s="29"/>
+      <c r="X17" s="28" t="n">
         <f aca="false">MIN(AA17,AF5)</f>
         <v>16</v>
       </c>
-      <c r="AA17" s="27" t="n">
+      <c r="AA17" s="28" t="n">
         <f aca="false">AC17-AA16</f>
         <v>24</v>
       </c>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="27" t="n">
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="28" t="n">
         <f aca="false">BO5</f>
         <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -4617,29 +4512,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BN20"/>
+  <dimension ref="A1:BN17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="0" topLeftCell="AU1" activePane="topRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="11" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="BB14" activeCellId="0" sqref="BB14"/>
+      <selection pane="topRight" activeCell="U10" activeCellId="0" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="5" min="5" style="0" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="6" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="2" max="9" min="7" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="11" min="11" style="0" width="3.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="12" style="0" width="3.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="5" min="5" style="21" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="6" min="6" style="21" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="2" max="9" min="7" style="21" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="11" min="11" style="21" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="12" style="21" width="3.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="21" width="18.08"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="42.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>38</v>
       </c>
@@ -4648,188 +4543,188 @@
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="42" t="n">
+      <c r="K1" s="41"/>
+      <c r="L1" s="43" t="n">
         <v>44515</v>
       </c>
-      <c r="M1" s="42" t="n">
+      <c r="M1" s="43" t="n">
         <v>44516</v>
       </c>
-      <c r="N1" s="42" t="n">
+      <c r="N1" s="43" t="n">
         <v>44517</v>
       </c>
-      <c r="O1" s="42" t="n">
+      <c r="O1" s="43" t="n">
         <v>44518</v>
       </c>
-      <c r="P1" s="42" t="n">
+      <c r="P1" s="43" t="n">
         <v>44519</v>
       </c>
-      <c r="Q1" s="42" t="n">
+      <c r="Q1" s="43" t="n">
         <v>44520</v>
       </c>
-      <c r="R1" s="42" t="n">
+      <c r="R1" s="43" t="n">
         <v>44521</v>
       </c>
-      <c r="S1" s="42" t="n">
+      <c r="S1" s="43" t="n">
         <v>44522</v>
       </c>
-      <c r="T1" s="42" t="n">
+      <c r="T1" s="43" t="n">
         <v>44523</v>
       </c>
-      <c r="U1" s="42" t="n">
+      <c r="U1" s="43" t="n">
         <v>44524</v>
       </c>
-      <c r="V1" s="42" t="n">
+      <c r="V1" s="43" t="n">
         <v>44525</v>
       </c>
-      <c r="W1" s="42" t="n">
+      <c r="W1" s="43" t="n">
         <v>44526</v>
       </c>
-      <c r="X1" s="42" t="n">
+      <c r="X1" s="43" t="n">
         <v>44527</v>
       </c>
-      <c r="Y1" s="42" t="n">
+      <c r="Y1" s="43" t="n">
         <v>44528</v>
       </c>
-      <c r="Z1" s="42" t="n">
+      <c r="Z1" s="43" t="n">
         <v>44529</v>
       </c>
-      <c r="AA1" s="42" t="n">
+      <c r="AA1" s="43" t="n">
         <v>44530</v>
       </c>
-      <c r="AB1" s="42" t="n">
+      <c r="AB1" s="43" t="n">
         <v>44531</v>
       </c>
-      <c r="AC1" s="42" t="n">
+      <c r="AC1" s="43" t="n">
         <v>44532</v>
       </c>
-      <c r="AD1" s="42" t="n">
+      <c r="AD1" s="43" t="n">
         <v>44533</v>
       </c>
-      <c r="AE1" s="42" t="n">
+      <c r="AE1" s="43" t="n">
         <v>44534</v>
       </c>
-      <c r="AF1" s="42" t="n">
+      <c r="AF1" s="43" t="n">
         <v>44535</v>
       </c>
-      <c r="AG1" s="42" t="n">
+      <c r="AG1" s="43" t="n">
         <v>44536</v>
       </c>
-      <c r="AH1" s="42" t="n">
+      <c r="AH1" s="43" t="n">
         <v>44537</v>
       </c>
-      <c r="AI1" s="42" t="n">
+      <c r="AI1" s="43" t="n">
         <v>44538</v>
       </c>
-      <c r="AJ1" s="42" t="n">
+      <c r="AJ1" s="43" t="n">
         <v>44539</v>
       </c>
-      <c r="AK1" s="42" t="n">
+      <c r="AK1" s="43" t="n">
         <v>44540</v>
       </c>
-      <c r="AL1" s="42" t="n">
+      <c r="AL1" s="43" t="n">
         <v>44541</v>
       </c>
-      <c r="AM1" s="42" t="n">
+      <c r="AM1" s="43" t="n">
         <v>44542</v>
       </c>
-      <c r="AN1" s="42" t="n">
+      <c r="AN1" s="43" t="n">
         <v>44543</v>
       </c>
-      <c r="AO1" s="42" t="n">
+      <c r="AO1" s="43" t="n">
         <v>44544</v>
       </c>
-      <c r="AP1" s="42" t="n">
+      <c r="AP1" s="43" t="n">
         <v>44545</v>
       </c>
-      <c r="AQ1" s="42" t="n">
+      <c r="AQ1" s="43" t="n">
         <v>44546</v>
       </c>
-      <c r="AR1" s="42" t="n">
+      <c r="AR1" s="43" t="n">
         <v>44547</v>
       </c>
-      <c r="AS1" s="42" t="n">
+      <c r="AS1" s="43" t="n">
         <v>44548</v>
       </c>
-      <c r="AT1" s="42" t="n">
+      <c r="AT1" s="43" t="n">
         <v>44549</v>
       </c>
-      <c r="AU1" s="42" t="n">
+      <c r="AU1" s="43" t="n">
         <v>44550</v>
       </c>
-      <c r="AV1" s="42" t="n">
+      <c r="AV1" s="43" t="n">
         <v>44551</v>
       </c>
-      <c r="AW1" s="42" t="n">
+      <c r="AW1" s="43" t="n">
         <v>44552</v>
       </c>
-      <c r="AX1" s="42" t="n">
+      <c r="AX1" s="43" t="n">
         <v>44553</v>
       </c>
-      <c r="AY1" s="43" t="n">
+      <c r="AY1" s="44" t="n">
         <v>44554</v>
       </c>
-      <c r="AZ1" s="42" t="n">
+      <c r="AZ1" s="43" t="n">
         <v>44555</v>
       </c>
-      <c r="BA1" s="42" t="n">
+      <c r="BA1" s="43" t="n">
         <v>44556</v>
       </c>
-      <c r="BB1" s="42" t="n">
+      <c r="BB1" s="43" t="n">
         <v>44557</v>
       </c>
-      <c r="BC1" s="42" t="n">
+      <c r="BC1" s="43" t="n">
         <v>44558</v>
       </c>
-      <c r="BD1" s="42" t="n">
+      <c r="BD1" s="43" t="n">
         <v>44559</v>
       </c>
-      <c r="BE1" s="42" t="n">
+      <c r="BE1" s="43" t="n">
         <v>44560</v>
       </c>
-      <c r="BF1" s="43" t="n">
+      <c r="BF1" s="44" t="n">
         <v>44561</v>
       </c>
-      <c r="BG1" s="42" t="n">
+      <c r="BG1" s="43" t="n">
         <v>44562</v>
       </c>
-      <c r="BH1" s="42" t="n">
+      <c r="BH1" s="43" t="n">
         <v>44563</v>
       </c>
-      <c r="BI1" s="42" t="n">
+      <c r="BI1" s="43" t="n">
         <v>44564</v>
       </c>
-      <c r="BJ1" s="42" t="n">
+      <c r="BJ1" s="43" t="n">
         <v>44565</v>
       </c>
-      <c r="BK1" s="42" t="n">
+      <c r="BK1" s="43" t="n">
         <v>44566</v>
       </c>
-      <c r="BL1" s="43" t="n">
+      <c r="BL1" s="44" t="n">
         <v>44567</v>
       </c>
-      <c r="BM1" s="42" t="n">
+      <c r="BM1" s="43" t="n">
         <v>44568</v>
       </c>
-      <c r="BN1" s="0" t="s">
+      <c r="BN1" s="21" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4842,95 +4737,95 @@
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="30" t="n">
+      <c r="G2" s="31" t="n">
         <f aca="false">Netzplan!G2</f>
         <v>5</v>
       </c>
-      <c r="H2" s="30" t="str">
+      <c r="H2" s="31" t="str">
         <f aca="false">Netzplan!H2</f>
         <v>1</v>
       </c>
-      <c r="I2" s="31" t="n">
+      <c r="I2" s="32" t="n">
         <f aca="false">Netzplan!I2</f>
         <v>1</v>
       </c>
-      <c r="J2" s="44" t="n">
+      <c r="J2" s="45" t="n">
         <f aca="false">Netzplan!J2</f>
         <v>5</v>
       </c>
-      <c r="K2" s="45" t="n">
+      <c r="K2" s="46" t="n">
         <f aca="false">SUM(L2:BM2)</f>
         <v>5</v>
       </c>
-      <c r="L2" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="47"/>
-      <c r="BB2" s="47"/>
-      <c r="BC2" s="47"/>
-      <c r="BD2" s="47"/>
-      <c r="BE2" s="47"/>
-      <c r="BF2" s="48"/>
-      <c r="BG2" s="47"/>
-      <c r="BH2" s="47"/>
-      <c r="BI2" s="47"/>
-      <c r="BJ2" s="47"/>
-      <c r="BK2" s="47"/>
-      <c r="BL2" s="48"/>
-      <c r="BM2" s="47"/>
-      <c r="BN2" s="0" t="s">
+      <c r="L2" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="48"/>
+      <c r="AQ2" s="48"/>
+      <c r="AR2" s="48"/>
+      <c r="AS2" s="48"/>
+      <c r="AT2" s="48"/>
+      <c r="AU2" s="48"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="48"/>
+      <c r="BA2" s="48"/>
+      <c r="BB2" s="48"/>
+      <c r="BC2" s="48"/>
+      <c r="BD2" s="48"/>
+      <c r="BE2" s="48"/>
+      <c r="BF2" s="49"/>
+      <c r="BG2" s="48"/>
+      <c r="BH2" s="48"/>
+      <c r="BI2" s="48"/>
+      <c r="BJ2" s="48"/>
+      <c r="BK2" s="48"/>
+      <c r="BL2" s="49"/>
+      <c r="BM2" s="48"/>
+      <c r="BN2" s="21" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4943,89 +4838,89 @@
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="30" t="n">
+      <c r="G3" s="31" t="n">
         <f aca="false">Netzplan!G3</f>
         <v>1</v>
       </c>
-      <c r="H3" s="30" t="str">
+      <c r="H3" s="31" t="str">
         <f aca="false">Netzplan!H3</f>
         <v>1</v>
       </c>
-      <c r="I3" s="31" t="n">
+      <c r="I3" s="32" t="n">
         <f aca="false">Netzplan!I3</f>
         <v>1</v>
       </c>
-      <c r="J3" s="44" t="n">
+      <c r="J3" s="45" t="n">
         <f aca="false">Netzplan!J3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="45" t="n">
+      <c r="K3" s="46" t="n">
         <f aca="false">SUM(L3:BM3)</f>
         <v>1</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="48"/>
-      <c r="AZ3" s="47"/>
-      <c r="BA3" s="47"/>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="47"/>
-      <c r="BD3" s="47"/>
-      <c r="BE3" s="47"/>
-      <c r="BF3" s="48"/>
-      <c r="BG3" s="47"/>
-      <c r="BH3" s="47"/>
-      <c r="BI3" s="47"/>
-      <c r="BJ3" s="47"/>
-      <c r="BK3" s="47"/>
-      <c r="BL3" s="48"/>
-      <c r="BM3" s="47"/>
-      <c r="BN3" s="0" t="s">
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="48"/>
+      <c r="AQ3" s="48"/>
+      <c r="AR3" s="48"/>
+      <c r="AS3" s="48"/>
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="48"/>
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="48"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="48"/>
+      <c r="BA3" s="48"/>
+      <c r="BB3" s="48"/>
+      <c r="BC3" s="48"/>
+      <c r="BD3" s="48"/>
+      <c r="BE3" s="48"/>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="48"/>
+      <c r="BH3" s="48"/>
+      <c r="BI3" s="48"/>
+      <c r="BJ3" s="48"/>
+      <c r="BK3" s="48"/>
+      <c r="BL3" s="49"/>
+      <c r="BM3" s="48"/>
+      <c r="BN3" s="21" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5038,95 +4933,95 @@
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="30" t="n">
+      <c r="G4" s="31" t="n">
         <f aca="false">Netzplan!G4</f>
         <v>4</v>
       </c>
-      <c r="H4" s="30" t="str">
+      <c r="H4" s="31" t="str">
         <f aca="false">Netzplan!H4</f>
         <v>1</v>
       </c>
-      <c r="I4" s="31" t="n">
+      <c r="I4" s="32" t="n">
         <f aca="false">Netzplan!I4</f>
         <v>1</v>
       </c>
-      <c r="J4" s="44" t="n">
+      <c r="J4" s="45" t="n">
         <f aca="false">Netzplan!J4</f>
         <v>4</v>
       </c>
-      <c r="K4" s="45" t="n">
+      <c r="K4" s="46" t="n">
         <f aca="false">SUM(L4:BM4)</f>
         <v>4</v>
       </c>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="47"/>
-      <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="47"/>
-      <c r="AS4" s="47"/>
-      <c r="AT4" s="47"/>
-      <c r="AU4" s="47"/>
-      <c r="AV4" s="47"/>
-      <c r="AW4" s="47"/>
-      <c r="AX4" s="47"/>
-      <c r="AY4" s="48"/>
-      <c r="AZ4" s="47"/>
-      <c r="BA4" s="47"/>
-      <c r="BB4" s="47"/>
-      <c r="BC4" s="47"/>
-      <c r="BD4" s="47"/>
-      <c r="BE4" s="47"/>
-      <c r="BF4" s="48"/>
-      <c r="BG4" s="47"/>
-      <c r="BH4" s="47"/>
-      <c r="BI4" s="47"/>
-      <c r="BJ4" s="47"/>
-      <c r="BK4" s="47"/>
-      <c r="BL4" s="48"/>
-      <c r="BM4" s="47"/>
-      <c r="BN4" s="0" t="s">
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="48"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="48"/>
+      <c r="AP4" s="48"/>
+      <c r="AQ4" s="48"/>
+      <c r="AR4" s="48"/>
+      <c r="AS4" s="48"/>
+      <c r="AT4" s="48"/>
+      <c r="AU4" s="48"/>
+      <c r="AV4" s="48"/>
+      <c r="AW4" s="48"/>
+      <c r="AX4" s="48"/>
+      <c r="AY4" s="49"/>
+      <c r="AZ4" s="48"/>
+      <c r="BA4" s="48"/>
+      <c r="BB4" s="48"/>
+      <c r="BC4" s="48"/>
+      <c r="BD4" s="48"/>
+      <c r="BE4" s="48"/>
+      <c r="BF4" s="49"/>
+      <c r="BG4" s="48"/>
+      <c r="BH4" s="48"/>
+      <c r="BI4" s="48"/>
+      <c r="BJ4" s="48"/>
+      <c r="BK4" s="48"/>
+      <c r="BL4" s="49"/>
+      <c r="BM4" s="48"/>
+      <c r="BN4" s="21" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5139,93 +5034,93 @@
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="30" t="n">
+      <c r="G5" s="31" t="n">
         <f aca="false">Netzplan!G5</f>
         <v>3</v>
       </c>
-      <c r="H5" s="30" t="str">
+      <c r="H5" s="31" t="str">
         <f aca="false">Netzplan!H5</f>
         <v>1</v>
       </c>
-      <c r="I5" s="31" t="n">
+      <c r="I5" s="32" t="n">
         <f aca="false">Netzplan!I5</f>
         <v>1</v>
       </c>
-      <c r="J5" s="44" t="n">
+      <c r="J5" s="45" t="n">
         <f aca="false">Netzplan!J5</f>
         <v>3</v>
       </c>
-      <c r="K5" s="45" t="n">
+      <c r="K5" s="46" t="n">
         <f aca="false">SUM(L5:BM5)</f>
         <v>3</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="47"/>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="48"/>
-      <c r="AZ5" s="47"/>
-      <c r="BA5" s="47"/>
-      <c r="BB5" s="47"/>
-      <c r="BC5" s="47"/>
-      <c r="BD5" s="47"/>
-      <c r="BE5" s="47"/>
-      <c r="BF5" s="48"/>
-      <c r="BG5" s="47"/>
-      <c r="BH5" s="47"/>
-      <c r="BI5" s="47"/>
-      <c r="BJ5" s="47"/>
-      <c r="BK5" s="47"/>
-      <c r="BL5" s="48"/>
-      <c r="BM5" s="47"/>
-      <c r="BN5" s="0" t="s">
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="48"/>
+      <c r="AL5" s="48"/>
+      <c r="AM5" s="48"/>
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="48"/>
+      <c r="AP5" s="48"/>
+      <c r="AQ5" s="48"/>
+      <c r="AR5" s="48"/>
+      <c r="AS5" s="48"/>
+      <c r="AT5" s="48"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="49"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="48"/>
+      <c r="BD5" s="48"/>
+      <c r="BE5" s="48"/>
+      <c r="BF5" s="49"/>
+      <c r="BG5" s="48"/>
+      <c r="BH5" s="48"/>
+      <c r="BI5" s="48"/>
+      <c r="BJ5" s="48"/>
+      <c r="BK5" s="48"/>
+      <c r="BL5" s="49"/>
+      <c r="BM5" s="48"/>
+      <c r="BN5" s="21" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5238,97 +5133,97 @@
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="30" t="n">
+      <c r="G6" s="31" t="n">
         <f aca="false">Netzplan!G6</f>
         <v>7</v>
       </c>
-      <c r="H6" s="30" t="str">
+      <c r="H6" s="31" t="str">
         <f aca="false">Netzplan!H6</f>
         <v>1</v>
       </c>
-      <c r="I6" s="31" t="n">
+      <c r="I6" s="32" t="n">
         <f aca="false">Netzplan!I6</f>
         <v>1</v>
       </c>
-      <c r="J6" s="44" t="n">
+      <c r="J6" s="45" t="n">
         <f aca="false">Netzplan!J6</f>
         <v>7</v>
       </c>
-      <c r="K6" s="45" t="n">
+      <c r="K6" s="46" t="n">
         <f aca="false">SUM(L6:BM6)</f>
         <v>5</v>
       </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="47"/>
-      <c r="AP6" s="47"/>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="47"/>
-      <c r="AS6" s="47"/>
-      <c r="AT6" s="47"/>
-      <c r="AU6" s="47"/>
-      <c r="AV6" s="47"/>
-      <c r="AW6" s="47"/>
-      <c r="AX6" s="47"/>
-      <c r="AY6" s="48"/>
-      <c r="AZ6" s="47"/>
-      <c r="BA6" s="47"/>
-      <c r="BB6" s="47"/>
-      <c r="BC6" s="47"/>
-      <c r="BD6" s="47"/>
-      <c r="BE6" s="47"/>
-      <c r="BF6" s="48"/>
-      <c r="BG6" s="47"/>
-      <c r="BH6" s="47"/>
-      <c r="BI6" s="47"/>
-      <c r="BJ6" s="47"/>
-      <c r="BK6" s="47"/>
-      <c r="BL6" s="48"/>
-      <c r="BM6" s="47"/>
-      <c r="BN6" s="0" t="s">
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="48"/>
+      <c r="AN6" s="48"/>
+      <c r="AO6" s="48"/>
+      <c r="AP6" s="48"/>
+      <c r="AQ6" s="48"/>
+      <c r="AR6" s="48"/>
+      <c r="AS6" s="48"/>
+      <c r="AT6" s="48"/>
+      <c r="AU6" s="48"/>
+      <c r="AV6" s="48"/>
+      <c r="AW6" s="48"/>
+      <c r="AX6" s="48"/>
+      <c r="AY6" s="49"/>
+      <c r="AZ6" s="48"/>
+      <c r="BA6" s="48"/>
+      <c r="BB6" s="48"/>
+      <c r="BC6" s="48"/>
+      <c r="BD6" s="48"/>
+      <c r="BE6" s="48"/>
+      <c r="BF6" s="49"/>
+      <c r="BG6" s="48"/>
+      <c r="BH6" s="48"/>
+      <c r="BI6" s="48"/>
+      <c r="BJ6" s="48"/>
+      <c r="BK6" s="48"/>
+      <c r="BL6" s="49"/>
+      <c r="BM6" s="48"/>
+      <c r="BN6" s="21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5341,89 +5236,89 @@
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="30" t="n">
+      <c r="G7" s="31" t="n">
         <f aca="false">Netzplan!G7</f>
         <v>1</v>
       </c>
-      <c r="H7" s="30" t="str">
+      <c r="H7" s="31" t="str">
         <f aca="false">Netzplan!H7</f>
         <v>1</v>
       </c>
-      <c r="I7" s="31" t="n">
+      <c r="I7" s="32" t="n">
         <f aca="false">Netzplan!I7</f>
         <v>1</v>
       </c>
-      <c r="J7" s="44" t="n">
+      <c r="J7" s="45" t="n">
         <f aca="false">Netzplan!J7</f>
         <v>1</v>
       </c>
-      <c r="K7" s="45" t="n">
+      <c r="K7" s="46" t="n">
         <f aca="false">SUM(L7:BM7)</f>
         <v>1</v>
       </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="47"/>
-      <c r="AG7" s="47"/>
-      <c r="AH7" s="47"/>
-      <c r="AI7" s="47"/>
-      <c r="AJ7" s="47"/>
-      <c r="AK7" s="47"/>
-      <c r="AL7" s="47"/>
-      <c r="AM7" s="47"/>
-      <c r="AN7" s="47"/>
-      <c r="AO7" s="47"/>
-      <c r="AP7" s="47"/>
-      <c r="AQ7" s="47"/>
-      <c r="AR7" s="47"/>
-      <c r="AS7" s="47"/>
-      <c r="AT7" s="47"/>
-      <c r="AU7" s="47"/>
-      <c r="AV7" s="47"/>
-      <c r="AW7" s="47"/>
-      <c r="AX7" s="47"/>
-      <c r="AY7" s="48"/>
-      <c r="AZ7" s="47"/>
-      <c r="BA7" s="47"/>
-      <c r="BB7" s="50"/>
-      <c r="BC7" s="50"/>
-      <c r="BD7" s="50"/>
-      <c r="BE7" s="50"/>
-      <c r="BF7" s="48"/>
-      <c r="BG7" s="47"/>
-      <c r="BH7" s="47"/>
-      <c r="BI7" s="47"/>
-      <c r="BJ7" s="47"/>
-      <c r="BK7" s="47"/>
-      <c r="BL7" s="48"/>
-      <c r="BM7" s="47"/>
-      <c r="BN7" s="0" t="s">
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="48"/>
+      <c r="AG7" s="48"/>
+      <c r="AH7" s="48"/>
+      <c r="AI7" s="48"/>
+      <c r="AJ7" s="48"/>
+      <c r="AK7" s="48"/>
+      <c r="AL7" s="48"/>
+      <c r="AM7" s="48"/>
+      <c r="AN7" s="48"/>
+      <c r="AO7" s="48"/>
+      <c r="AP7" s="48"/>
+      <c r="AQ7" s="48"/>
+      <c r="AR7" s="48"/>
+      <c r="AS7" s="48"/>
+      <c r="AT7" s="48"/>
+      <c r="AU7" s="48"/>
+      <c r="AV7" s="48"/>
+      <c r="AW7" s="48"/>
+      <c r="AX7" s="48"/>
+      <c r="AY7" s="49"/>
+      <c r="AZ7" s="48"/>
+      <c r="BA7" s="48"/>
+      <c r="BB7" s="51"/>
+      <c r="BC7" s="51"/>
+      <c r="BD7" s="51"/>
+      <c r="BE7" s="51"/>
+      <c r="BF7" s="49"/>
+      <c r="BG7" s="48"/>
+      <c r="BH7" s="48"/>
+      <c r="BI7" s="48"/>
+      <c r="BJ7" s="48"/>
+      <c r="BK7" s="48"/>
+      <c r="BL7" s="49"/>
+      <c r="BM7" s="48"/>
+      <c r="BN7" s="21" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5436,1216 +5331,1002 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="30" t="n">
+      <c r="G8" s="31" t="n">
         <f aca="false">Netzplan!G8</f>
         <v>3</v>
       </c>
-      <c r="H8" s="30" t="str">
+      <c r="H8" s="31" t="str">
         <f aca="false">Netzplan!H8</f>
         <v>1</v>
       </c>
-      <c r="I8" s="31" t="n">
+      <c r="I8" s="32" t="n">
         <f aca="false">Netzplan!I8</f>
         <v>1</v>
       </c>
-      <c r="J8" s="44" t="n">
+      <c r="J8" s="45" t="n">
         <f aca="false">Netzplan!J8</f>
         <v>3</v>
       </c>
-      <c r="K8" s="45" t="n">
+      <c r="K8" s="46" t="n">
         <f aca="false">SUM(L8:BM8)</f>
         <v>3</v>
       </c>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="W8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="47"/>
-      <c r="AL8" s="47"/>
-      <c r="AM8" s="47"/>
-      <c r="AN8" s="47"/>
-      <c r="AO8" s="47"/>
-      <c r="AP8" s="47"/>
-      <c r="AQ8" s="47"/>
-      <c r="AR8" s="47"/>
-      <c r="AS8" s="47"/>
-      <c r="AT8" s="47"/>
-      <c r="AU8" s="47"/>
-      <c r="AV8" s="47"/>
-      <c r="AW8" s="47"/>
-      <c r="AX8" s="47"/>
-      <c r="AY8" s="48"/>
-      <c r="AZ8" s="47"/>
-      <c r="BA8" s="47"/>
-      <c r="BB8" s="47"/>
-      <c r="BC8" s="47"/>
-      <c r="BD8" s="47"/>
-      <c r="BE8" s="47"/>
-      <c r="BF8" s="48"/>
-      <c r="BG8" s="47"/>
-      <c r="BH8" s="47"/>
-      <c r="BI8" s="47"/>
-      <c r="BJ8" s="47"/>
-      <c r="BK8" s="47"/>
-      <c r="BL8" s="48"/>
-      <c r="BM8" s="47"/>
-      <c r="BN8" s="0" t="s">
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="48"/>
+      <c r="AM8" s="48"/>
+      <c r="AN8" s="48"/>
+      <c r="AO8" s="48"/>
+      <c r="AP8" s="48"/>
+      <c r="AQ8" s="48"/>
+      <c r="AR8" s="48"/>
+      <c r="AS8" s="48"/>
+      <c r="AT8" s="48"/>
+      <c r="AU8" s="48"/>
+      <c r="AV8" s="48"/>
+      <c r="AW8" s="48"/>
+      <c r="AX8" s="48"/>
+      <c r="AY8" s="49"/>
+      <c r="AZ8" s="48"/>
+      <c r="BA8" s="48"/>
+      <c r="BB8" s="48"/>
+      <c r="BC8" s="48"/>
+      <c r="BD8" s="48"/>
+      <c r="BE8" s="48"/>
+      <c r="BF8" s="49"/>
+      <c r="BG8" s="48"/>
+      <c r="BH8" s="48"/>
+      <c r="BI8" s="48"/>
+      <c r="BJ8" s="48"/>
+      <c r="BK8" s="48"/>
+      <c r="BL8" s="49"/>
+      <c r="BM8" s="48"/>
+      <c r="BN8" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="31" t="n">
+        <f aca="false">Netzplan!G9</f>
+        <v>2</v>
+      </c>
+      <c r="H9" s="31" t="str">
+        <f aca="false">Netzplan!H9</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="32" t="n">
+        <f aca="false">Netzplan!I9</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="45" t="n">
+        <f aca="false">Netzplan!J9</f>
+        <v>2</v>
+      </c>
+      <c r="K9" s="46" t="n">
+        <f aca="false">SUM(L9:BM9)</f>
+        <v>2</v>
+      </c>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="48"/>
+      <c r="AJ9" s="48"/>
+      <c r="AK9" s="48"/>
+      <c r="AL9" s="48"/>
+      <c r="AM9" s="48"/>
+      <c r="AN9" s="48"/>
+      <c r="AO9" s="48"/>
+      <c r="AP9" s="48"/>
+      <c r="AQ9" s="48"/>
+      <c r="AR9" s="48"/>
+      <c r="AS9" s="48"/>
+      <c r="AT9" s="48"/>
+      <c r="AU9" s="48"/>
+      <c r="AV9" s="48"/>
+      <c r="AW9" s="48"/>
+      <c r="AX9" s="48"/>
+      <c r="AY9" s="49"/>
+      <c r="AZ9" s="48"/>
+      <c r="BA9" s="48"/>
+      <c r="BB9" s="48"/>
+      <c r="BC9" s="48"/>
+      <c r="BD9" s="48"/>
+      <c r="BE9" s="48"/>
+      <c r="BF9" s="49"/>
+      <c r="BG9" s="48"/>
+      <c r="BH9" s="48"/>
+      <c r="BI9" s="48"/>
+      <c r="BJ9" s="48"/>
+      <c r="BK9" s="48"/>
+      <c r="BL9" s="49"/>
+      <c r="BM9" s="48"/>
+      <c r="BN9" s="21" t="s">
         <v>63</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="47"/>
-      <c r="AG9" s="47"/>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="47"/>
-      <c r="AJ9" s="47"/>
-      <c r="AK9" s="47"/>
-      <c r="AL9" s="47"/>
-      <c r="AM9" s="47"/>
-      <c r="AN9" s="47"/>
-      <c r="AO9" s="47"/>
-      <c r="AP9" s="47"/>
-      <c r="AQ9" s="47"/>
-      <c r="AR9" s="47"/>
-      <c r="AS9" s="47"/>
-      <c r="AT9" s="47"/>
-      <c r="AU9" s="47"/>
-      <c r="AV9" s="47"/>
-      <c r="AW9" s="47"/>
-      <c r="AX9" s="47"/>
-      <c r="AY9" s="48"/>
-      <c r="AZ9" s="47"/>
-      <c r="BA9" s="47"/>
-      <c r="BB9" s="47"/>
-      <c r="BC9" s="47"/>
-      <c r="BD9" s="47"/>
-      <c r="BE9" s="47"/>
-      <c r="BF9" s="48"/>
-      <c r="BG9" s="47"/>
-      <c r="BH9" s="47"/>
-      <c r="BI9" s="47"/>
-      <c r="BJ9" s="47"/>
-      <c r="BK9" s="47"/>
-      <c r="BL9" s="48"/>
-      <c r="BM9" s="47"/>
-      <c r="BN9" s="0" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="30" t="n">
-        <f aca="false">Netzplan!G9</f>
+      <c r="E10" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="31" t="n">
+        <f aca="false">Netzplan!G10</f>
         <v>2</v>
       </c>
-      <c r="H10" s="30" t="str">
-        <f aca="false">Netzplan!H9</f>
-        <v>1</v>
-      </c>
-      <c r="I10" s="31" t="n">
-        <f aca="false">Netzplan!I9</f>
-        <v>1</v>
-      </c>
-      <c r="J10" s="44" t="n">
-        <f aca="false">Netzplan!J9</f>
+      <c r="H10" s="31" t="str">
+        <f aca="false">Netzplan!H10</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="32" t="n">
+        <f aca="false">Netzplan!I10</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="45" t="n">
+        <f aca="false">Netzplan!J10</f>
         <v>2</v>
       </c>
-      <c r="K10" s="45" t="n">
+      <c r="K10" s="46" t="n">
         <f aca="false">SUM(L10:BM10)</f>
         <v>2</v>
       </c>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="46"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="47"/>
-      <c r="AG10" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="47"/>
-      <c r="AJ10" s="47"/>
-      <c r="AK10" s="47"/>
-      <c r="AL10" s="47"/>
-      <c r="AM10" s="47"/>
-      <c r="AN10" s="47"/>
-      <c r="AO10" s="47"/>
-      <c r="AP10" s="47"/>
-      <c r="AQ10" s="47"/>
-      <c r="AR10" s="47"/>
-      <c r="AS10" s="47"/>
-      <c r="AT10" s="47"/>
-      <c r="AU10" s="47"/>
-      <c r="AV10" s="47"/>
-      <c r="AW10" s="47"/>
-      <c r="AX10" s="47"/>
-      <c r="AY10" s="48"/>
-      <c r="AZ10" s="47"/>
-      <c r="BA10" s="47"/>
-      <c r="BB10" s="47"/>
-      <c r="BC10" s="47"/>
-      <c r="BD10" s="47"/>
-      <c r="BE10" s="47"/>
-      <c r="BF10" s="48"/>
-      <c r="BG10" s="47"/>
-      <c r="BH10" s="47"/>
-      <c r="BI10" s="47"/>
-      <c r="BJ10" s="47"/>
-      <c r="BK10" s="47"/>
-      <c r="BL10" s="48"/>
-      <c r="BM10" s="47"/>
-      <c r="BN10" s="0" t="s">
-        <v>64</v>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="48"/>
+      <c r="AE10" s="48"/>
+      <c r="AF10" s="48"/>
+      <c r="AG10" s="48"/>
+      <c r="AH10" s="47"/>
+      <c r="AI10" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="48"/>
+      <c r="AL10" s="48"/>
+      <c r="AM10" s="48"/>
+      <c r="AN10" s="48"/>
+      <c r="AO10" s="48"/>
+      <c r="AP10" s="48"/>
+      <c r="AQ10" s="48"/>
+      <c r="AR10" s="48"/>
+      <c r="AS10" s="48"/>
+      <c r="AT10" s="48"/>
+      <c r="AU10" s="48"/>
+      <c r="AV10" s="48"/>
+      <c r="AW10" s="48"/>
+      <c r="AX10" s="48"/>
+      <c r="AY10" s="49"/>
+      <c r="AZ10" s="48"/>
+      <c r="BA10" s="48"/>
+      <c r="BB10" s="48"/>
+      <c r="BC10" s="48"/>
+      <c r="BD10" s="48"/>
+      <c r="BE10" s="48"/>
+      <c r="BF10" s="49"/>
+      <c r="BG10" s="48"/>
+      <c r="BH10" s="48"/>
+      <c r="BI10" s="48"/>
+      <c r="BJ10" s="48"/>
+      <c r="BK10" s="48"/>
+      <c r="BL10" s="49"/>
+      <c r="BM10" s="48"/>
+      <c r="BN10" s="21" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="30" t="n">
-        <f aca="false">Netzplan!G10</f>
+      <c r="E11" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="31" t="n">
+        <f aca="false">Netzplan!G11</f>
         <v>2</v>
       </c>
-      <c r="H11" s="30" t="str">
-        <f aca="false">Netzplan!H10</f>
-        <v>1</v>
-      </c>
-      <c r="I11" s="31" t="n">
-        <f aca="false">Netzplan!I10</f>
-        <v>1</v>
-      </c>
-      <c r="J11" s="44" t="n">
-        <f aca="false">Netzplan!J10</f>
+      <c r="H11" s="31" t="str">
+        <f aca="false">Netzplan!H11</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="32" t="n">
+        <f aca="false">Netzplan!I11</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="45" t="n">
+        <f aca="false">Netzplan!J11</f>
         <v>2</v>
       </c>
-      <c r="K11" s="45" t="n">
+      <c r="K11" s="46" t="n">
         <f aca="false">SUM(L11:BM11)</f>
         <v>2</v>
       </c>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="46"/>
-      <c r="AI11" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK11" s="47"/>
-      <c r="AL11" s="47"/>
-      <c r="AM11" s="47"/>
-      <c r="AN11" s="47"/>
-      <c r="AO11" s="47"/>
-      <c r="AP11" s="47"/>
-      <c r="AQ11" s="47"/>
-      <c r="AR11" s="47"/>
-      <c r="AS11" s="47"/>
-      <c r="AT11" s="47"/>
-      <c r="AU11" s="47"/>
-      <c r="AV11" s="47"/>
-      <c r="AW11" s="47"/>
-      <c r="AX11" s="47"/>
-      <c r="AY11" s="48"/>
-      <c r="AZ11" s="47"/>
-      <c r="BA11" s="47"/>
-      <c r="BB11" s="47"/>
-      <c r="BC11" s="47"/>
-      <c r="BD11" s="47"/>
-      <c r="BE11" s="47"/>
-      <c r="BF11" s="48"/>
-      <c r="BG11" s="47"/>
-      <c r="BH11" s="47"/>
-      <c r="BI11" s="47"/>
-      <c r="BJ11" s="47"/>
-      <c r="BK11" s="47"/>
-      <c r="BL11" s="48"/>
-      <c r="BM11" s="47"/>
-      <c r="BN11" s="0" t="s">
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="48"/>
+      <c r="AG11" s="48"/>
+      <c r="AH11" s="48"/>
+      <c r="AJ11" s="47"/>
+      <c r="AK11" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="48"/>
+      <c r="AM11" s="48"/>
+      <c r="AN11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="48"/>
+      <c r="AP11" s="48"/>
+      <c r="AQ11" s="48"/>
+      <c r="AR11" s="48"/>
+      <c r="AS11" s="48"/>
+      <c r="AT11" s="48"/>
+      <c r="AU11" s="48"/>
+      <c r="AV11" s="48"/>
+      <c r="AW11" s="48"/>
+      <c r="AX11" s="48"/>
+      <c r="AY11" s="49"/>
+      <c r="AZ11" s="48"/>
+      <c r="BA11" s="48"/>
+      <c r="BB11" s="48"/>
+      <c r="BC11" s="48"/>
+      <c r="BD11" s="48"/>
+      <c r="BE11" s="48"/>
+      <c r="BF11" s="49"/>
+      <c r="BG11" s="48"/>
+      <c r="BH11" s="48"/>
+      <c r="BI11" s="48"/>
+      <c r="BJ11" s="48"/>
+      <c r="BK11" s="48"/>
+      <c r="BL11" s="49"/>
+      <c r="BM11" s="48"/>
+      <c r="BN11" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="30" t="n">
-        <f aca="false">Netzplan!G11</f>
-        <v>2</v>
-      </c>
-      <c r="H12" s="30" t="str">
-        <f aca="false">Netzplan!H11</f>
-        <v>1</v>
-      </c>
-      <c r="I12" s="31" t="n">
-        <f aca="false">Netzplan!I11</f>
-        <v>1</v>
-      </c>
-      <c r="J12" s="44" t="n">
-        <f aca="false">Netzplan!J11</f>
-        <v>2</v>
-      </c>
-      <c r="K12" s="45" t="n">
+      <c r="E12" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="31" t="n">
+        <f aca="false">Netzplan!G12</f>
+        <v>10</v>
+      </c>
+      <c r="H12" s="31" t="str">
+        <f aca="false">Netzplan!H12</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="32" t="n">
+        <f aca="false">Netzplan!I12</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="45" t="n">
+        <f aca="false">Netzplan!J12</f>
+        <v>10</v>
+      </c>
+      <c r="K12" s="46" t="n">
         <f aca="false">SUM(L12:BM12)</f>
-        <v>2</v>
-      </c>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
+        <v>20</v>
+      </c>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
       <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="47"/>
-      <c r="AD12" s="47"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="47"/>
-      <c r="AG12" s="47"/>
-      <c r="AH12" s="47"/>
-      <c r="AJ12" s="46"/>
-      <c r="AK12" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL12" s="47"/>
-      <c r="AM12" s="47"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="48"/>
+      <c r="AM12" s="48"/>
       <c r="AN12" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="AO12" s="47"/>
-      <c r="AP12" s="47"/>
-      <c r="AQ12" s="47"/>
-      <c r="AR12" s="47"/>
-      <c r="AS12" s="47"/>
-      <c r="AT12" s="47"/>
-      <c r="AU12" s="47"/>
-      <c r="AV12" s="47"/>
-      <c r="AW12" s="47"/>
-      <c r="AX12" s="47"/>
-      <c r="AY12" s="48"/>
-      <c r="AZ12" s="47"/>
-      <c r="BA12" s="47"/>
-      <c r="BB12" s="47"/>
-      <c r="BC12" s="47"/>
-      <c r="BD12" s="47"/>
-      <c r="BE12" s="47"/>
-      <c r="BF12" s="48"/>
-      <c r="BG12" s="47"/>
-      <c r="BH12" s="47"/>
-      <c r="BI12" s="47"/>
-      <c r="BJ12" s="47"/>
-      <c r="BK12" s="47"/>
-      <c r="BL12" s="48"/>
-      <c r="BM12" s="47"/>
-      <c r="BN12" s="0" t="s">
-        <v>60</v>
+      <c r="AO12" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="48"/>
+      <c r="AT12" s="48"/>
+      <c r="AU12" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="49"/>
+      <c r="AZ12" s="48"/>
+      <c r="BA12" s="48"/>
+      <c r="BB12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="48"/>
+      <c r="BD12" s="48"/>
+      <c r="BE12" s="48"/>
+      <c r="BF12" s="49"/>
+      <c r="BG12" s="48"/>
+      <c r="BH12" s="48"/>
+      <c r="BJ12" s="48"/>
+      <c r="BK12" s="48"/>
+      <c r="BL12" s="49"/>
+      <c r="BM12" s="48"/>
+      <c r="BN12" s="21" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="30" t="n">
-        <f aca="false">Netzplan!G12</f>
-        <v>10</v>
-      </c>
-      <c r="H13" s="30" t="str">
-        <f aca="false">Netzplan!H12</f>
-        <v>1</v>
-      </c>
-      <c r="I13" s="31" t="n">
-        <f aca="false">Netzplan!I12</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="44" t="n">
-        <f aca="false">Netzplan!J12</f>
-        <v>10</v>
-      </c>
-      <c r="K13" s="45" t="n">
+      <c r="E13" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="31" t="n">
+        <f aca="false">Netzplan!G13</f>
+        <v>3</v>
+      </c>
+      <c r="H13" s="31" t="str">
+        <f aca="false">Netzplan!H13</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="32" t="n">
+        <f aca="false">Netzplan!I13</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="45" t="n">
+        <f aca="false">Netzplan!J13</f>
+        <v>3</v>
+      </c>
+      <c r="K13" s="46" t="n">
         <f aca="false">SUM(L13:BM13)</f>
-        <v>20</v>
-      </c>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ13" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK13" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL13" s="47"/>
-      <c r="AM13" s="47"/>
-      <c r="AN13" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR13" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS13" s="47"/>
-      <c r="AT13" s="47"/>
-      <c r="AU13" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW13" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY13" s="48"/>
-      <c r="AZ13" s="47"/>
-      <c r="BA13" s="47"/>
-      <c r="BB13" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC13" s="47"/>
-      <c r="BD13" s="47"/>
-      <c r="BE13" s="47"/>
-      <c r="BF13" s="48"/>
-      <c r="BG13" s="47"/>
-      <c r="BH13" s="47"/>
-      <c r="BJ13" s="47"/>
-      <c r="BK13" s="47"/>
-      <c r="BL13" s="48"/>
-      <c r="BM13" s="47"/>
-      <c r="BN13" s="0" t="s">
-        <v>64</v>
+        <v>3</v>
+      </c>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="48"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="48"/>
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="48"/>
+      <c r="AN13" s="47"/>
+      <c r="AO13" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="48"/>
+      <c r="AS13" s="48"/>
+      <c r="AT13" s="48"/>
+      <c r="AU13" s="48"/>
+      <c r="AV13" s="48"/>
+      <c r="AW13" s="48"/>
+      <c r="AX13" s="48"/>
+      <c r="AY13" s="49"/>
+      <c r="AZ13" s="48"/>
+      <c r="BA13" s="48"/>
+      <c r="BB13" s="48"/>
+      <c r="BC13" s="48"/>
+      <c r="BD13" s="48"/>
+      <c r="BE13" s="48"/>
+      <c r="BF13" s="49"/>
+      <c r="BG13" s="48"/>
+      <c r="BH13" s="48"/>
+      <c r="BI13" s="48"/>
+      <c r="BJ13" s="48"/>
+      <c r="BK13" s="48"/>
+      <c r="BL13" s="49"/>
+      <c r="BM13" s="48"/>
+      <c r="BN13" s="21" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
-      <c r="B14" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="46"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="46"/>
-      <c r="AH14" s="46"/>
-      <c r="AI14" s="46"/>
-      <c r="AJ14" s="46"/>
-      <c r="AK14" s="46"/>
-      <c r="AL14" s="47"/>
-      <c r="AM14" s="47"/>
-      <c r="AN14" s="46"/>
-      <c r="AO14" s="46"/>
-      <c r="AP14" s="46"/>
-      <c r="AQ14" s="46"/>
-      <c r="AR14" s="46"/>
-      <c r="AS14" s="47"/>
-      <c r="AT14" s="47"/>
-      <c r="AU14" s="46"/>
-      <c r="AV14" s="46"/>
-      <c r="AW14" s="46"/>
-      <c r="AX14" s="46"/>
-      <c r="AY14" s="48"/>
-      <c r="AZ14" s="47"/>
-      <c r="BA14" s="47"/>
-      <c r="BB14" s="47"/>
-      <c r="BC14" s="47"/>
-      <c r="BD14" s="47"/>
-      <c r="BE14" s="47"/>
-      <c r="BF14" s="48"/>
-      <c r="BG14" s="47"/>
-      <c r="BH14" s="47"/>
-      <c r="BJ14" s="47"/>
-      <c r="BK14" s="47"/>
-      <c r="BL14" s="48"/>
-      <c r="BM14" s="47"/>
-      <c r="BN14" s="0" t="s">
+      <c r="A14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="31" t="n">
+        <f aca="false">Netzplan!G14</f>
+        <v>3</v>
+      </c>
+      <c r="H14" s="31" t="str">
+        <f aca="false">Netzplan!H14</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="32" t="n">
+        <f aca="false">Netzplan!I14</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="45" t="n">
+        <f aca="false">Netzplan!J14</f>
+        <v>3</v>
+      </c>
+      <c r="K14" s="46" t="n">
+        <f aca="false">SUM(L14:BM14)</f>
+        <v>3</v>
+      </c>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="48"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="48"/>
+      <c r="AN14" s="48"/>
+      <c r="AO14" s="48"/>
+      <c r="AQ14" s="47"/>
+      <c r="AR14" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="48"/>
+      <c r="AT14" s="48"/>
+      <c r="AU14" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="48"/>
+      <c r="AX14" s="48"/>
+      <c r="AY14" s="49"/>
+      <c r="AZ14" s="48"/>
+      <c r="BA14" s="48"/>
+      <c r="BB14" s="48"/>
+      <c r="BC14" s="48"/>
+      <c r="BD14" s="48"/>
+      <c r="BE14" s="48"/>
+      <c r="BF14" s="49"/>
+      <c r="BG14" s="48"/>
+      <c r="BH14" s="48"/>
+      <c r="BI14" s="48"/>
+      <c r="BJ14" s="48"/>
+      <c r="BK14" s="48"/>
+      <c r="BL14" s="49"/>
+      <c r="BM14" s="48"/>
+      <c r="BN14" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="35" t="s">
+      <c r="E15" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="30" t="n">
-        <f aca="false">Netzplan!G13</f>
-        <v>3</v>
-      </c>
-      <c r="H15" s="30" t="str">
-        <f aca="false">Netzplan!H13</f>
-        <v>1</v>
-      </c>
-      <c r="I15" s="31" t="n">
-        <f aca="false">Netzplan!I13</f>
-        <v>1</v>
-      </c>
-      <c r="J15" s="44" t="n">
-        <f aca="false">Netzplan!J13</f>
-        <v>3</v>
-      </c>
-      <c r="K15" s="45" t="n">
+      <c r="F15" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="31" t="n">
+        <f aca="false">Netzplan!G15</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="31" t="str">
+        <f aca="false">Netzplan!H15</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="32" t="n">
+        <f aca="false">Netzplan!I15</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="45" t="n">
+        <f aca="false">Netzplan!J15</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="46" t="n">
         <f aca="false">SUM(L15:BM15)</f>
-        <v>3</v>
-      </c>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="47"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="47"/>
-      <c r="AC15" s="47"/>
-      <c r="AD15" s="47"/>
-      <c r="AE15" s="47"/>
-      <c r="AF15" s="47"/>
-      <c r="AG15" s="47"/>
-      <c r="AH15" s="47"/>
-      <c r="AI15" s="47"/>
-      <c r="AJ15" s="47"/>
-      <c r="AL15" s="47"/>
-      <c r="AM15" s="47"/>
-      <c r="AN15" s="46"/>
-      <c r="AO15" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP15" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ15" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR15" s="47"/>
-      <c r="AS15" s="47"/>
-      <c r="AT15" s="47"/>
-      <c r="AU15" s="47"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="48"/>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="48"/>
+      <c r="AJ15" s="48"/>
+      <c r="AK15" s="48"/>
+      <c r="AL15" s="48"/>
+      <c r="AM15" s="48"/>
+      <c r="AN15" s="48"/>
+      <c r="AO15" s="48"/>
+      <c r="AP15" s="48"/>
+      <c r="AQ15" s="48"/>
+      <c r="AR15" s="48"/>
+      <c r="AS15" s="48"/>
+      <c r="AT15" s="48"/>
+      <c r="AU15" s="48"/>
       <c r="AV15" s="47"/>
-      <c r="AW15" s="47"/>
-      <c r="AX15" s="47"/>
-      <c r="AY15" s="48"/>
-      <c r="AZ15" s="47"/>
-      <c r="BA15" s="47"/>
-      <c r="BB15" s="47"/>
-      <c r="BC15" s="47"/>
-      <c r="BD15" s="47"/>
-      <c r="BE15" s="47"/>
-      <c r="BF15" s="48"/>
-      <c r="BG15" s="47"/>
-      <c r="BH15" s="47"/>
-      <c r="BI15" s="47"/>
-      <c r="BJ15" s="47"/>
-      <c r="BK15" s="47"/>
-      <c r="BL15" s="48"/>
-      <c r="BM15" s="47"/>
-      <c r="BN15" s="0" t="s">
-        <v>64</v>
+      <c r="AW15" s="48"/>
+      <c r="AX15" s="48"/>
+      <c r="AY15" s="49"/>
+      <c r="AZ15" s="48"/>
+      <c r="BA15" s="48"/>
+      <c r="BB15" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC15" s="48"/>
+      <c r="BD15" s="48"/>
+      <c r="BE15" s="48"/>
+      <c r="BF15" s="49"/>
+      <c r="BG15" s="48"/>
+      <c r="BH15" s="48"/>
+      <c r="BI15" s="48"/>
+      <c r="BJ15" s="48"/>
+      <c r="BK15" s="48"/>
+      <c r="BL15" s="49"/>
+      <c r="BM15" s="48"/>
+      <c r="BN15" s="21" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="35" t="s">
+      <c r="E16" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="30" t="n">
-        <f aca="false">Netzplan!G14</f>
-        <v>3</v>
-      </c>
-      <c r="H16" s="30" t="str">
-        <f aca="false">Netzplan!H14</f>
-        <v>1</v>
-      </c>
-      <c r="I16" s="31" t="n">
-        <f aca="false">Netzplan!I14</f>
-        <v>1</v>
-      </c>
-      <c r="J16" s="44" t="n">
-        <f aca="false">Netzplan!J14</f>
-        <v>3</v>
-      </c>
-      <c r="K16" s="45" t="n">
+      <c r="F16" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="31" t="n">
+        <f aca="false">Netzplan!G16</f>
+        <v>5</v>
+      </c>
+      <c r="H16" s="31" t="str">
+        <f aca="false">Netzplan!H16</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="32" t="n">
+        <f aca="false">Netzplan!I16</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="45" t="n">
+        <f aca="false">Netzplan!J16</f>
+        <v>5</v>
+      </c>
+      <c r="K16" s="46" t="n">
         <f aca="false">SUM(L16:BM16)</f>
         <v>3</v>
       </c>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="47"/>
-      <c r="AC16" s="47"/>
-      <c r="AD16" s="47"/>
-      <c r="AE16" s="47"/>
-      <c r="AF16" s="47"/>
-      <c r="AG16" s="47"/>
-      <c r="AH16" s="47"/>
-      <c r="AI16" s="47"/>
-      <c r="AJ16" s="47"/>
-      <c r="AK16" s="47"/>
-      <c r="AL16" s="47"/>
-      <c r="AM16" s="47"/>
-      <c r="AN16" s="47"/>
-      <c r="AO16" s="47"/>
-      <c r="AQ16" s="46"/>
-      <c r="AR16" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS16" s="47"/>
-      <c r="AT16" s="47"/>
-      <c r="AU16" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV16" s="47" t="n">
-        <v>1</v>
-      </c>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="48"/>
+      <c r="AJ16" s="48"/>
+      <c r="AK16" s="48"/>
+      <c r="AL16" s="48"/>
+      <c r="AM16" s="48"/>
+      <c r="AN16" s="48"/>
+      <c r="AO16" s="48"/>
+      <c r="AP16" s="48"/>
+      <c r="AQ16" s="48"/>
+      <c r="AR16" s="48"/>
+      <c r="AS16" s="48"/>
+      <c r="AT16" s="48"/>
+      <c r="AU16" s="48"/>
+      <c r="AV16" s="48"/>
       <c r="AW16" s="47"/>
       <c r="AX16" s="47"/>
-      <c r="AY16" s="48"/>
-      <c r="AZ16" s="47"/>
-      <c r="BA16" s="47"/>
+      <c r="AY16" s="49"/>
+      <c r="AZ16" s="48"/>
+      <c r="BA16" s="48"/>
       <c r="BB16" s="47"/>
-      <c r="BC16" s="47"/>
-      <c r="BD16" s="47"/>
-      <c r="BE16" s="47"/>
-      <c r="BF16" s="48"/>
-      <c r="BG16" s="47"/>
-      <c r="BH16" s="47"/>
-      <c r="BI16" s="47"/>
-      <c r="BJ16" s="47"/>
-      <c r="BK16" s="47"/>
-      <c r="BL16" s="48"/>
-      <c r="BM16" s="47"/>
-      <c r="BN16" s="0" t="s">
+      <c r="BC16" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD16" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE16" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF16" s="49"/>
+      <c r="BG16" s="48"/>
+      <c r="BH16" s="48"/>
+      <c r="BI16" s="48"/>
+      <c r="BK16" s="48"/>
+      <c r="BL16" s="49"/>
+      <c r="BM16" s="48"/>
+      <c r="BN16" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40" t="n">
+        <f aca="false">Netzplan!G17</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="40" t="str">
+        <f aca="false">Netzplan!H17</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="52" t="n">
+        <f aca="false">Netzplan!I17</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="53" t="n">
+        <f aca="false">Netzplan!J17</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="46" t="n">
+        <f aca="false">SUM(L17:BM17)</f>
+        <v>1</v>
+      </c>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="54"/>
+      <c r="AH17" s="54"/>
+      <c r="AI17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="54"/>
+      <c r="AM17" s="54"/>
+      <c r="AN17" s="54"/>
+      <c r="AO17" s="54"/>
+      <c r="AP17" s="54"/>
+      <c r="AQ17" s="54"/>
+      <c r="AR17" s="54"/>
+      <c r="AS17" s="54"/>
+      <c r="AT17" s="54"/>
+      <c r="AU17" s="54"/>
+      <c r="AV17" s="54"/>
+      <c r="AW17" s="54"/>
+      <c r="AX17" s="54"/>
+      <c r="AY17" s="55"/>
+      <c r="AZ17" s="54"/>
+      <c r="BA17" s="54"/>
+      <c r="BB17" s="54"/>
+      <c r="BC17" s="47"/>
+      <c r="BD17" s="54"/>
+      <c r="BE17" s="54"/>
+      <c r="BF17" s="55"/>
+      <c r="BG17" s="54"/>
+      <c r="BH17" s="54"/>
+      <c r="BI17" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ17" s="54"/>
+      <c r="BK17" s="54"/>
+      <c r="BL17" s="55"/>
+      <c r="BM17" s="54"/>
+      <c r="BN17" s="21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
-      <c r="B17" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="47"/>
-      <c r="AG17" s="47"/>
-      <c r="AH17" s="47"/>
-      <c r="AI17" s="47"/>
-      <c r="AJ17" s="47"/>
-      <c r="AK17" s="47"/>
-      <c r="AL17" s="47"/>
-      <c r="AM17" s="47"/>
-      <c r="AN17" s="47"/>
-      <c r="AO17" s="47"/>
-      <c r="AQ17" s="46"/>
-      <c r="AR17" s="46"/>
-      <c r="AS17" s="47"/>
-      <c r="AT17" s="47"/>
-      <c r="AU17" s="46"/>
-      <c r="AV17" s="47"/>
-      <c r="AW17" s="47"/>
-      <c r="AX17" s="47"/>
-      <c r="AY17" s="48"/>
-      <c r="AZ17" s="47"/>
-      <c r="BA17" s="47"/>
-      <c r="BB17" s="47"/>
-      <c r="BC17" s="47"/>
-      <c r="BD17" s="47"/>
-      <c r="BE17" s="47"/>
-      <c r="BF17" s="48"/>
-      <c r="BG17" s="47"/>
-      <c r="BH17" s="47"/>
-      <c r="BI17" s="47"/>
-      <c r="BJ17" s="47"/>
-      <c r="BK17" s="47"/>
-      <c r="BL17" s="48"/>
-      <c r="BM17" s="47"/>
-      <c r="BN17" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="30" t="n">
-        <f aca="false">Netzplan!G15</f>
-        <v>1</v>
-      </c>
-      <c r="H18" s="30" t="str">
-        <f aca="false">Netzplan!H15</f>
-        <v>1</v>
-      </c>
-      <c r="I18" s="31" t="n">
-        <f aca="false">Netzplan!I15</f>
-        <v>1</v>
-      </c>
-      <c r="J18" s="44" t="n">
-        <f aca="false">Netzplan!J15</f>
-        <v>1</v>
-      </c>
-      <c r="K18" s="45" t="n">
-        <f aca="false">SUM(L18:BM18)</f>
-        <v>1</v>
-      </c>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="47"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="47"/>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="47"/>
-      <c r="AJ18" s="47"/>
-      <c r="AK18" s="47"/>
-      <c r="AL18" s="47"/>
-      <c r="AM18" s="47"/>
-      <c r="AN18" s="47"/>
-      <c r="AO18" s="47"/>
-      <c r="AP18" s="47"/>
-      <c r="AQ18" s="47"/>
-      <c r="AR18" s="47"/>
-      <c r="AS18" s="47"/>
-      <c r="AT18" s="47"/>
-      <c r="AU18" s="47"/>
-      <c r="AV18" s="46"/>
-      <c r="AW18" s="47"/>
-      <c r="AX18" s="47"/>
-      <c r="AY18" s="48"/>
-      <c r="AZ18" s="47"/>
-      <c r="BA18" s="47"/>
-      <c r="BB18" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC18" s="47"/>
-      <c r="BD18" s="47"/>
-      <c r="BE18" s="47"/>
-      <c r="BF18" s="48"/>
-      <c r="BG18" s="47"/>
-      <c r="BH18" s="47"/>
-      <c r="BI18" s="47"/>
-      <c r="BJ18" s="47"/>
-      <c r="BK18" s="47"/>
-      <c r="BL18" s="48"/>
-      <c r="BM18" s="47"/>
-      <c r="BN18" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="30" t="n">
-        <f aca="false">Netzplan!G16</f>
-        <v>5</v>
-      </c>
-      <c r="H19" s="30" t="str">
-        <f aca="false">Netzplan!H16</f>
-        <v>1</v>
-      </c>
-      <c r="I19" s="31" t="n">
-        <f aca="false">Netzplan!I16</f>
-        <v>1</v>
-      </c>
-      <c r="J19" s="44" t="n">
-        <f aca="false">Netzplan!J16</f>
-        <v>5</v>
-      </c>
-      <c r="K19" s="45" t="n">
-        <f aca="false">SUM(L19:BM19)</f>
-        <v>3</v>
-      </c>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="47"/>
-      <c r="AJ19" s="47"/>
-      <c r="AK19" s="47"/>
-      <c r="AL19" s="47"/>
-      <c r="AM19" s="47"/>
-      <c r="AN19" s="47"/>
-      <c r="AO19" s="47"/>
-      <c r="AP19" s="47"/>
-      <c r="AQ19" s="47"/>
-      <c r="AR19" s="47"/>
-      <c r="AS19" s="47"/>
-      <c r="AT19" s="47"/>
-      <c r="AU19" s="47"/>
-      <c r="AV19" s="47"/>
-      <c r="AW19" s="46"/>
-      <c r="AX19" s="46"/>
-      <c r="AY19" s="48"/>
-      <c r="AZ19" s="47"/>
-      <c r="BA19" s="47"/>
-      <c r="BB19" s="46"/>
-      <c r="BC19" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD19" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE19" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF19" s="48"/>
-      <c r="BG19" s="47"/>
-      <c r="BH19" s="47"/>
-      <c r="BI19" s="47"/>
-      <c r="BK19" s="47"/>
-      <c r="BL19" s="48"/>
-      <c r="BM19" s="47"/>
-      <c r="BN19" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39" t="n">
-        <f aca="false">Netzplan!G17</f>
-        <v>1</v>
-      </c>
-      <c r="H20" s="39" t="str">
-        <f aca="false">Netzplan!H17</f>
-        <v>1</v>
-      </c>
-      <c r="I20" s="51" t="n">
-        <f aca="false">Netzplan!I17</f>
-        <v>1</v>
-      </c>
-      <c r="J20" s="52" t="n">
-        <f aca="false">Netzplan!J17</f>
-        <v>1</v>
-      </c>
-      <c r="K20" s="45" t="n">
-        <f aca="false">SUM(L20:BM20)</f>
-        <v>1</v>
-      </c>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="53"/>
-      <c r="AB20" s="53"/>
-      <c r="AC20" s="53"/>
-      <c r="AD20" s="53"/>
-      <c r="AE20" s="53"/>
-      <c r="AF20" s="53"/>
-      <c r="AG20" s="53"/>
-      <c r="AH20" s="53"/>
-      <c r="AI20" s="53"/>
-      <c r="AJ20" s="53"/>
-      <c r="AK20" s="53"/>
-      <c r="AL20" s="53"/>
-      <c r="AM20" s="53"/>
-      <c r="AN20" s="53"/>
-      <c r="AO20" s="53"/>
-      <c r="AP20" s="53"/>
-      <c r="AQ20" s="53"/>
-      <c r="AR20" s="53"/>
-      <c r="AS20" s="53"/>
-      <c r="AT20" s="53"/>
-      <c r="AU20" s="53"/>
-      <c r="AV20" s="53"/>
-      <c r="AW20" s="53"/>
-      <c r="AX20" s="53"/>
-      <c r="AY20" s="54"/>
-      <c r="AZ20" s="53"/>
-      <c r="BA20" s="53"/>
-      <c r="BB20" s="53"/>
-      <c r="BC20" s="46"/>
-      <c r="BD20" s="53"/>
-      <c r="BE20" s="53"/>
-      <c r="BF20" s="54"/>
-      <c r="BG20" s="53"/>
-      <c r="BH20" s="53"/>
-      <c r="BI20" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ20" s="53"/>
-      <c r="BK20" s="53"/>
-      <c r="BL20" s="54"/>
-      <c r="BM20" s="53"/>
-      <c r="BN20" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="17">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -6663,21 +6344,18 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
-  <conditionalFormatting sqref="AV18:BM18 L11:AH14 BF13:BH14 BJ13:BM14 BC20:BM20 BK19:BM19 L15:AJ15 L16:AO17 L18:AT18 L19:AU19 L20:BA20 AI11:BM11 AJ12:BM12 AI13:BA14 AL15:BM15 AQ16:BM17 AW19:BI19 L1:BM10">
+  <conditionalFormatting sqref="AV15:BM15 L10:AH12 BF12:BH12 BJ12:BM12 BC17:BM17 BK16:BM16 L13:AJ13 L14:AO14 L15:AT15 L16:AU16 L17:BA17 AI10:BM10 AJ11:BM11 AI12:BA12 AL13:BM13 AQ14:BM14 AW16:BI16 L1:BM9">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(OR(WEEKDAY(L$1)=7,WEEKDAY(L$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:BM20">
+  <conditionalFormatting sqref="L2:BM17">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K20">
+  <conditionalFormatting sqref="K2:K17">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>IF(K2&lt;&gt;J2,TRUE())</formula>
     </cfRule>
@@ -6689,6 +6367,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Übungen/Online_Shop.Projekt.xlsx
+++ b/Übungen/Online_Shop.Projekt.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="68">
   <si>
     <t xml:space="preserve">Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
@@ -214,10 +214,19 @@
     <t xml:space="preserve">Karl, Nyugen (50%)</t>
   </si>
   <si>
+    <t xml:space="preserve">Vorarbeiten fertig</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nyugen</t>
   </si>
   <si>
+    <t xml:space="preserve">Präsentation vorbereitet</t>
+  </si>
+  <si>
     <t xml:space="preserve">Groß, Nyugen (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release</t>
   </si>
 </sst>
 </file>
@@ -349,7 +358,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -406,6 +415,13 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -441,7 +457,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -603,6 +619,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2735,6 +2755,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>55440</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>6480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>153720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>13680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Form 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8694000" y="1685520"/>
+          <a:ext cx="98280" cy="169560"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>70200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>155880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>182520</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>162720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Form 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13763520" y="2810160"/>
+          <a:ext cx="112320" cy="169560"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>33480</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>145800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>6840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Form 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15495840" y="3304440"/>
+          <a:ext cx="112320" cy="169560"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
@@ -3395,8 +3552,8 @@
   </sheetPr>
   <dimension ref="A1:BQ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF3" activeCellId="0" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -4418,7 +4575,7 @@
       <c r="H17" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="32" t="n">
+      <c r="I17" s="41" t="n">
         <v>1</v>
       </c>
       <c r="J17" s="40" t="n">
@@ -4516,19 +4673,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BN17"/>
+  <dimension ref="A1:BN20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="0" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <pane xSplit="11" ySplit="0" topLeftCell="AF1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="U10" activeCellId="0" sqref="U10"/>
+      <selection pane="topRight" activeCell="BF22" activeCellId="0" sqref="BF22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="5" min="5" style="21" width="16.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="6" min="6" style="21" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="2" max="9" min="7" style="21" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="9" min="7" style="21" width="11.52"/>
+    <col collapsed="true" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.6"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="11" min="11" style="21" width="3.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="12" style="21" width="3.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="21" width="18.08"/>
@@ -4549,179 +4707,179 @@
       <c r="F1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="41"/>
-      <c r="L1" s="43" t="n">
+      <c r="K1" s="42"/>
+      <c r="L1" s="44" t="n">
         <v>44515</v>
       </c>
-      <c r="M1" s="43" t="n">
+      <c r="M1" s="44" t="n">
         <v>44516</v>
       </c>
-      <c r="N1" s="43" t="n">
+      <c r="N1" s="44" t="n">
         <v>44517</v>
       </c>
-      <c r="O1" s="43" t="n">
+      <c r="O1" s="44" t="n">
         <v>44518</v>
       </c>
-      <c r="P1" s="43" t="n">
+      <c r="P1" s="44" t="n">
         <v>44519</v>
       </c>
-      <c r="Q1" s="43" t="n">
+      <c r="Q1" s="44" t="n">
         <v>44520</v>
       </c>
-      <c r="R1" s="43" t="n">
+      <c r="R1" s="44" t="n">
         <v>44521</v>
       </c>
-      <c r="S1" s="43" t="n">
+      <c r="S1" s="44" t="n">
         <v>44522</v>
       </c>
-      <c r="T1" s="43" t="n">
+      <c r="T1" s="44" t="n">
         <v>44523</v>
       </c>
-      <c r="U1" s="43" t="n">
+      <c r="U1" s="44" t="n">
         <v>44524</v>
       </c>
-      <c r="V1" s="43" t="n">
+      <c r="V1" s="44" t="n">
         <v>44525</v>
       </c>
-      <c r="W1" s="43" t="n">
+      <c r="W1" s="44" t="n">
         <v>44526</v>
       </c>
-      <c r="X1" s="43" t="n">
+      <c r="X1" s="44" t="n">
         <v>44527</v>
       </c>
-      <c r="Y1" s="43" t="n">
+      <c r="Y1" s="44" t="n">
         <v>44528</v>
       </c>
-      <c r="Z1" s="43" t="n">
+      <c r="Z1" s="44" t="n">
         <v>44529</v>
       </c>
-      <c r="AA1" s="43" t="n">
+      <c r="AA1" s="44" t="n">
         <v>44530</v>
       </c>
-      <c r="AB1" s="43" t="n">
+      <c r="AB1" s="44" t="n">
         <v>44531</v>
       </c>
-      <c r="AC1" s="43" t="n">
+      <c r="AC1" s="44" t="n">
         <v>44532</v>
       </c>
-      <c r="AD1" s="43" t="n">
+      <c r="AD1" s="44" t="n">
         <v>44533</v>
       </c>
-      <c r="AE1" s="43" t="n">
+      <c r="AE1" s="44" t="n">
         <v>44534</v>
       </c>
-      <c r="AF1" s="43" t="n">
+      <c r="AF1" s="44" t="n">
         <v>44535</v>
       </c>
-      <c r="AG1" s="43" t="n">
+      <c r="AG1" s="44" t="n">
         <v>44536</v>
       </c>
-      <c r="AH1" s="43" t="n">
+      <c r="AH1" s="44" t="n">
         <v>44537</v>
       </c>
-      <c r="AI1" s="43" t="n">
+      <c r="AI1" s="44" t="n">
         <v>44538</v>
       </c>
-      <c r="AJ1" s="43" t="n">
+      <c r="AJ1" s="44" t="n">
         <v>44539</v>
       </c>
-      <c r="AK1" s="43" t="n">
+      <c r="AK1" s="44" t="n">
         <v>44540</v>
       </c>
-      <c r="AL1" s="43" t="n">
+      <c r="AL1" s="44" t="n">
         <v>44541</v>
       </c>
-      <c r="AM1" s="43" t="n">
+      <c r="AM1" s="44" t="n">
         <v>44542</v>
       </c>
-      <c r="AN1" s="43" t="n">
+      <c r="AN1" s="44" t="n">
         <v>44543</v>
       </c>
-      <c r="AO1" s="43" t="n">
+      <c r="AO1" s="44" t="n">
         <v>44544</v>
       </c>
-      <c r="AP1" s="43" t="n">
+      <c r="AP1" s="44" t="n">
         <v>44545</v>
       </c>
-      <c r="AQ1" s="43" t="n">
+      <c r="AQ1" s="44" t="n">
         <v>44546</v>
       </c>
-      <c r="AR1" s="43" t="n">
+      <c r="AR1" s="44" t="n">
         <v>44547</v>
       </c>
-      <c r="AS1" s="43" t="n">
+      <c r="AS1" s="44" t="n">
         <v>44548</v>
       </c>
-      <c r="AT1" s="43" t="n">
+      <c r="AT1" s="44" t="n">
         <v>44549</v>
       </c>
-      <c r="AU1" s="43" t="n">
+      <c r="AU1" s="44" t="n">
         <v>44550</v>
       </c>
-      <c r="AV1" s="43" t="n">
+      <c r="AV1" s="44" t="n">
         <v>44551</v>
       </c>
-      <c r="AW1" s="43" t="n">
+      <c r="AW1" s="44" t="n">
         <v>44552</v>
       </c>
-      <c r="AX1" s="43" t="n">
+      <c r="AX1" s="44" t="n">
         <v>44553</v>
       </c>
-      <c r="AY1" s="44" t="n">
+      <c r="AY1" s="45" t="n">
         <v>44554</v>
       </c>
-      <c r="AZ1" s="43" t="n">
+      <c r="AZ1" s="44" t="n">
         <v>44555</v>
       </c>
-      <c r="BA1" s="43" t="n">
+      <c r="BA1" s="44" t="n">
         <v>44556</v>
       </c>
-      <c r="BB1" s="43" t="n">
+      <c r="BB1" s="44" t="n">
         <v>44557</v>
       </c>
-      <c r="BC1" s="43" t="n">
+      <c r="BC1" s="44" t="n">
         <v>44558</v>
       </c>
-      <c r="BD1" s="43" t="n">
+      <c r="BD1" s="44" t="n">
         <v>44559</v>
       </c>
-      <c r="BE1" s="43" t="n">
+      <c r="BE1" s="44" t="n">
         <v>44560</v>
       </c>
-      <c r="BF1" s="44" t="n">
+      <c r="BF1" s="45" t="n">
         <v>44561</v>
       </c>
-      <c r="BG1" s="43" t="n">
+      <c r="BG1" s="44" t="n">
         <v>44562</v>
       </c>
-      <c r="BH1" s="43" t="n">
+      <c r="BH1" s="44" t="n">
         <v>44563</v>
       </c>
-      <c r="BI1" s="43" t="n">
+      <c r="BI1" s="44" t="n">
         <v>44564</v>
       </c>
-      <c r="BJ1" s="43" t="n">
+      <c r="BJ1" s="44" t="n">
         <v>44565</v>
       </c>
-      <c r="BK1" s="43" t="n">
+      <c r="BK1" s="44" t="n">
         <v>44566</v>
       </c>
-      <c r="BL1" s="44" t="n">
+      <c r="BL1" s="45" t="n">
         <v>44567</v>
       </c>
-      <c r="BM1" s="43" t="n">
+      <c r="BM1" s="44" t="n">
         <v>44568</v>
       </c>
       <c r="BN1" s="21" t="s">
@@ -4753,78 +4911,78 @@
         <f aca="false">Netzplan!I2</f>
         <v>1</v>
       </c>
-      <c r="J2" s="45" t="n">
+      <c r="J2" s="46" t="n">
         <f aca="false">Netzplan!J2</f>
         <v>5</v>
       </c>
-      <c r="K2" s="46" t="n">
+      <c r="K2" s="47" t="n">
         <f aca="false">SUM(L2:BM2)</f>
         <v>5</v>
       </c>
-      <c r="L2" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="48"/>
-      <c r="AS2" s="48"/>
-      <c r="AT2" s="48"/>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="48"/>
-      <c r="BB2" s="48"/>
-      <c r="BC2" s="48"/>
-      <c r="BD2" s="48"/>
-      <c r="BE2" s="48"/>
-      <c r="BF2" s="49"/>
-      <c r="BG2" s="48"/>
-      <c r="BH2" s="48"/>
-      <c r="BI2" s="48"/>
-      <c r="BJ2" s="48"/>
-      <c r="BK2" s="48"/>
-      <c r="BL2" s="49"/>
-      <c r="BM2" s="48"/>
+      <c r="L2" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="49"/>
+      <c r="BB2" s="49"/>
+      <c r="BC2" s="49"/>
+      <c r="BD2" s="49"/>
+      <c r="BE2" s="49"/>
+      <c r="BF2" s="50"/>
+      <c r="BG2" s="49"/>
+      <c r="BH2" s="49"/>
+      <c r="BI2" s="49"/>
+      <c r="BJ2" s="49"/>
+      <c r="BK2" s="49"/>
+      <c r="BL2" s="50"/>
+      <c r="BM2" s="49"/>
       <c r="BN2" s="21" t="s">
         <v>60</v>
       </c>
@@ -4856,70 +5014,70 @@
         <f aca="false">Netzplan!I3</f>
         <v>1</v>
       </c>
-      <c r="J3" s="45" t="n">
+      <c r="J3" s="46" t="n">
         <f aca="false">Netzplan!J3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="46" t="n">
+      <c r="K3" s="47" t="n">
         <f aca="false">SUM(L3:BM3)</f>
         <v>1</v>
       </c>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="48"/>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="48"/>
-      <c r="AP3" s="48"/>
-      <c r="AQ3" s="48"/>
-      <c r="AR3" s="48"/>
-      <c r="AS3" s="48"/>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="48"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="48"/>
-      <c r="BA3" s="48"/>
-      <c r="BB3" s="48"/>
-      <c r="BC3" s="48"/>
-      <c r="BD3" s="48"/>
-      <c r="BE3" s="48"/>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="48"/>
-      <c r="BH3" s="48"/>
-      <c r="BI3" s="48"/>
-      <c r="BJ3" s="48"/>
-      <c r="BK3" s="48"/>
-      <c r="BL3" s="49"/>
-      <c r="BM3" s="48"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="49"/>
+      <c r="AT3" s="49"/>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49"/>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49"/>
+      <c r="BF3" s="50"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49"/>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="49"/>
+      <c r="BL3" s="50"/>
+      <c r="BM3" s="49"/>
       <c r="BN3" s="21" t="s">
         <v>61</v>
       </c>
@@ -4951,76 +5109,76 @@
         <f aca="false">Netzplan!I4</f>
         <v>1</v>
       </c>
-      <c r="J4" s="45" t="n">
+      <c r="J4" s="46" t="n">
         <f aca="false">Netzplan!J4</f>
         <v>4</v>
       </c>
-      <c r="K4" s="46" t="n">
+      <c r="K4" s="47" t="n">
         <f aca="false">SUM(L4:BM4)</f>
         <v>4</v>
       </c>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48"/>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="48"/>
-      <c r="AP4" s="48"/>
-      <c r="AQ4" s="48"/>
-      <c r="AR4" s="48"/>
-      <c r="AS4" s="48"/>
-      <c r="AT4" s="48"/>
-      <c r="AU4" s="48"/>
-      <c r="AV4" s="48"/>
-      <c r="AW4" s="48"/>
-      <c r="AX4" s="48"/>
-      <c r="AY4" s="49"/>
-      <c r="AZ4" s="48"/>
-      <c r="BA4" s="48"/>
-      <c r="BB4" s="48"/>
-      <c r="BC4" s="48"/>
-      <c r="BD4" s="48"/>
-      <c r="BE4" s="48"/>
-      <c r="BF4" s="49"/>
-      <c r="BG4" s="48"/>
-      <c r="BH4" s="48"/>
-      <c r="BI4" s="48"/>
-      <c r="BJ4" s="48"/>
-      <c r="BK4" s="48"/>
-      <c r="BL4" s="49"/>
-      <c r="BM4" s="48"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49"/>
+      <c r="AL4" s="49"/>
+      <c r="AM4" s="49"/>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="49"/>
+      <c r="AP4" s="49"/>
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="49"/>
+      <c r="AS4" s="49"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="49"/>
+      <c r="AX4" s="49"/>
+      <c r="AY4" s="50"/>
+      <c r="AZ4" s="49"/>
+      <c r="BA4" s="49"/>
+      <c r="BB4" s="49"/>
+      <c r="BC4" s="49"/>
+      <c r="BD4" s="49"/>
+      <c r="BE4" s="49"/>
+      <c r="BF4" s="50"/>
+      <c r="BG4" s="49"/>
+      <c r="BH4" s="49"/>
+      <c r="BI4" s="49"/>
+      <c r="BJ4" s="49"/>
+      <c r="BK4" s="49"/>
+      <c r="BL4" s="50"/>
+      <c r="BM4" s="49"/>
       <c r="BN4" s="21" t="s">
         <v>61</v>
       </c>
@@ -5052,74 +5210,74 @@
         <f aca="false">Netzplan!I5</f>
         <v>1</v>
       </c>
-      <c r="J5" s="45" t="n">
+      <c r="J5" s="46" t="n">
         <f aca="false">Netzplan!J5</f>
         <v>3</v>
       </c>
-      <c r="K5" s="46" t="n">
+      <c r="K5" s="47" t="n">
         <f aca="false">SUM(L5:BM5)</f>
         <v>3</v>
       </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="48"/>
-      <c r="AK5" s="48"/>
-      <c r="AL5" s="48"/>
-      <c r="AM5" s="48"/>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="48"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="48"/>
-      <c r="AR5" s="48"/>
-      <c r="AS5" s="48"/>
-      <c r="AT5" s="48"/>
-      <c r="AU5" s="48"/>
-      <c r="AV5" s="48"/>
-      <c r="AW5" s="48"/>
-      <c r="AX5" s="48"/>
-      <c r="AY5" s="49"/>
-      <c r="AZ5" s="48"/>
-      <c r="BA5" s="48"/>
-      <c r="BB5" s="48"/>
-      <c r="BC5" s="48"/>
-      <c r="BD5" s="48"/>
-      <c r="BE5" s="48"/>
-      <c r="BF5" s="49"/>
-      <c r="BG5" s="48"/>
-      <c r="BH5" s="48"/>
-      <c r="BI5" s="48"/>
-      <c r="BJ5" s="48"/>
-      <c r="BK5" s="48"/>
-      <c r="BL5" s="49"/>
-      <c r="BM5" s="48"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49"/>
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="49"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="49"/>
+      <c r="AP5" s="49"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="49"/>
+      <c r="AU5" s="49"/>
+      <c r="AV5" s="49"/>
+      <c r="AW5" s="49"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="49"/>
+      <c r="BA5" s="49"/>
+      <c r="BB5" s="49"/>
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="49"/>
+      <c r="BE5" s="49"/>
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="49"/>
+      <c r="BH5" s="49"/>
+      <c r="BI5" s="49"/>
+      <c r="BJ5" s="49"/>
+      <c r="BK5" s="49"/>
+      <c r="BL5" s="50"/>
+      <c r="BM5" s="49"/>
       <c r="BN5" s="21" t="s">
         <v>61</v>
       </c>
@@ -5151,78 +5309,78 @@
         <f aca="false">Netzplan!I6</f>
         <v>1</v>
       </c>
-      <c r="J6" s="45" t="n">
+      <c r="J6" s="46" t="n">
         <f aca="false">Netzplan!J6</f>
         <v>7</v>
       </c>
-      <c r="K6" s="46" t="n">
+      <c r="K6" s="47" t="n">
         <f aca="false">SUM(L6:BM6)</f>
         <v>5</v>
       </c>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48"/>
-      <c r="AH6" s="48"/>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="48"/>
-      <c r="AK6" s="48"/>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="48"/>
-      <c r="AN6" s="48"/>
-      <c r="AO6" s="48"/>
-      <c r="AP6" s="48"/>
-      <c r="AQ6" s="48"/>
-      <c r="AR6" s="48"/>
-      <c r="AS6" s="48"/>
-      <c r="AT6" s="48"/>
-      <c r="AU6" s="48"/>
-      <c r="AV6" s="48"/>
-      <c r="AW6" s="48"/>
-      <c r="AX6" s="48"/>
-      <c r="AY6" s="49"/>
-      <c r="AZ6" s="48"/>
-      <c r="BA6" s="48"/>
-      <c r="BB6" s="48"/>
-      <c r="BC6" s="48"/>
-      <c r="BD6" s="48"/>
-      <c r="BE6" s="48"/>
-      <c r="BF6" s="49"/>
-      <c r="BG6" s="48"/>
-      <c r="BH6" s="48"/>
-      <c r="BI6" s="48"/>
-      <c r="BJ6" s="48"/>
-      <c r="BK6" s="48"/>
-      <c r="BL6" s="49"/>
-      <c r="BM6" s="48"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="49"/>
+      <c r="AL6" s="49"/>
+      <c r="AM6" s="49"/>
+      <c r="AN6" s="49"/>
+      <c r="AO6" s="49"/>
+      <c r="AP6" s="49"/>
+      <c r="AQ6" s="49"/>
+      <c r="AR6" s="49"/>
+      <c r="AS6" s="49"/>
+      <c r="AT6" s="49"/>
+      <c r="AU6" s="49"/>
+      <c r="AV6" s="49"/>
+      <c r="AW6" s="49"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="50"/>
+      <c r="AZ6" s="49"/>
+      <c r="BA6" s="49"/>
+      <c r="BB6" s="49"/>
+      <c r="BC6" s="49"/>
+      <c r="BD6" s="49"/>
+      <c r="BE6" s="49"/>
+      <c r="BF6" s="50"/>
+      <c r="BG6" s="49"/>
+      <c r="BH6" s="49"/>
+      <c r="BI6" s="49"/>
+      <c r="BJ6" s="49"/>
+      <c r="BK6" s="49"/>
+      <c r="BL6" s="50"/>
+      <c r="BM6" s="49"/>
       <c r="BN6" s="21" t="s">
         <v>62</v>
       </c>
@@ -5254,70 +5412,70 @@
         <f aca="false">Netzplan!I7</f>
         <v>1</v>
       </c>
-      <c r="J7" s="45" t="n">
+      <c r="J7" s="46" t="n">
         <f aca="false">Netzplan!J7</f>
         <v>1</v>
       </c>
-      <c r="K7" s="46" t="n">
+      <c r="K7" s="47" t="n">
         <f aca="false">SUM(L7:BM7)</f>
         <v>1</v>
       </c>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="48"/>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="48"/>
-      <c r="AH7" s="48"/>
-      <c r="AI7" s="48"/>
-      <c r="AJ7" s="48"/>
-      <c r="AK7" s="48"/>
-      <c r="AL7" s="48"/>
-      <c r="AM7" s="48"/>
-      <c r="AN7" s="48"/>
-      <c r="AO7" s="48"/>
-      <c r="AP7" s="48"/>
-      <c r="AQ7" s="48"/>
-      <c r="AR7" s="48"/>
-      <c r="AS7" s="48"/>
-      <c r="AT7" s="48"/>
-      <c r="AU7" s="48"/>
-      <c r="AV7" s="48"/>
-      <c r="AW7" s="48"/>
-      <c r="AX7" s="48"/>
-      <c r="AY7" s="49"/>
-      <c r="AZ7" s="48"/>
-      <c r="BA7" s="48"/>
-      <c r="BB7" s="51"/>
-      <c r="BC7" s="51"/>
-      <c r="BD7" s="51"/>
-      <c r="BE7" s="51"/>
-      <c r="BF7" s="49"/>
-      <c r="BG7" s="48"/>
-      <c r="BH7" s="48"/>
-      <c r="BI7" s="48"/>
-      <c r="BJ7" s="48"/>
-      <c r="BK7" s="48"/>
-      <c r="BL7" s="49"/>
-      <c r="BM7" s="48"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="49"/>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="49"/>
+      <c r="AN7" s="49"/>
+      <c r="AO7" s="49"/>
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49"/>
+      <c r="AW7" s="49"/>
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="50"/>
+      <c r="AZ7" s="49"/>
+      <c r="BA7" s="49"/>
+      <c r="BB7" s="52"/>
+      <c r="BC7" s="52"/>
+      <c r="BD7" s="52"/>
+      <c r="BE7" s="52"/>
+      <c r="BF7" s="50"/>
+      <c r="BG7" s="49"/>
+      <c r="BH7" s="49"/>
+      <c r="BI7" s="49"/>
+      <c r="BJ7" s="49"/>
+      <c r="BK7" s="49"/>
+      <c r="BL7" s="50"/>
+      <c r="BM7" s="49"/>
       <c r="BN7" s="21" t="s">
         <v>60</v>
       </c>
@@ -5349,984 +5507,1189 @@
         <f aca="false">Netzplan!I8</f>
         <v>1</v>
       </c>
-      <c r="J8" s="45" t="n">
+      <c r="J8" s="46" t="n">
         <f aca="false">Netzplan!J8</f>
         <v>3</v>
       </c>
-      <c r="K8" s="46" t="n">
+      <c r="K8" s="47" t="n">
         <f aca="false">SUM(L8:BM8)</f>
         <v>3</v>
       </c>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="W8" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="48"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="48"/>
-      <c r="AK8" s="48"/>
-      <c r="AL8" s="48"/>
-      <c r="AM8" s="48"/>
-      <c r="AN8" s="48"/>
-      <c r="AO8" s="48"/>
-      <c r="AP8" s="48"/>
-      <c r="AQ8" s="48"/>
-      <c r="AR8" s="48"/>
-      <c r="AS8" s="48"/>
-      <c r="AT8" s="48"/>
-      <c r="AU8" s="48"/>
-      <c r="AV8" s="48"/>
-      <c r="AW8" s="48"/>
-      <c r="AX8" s="48"/>
-      <c r="AY8" s="49"/>
-      <c r="AZ8" s="48"/>
-      <c r="BA8" s="48"/>
-      <c r="BB8" s="48"/>
-      <c r="BC8" s="48"/>
-      <c r="BD8" s="48"/>
-      <c r="BE8" s="48"/>
-      <c r="BF8" s="49"/>
-      <c r="BG8" s="48"/>
-      <c r="BH8" s="48"/>
-      <c r="BI8" s="48"/>
-      <c r="BJ8" s="48"/>
-      <c r="BK8" s="48"/>
-      <c r="BL8" s="49"/>
-      <c r="BM8" s="48"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="49"/>
+      <c r="AK8" s="49"/>
+      <c r="AL8" s="49"/>
+      <c r="AM8" s="49"/>
+      <c r="AN8" s="49"/>
+      <c r="AO8" s="49"/>
+      <c r="AP8" s="49"/>
+      <c r="AQ8" s="49"/>
+      <c r="AR8" s="49"/>
+      <c r="AS8" s="49"/>
+      <c r="AT8" s="49"/>
+      <c r="AU8" s="49"/>
+      <c r="AV8" s="49"/>
+      <c r="AW8" s="49"/>
+      <c r="AX8" s="49"/>
+      <c r="AY8" s="50"/>
+      <c r="AZ8" s="49"/>
+      <c r="BA8" s="49"/>
+      <c r="BB8" s="49"/>
+      <c r="BC8" s="49"/>
+      <c r="BD8" s="49"/>
+      <c r="BE8" s="49"/>
+      <c r="BF8" s="50"/>
+      <c r="BG8" s="49"/>
+      <c r="BH8" s="49"/>
+      <c r="BI8" s="49"/>
+      <c r="BJ8" s="49"/>
+      <c r="BK8" s="49"/>
+      <c r="BL8" s="50"/>
+      <c r="BM8" s="49"/>
       <c r="BN8" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="31" t="n">
-        <f aca="false">Netzplan!G9</f>
-        <v>2</v>
-      </c>
-      <c r="H9" s="31" t="str">
-        <f aca="false">Netzplan!H9</f>
-        <v>1</v>
-      </c>
-      <c r="I9" s="32" t="n">
-        <f aca="false">Netzplan!I9</f>
-        <v>1</v>
-      </c>
-      <c r="J9" s="45" t="n">
-        <f aca="false">Netzplan!J9</f>
-        <v>2</v>
-      </c>
-      <c r="K9" s="46" t="n">
-        <f aca="false">SUM(L9:BM9)</f>
-        <v>2</v>
-      </c>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
       <c r="T9" s="48"/>
       <c r="U9" s="48"/>
       <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="48"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI9" s="48"/>
-      <c r="AJ9" s="48"/>
-      <c r="AK9" s="48"/>
-      <c r="AL9" s="48"/>
-      <c r="AM9" s="48"/>
-      <c r="AN9" s="48"/>
-      <c r="AO9" s="48"/>
-      <c r="AP9" s="48"/>
-      <c r="AQ9" s="48"/>
-      <c r="AR9" s="48"/>
-      <c r="AS9" s="48"/>
-      <c r="AT9" s="48"/>
-      <c r="AU9" s="48"/>
-      <c r="AV9" s="48"/>
-      <c r="AW9" s="48"/>
-      <c r="AX9" s="48"/>
-      <c r="AY9" s="49"/>
-      <c r="AZ9" s="48"/>
-      <c r="BA9" s="48"/>
-      <c r="BB9" s="48"/>
-      <c r="BC9" s="48"/>
-      <c r="BD9" s="48"/>
-      <c r="BE9" s="48"/>
-      <c r="BF9" s="49"/>
-      <c r="BG9" s="48"/>
-      <c r="BH9" s="48"/>
-      <c r="BI9" s="48"/>
-      <c r="BJ9" s="48"/>
-      <c r="BK9" s="48"/>
-      <c r="BL9" s="49"/>
-      <c r="BM9" s="48"/>
-      <c r="BN9" s="21" t="s">
-        <v>63</v>
-      </c>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="49"/>
+      <c r="AK9" s="49"/>
+      <c r="AL9" s="49"/>
+      <c r="AM9" s="49"/>
+      <c r="AN9" s="49"/>
+      <c r="AO9" s="49"/>
+      <c r="AP9" s="49"/>
+      <c r="AQ9" s="49"/>
+      <c r="AR9" s="49"/>
+      <c r="AS9" s="49"/>
+      <c r="AT9" s="49"/>
+      <c r="AU9" s="49"/>
+      <c r="AV9" s="49"/>
+      <c r="AW9" s="49"/>
+      <c r="AX9" s="49"/>
+      <c r="AY9" s="50"/>
+      <c r="AZ9" s="49"/>
+      <c r="BA9" s="49"/>
+      <c r="BB9" s="49"/>
+      <c r="BC9" s="49"/>
+      <c r="BD9" s="49"/>
+      <c r="BE9" s="49"/>
+      <c r="BF9" s="50"/>
+      <c r="BG9" s="49"/>
+      <c r="BH9" s="49"/>
+      <c r="BI9" s="49"/>
+      <c r="BJ9" s="49"/>
+      <c r="BK9" s="49"/>
+      <c r="BL9" s="50"/>
+      <c r="BM9" s="49"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="36" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="31" t="n">
-        <f aca="false">Netzplan!G10</f>
+        <f aca="false">Netzplan!G9</f>
         <v>2</v>
       </c>
       <c r="H10" s="31" t="str">
-        <f aca="false">Netzplan!H10</f>
+        <f aca="false">Netzplan!H9</f>
         <v>1</v>
       </c>
       <c r="I10" s="32" t="n">
-        <f aca="false">Netzplan!I10</f>
-        <v>1</v>
-      </c>
-      <c r="J10" s="45" t="n">
-        <f aca="false">Netzplan!J10</f>
+        <f aca="false">Netzplan!I9</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="46" t="n">
+        <f aca="false">Netzplan!J9</f>
         <v>2</v>
       </c>
-      <c r="K10" s="46" t="n">
+      <c r="K10" s="47" t="n">
         <f aca="false">SUM(L10:BM10)</f>
         <v>2</v>
       </c>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
       <c r="AD10" s="48"/>
-      <c r="AE10" s="48"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="48"/>
-      <c r="AH10" s="47"/>
-      <c r="AI10" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK10" s="48"/>
-      <c r="AL10" s="48"/>
-      <c r="AM10" s="48"/>
-      <c r="AN10" s="48"/>
-      <c r="AO10" s="48"/>
-      <c r="AP10" s="48"/>
-      <c r="AQ10" s="48"/>
-      <c r="AR10" s="48"/>
-      <c r="AS10" s="48"/>
-      <c r="AT10" s="48"/>
-      <c r="AU10" s="48"/>
-      <c r="AV10" s="48"/>
-      <c r="AW10" s="48"/>
-      <c r="AX10" s="48"/>
-      <c r="AY10" s="49"/>
-      <c r="AZ10" s="48"/>
-      <c r="BA10" s="48"/>
-      <c r="BB10" s="48"/>
-      <c r="BC10" s="48"/>
-      <c r="BD10" s="48"/>
-      <c r="BE10" s="48"/>
-      <c r="BF10" s="49"/>
-      <c r="BG10" s="48"/>
-      <c r="BH10" s="48"/>
-      <c r="BI10" s="48"/>
-      <c r="BJ10" s="48"/>
-      <c r="BK10" s="48"/>
-      <c r="BL10" s="49"/>
-      <c r="BM10" s="48"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="49"/>
+      <c r="AK10" s="49"/>
+      <c r="AL10" s="49"/>
+      <c r="AM10" s="49"/>
+      <c r="AN10" s="49"/>
+      <c r="AO10" s="49"/>
+      <c r="AP10" s="49"/>
+      <c r="AQ10" s="49"/>
+      <c r="AR10" s="49"/>
+      <c r="AS10" s="49"/>
+      <c r="AT10" s="49"/>
+      <c r="AU10" s="49"/>
+      <c r="AV10" s="49"/>
+      <c r="AW10" s="49"/>
+      <c r="AX10" s="49"/>
+      <c r="AY10" s="50"/>
+      <c r="AZ10" s="49"/>
+      <c r="BA10" s="49"/>
+      <c r="BB10" s="49"/>
+      <c r="BC10" s="49"/>
+      <c r="BD10" s="49"/>
+      <c r="BE10" s="49"/>
+      <c r="BF10" s="50"/>
+      <c r="BG10" s="49"/>
+      <c r="BH10" s="49"/>
+      <c r="BI10" s="49"/>
+      <c r="BJ10" s="49"/>
+      <c r="BK10" s="49"/>
+      <c r="BL10" s="50"/>
+      <c r="BM10" s="49"/>
       <c r="BN10" s="21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G11" s="31" t="n">
-        <f aca="false">Netzplan!G11</f>
+        <f aca="false">Netzplan!G10</f>
         <v>2</v>
       </c>
       <c r="H11" s="31" t="str">
-        <f aca="false">Netzplan!H11</f>
+        <f aca="false">Netzplan!H10</f>
         <v>1</v>
       </c>
       <c r="I11" s="32" t="n">
-        <f aca="false">Netzplan!I11</f>
-        <v>1</v>
-      </c>
-      <c r="J11" s="45" t="n">
-        <f aca="false">Netzplan!J11</f>
+        <f aca="false">Netzplan!I10</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="46" t="n">
+        <f aca="false">Netzplan!J10</f>
         <v>2</v>
       </c>
-      <c r="K11" s="46" t="n">
+      <c r="K11" s="47" t="n">
         <f aca="false">SUM(L11:BM11)</f>
         <v>2</v>
       </c>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
       <c r="AH11" s="48"/>
-      <c r="AJ11" s="47"/>
-      <c r="AK11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL11" s="48"/>
-      <c r="AM11" s="48"/>
-      <c r="AN11" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO11" s="48"/>
-      <c r="AP11" s="48"/>
-      <c r="AQ11" s="48"/>
-      <c r="AR11" s="48"/>
-      <c r="AS11" s="48"/>
-      <c r="AT11" s="48"/>
-      <c r="AU11" s="48"/>
-      <c r="AV11" s="48"/>
-      <c r="AW11" s="48"/>
-      <c r="AX11" s="48"/>
-      <c r="AY11" s="49"/>
-      <c r="AZ11" s="48"/>
-      <c r="BA11" s="48"/>
-      <c r="BB11" s="48"/>
-      <c r="BC11" s="48"/>
-      <c r="BD11" s="48"/>
-      <c r="BE11" s="48"/>
-      <c r="BF11" s="49"/>
-      <c r="BG11" s="48"/>
-      <c r="BH11" s="48"/>
-      <c r="BI11" s="48"/>
-      <c r="BJ11" s="48"/>
-      <c r="BK11" s="48"/>
-      <c r="BL11" s="49"/>
-      <c r="BM11" s="48"/>
+      <c r="AI11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="49"/>
+      <c r="AL11" s="49"/>
+      <c r="AM11" s="49"/>
+      <c r="AN11" s="49"/>
+      <c r="AO11" s="49"/>
+      <c r="AP11" s="49"/>
+      <c r="AQ11" s="49"/>
+      <c r="AR11" s="49"/>
+      <c r="AS11" s="49"/>
+      <c r="AT11" s="49"/>
+      <c r="AU11" s="49"/>
+      <c r="AV11" s="49"/>
+      <c r="AW11" s="49"/>
+      <c r="AX11" s="49"/>
+      <c r="AY11" s="50"/>
+      <c r="AZ11" s="49"/>
+      <c r="BA11" s="49"/>
+      <c r="BB11" s="49"/>
+      <c r="BC11" s="49"/>
+      <c r="BD11" s="49"/>
+      <c r="BE11" s="49"/>
+      <c r="BF11" s="50"/>
+      <c r="BG11" s="49"/>
+      <c r="BH11" s="49"/>
+      <c r="BI11" s="49"/>
+      <c r="BJ11" s="49"/>
+      <c r="BK11" s="49"/>
+      <c r="BL11" s="50"/>
+      <c r="BM11" s="49"/>
       <c r="BN11" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="36" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G12" s="31" t="n">
-        <f aca="false">Netzplan!G12</f>
-        <v>10</v>
+        <f aca="false">Netzplan!G11</f>
+        <v>2</v>
       </c>
       <c r="H12" s="31" t="str">
-        <f aca="false">Netzplan!H12</f>
+        <f aca="false">Netzplan!H11</f>
         <v>1</v>
       </c>
       <c r="I12" s="32" t="n">
-        <f aca="false">Netzplan!I12</f>
-        <v>1</v>
-      </c>
-      <c r="J12" s="45" t="n">
-        <f aca="false">Netzplan!J12</f>
-        <v>10</v>
-      </c>
-      <c r="K12" s="46" t="n">
+        <f aca="false">Netzplan!I11</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="46" t="n">
+        <f aca="false">Netzplan!J11</f>
+        <v>2</v>
+      </c>
+      <c r="K12" s="47" t="n">
         <f aca="false">SUM(L12:BM12)</f>
-        <v>20</v>
-      </c>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL12" s="48"/>
-      <c r="AM12" s="48"/>
-      <c r="AN12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS12" s="48"/>
-      <c r="AT12" s="48"/>
-      <c r="AU12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY12" s="49"/>
-      <c r="AZ12" s="48"/>
-      <c r="BA12" s="48"/>
-      <c r="BB12" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC12" s="48"/>
-      <c r="BD12" s="48"/>
-      <c r="BE12" s="48"/>
-      <c r="BF12" s="49"/>
-      <c r="BG12" s="48"/>
-      <c r="BH12" s="48"/>
-      <c r="BJ12" s="48"/>
-      <c r="BK12" s="48"/>
-      <c r="BL12" s="49"/>
-      <c r="BM12" s="48"/>
+        <v>2</v>
+      </c>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="49"/>
+      <c r="AJ12" s="48"/>
+      <c r="AK12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="49"/>
+      <c r="AP12" s="49"/>
+      <c r="AQ12" s="49"/>
+      <c r="AR12" s="49"/>
+      <c r="AS12" s="49"/>
+      <c r="AT12" s="49"/>
+      <c r="AU12" s="49"/>
+      <c r="AV12" s="49"/>
+      <c r="AW12" s="49"/>
+      <c r="AX12" s="49"/>
+      <c r="AY12" s="50"/>
+      <c r="AZ12" s="49"/>
+      <c r="BA12" s="49"/>
+      <c r="BB12" s="49"/>
+      <c r="BC12" s="49"/>
+      <c r="BD12" s="49"/>
+      <c r="BE12" s="49"/>
+      <c r="BF12" s="50"/>
+      <c r="BG12" s="49"/>
+      <c r="BH12" s="49"/>
+      <c r="BI12" s="49"/>
+      <c r="BJ12" s="49"/>
+      <c r="BK12" s="49"/>
+      <c r="BL12" s="50"/>
+      <c r="BM12" s="49"/>
       <c r="BN12" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="36" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G13" s="31" t="n">
-        <f aca="false">Netzplan!G13</f>
-        <v>3</v>
+        <f aca="false">Netzplan!G12</f>
+        <v>10</v>
       </c>
       <c r="H13" s="31" t="str">
-        <f aca="false">Netzplan!H13</f>
+        <f aca="false">Netzplan!H12</f>
         <v>1</v>
       </c>
       <c r="I13" s="32" t="n">
-        <f aca="false">Netzplan!I13</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="45" t="n">
-        <f aca="false">Netzplan!J13</f>
-        <v>3</v>
-      </c>
-      <c r="K13" s="46" t="n">
+        <f aca="false">Netzplan!I12</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="46" t="n">
+        <f aca="false">Netzplan!J12</f>
+        <v>10</v>
+      </c>
+      <c r="K13" s="47" t="n">
         <f aca="false">SUM(L13:BM13)</f>
-        <v>3</v>
-      </c>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
+        <v>20</v>
+      </c>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
       <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="48"/>
-      <c r="AL13" s="48"/>
-      <c r="AM13" s="48"/>
-      <c r="AN13" s="47"/>
-      <c r="AO13" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="47" t="n">
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="49"/>
+      <c r="AM13" s="49"/>
+      <c r="AN13" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="48" t="n">
         <v>1</v>
       </c>
       <c r="AQ13" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="AR13" s="48"/>
-      <c r="AS13" s="48"/>
-      <c r="AT13" s="48"/>
-      <c r="AU13" s="48"/>
-      <c r="AV13" s="48"/>
-      <c r="AW13" s="48"/>
-      <c r="AX13" s="48"/>
-      <c r="AY13" s="49"/>
-      <c r="AZ13" s="48"/>
-      <c r="BA13" s="48"/>
-      <c r="BB13" s="48"/>
-      <c r="BC13" s="48"/>
-      <c r="BD13" s="48"/>
-      <c r="BE13" s="48"/>
-      <c r="BF13" s="49"/>
-      <c r="BG13" s="48"/>
-      <c r="BH13" s="48"/>
-      <c r="BI13" s="48"/>
-      <c r="BJ13" s="48"/>
-      <c r="BK13" s="48"/>
-      <c r="BL13" s="49"/>
-      <c r="BM13" s="48"/>
+      <c r="AR13" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="49"/>
+      <c r="AT13" s="49"/>
+      <c r="AU13" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="50"/>
+      <c r="AZ13" s="49"/>
+      <c r="BA13" s="49"/>
+      <c r="BB13" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC13" s="49"/>
+      <c r="BD13" s="49"/>
+      <c r="BE13" s="49"/>
+      <c r="BF13" s="50"/>
+      <c r="BG13" s="49"/>
+      <c r="BH13" s="49"/>
+      <c r="BJ13" s="49"/>
+      <c r="BK13" s="49"/>
+      <c r="BL13" s="50"/>
+      <c r="BM13" s="49"/>
       <c r="BN13" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="36" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G14" s="31" t="n">
-        <f aca="false">Netzplan!G14</f>
+        <f aca="false">Netzplan!G13</f>
         <v>3</v>
       </c>
       <c r="H14" s="31" t="str">
-        <f aca="false">Netzplan!H14</f>
+        <f aca="false">Netzplan!H13</f>
         <v>1</v>
       </c>
       <c r="I14" s="32" t="n">
-        <f aca="false">Netzplan!I14</f>
-        <v>1</v>
-      </c>
-      <c r="J14" s="45" t="n">
-        <f aca="false">Netzplan!J14</f>
+        <f aca="false">Netzplan!I13</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="46" t="n">
+        <f aca="false">Netzplan!J13</f>
         <v>3</v>
       </c>
-      <c r="K14" s="46" t="n">
+      <c r="K14" s="47" t="n">
         <f aca="false">SUM(L14:BM14)</f>
         <v>3</v>
       </c>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="48"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="48"/>
-      <c r="AK14" s="48"/>
-      <c r="AL14" s="48"/>
-      <c r="AM14" s="48"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="49"/>
+      <c r="AL14" s="49"/>
+      <c r="AM14" s="49"/>
       <c r="AN14" s="48"/>
-      <c r="AO14" s="48"/>
-      <c r="AQ14" s="47"/>
-      <c r="AR14" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS14" s="48"/>
-      <c r="AT14" s="48"/>
-      <c r="AU14" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV14" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW14" s="48"/>
-      <c r="AX14" s="48"/>
-      <c r="AY14" s="49"/>
-      <c r="AZ14" s="48"/>
-      <c r="BA14" s="48"/>
-      <c r="BB14" s="48"/>
-      <c r="BC14" s="48"/>
-      <c r="BD14" s="48"/>
-      <c r="BE14" s="48"/>
-      <c r="BF14" s="49"/>
-      <c r="BG14" s="48"/>
-      <c r="BH14" s="48"/>
-      <c r="BI14" s="48"/>
-      <c r="BJ14" s="48"/>
-      <c r="BK14" s="48"/>
-      <c r="BL14" s="49"/>
-      <c r="BM14" s="48"/>
+      <c r="AO14" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="49"/>
+      <c r="AS14" s="49"/>
+      <c r="AT14" s="49"/>
+      <c r="AU14" s="49"/>
+      <c r="AV14" s="49"/>
+      <c r="AW14" s="49"/>
+      <c r="AX14" s="49"/>
+      <c r="AY14" s="50"/>
+      <c r="AZ14" s="49"/>
+      <c r="BA14" s="49"/>
+      <c r="BB14" s="49"/>
+      <c r="BC14" s="49"/>
+      <c r="BD14" s="49"/>
+      <c r="BE14" s="49"/>
+      <c r="BF14" s="50"/>
+      <c r="BG14" s="49"/>
+      <c r="BH14" s="49"/>
+      <c r="BI14" s="49"/>
+      <c r="BJ14" s="49"/>
+      <c r="BK14" s="49"/>
+      <c r="BL14" s="50"/>
+      <c r="BM14" s="49"/>
       <c r="BN14" s="21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="31" t="n">
+        <f aca="false">Netzplan!G14</f>
+        <v>3</v>
+      </c>
+      <c r="H15" s="31" t="str">
+        <f aca="false">Netzplan!H14</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="32" t="n">
+        <f aca="false">Netzplan!I14</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="46" t="n">
+        <f aca="false">Netzplan!J14</f>
+        <v>3</v>
+      </c>
+      <c r="K15" s="47" t="n">
+        <f aca="false">SUM(L15:BM15)</f>
+        <v>3</v>
+      </c>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+      <c r="AG15" s="49"/>
+      <c r="AH15" s="49"/>
+      <c r="AI15" s="49"/>
+      <c r="AJ15" s="49"/>
+      <c r="AK15" s="49"/>
+      <c r="AL15" s="49"/>
+      <c r="AM15" s="49"/>
+      <c r="AN15" s="49"/>
+      <c r="AO15" s="49"/>
+      <c r="AQ15" s="48"/>
+      <c r="AR15" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="49"/>
+      <c r="AT15" s="49"/>
+      <c r="AU15" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW15" s="49"/>
+      <c r="AX15" s="49"/>
+      <c r="AY15" s="50"/>
+      <c r="AZ15" s="49"/>
+      <c r="BA15" s="49"/>
+      <c r="BB15" s="49"/>
+      <c r="BC15" s="49"/>
+      <c r="BD15" s="49"/>
+      <c r="BE15" s="49"/>
+      <c r="BF15" s="50"/>
+      <c r="BG15" s="49"/>
+      <c r="BH15" s="49"/>
+      <c r="BI15" s="49"/>
+      <c r="BJ15" s="49"/>
+      <c r="BK15" s="49"/>
+      <c r="BL15" s="50"/>
+      <c r="BM15" s="49"/>
+      <c r="BN15" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14"/>
+      <c r="B16" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="49"/>
+      <c r="AD16" s="49"/>
+      <c r="AE16" s="49"/>
+      <c r="AF16" s="49"/>
+      <c r="AG16" s="49"/>
+      <c r="AH16" s="49"/>
+      <c r="AI16" s="49"/>
+      <c r="AJ16" s="49"/>
+      <c r="AK16" s="49"/>
+      <c r="AL16" s="49"/>
+      <c r="AM16" s="49"/>
+      <c r="AN16" s="49"/>
+      <c r="AO16" s="49"/>
+      <c r="AQ16" s="48"/>
+      <c r="AR16" s="48"/>
+      <c r="AS16" s="49"/>
+      <c r="AT16" s="49"/>
+      <c r="AU16" s="48"/>
+      <c r="AV16" s="49"/>
+      <c r="AW16" s="49"/>
+      <c r="AX16" s="49"/>
+      <c r="AY16" s="50"/>
+      <c r="AZ16" s="49"/>
+      <c r="BA16" s="49"/>
+      <c r="BB16" s="49"/>
+      <c r="BC16" s="49"/>
+      <c r="BD16" s="49"/>
+      <c r="BE16" s="49"/>
+      <c r="BF16" s="50"/>
+      <c r="BG16" s="49"/>
+      <c r="BH16" s="49"/>
+      <c r="BI16" s="49"/>
+      <c r="BJ16" s="49"/>
+      <c r="BK16" s="49"/>
+      <c r="BL16" s="50"/>
+      <c r="BM16" s="49"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F17" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="31" t="n">
+      <c r="G17" s="31" t="n">
         <f aca="false">Netzplan!G15</f>
         <v>1</v>
       </c>
-      <c r="H15" s="31" t="str">
+      <c r="H17" s="31" t="str">
         <f aca="false">Netzplan!H15</f>
         <v>1</v>
       </c>
-      <c r="I15" s="32" t="n">
+      <c r="I17" s="32" t="n">
         <f aca="false">Netzplan!I15</f>
         <v>1</v>
       </c>
-      <c r="J15" s="45" t="n">
+      <c r="J17" s="46" t="n">
         <f aca="false">Netzplan!J15</f>
         <v>1</v>
       </c>
-      <c r="K15" s="46" t="n">
-        <f aca="false">SUM(L15:BM15)</f>
-        <v>1</v>
-      </c>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="48"/>
-      <c r="AI15" s="48"/>
-      <c r="AJ15" s="48"/>
-      <c r="AK15" s="48"/>
-      <c r="AL15" s="48"/>
-      <c r="AM15" s="48"/>
-      <c r="AN15" s="48"/>
-      <c r="AO15" s="48"/>
-      <c r="AP15" s="48"/>
-      <c r="AQ15" s="48"/>
-      <c r="AR15" s="48"/>
-      <c r="AS15" s="48"/>
-      <c r="AT15" s="48"/>
-      <c r="AU15" s="48"/>
-      <c r="AV15" s="47"/>
-      <c r="AW15" s="48"/>
-      <c r="AX15" s="48"/>
-      <c r="AY15" s="49"/>
-      <c r="AZ15" s="48"/>
-      <c r="BA15" s="48"/>
-      <c r="BB15" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC15" s="48"/>
-      <c r="BD15" s="48"/>
-      <c r="BE15" s="48"/>
-      <c r="BF15" s="49"/>
-      <c r="BG15" s="48"/>
-      <c r="BH15" s="48"/>
-      <c r="BI15" s="48"/>
-      <c r="BJ15" s="48"/>
-      <c r="BK15" s="48"/>
-      <c r="BL15" s="49"/>
-      <c r="BM15" s="48"/>
-      <c r="BN15" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
+      <c r="K17" s="47" t="n">
+        <f aca="false">SUM(L17:BM17)</f>
+        <v>1</v>
+      </c>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="49"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="49"/>
+      <c r="AG17" s="49"/>
+      <c r="AH17" s="49"/>
+      <c r="AI17" s="49"/>
+      <c r="AJ17" s="49"/>
+      <c r="AK17" s="49"/>
+      <c r="AL17" s="49"/>
+      <c r="AM17" s="49"/>
+      <c r="AN17" s="49"/>
+      <c r="AO17" s="49"/>
+      <c r="AP17" s="49"/>
+      <c r="AQ17" s="49"/>
+      <c r="AR17" s="49"/>
+      <c r="AS17" s="49"/>
+      <c r="AT17" s="49"/>
+      <c r="AU17" s="49"/>
+      <c r="AV17" s="48"/>
+      <c r="AW17" s="49"/>
+      <c r="AX17" s="49"/>
+      <c r="AY17" s="50"/>
+      <c r="AZ17" s="49"/>
+      <c r="BA17" s="49"/>
+      <c r="BB17" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC17" s="49"/>
+      <c r="BD17" s="49"/>
+      <c r="BE17" s="49"/>
+      <c r="BF17" s="50"/>
+      <c r="BG17" s="49"/>
+      <c r="BH17" s="49"/>
+      <c r="BI17" s="49"/>
+      <c r="BJ17" s="49"/>
+      <c r="BK17" s="49"/>
+      <c r="BL17" s="50"/>
+      <c r="BM17" s="49"/>
+      <c r="BN17" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="36" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F18" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="31" t="n">
+      <c r="G18" s="31" t="n">
         <f aca="false">Netzplan!G16</f>
         <v>5</v>
       </c>
-      <c r="H16" s="31" t="str">
+      <c r="H18" s="31" t="str">
         <f aca="false">Netzplan!H16</f>
         <v>1</v>
       </c>
-      <c r="I16" s="32" t="n">
+      <c r="I18" s="32" t="n">
         <f aca="false">Netzplan!I16</f>
         <v>1</v>
       </c>
-      <c r="J16" s="45" t="n">
+      <c r="J18" s="46" t="n">
         <f aca="false">Netzplan!J16</f>
         <v>5</v>
       </c>
-      <c r="K16" s="46" t="n">
-        <f aca="false">SUM(L16:BM16)</f>
+      <c r="K18" s="47" t="n">
+        <f aca="false">SUM(L18:BM18)</f>
         <v>3</v>
       </c>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="48"/>
-      <c r="AI16" s="48"/>
-      <c r="AJ16" s="48"/>
-      <c r="AK16" s="48"/>
-      <c r="AL16" s="48"/>
-      <c r="AM16" s="48"/>
-      <c r="AN16" s="48"/>
-      <c r="AO16" s="48"/>
-      <c r="AP16" s="48"/>
-      <c r="AQ16" s="48"/>
-      <c r="AR16" s="48"/>
-      <c r="AS16" s="48"/>
-      <c r="AT16" s="48"/>
-      <c r="AU16" s="48"/>
-      <c r="AV16" s="48"/>
-      <c r="AW16" s="47"/>
-      <c r="AX16" s="47"/>
-      <c r="AY16" s="49"/>
-      <c r="AZ16" s="48"/>
-      <c r="BA16" s="48"/>
-      <c r="BB16" s="47"/>
-      <c r="BC16" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD16" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE16" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF16" s="49"/>
-      <c r="BG16" s="48"/>
-      <c r="BH16" s="48"/>
-      <c r="BI16" s="48"/>
-      <c r="BK16" s="48"/>
-      <c r="BL16" s="49"/>
-      <c r="BM16" s="48"/>
-      <c r="BN16" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="49"/>
+      <c r="AH18" s="49"/>
+      <c r="AI18" s="49"/>
+      <c r="AJ18" s="49"/>
+      <c r="AK18" s="49"/>
+      <c r="AL18" s="49"/>
+      <c r="AM18" s="49"/>
+      <c r="AN18" s="49"/>
+      <c r="AO18" s="49"/>
+      <c r="AP18" s="49"/>
+      <c r="AQ18" s="49"/>
+      <c r="AR18" s="49"/>
+      <c r="AS18" s="49"/>
+      <c r="AT18" s="49"/>
+      <c r="AU18" s="49"/>
+      <c r="AV18" s="49"/>
+      <c r="AW18" s="48"/>
+      <c r="AX18" s="48"/>
+      <c r="AY18" s="50"/>
+      <c r="AZ18" s="49"/>
+      <c r="BA18" s="49"/>
+      <c r="BB18" s="48"/>
+      <c r="BC18" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD18" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE18" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF18" s="50"/>
+      <c r="BG18" s="49"/>
+      <c r="BH18" s="49"/>
+      <c r="BI18" s="49"/>
+      <c r="BK18" s="49"/>
+      <c r="BL18" s="50"/>
+      <c r="BM18" s="49"/>
+      <c r="BN18" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14"/>
+      <c r="B19" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="49"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="49"/>
+      <c r="AF19" s="49"/>
+      <c r="AG19" s="49"/>
+      <c r="AH19" s="49"/>
+      <c r="AI19" s="49"/>
+      <c r="AJ19" s="49"/>
+      <c r="AK19" s="49"/>
+      <c r="AL19" s="49"/>
+      <c r="AM19" s="49"/>
+      <c r="AN19" s="49"/>
+      <c r="AO19" s="49"/>
+      <c r="AP19" s="49"/>
+      <c r="AQ19" s="49"/>
+      <c r="AR19" s="49"/>
+      <c r="AS19" s="49"/>
+      <c r="AT19" s="49"/>
+      <c r="AU19" s="49"/>
+      <c r="AV19" s="49"/>
+      <c r="AW19" s="48"/>
+      <c r="AX19" s="48"/>
+      <c r="AY19" s="50"/>
+      <c r="AZ19" s="49"/>
+      <c r="BA19" s="49"/>
+      <c r="BB19" s="48"/>
+      <c r="BC19" s="49"/>
+      <c r="BD19" s="49"/>
+      <c r="BE19" s="49"/>
+      <c r="BF19" s="50"/>
+      <c r="BG19" s="49"/>
+      <c r="BH19" s="49"/>
+      <c r="BI19" s="49"/>
+      <c r="BK19" s="49"/>
+      <c r="BL19" s="50"/>
+      <c r="BM19" s="49"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B20" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="38" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40" t="n">
+      <c r="F20" s="39"/>
+      <c r="G20" s="40" t="n">
         <f aca="false">Netzplan!G17</f>
         <v>1</v>
       </c>
-      <c r="H17" s="40" t="str">
+      <c r="H20" s="40" t="str">
         <f aca="false">Netzplan!H17</f>
         <v>1</v>
       </c>
-      <c r="I17" s="52" t="n">
+      <c r="I20" s="53" t="n">
         <f aca="false">Netzplan!I17</f>
         <v>1</v>
       </c>
-      <c r="J17" s="53" t="n">
+      <c r="J20" s="54" t="n">
         <f aca="false">Netzplan!J17</f>
         <v>1</v>
       </c>
-      <c r="K17" s="46" t="n">
-        <f aca="false">SUM(L17:BM17)</f>
-        <v>1</v>
-      </c>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="54"/>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="54"/>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="54"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="54"/>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="54"/>
-      <c r="AJ17" s="54"/>
-      <c r="AK17" s="54"/>
-      <c r="AL17" s="54"/>
-      <c r="AM17" s="54"/>
-      <c r="AN17" s="54"/>
-      <c r="AO17" s="54"/>
-      <c r="AP17" s="54"/>
-      <c r="AQ17" s="54"/>
-      <c r="AR17" s="54"/>
-      <c r="AS17" s="54"/>
-      <c r="AT17" s="54"/>
-      <c r="AU17" s="54"/>
-      <c r="AV17" s="54"/>
-      <c r="AW17" s="54"/>
-      <c r="AX17" s="54"/>
-      <c r="AY17" s="55"/>
-      <c r="AZ17" s="54"/>
-      <c r="BA17" s="54"/>
-      <c r="BB17" s="54"/>
-      <c r="BC17" s="47"/>
-      <c r="BD17" s="54"/>
-      <c r="BE17" s="54"/>
-      <c r="BF17" s="55"/>
-      <c r="BG17" s="54"/>
-      <c r="BH17" s="54"/>
-      <c r="BI17" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ17" s="54"/>
-      <c r="BK17" s="54"/>
-      <c r="BL17" s="55"/>
-      <c r="BM17" s="54"/>
-      <c r="BN17" s="21" t="s">
+      <c r="K20" s="47" t="n">
+        <f aca="false">SUM(L20:BM20)</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="55"/>
+      <c r="AE20" s="55"/>
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="55"/>
+      <c r="AH20" s="55"/>
+      <c r="AI20" s="55"/>
+      <c r="AJ20" s="55"/>
+      <c r="AK20" s="55"/>
+      <c r="AL20" s="55"/>
+      <c r="AM20" s="55"/>
+      <c r="AN20" s="55"/>
+      <c r="AO20" s="55"/>
+      <c r="AP20" s="55"/>
+      <c r="AQ20" s="55"/>
+      <c r="AR20" s="55"/>
+      <c r="AS20" s="55"/>
+      <c r="AT20" s="55"/>
+      <c r="AU20" s="55"/>
+      <c r="AV20" s="55"/>
+      <c r="AW20" s="55"/>
+      <c r="AX20" s="55"/>
+      <c r="AY20" s="56"/>
+      <c r="AZ20" s="55"/>
+      <c r="BA20" s="55"/>
+      <c r="BB20" s="55"/>
+      <c r="BC20" s="48"/>
+      <c r="BD20" s="55"/>
+      <c r="BE20" s="55"/>
+      <c r="BF20" s="56"/>
+      <c r="BG20" s="55"/>
+      <c r="BH20" s="55"/>
+      <c r="BI20" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ20" s="55"/>
+      <c r="BK20" s="55"/>
+      <c r="BL20" s="56"/>
+      <c r="BM20" s="55"/>
+      <c r="BN20" s="21" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -6344,18 +6707,21 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
-  <conditionalFormatting sqref="AV15:BM15 L10:AH12 BF12:BH12 BJ12:BM12 BC17:BM17 BK16:BM16 L13:AJ13 L14:AO14 L15:AT15 L16:AU16 L17:BA17 AI10:BM10 AJ11:BM11 AI12:BA12 AL13:BM13 AQ14:BM14 AW16:BI16 L1:BM9">
+  <conditionalFormatting sqref="AV17:BM17 L11:AH13 BF13:BH13 BJ13:BM13 BC20:BM20 BK18:BM19 L14:AJ14 L15:AO16 L17:AT17 L18:AU19 L20:BA20 AI11:BM11 AJ12:BM12 AI13:BA13 AL14:BM14 AQ15:BM16 AW18:BI19 L1:BM10">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(OR(WEEKDAY(L$1)=7,WEEKDAY(L$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:BM17">
+  <conditionalFormatting sqref="L2:BM20">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K17">
+  <conditionalFormatting sqref="K2:K20">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>IF(K2&lt;&gt;J2,TRUE())</formula>
     </cfRule>
@@ -6367,5 +6733,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>